--- a/doc/design/RFID_ScreenDesign_v1.0.xlsx
+++ b/doc/design/RFID_ScreenDesign_v1.0.xlsx
@@ -307,9 +307,6 @@
   </si>
   <si>
     <t>Range Value</t>
-  </si>
-  <si>
-    <t>Search area</t>
   </si>
   <si>
     <t>Search button</t>
@@ -771,14 +768,17 @@
   <si>
     <t>2. Click nút "Về trang chủ" trên giao diện đang nhập</t>
   </si>
+  <si>
+    <t>Vùng chuyển hướng</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-    <numFmt numFmtId="168" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="44">
     <font>
@@ -2001,6 +2001,14 @@
     <xf numFmtId="0" fontId="28" fillId="24" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="7" borderId="28" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2038,6 +2046,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="7" borderId="24" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="24" xfId="38" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2109,7 +2120,7 @@
     <xf numFmtId="0" fontId="24" fillId="7" borderId="26" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="26" xfId="38" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="26" xfId="38" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2127,17 +2138,23 @@
     <xf numFmtId="0" fontId="41" fillId="31" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="26" xfId="38" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="24" xfId="38" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2228,32 +2245,15 @@
     <xf numFmtId="0" fontId="27" fillId="30" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="24" xfId="38" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="24" xfId="38" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="26" xfId="38" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -3344,6 +3344,61 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>144464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>52226</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18317C08-766A-4B38-ACB1-7A5C93A22DA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="276225" y="3135314"/>
+          <a:ext cx="8439150" cy="1050762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3741,16 +3796,16 @@
         <v>42781</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>200</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3901,232 +3956,232 @@
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:48" ht="12.2" customHeight="1">
-      <c r="A1" s="127" t="s">
-        <v>194</v>
-      </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="131" t="s">
-        <v>205</v>
-      </c>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
-      <c r="R1" s="131"/>
-      <c r="S1" s="131"/>
-      <c r="T1" s="131"/>
-      <c r="U1" s="131"/>
-      <c r="V1" s="131"/>
-      <c r="W1" s="131"/>
-      <c r="X1" s="131"/>
-      <c r="Y1" s="131"/>
-      <c r="Z1" s="131"/>
-      <c r="AA1" s="131"/>
-      <c r="AB1" s="131"/>
-      <c r="AC1" s="131"/>
-      <c r="AD1" s="131"/>
-      <c r="AE1" s="131"/>
-      <c r="AF1" s="136" t="s">
+      <c r="A1" s="133" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="137" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="137"/>
+      <c r="T1" s="137"/>
+      <c r="U1" s="137"/>
+      <c r="V1" s="137"/>
+      <c r="W1" s="137"/>
+      <c r="X1" s="137"/>
+      <c r="Y1" s="137"/>
+      <c r="Z1" s="137"/>
+      <c r="AA1" s="137"/>
+      <c r="AB1" s="137"/>
+      <c r="AC1" s="137"/>
+      <c r="AD1" s="137"/>
+      <c r="AE1" s="137"/>
+      <c r="AF1" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="AG1" s="137"/>
-      <c r="AH1" s="137"/>
-      <c r="AI1" s="137"/>
-      <c r="AJ1" s="137"/>
-      <c r="AK1" s="137"/>
-      <c r="AL1" s="137"/>
-      <c r="AM1" s="137"/>
-      <c r="AN1" s="137"/>
-      <c r="AO1" s="137"/>
-      <c r="AP1" s="137"/>
-      <c r="AQ1" s="137"/>
-      <c r="AR1" s="137"/>
-      <c r="AS1" s="137"/>
-      <c r="AT1" s="137"/>
-      <c r="AU1" s="137"/>
-      <c r="AV1" s="138"/>
+      <c r="AG1" s="143"/>
+      <c r="AH1" s="143"/>
+      <c r="AI1" s="143"/>
+      <c r="AJ1" s="143"/>
+      <c r="AK1" s="143"/>
+      <c r="AL1" s="143"/>
+      <c r="AM1" s="143"/>
+      <c r="AN1" s="143"/>
+      <c r="AO1" s="143"/>
+      <c r="AP1" s="143"/>
+      <c r="AQ1" s="143"/>
+      <c r="AR1" s="143"/>
+      <c r="AS1" s="143"/>
+      <c r="AT1" s="143"/>
+      <c r="AU1" s="143"/>
+      <c r="AV1" s="144"/>
     </row>
     <row r="2" spans="1:48" ht="14.1" customHeight="1">
-      <c r="A2" s="129"/>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="132"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="132"/>
-      <c r="S2" s="132"/>
-      <c r="T2" s="132"/>
-      <c r="U2" s="132"/>
-      <c r="V2" s="132"/>
-      <c r="W2" s="132"/>
-      <c r="X2" s="132"/>
-      <c r="Y2" s="132"/>
-      <c r="Z2" s="132"/>
-      <c r="AA2" s="132"/>
-      <c r="AB2" s="132"/>
-      <c r="AC2" s="132"/>
-      <c r="AD2" s="132"/>
-      <c r="AE2" s="132"/>
-      <c r="AF2" s="133" t="s">
+      <c r="A2" s="135"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="138"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="138"/>
+      <c r="T2" s="138"/>
+      <c r="U2" s="138"/>
+      <c r="V2" s="138"/>
+      <c r="W2" s="138"/>
+      <c r="X2" s="138"/>
+      <c r="Y2" s="138"/>
+      <c r="Z2" s="138"/>
+      <c r="AA2" s="138"/>
+      <c r="AB2" s="138"/>
+      <c r="AC2" s="138"/>
+      <c r="AD2" s="138"/>
+      <c r="AE2" s="138"/>
+      <c r="AF2" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="AG2" s="134"/>
-      <c r="AH2" s="134"/>
-      <c r="AI2" s="134"/>
-      <c r="AJ2" s="134"/>
-      <c r="AK2" s="134"/>
-      <c r="AL2" s="134"/>
-      <c r="AM2" s="134"/>
-      <c r="AN2" s="134"/>
-      <c r="AO2" s="134"/>
-      <c r="AP2" s="134"/>
-      <c r="AQ2" s="134"/>
-      <c r="AR2" s="134"/>
-      <c r="AS2" s="134"/>
-      <c r="AT2" s="134"/>
-      <c r="AU2" s="134"/>
-      <c r="AV2" s="135"/>
+      <c r="AG2" s="140"/>
+      <c r="AH2" s="140"/>
+      <c r="AI2" s="140"/>
+      <c r="AJ2" s="140"/>
+      <c r="AK2" s="140"/>
+      <c r="AL2" s="140"/>
+      <c r="AM2" s="140"/>
+      <c r="AN2" s="140"/>
+      <c r="AO2" s="140"/>
+      <c r="AP2" s="140"/>
+      <c r="AQ2" s="140"/>
+      <c r="AR2" s="140"/>
+      <c r="AS2" s="140"/>
+      <c r="AT2" s="140"/>
+      <c r="AU2" s="140"/>
+      <c r="AV2" s="141"/>
     </row>
     <row r="3" spans="1:48">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="146" t="s">
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="153" t="s">
+        <v>201</v>
+      </c>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="165" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="160"/>
+      <c r="N3" s="160"/>
+      <c r="O3" s="160"/>
+      <c r="P3" s="160"/>
+      <c r="Q3" s="161"/>
+      <c r="R3" s="147" t="s">
         <v>202</v>
       </c>
-      <c r="G3" s="147"/>
-      <c r="H3" s="147"/>
-      <c r="I3" s="147"/>
-      <c r="J3" s="147"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="158" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="153"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="153"/>
-      <c r="P3" s="153"/>
-      <c r="Q3" s="154"/>
-      <c r="R3" s="140" t="s">
+      <c r="S3" s="148"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="148"/>
+      <c r="V3" s="148"/>
+      <c r="W3" s="148"/>
+      <c r="X3" s="148"/>
+      <c r="Y3" s="148"/>
+      <c r="Z3" s="148"/>
+      <c r="AA3" s="148"/>
+      <c r="AB3" s="148"/>
+      <c r="AC3" s="148"/>
+      <c r="AD3" s="148"/>
+      <c r="AE3" s="149"/>
+      <c r="AF3" s="145" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG3" s="145"/>
+      <c r="AH3" s="145"/>
+      <c r="AI3" s="145"/>
+      <c r="AJ3" s="145"/>
+      <c r="AK3" s="146">
+        <v>42781</v>
+      </c>
+      <c r="AL3" s="146"/>
+      <c r="AM3" s="146"/>
+      <c r="AN3" s="146"/>
+      <c r="AO3" s="145" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP3" s="145"/>
+      <c r="AQ3" s="145"/>
+      <c r="AR3" s="145"/>
+      <c r="AS3" s="167" t="s">
         <v>203</v>
       </c>
-      <c r="S3" s="141"/>
-      <c r="T3" s="141"/>
-      <c r="U3" s="141"/>
-      <c r="V3" s="141"/>
-      <c r="W3" s="141"/>
-      <c r="X3" s="141"/>
-      <c r="Y3" s="141"/>
-      <c r="Z3" s="141"/>
-      <c r="AA3" s="141"/>
-      <c r="AB3" s="141"/>
-      <c r="AC3" s="141"/>
-      <c r="AD3" s="141"/>
-      <c r="AE3" s="142"/>
-      <c r="AF3" s="139" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG3" s="139"/>
-      <c r="AH3" s="139"/>
-      <c r="AI3" s="139"/>
-      <c r="AJ3" s="139"/>
-      <c r="AK3" s="204">
-        <v>42781</v>
-      </c>
-      <c r="AL3" s="204"/>
-      <c r="AM3" s="204"/>
-      <c r="AN3" s="204"/>
-      <c r="AO3" s="139" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP3" s="139"/>
-      <c r="AQ3" s="139"/>
-      <c r="AR3" s="139"/>
-      <c r="AS3" s="160" t="s">
-        <v>204</v>
-      </c>
-      <c r="AT3" s="160"/>
-      <c r="AU3" s="160"/>
-      <c r="AV3" s="161"/>
+      <c r="AT3" s="167"/>
+      <c r="AU3" s="167"/>
+      <c r="AV3" s="168"/>
     </row>
     <row r="4" spans="1:48">
-      <c r="A4" s="155"/>
-      <c r="B4" s="156"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="157"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="150"/>
-      <c r="I4" s="150"/>
-      <c r="J4" s="150"/>
-      <c r="K4" s="151"/>
-      <c r="L4" s="159"/>
-      <c r="M4" s="156"/>
-      <c r="N4" s="156"/>
-      <c r="O4" s="156"/>
-      <c r="P4" s="156"/>
-      <c r="Q4" s="157"/>
-      <c r="R4" s="143"/>
-      <c r="S4" s="144"/>
-      <c r="T4" s="144"/>
-      <c r="U4" s="144"/>
-      <c r="V4" s="144"/>
-      <c r="W4" s="144"/>
-      <c r="X4" s="144"/>
-      <c r="Y4" s="144"/>
-      <c r="Z4" s="144"/>
-      <c r="AA4" s="144"/>
-      <c r="AB4" s="144"/>
-      <c r="AC4" s="144"/>
-      <c r="AD4" s="144"/>
-      <c r="AE4" s="145"/>
-      <c r="AF4" s="162" t="s">
+      <c r="A4" s="162"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="156"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="157"/>
+      <c r="I4" s="157"/>
+      <c r="J4" s="157"/>
+      <c r="K4" s="158"/>
+      <c r="L4" s="166"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="163"/>
+      <c r="O4" s="163"/>
+      <c r="P4" s="163"/>
+      <c r="Q4" s="164"/>
+      <c r="R4" s="150"/>
+      <c r="S4" s="151"/>
+      <c r="T4" s="151"/>
+      <c r="U4" s="151"/>
+      <c r="V4" s="151"/>
+      <c r="W4" s="151"/>
+      <c r="X4" s="151"/>
+      <c r="Y4" s="151"/>
+      <c r="Z4" s="151"/>
+      <c r="AA4" s="151"/>
+      <c r="AB4" s="151"/>
+      <c r="AC4" s="151"/>
+      <c r="AD4" s="151"/>
+      <c r="AE4" s="152"/>
+      <c r="AF4" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="AG4" s="162"/>
-      <c r="AH4" s="162"/>
-      <c r="AI4" s="162"/>
-      <c r="AJ4" s="162"/>
-      <c r="AK4" s="163"/>
-      <c r="AL4" s="163"/>
-      <c r="AM4" s="163"/>
-      <c r="AN4" s="163"/>
-      <c r="AO4" s="162" t="s">
+      <c r="AG4" s="169"/>
+      <c r="AH4" s="169"/>
+      <c r="AI4" s="169"/>
+      <c r="AJ4" s="169"/>
+      <c r="AK4" s="170"/>
+      <c r="AL4" s="170"/>
+      <c r="AM4" s="170"/>
+      <c r="AN4" s="170"/>
+      <c r="AO4" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="AP4" s="162"/>
-      <c r="AQ4" s="162"/>
-      <c r="AR4" s="162"/>
-      <c r="AS4" s="164"/>
-      <c r="AT4" s="164"/>
-      <c r="AU4" s="164"/>
-      <c r="AV4" s="165"/>
+      <c r="AP4" s="169"/>
+      <c r="AQ4" s="169"/>
+      <c r="AR4" s="169"/>
+      <c r="AS4" s="171"/>
+      <c r="AT4" s="171"/>
+      <c r="AU4" s="171"/>
+      <c r="AV4" s="172"/>
     </row>
     <row r="5" spans="1:48">
       <c r="A5" s="17"/>
@@ -4234,7 +4289,7 @@
       <c r="A7" s="20"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
@@ -4286,7 +4341,7 @@
       <c r="A8" s="20"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -5992,48 +6047,48 @@
       <c r="C42" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="166" t="s">
+      <c r="D42" s="173" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="167"/>
-      <c r="F42" s="167"/>
-      <c r="G42" s="167"/>
-      <c r="H42" s="167"/>
-      <c r="I42" s="167"/>
-      <c r="J42" s="167"/>
-      <c r="K42" s="168"/>
-      <c r="L42" s="166" t="s">
+      <c r="E42" s="174"/>
+      <c r="F42" s="174"/>
+      <c r="G42" s="174"/>
+      <c r="H42" s="174"/>
+      <c r="I42" s="174"/>
+      <c r="J42" s="174"/>
+      <c r="K42" s="175"/>
+      <c r="L42" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="M42" s="167"/>
-      <c r="N42" s="167"/>
-      <c r="O42" s="167"/>
-      <c r="P42" s="167"/>
-      <c r="Q42" s="167"/>
-      <c r="R42" s="167"/>
-      <c r="S42" s="167"/>
-      <c r="T42" s="167"/>
-      <c r="U42" s="167"/>
-      <c r="V42" s="167"/>
-      <c r="W42" s="167"/>
-      <c r="X42" s="167"/>
-      <c r="Y42" s="168"/>
-      <c r="Z42" s="166" t="s">
+      <c r="M42" s="174"/>
+      <c r="N42" s="174"/>
+      <c r="O42" s="174"/>
+      <c r="P42" s="174"/>
+      <c r="Q42" s="174"/>
+      <c r="R42" s="174"/>
+      <c r="S42" s="174"/>
+      <c r="T42" s="174"/>
+      <c r="U42" s="174"/>
+      <c r="V42" s="174"/>
+      <c r="W42" s="174"/>
+      <c r="X42" s="174"/>
+      <c r="Y42" s="175"/>
+      <c r="Z42" s="173" t="s">
         <v>20</v>
       </c>
-      <c r="AA42" s="167"/>
-      <c r="AB42" s="167"/>
-      <c r="AC42" s="167"/>
-      <c r="AD42" s="167"/>
-      <c r="AE42" s="167"/>
-      <c r="AF42" s="167"/>
-      <c r="AG42" s="167"/>
-      <c r="AH42" s="167"/>
-      <c r="AI42" s="167"/>
-      <c r="AJ42" s="167"/>
-      <c r="AK42" s="167"/>
-      <c r="AL42" s="167"/>
-      <c r="AM42" s="168"/>
+      <c r="AA42" s="174"/>
+      <c r="AB42" s="174"/>
+      <c r="AC42" s="174"/>
+      <c r="AD42" s="174"/>
+      <c r="AE42" s="174"/>
+      <c r="AF42" s="174"/>
+      <c r="AG42" s="174"/>
+      <c r="AH42" s="174"/>
+      <c r="AI42" s="174"/>
+      <c r="AJ42" s="174"/>
+      <c r="AK42" s="174"/>
+      <c r="AL42" s="174"/>
+      <c r="AM42" s="175"/>
       <c r="AN42" s="15"/>
       <c r="AO42" s="14"/>
       <c r="AP42" s="14"/>
@@ -6051,7 +6106,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
@@ -6060,36 +6115,36 @@
       <c r="I43" s="12"/>
       <c r="J43" s="12"/>
       <c r="K43" s="13"/>
-      <c r="L43" s="205" t="s">
-        <v>211</v>
-      </c>
-      <c r="M43" s="205"/>
-      <c r="N43" s="205"/>
-      <c r="O43" s="205"/>
-      <c r="P43" s="205"/>
-      <c r="Q43" s="205"/>
-      <c r="R43" s="205"/>
-      <c r="S43" s="205"/>
-      <c r="T43" s="205"/>
-      <c r="U43" s="205"/>
-      <c r="V43" s="205"/>
-      <c r="W43" s="205"/>
-      <c r="X43" s="205"/>
-      <c r="Y43" s="205"/>
-      <c r="Z43" s="206"/>
-      <c r="AA43" s="207"/>
-      <c r="AB43" s="207"/>
-      <c r="AC43" s="207"/>
-      <c r="AD43" s="207"/>
-      <c r="AE43" s="207"/>
-      <c r="AF43" s="207"/>
-      <c r="AG43" s="207"/>
-      <c r="AH43" s="207"/>
-      <c r="AI43" s="207"/>
-      <c r="AJ43" s="207"/>
-      <c r="AK43" s="207"/>
-      <c r="AL43" s="207"/>
-      <c r="AM43" s="208"/>
+      <c r="L43" s="127" t="s">
+        <v>210</v>
+      </c>
+      <c r="M43" s="127"/>
+      <c r="N43" s="127"/>
+      <c r="O43" s="127"/>
+      <c r="P43" s="127"/>
+      <c r="Q43" s="127"/>
+      <c r="R43" s="127"/>
+      <c r="S43" s="127"/>
+      <c r="T43" s="127"/>
+      <c r="U43" s="127"/>
+      <c r="V43" s="127"/>
+      <c r="W43" s="127"/>
+      <c r="X43" s="127"/>
+      <c r="Y43" s="127"/>
+      <c r="Z43" s="176"/>
+      <c r="AA43" s="177"/>
+      <c r="AB43" s="177"/>
+      <c r="AC43" s="177"/>
+      <c r="AD43" s="177"/>
+      <c r="AE43" s="177"/>
+      <c r="AF43" s="177"/>
+      <c r="AG43" s="177"/>
+      <c r="AH43" s="177"/>
+      <c r="AI43" s="177"/>
+      <c r="AJ43" s="177"/>
+      <c r="AK43" s="177"/>
+      <c r="AL43" s="177"/>
+      <c r="AM43" s="178"/>
       <c r="AN43" s="15"/>
       <c r="AO43" s="14"/>
       <c r="AP43" s="14"/>
@@ -6107,7 +6162,7 @@
         <v>2</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
@@ -6116,36 +6171,36 @@
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
       <c r="K44" s="13"/>
-      <c r="L44" s="209" t="s">
-        <v>212</v>
-      </c>
-      <c r="M44" s="210"/>
-      <c r="N44" s="210"/>
-      <c r="O44" s="210"/>
-      <c r="P44" s="210"/>
-      <c r="Q44" s="210"/>
-      <c r="R44" s="210"/>
-      <c r="S44" s="210"/>
-      <c r="T44" s="210"/>
-      <c r="U44" s="210"/>
-      <c r="V44" s="210"/>
-      <c r="W44" s="210"/>
-      <c r="X44" s="210"/>
-      <c r="Y44" s="210"/>
-      <c r="Z44" s="209"/>
-      <c r="AA44" s="210"/>
-      <c r="AB44" s="210"/>
-      <c r="AC44" s="210"/>
-      <c r="AD44" s="210"/>
-      <c r="AE44" s="210"/>
-      <c r="AF44" s="210"/>
-      <c r="AG44" s="210"/>
-      <c r="AH44" s="210"/>
-      <c r="AI44" s="210"/>
-      <c r="AJ44" s="210"/>
-      <c r="AK44" s="210"/>
-      <c r="AL44" s="210"/>
-      <c r="AM44" s="211"/>
+      <c r="L44" s="128" t="s">
+        <v>211</v>
+      </c>
+      <c r="M44" s="129"/>
+      <c r="N44" s="129"/>
+      <c r="O44" s="129"/>
+      <c r="P44" s="129"/>
+      <c r="Q44" s="129"/>
+      <c r="R44" s="129"/>
+      <c r="S44" s="129"/>
+      <c r="T44" s="129"/>
+      <c r="U44" s="129"/>
+      <c r="V44" s="129"/>
+      <c r="W44" s="129"/>
+      <c r="X44" s="129"/>
+      <c r="Y44" s="129"/>
+      <c r="Z44" s="128"/>
+      <c r="AA44" s="129"/>
+      <c r="AB44" s="129"/>
+      <c r="AC44" s="129"/>
+      <c r="AD44" s="129"/>
+      <c r="AE44" s="129"/>
+      <c r="AF44" s="129"/>
+      <c r="AG44" s="129"/>
+      <c r="AH44" s="129"/>
+      <c r="AI44" s="129"/>
+      <c r="AJ44" s="129"/>
+      <c r="AK44" s="129"/>
+      <c r="AL44" s="129"/>
+      <c r="AM44" s="130"/>
       <c r="AN44" s="15"/>
       <c r="AO44" s="14"/>
       <c r="AP44" s="14"/>
@@ -6163,7 +6218,7 @@
         <v>3</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
@@ -6173,7 +6228,7 @@
       <c r="J45" s="12"/>
       <c r="K45" s="13"/>
       <c r="L45" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M45" s="12"/>
       <c r="N45" s="12"/>
@@ -7603,239 +7658,239 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV218"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="BE18" sqref="BE18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:48" ht="12.2" customHeight="1">
-      <c r="A1" s="127" t="s">
-        <v>194</v>
-      </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="131" t="s">
-        <v>205</v>
-      </c>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
-      <c r="R1" s="131"/>
-      <c r="S1" s="131"/>
-      <c r="T1" s="131"/>
-      <c r="U1" s="131"/>
-      <c r="V1" s="131"/>
-      <c r="W1" s="131"/>
-      <c r="X1" s="131"/>
-      <c r="Y1" s="131"/>
-      <c r="Z1" s="131"/>
-      <c r="AA1" s="131"/>
-      <c r="AB1" s="131"/>
-      <c r="AC1" s="131"/>
-      <c r="AD1" s="131"/>
-      <c r="AE1" s="131"/>
-      <c r="AF1" s="136" t="s">
+      <c r="A1" s="133" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="137" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="137"/>
+      <c r="T1" s="137"/>
+      <c r="U1" s="137"/>
+      <c r="V1" s="137"/>
+      <c r="W1" s="137"/>
+      <c r="X1" s="137"/>
+      <c r="Y1" s="137"/>
+      <c r="Z1" s="137"/>
+      <c r="AA1" s="137"/>
+      <c r="AB1" s="137"/>
+      <c r="AC1" s="137"/>
+      <c r="AD1" s="137"/>
+      <c r="AE1" s="137"/>
+      <c r="AF1" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="AG1" s="137"/>
-      <c r="AH1" s="137"/>
-      <c r="AI1" s="137"/>
-      <c r="AJ1" s="137"/>
-      <c r="AK1" s="137"/>
-      <c r="AL1" s="137"/>
-      <c r="AM1" s="137"/>
-      <c r="AN1" s="137"/>
-      <c r="AO1" s="137"/>
-      <c r="AP1" s="137"/>
-      <c r="AQ1" s="137"/>
-      <c r="AR1" s="137"/>
-      <c r="AS1" s="137"/>
-      <c r="AT1" s="137"/>
-      <c r="AU1" s="137"/>
-      <c r="AV1" s="138"/>
+      <c r="AG1" s="143"/>
+      <c r="AH1" s="143"/>
+      <c r="AI1" s="143"/>
+      <c r="AJ1" s="143"/>
+      <c r="AK1" s="143"/>
+      <c r="AL1" s="143"/>
+      <c r="AM1" s="143"/>
+      <c r="AN1" s="143"/>
+      <c r="AO1" s="143"/>
+      <c r="AP1" s="143"/>
+      <c r="AQ1" s="143"/>
+      <c r="AR1" s="143"/>
+      <c r="AS1" s="143"/>
+      <c r="AT1" s="143"/>
+      <c r="AU1" s="143"/>
+      <c r="AV1" s="144"/>
     </row>
     <row r="2" spans="1:48" ht="14.1" customHeight="1">
-      <c r="A2" s="129"/>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="132"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="132"/>
-      <c r="S2" s="132"/>
-      <c r="T2" s="132"/>
-      <c r="U2" s="132"/>
-      <c r="V2" s="132"/>
-      <c r="W2" s="132"/>
-      <c r="X2" s="132"/>
-      <c r="Y2" s="132"/>
-      <c r="Z2" s="132"/>
-      <c r="AA2" s="132"/>
-      <c r="AB2" s="132"/>
-      <c r="AC2" s="132"/>
-      <c r="AD2" s="132"/>
-      <c r="AE2" s="132"/>
-      <c r="AF2" s="133" t="s">
+      <c r="A2" s="135"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="138"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="138"/>
+      <c r="T2" s="138"/>
+      <c r="U2" s="138"/>
+      <c r="V2" s="138"/>
+      <c r="W2" s="138"/>
+      <c r="X2" s="138"/>
+      <c r="Y2" s="138"/>
+      <c r="Z2" s="138"/>
+      <c r="AA2" s="138"/>
+      <c r="AB2" s="138"/>
+      <c r="AC2" s="138"/>
+      <c r="AD2" s="138"/>
+      <c r="AE2" s="138"/>
+      <c r="AF2" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="AG2" s="134"/>
-      <c r="AH2" s="134"/>
-      <c r="AI2" s="134"/>
-      <c r="AJ2" s="134"/>
-      <c r="AK2" s="134"/>
-      <c r="AL2" s="134"/>
-      <c r="AM2" s="134"/>
-      <c r="AN2" s="134"/>
-      <c r="AO2" s="134"/>
-      <c r="AP2" s="134"/>
-      <c r="AQ2" s="134"/>
-      <c r="AR2" s="134"/>
-      <c r="AS2" s="134"/>
-      <c r="AT2" s="134"/>
-      <c r="AU2" s="134"/>
-      <c r="AV2" s="135"/>
+      <c r="AG2" s="140"/>
+      <c r="AH2" s="140"/>
+      <c r="AI2" s="140"/>
+      <c r="AJ2" s="140"/>
+      <c r="AK2" s="140"/>
+      <c r="AL2" s="140"/>
+      <c r="AM2" s="140"/>
+      <c r="AN2" s="140"/>
+      <c r="AO2" s="140"/>
+      <c r="AP2" s="140"/>
+      <c r="AQ2" s="140"/>
+      <c r="AR2" s="140"/>
+      <c r="AS2" s="140"/>
+      <c r="AT2" s="140"/>
+      <c r="AU2" s="140"/>
+      <c r="AV2" s="141"/>
     </row>
     <row r="3" spans="1:48">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="159" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="140" t="str">
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="147" t="str">
         <f>Cover!D43</f>
         <v>SCR_001</v>
       </c>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="158" t="s">
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="165" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="153"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="153"/>
-      <c r="P3" s="153"/>
-      <c r="Q3" s="154"/>
-      <c r="R3" s="140" t="str">
+      <c r="M3" s="160"/>
+      <c r="N3" s="160"/>
+      <c r="O3" s="160"/>
+      <c r="P3" s="160"/>
+      <c r="Q3" s="161"/>
+      <c r="R3" s="147" t="str">
         <f>Cover!L43</f>
         <v>Giao diện chính</v>
       </c>
-      <c r="S3" s="141"/>
-      <c r="T3" s="141"/>
-      <c r="U3" s="141"/>
-      <c r="V3" s="141"/>
-      <c r="W3" s="141"/>
-      <c r="X3" s="141"/>
-      <c r="Y3" s="141"/>
-      <c r="Z3" s="141"/>
-      <c r="AA3" s="141"/>
-      <c r="AB3" s="141"/>
-      <c r="AC3" s="141"/>
-      <c r="AD3" s="141"/>
-      <c r="AE3" s="142"/>
-      <c r="AF3" s="139" t="s">
+      <c r="S3" s="148"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="148"/>
+      <c r="V3" s="148"/>
+      <c r="W3" s="148"/>
+      <c r="X3" s="148"/>
+      <c r="Y3" s="148"/>
+      <c r="Z3" s="148"/>
+      <c r="AA3" s="148"/>
+      <c r="AB3" s="148"/>
+      <c r="AC3" s="148"/>
+      <c r="AD3" s="148"/>
+      <c r="AE3" s="149"/>
+      <c r="AF3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="AG3" s="139"/>
-      <c r="AH3" s="139"/>
-      <c r="AI3" s="139"/>
-      <c r="AJ3" s="139"/>
-      <c r="AK3" s="212">
+      <c r="AG3" s="145"/>
+      <c r="AH3" s="145"/>
+      <c r="AI3" s="145"/>
+      <c r="AJ3" s="145"/>
+      <c r="AK3" s="180">
         <v>42781</v>
       </c>
-      <c r="AL3" s="212"/>
-      <c r="AM3" s="212"/>
-      <c r="AN3" s="212"/>
-      <c r="AO3" s="139" t="s">
+      <c r="AL3" s="180"/>
+      <c r="AM3" s="180"/>
+      <c r="AN3" s="180"/>
+      <c r="AO3" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="AP3" s="139"/>
-      <c r="AQ3" s="139"/>
-      <c r="AR3" s="139"/>
-      <c r="AS3" s="160"/>
-      <c r="AT3" s="160"/>
-      <c r="AU3" s="160"/>
-      <c r="AV3" s="161"/>
+      <c r="AP3" s="145"/>
+      <c r="AQ3" s="145"/>
+      <c r="AR3" s="145"/>
+      <c r="AS3" s="167"/>
+      <c r="AT3" s="167"/>
+      <c r="AU3" s="167"/>
+      <c r="AV3" s="168"/>
     </row>
     <row r="4" spans="1:48">
-      <c r="A4" s="155"/>
-      <c r="B4" s="156"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="157"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
-      <c r="K4" s="145"/>
-      <c r="L4" s="159"/>
-      <c r="M4" s="156"/>
-      <c r="N4" s="156"/>
-      <c r="O4" s="156"/>
-      <c r="P4" s="156"/>
-      <c r="Q4" s="157"/>
-      <c r="R4" s="143"/>
-      <c r="S4" s="144"/>
-      <c r="T4" s="144"/>
-      <c r="U4" s="144"/>
-      <c r="V4" s="144"/>
-      <c r="W4" s="144"/>
-      <c r="X4" s="144"/>
-      <c r="Y4" s="144"/>
-      <c r="Z4" s="144"/>
-      <c r="AA4" s="144"/>
-      <c r="AB4" s="144"/>
-      <c r="AC4" s="144"/>
-      <c r="AD4" s="144"/>
-      <c r="AE4" s="145"/>
-      <c r="AF4" s="162" t="s">
+      <c r="A4" s="162"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="152"/>
+      <c r="L4" s="166"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="163"/>
+      <c r="O4" s="163"/>
+      <c r="P4" s="163"/>
+      <c r="Q4" s="164"/>
+      <c r="R4" s="150"/>
+      <c r="S4" s="151"/>
+      <c r="T4" s="151"/>
+      <c r="U4" s="151"/>
+      <c r="V4" s="151"/>
+      <c r="W4" s="151"/>
+      <c r="X4" s="151"/>
+      <c r="Y4" s="151"/>
+      <c r="Z4" s="151"/>
+      <c r="AA4" s="151"/>
+      <c r="AB4" s="151"/>
+      <c r="AC4" s="151"/>
+      <c r="AD4" s="151"/>
+      <c r="AE4" s="152"/>
+      <c r="AF4" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="AG4" s="162"/>
-      <c r="AH4" s="162"/>
-      <c r="AI4" s="162"/>
-      <c r="AJ4" s="162"/>
-      <c r="AK4" s="213"/>
-      <c r="AL4" s="213"/>
-      <c r="AM4" s="213"/>
-      <c r="AN4" s="213"/>
-      <c r="AO4" s="162" t="s">
+      <c r="AG4" s="169"/>
+      <c r="AH4" s="169"/>
+      <c r="AI4" s="169"/>
+      <c r="AJ4" s="169"/>
+      <c r="AK4" s="179"/>
+      <c r="AL4" s="179"/>
+      <c r="AM4" s="179"/>
+      <c r="AN4" s="179"/>
+      <c r="AO4" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="AP4" s="162"/>
-      <c r="AQ4" s="162"/>
-      <c r="AR4" s="162"/>
-      <c r="AS4" s="164"/>
-      <c r="AT4" s="164"/>
-      <c r="AU4" s="164"/>
-      <c r="AV4" s="165"/>
+      <c r="AP4" s="169"/>
+      <c r="AQ4" s="169"/>
+      <c r="AR4" s="169"/>
+      <c r="AS4" s="171"/>
+      <c r="AT4" s="171"/>
+      <c r="AU4" s="171"/>
+      <c r="AV4" s="172"/>
     </row>
     <row r="5" spans="1:48">
       <c r="A5" s="105"/>
@@ -8045,7 +8100,7 @@
       <c r="A9" s="31"/>
       <c r="B9" s="33"/>
       <c r="C9" s="33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
@@ -8149,7 +8204,7 @@
       <c r="A11" s="31"/>
       <c r="B11" s="34"/>
       <c r="C11" s="34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D11" s="37"/>
       <c r="E11" s="37"/>
@@ -8201,7 +8256,7 @@
       <c r="A12" s="31"/>
       <c r="B12" s="39"/>
       <c r="C12" s="34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
@@ -9251,7 +9306,7 @@
       <c r="AS32" s="126"/>
       <c r="AT32" s="126"/>
       <c r="AU32" s="126"/>
-      <c r="AV32" s="126"/>
+      <c r="AV32" s="22"/>
     </row>
     <row r="33" spans="1:48">
       <c r="A33" s="45"/>
@@ -9301,7 +9356,7 @@
       <c r="AS33" s="126"/>
       <c r="AT33" s="126"/>
       <c r="AU33" s="126"/>
-      <c r="AV33" s="126"/>
+      <c r="AV33" s="22"/>
     </row>
     <row r="34" spans="1:48">
       <c r="A34" s="45"/>
@@ -9351,7 +9406,7 @@
       <c r="AS34" s="126"/>
       <c r="AT34" s="126"/>
       <c r="AU34" s="126"/>
-      <c r="AV34" s="126"/>
+      <c r="AV34" s="22"/>
     </row>
     <row r="35" spans="1:48">
       <c r="A35" s="31"/>
@@ -9401,7 +9456,7 @@
       <c r="AS35" s="126"/>
       <c r="AT35" s="126"/>
       <c r="AU35" s="126"/>
-      <c r="AV35" s="126"/>
+      <c r="AV35" s="22"/>
     </row>
     <row r="36" spans="1:48">
       <c r="A36" s="31"/>
@@ -9451,7 +9506,7 @@
       <c r="AS36" s="126"/>
       <c r="AT36" s="126"/>
       <c r="AU36" s="126"/>
-      <c r="AV36" s="126"/>
+      <c r="AV36" s="22"/>
     </row>
     <row r="37" spans="1:48">
       <c r="A37" s="31"/>
@@ -9501,7 +9556,7 @@
       <c r="AS37" s="126"/>
       <c r="AT37" s="126"/>
       <c r="AU37" s="126"/>
-      <c r="AV37" s="126"/>
+      <c r="AV37" s="22"/>
     </row>
     <row r="38" spans="1:48">
       <c r="A38" s="31"/>
@@ -9551,7 +9606,7 @@
       <c r="AS38" s="126"/>
       <c r="AT38" s="126"/>
       <c r="AU38" s="126"/>
-      <c r="AV38" s="126"/>
+      <c r="AV38" s="22"/>
     </row>
     <row r="39" spans="1:48">
       <c r="A39" s="31"/>
@@ -9601,7 +9656,7 @@
       <c r="AS39" s="126"/>
       <c r="AT39" s="126"/>
       <c r="AU39" s="126"/>
-      <c r="AV39" s="126"/>
+      <c r="AV39" s="22"/>
     </row>
     <row r="40" spans="1:48">
       <c r="A40" s="31"/>
@@ -9651,7 +9706,7 @@
       <c r="AS40" s="126"/>
       <c r="AT40" s="126"/>
       <c r="AU40" s="126"/>
-      <c r="AV40" s="126"/>
+      <c r="AV40" s="22"/>
     </row>
     <row r="41" spans="1:48">
       <c r="A41" s="31"/>
@@ -9701,7 +9756,7 @@
       <c r="AS41" s="126"/>
       <c r="AT41" s="126"/>
       <c r="AU41" s="126"/>
-      <c r="AV41" s="126"/>
+      <c r="AV41" s="22"/>
     </row>
     <row r="42" spans="1:48">
       <c r="A42" s="31"/>
@@ -9751,7 +9806,7 @@
       <c r="AS42" s="126"/>
       <c r="AT42" s="126"/>
       <c r="AU42" s="126"/>
-      <c r="AV42" s="126"/>
+      <c r="AV42" s="22"/>
     </row>
     <row r="43" spans="1:48">
       <c r="A43" s="31"/>
@@ -9801,7 +9856,7 @@
       <c r="AS43" s="126"/>
       <c r="AT43" s="126"/>
       <c r="AU43" s="126"/>
-      <c r="AV43" s="126"/>
+      <c r="AV43" s="22"/>
     </row>
     <row r="44" spans="1:48">
       <c r="A44" s="31"/>
@@ -9847,11 +9902,11 @@
       <c r="AO44" s="126"/>
       <c r="AP44" s="126"/>
       <c r="AQ44" s="126"/>
-      <c r="AR44" s="214"/>
+      <c r="AR44" s="131"/>
       <c r="AS44" s="126"/>
       <c r="AT44" s="126"/>
       <c r="AU44" s="126"/>
-      <c r="AV44" s="126"/>
+      <c r="AV44" s="22"/>
     </row>
     <row r="45" spans="1:48">
       <c r="A45" s="31"/>
@@ -9897,11 +9952,11 @@
       <c r="AO45" s="126"/>
       <c r="AP45" s="126"/>
       <c r="AQ45" s="126"/>
-      <c r="AR45" s="214"/>
+      <c r="AR45" s="131"/>
       <c r="AS45" s="126"/>
       <c r="AT45" s="126"/>
       <c r="AU45" s="126"/>
-      <c r="AV45" s="126"/>
+      <c r="AV45" s="22"/>
     </row>
     <row r="46" spans="1:48">
       <c r="A46" s="31"/>
@@ -9951,7 +10006,7 @@
       <c r="AS46" s="126"/>
       <c r="AT46" s="126"/>
       <c r="AU46" s="126"/>
-      <c r="AV46" s="126"/>
+      <c r="AV46" s="22"/>
     </row>
     <row r="47" spans="1:48">
       <c r="A47" s="31"/>
@@ -9997,11 +10052,11 @@
       <c r="AO47" s="126"/>
       <c r="AP47" s="126"/>
       <c r="AQ47" s="126"/>
-      <c r="AR47" s="215"/>
+      <c r="AR47" s="132"/>
       <c r="AS47" s="126"/>
       <c r="AT47" s="126"/>
       <c r="AU47" s="126"/>
-      <c r="AV47" s="126"/>
+      <c r="AV47" s="22"/>
     </row>
     <row r="48" spans="1:48">
       <c r="A48" s="31"/>
@@ -10047,11 +10102,11 @@
       <c r="AO48" s="126"/>
       <c r="AP48" s="126"/>
       <c r="AQ48" s="126"/>
-      <c r="AR48" s="215"/>
+      <c r="AR48" s="132"/>
       <c r="AS48" s="126"/>
       <c r="AT48" s="126"/>
       <c r="AU48" s="126"/>
-      <c r="AV48" s="126"/>
+      <c r="AV48" s="22"/>
     </row>
     <row r="49" spans="1:48">
       <c r="A49" s="31"/>
@@ -10097,11 +10152,11 @@
       <c r="AO49" s="126"/>
       <c r="AP49" s="126"/>
       <c r="AQ49" s="126"/>
-      <c r="AR49" s="215"/>
+      <c r="AR49" s="132"/>
       <c r="AS49" s="126"/>
       <c r="AT49" s="126"/>
       <c r="AU49" s="126"/>
-      <c r="AV49" s="126"/>
+      <c r="AV49" s="22"/>
     </row>
     <row r="50" spans="1:48">
       <c r="A50" s="31"/>
@@ -10147,11 +10202,11 @@
       <c r="AO50" s="126"/>
       <c r="AP50" s="126"/>
       <c r="AQ50" s="126"/>
-      <c r="AR50" s="215"/>
+      <c r="AR50" s="132"/>
       <c r="AS50" s="126"/>
       <c r="AT50" s="126"/>
       <c r="AU50" s="126"/>
-      <c r="AV50" s="126"/>
+      <c r="AV50" s="22"/>
     </row>
     <row r="51" spans="1:48">
       <c r="A51" s="31"/>
@@ -10197,11 +10252,11 @@
       <c r="AO51" s="126"/>
       <c r="AP51" s="126"/>
       <c r="AQ51" s="126"/>
-      <c r="AR51" s="215"/>
+      <c r="AR51" s="132"/>
       <c r="AS51" s="126"/>
       <c r="AT51" s="126"/>
       <c r="AU51" s="126"/>
-      <c r="AV51" s="126"/>
+      <c r="AV51" s="22"/>
     </row>
     <row r="52" spans="1:48">
       <c r="A52" s="31"/>
@@ -10247,11 +10302,11 @@
       <c r="AO52" s="126"/>
       <c r="AP52" s="126"/>
       <c r="AQ52" s="126"/>
-      <c r="AR52" s="215"/>
+      <c r="AR52" s="132"/>
       <c r="AS52" s="126"/>
       <c r="AT52" s="126"/>
       <c r="AU52" s="126"/>
-      <c r="AV52" s="126"/>
+      <c r="AV52" s="22"/>
     </row>
     <row r="53" spans="1:48">
       <c r="A53" s="31"/>
@@ -10297,11 +10352,11 @@
       <c r="AO53" s="126"/>
       <c r="AP53" s="126"/>
       <c r="AQ53" s="126"/>
-      <c r="AR53" s="215"/>
+      <c r="AR53" s="132"/>
       <c r="AS53" s="126"/>
       <c r="AT53" s="126"/>
       <c r="AU53" s="126"/>
-      <c r="AV53" s="126"/>
+      <c r="AV53" s="22"/>
     </row>
     <row r="54" spans="1:48">
       <c r="A54" s="31"/>
@@ -10347,11 +10402,11 @@
       <c r="AO54" s="126"/>
       <c r="AP54" s="126"/>
       <c r="AQ54" s="126"/>
-      <c r="AR54" s="215"/>
+      <c r="AR54" s="132"/>
       <c r="AS54" s="126"/>
       <c r="AT54" s="126"/>
       <c r="AU54" s="126"/>
-      <c r="AV54" s="126"/>
+      <c r="AV54" s="22"/>
     </row>
     <row r="55" spans="1:48">
       <c r="A55" s="31"/>
@@ -10397,11 +10452,11 @@
       <c r="AO55" s="126"/>
       <c r="AP55" s="126"/>
       <c r="AQ55" s="126"/>
-      <c r="AR55" s="215"/>
+      <c r="AR55" s="132"/>
       <c r="AS55" s="126"/>
       <c r="AT55" s="126"/>
       <c r="AU55" s="126"/>
-      <c r="AV55" s="126"/>
+      <c r="AV55" s="22"/>
     </row>
     <row r="56" spans="1:48">
       <c r="A56" s="31"/>
@@ -10447,11 +10502,11 @@
       <c r="AO56" s="126"/>
       <c r="AP56" s="126"/>
       <c r="AQ56" s="126"/>
-      <c r="AR56" s="215"/>
+      <c r="AR56" s="132"/>
       <c r="AS56" s="126"/>
       <c r="AT56" s="126"/>
       <c r="AU56" s="126"/>
-      <c r="AV56" s="126"/>
+      <c r="AV56" s="22"/>
     </row>
     <row r="57" spans="1:48">
       <c r="A57" s="31"/>
@@ -10497,11 +10552,11 @@
       <c r="AO57" s="126"/>
       <c r="AP57" s="126"/>
       <c r="AQ57" s="126"/>
-      <c r="AR57" s="215"/>
+      <c r="AR57" s="132"/>
       <c r="AS57" s="126"/>
       <c r="AT57" s="126"/>
       <c r="AU57" s="126"/>
-      <c r="AV57" s="126"/>
+      <c r="AV57" s="22"/>
     </row>
     <row r="58" spans="1:48">
       <c r="A58" s="31"/>
@@ -10547,11 +10602,11 @@
       <c r="AO58" s="126"/>
       <c r="AP58" s="126"/>
       <c r="AQ58" s="126"/>
-      <c r="AR58" s="215"/>
+      <c r="AR58" s="132"/>
       <c r="AS58" s="126"/>
       <c r="AT58" s="126"/>
       <c r="AU58" s="126"/>
-      <c r="AV58" s="126"/>
+      <c r="AV58" s="22"/>
     </row>
     <row r="59" spans="1:48">
       <c r="A59" s="31"/>
@@ -10597,11 +10652,11 @@
       <c r="AO59" s="126"/>
       <c r="AP59" s="126"/>
       <c r="AQ59" s="126"/>
-      <c r="AR59" s="215"/>
+      <c r="AR59" s="132"/>
       <c r="AS59" s="126"/>
       <c r="AT59" s="126"/>
       <c r="AU59" s="126"/>
-      <c r="AV59" s="126"/>
+      <c r="AV59" s="22"/>
     </row>
     <row r="60" spans="1:48">
       <c r="A60" s="31"/>
@@ -10647,11 +10702,11 @@
       <c r="AO60" s="126"/>
       <c r="AP60" s="126"/>
       <c r="AQ60" s="126"/>
-      <c r="AR60" s="215"/>
+      <c r="AR60" s="132"/>
       <c r="AS60" s="126"/>
       <c r="AT60" s="126"/>
       <c r="AU60" s="126"/>
-      <c r="AV60" s="126"/>
+      <c r="AV60" s="22"/>
     </row>
     <row r="61" spans="1:48">
       <c r="A61" s="31"/>
@@ -10697,11 +10752,11 @@
       <c r="AO61" s="126"/>
       <c r="AP61" s="126"/>
       <c r="AQ61" s="126"/>
-      <c r="AR61" s="215"/>
+      <c r="AR61" s="132"/>
       <c r="AS61" s="126"/>
       <c r="AT61" s="126"/>
       <c r="AU61" s="126"/>
-      <c r="AV61" s="126"/>
+      <c r="AV61" s="22"/>
     </row>
     <row r="62" spans="1:48">
       <c r="A62" s="31"/>
@@ -10747,11 +10802,11 @@
       <c r="AO62" s="126"/>
       <c r="AP62" s="126"/>
       <c r="AQ62" s="126"/>
-      <c r="AR62" s="215"/>
+      <c r="AR62" s="132"/>
       <c r="AS62" s="126"/>
       <c r="AT62" s="126"/>
       <c r="AU62" s="126"/>
-      <c r="AV62" s="126"/>
+      <c r="AV62" s="22"/>
     </row>
     <row r="63" spans="1:48">
       <c r="A63" s="31"/>
@@ -10797,11 +10852,11 @@
       <c r="AO63" s="126"/>
       <c r="AP63" s="126"/>
       <c r="AQ63" s="126"/>
-      <c r="AR63" s="215"/>
+      <c r="AR63" s="132"/>
       <c r="AS63" s="126"/>
       <c r="AT63" s="126"/>
       <c r="AU63" s="126"/>
-      <c r="AV63" s="126"/>
+      <c r="AV63" s="22"/>
     </row>
     <row r="64" spans="1:48">
       <c r="A64" s="31"/>
@@ -10847,11 +10902,11 @@
       <c r="AO64" s="126"/>
       <c r="AP64" s="126"/>
       <c r="AQ64" s="126"/>
-      <c r="AR64" s="215"/>
+      <c r="AR64" s="132"/>
       <c r="AS64" s="126"/>
       <c r="AT64" s="126"/>
       <c r="AU64" s="126"/>
-      <c r="AV64" s="126"/>
+      <c r="AV64" s="22"/>
     </row>
     <row r="65" spans="1:48">
       <c r="A65" s="31"/>
@@ -10901,7 +10956,7 @@
       <c r="AS65" s="126"/>
       <c r="AT65" s="126"/>
       <c r="AU65" s="126"/>
-      <c r="AV65" s="126"/>
+      <c r="AV65" s="22"/>
     </row>
     <row r="66" spans="1:48">
       <c r="A66" s="31"/>
@@ -10951,7 +11006,7 @@
       <c r="AS66" s="126"/>
       <c r="AT66" s="126"/>
       <c r="AU66" s="126"/>
-      <c r="AV66" s="126"/>
+      <c r="AV66" s="22"/>
     </row>
     <row r="67" spans="1:48">
       <c r="A67" s="31"/>
@@ -11001,7 +11056,7 @@
       <c r="AS67" s="126"/>
       <c r="AT67" s="126"/>
       <c r="AU67" s="126"/>
-      <c r="AV67" s="126"/>
+      <c r="AV67" s="22"/>
     </row>
     <row r="68" spans="1:48">
       <c r="A68" s="31"/>
@@ -11051,7 +11106,7 @@
       <c r="AS68" s="126"/>
       <c r="AT68" s="126"/>
       <c r="AU68" s="126"/>
-      <c r="AV68" s="126"/>
+      <c r="AV68" s="22"/>
     </row>
     <row r="69" spans="1:48">
       <c r="A69" s="31"/>
@@ -11101,7 +11156,7 @@
       <c r="AS69" s="126"/>
       <c r="AT69" s="126"/>
       <c r="AU69" s="126"/>
-      <c r="AV69" s="126"/>
+      <c r="AV69" s="22"/>
     </row>
     <row r="70" spans="1:48">
       <c r="A70" s="31"/>
@@ -11151,7 +11206,7 @@
       <c r="AS70" s="126"/>
       <c r="AT70" s="126"/>
       <c r="AU70" s="126"/>
-      <c r="AV70" s="126"/>
+      <c r="AV70" s="22"/>
     </row>
     <row r="71" spans="1:48">
       <c r="A71" s="31"/>
@@ -11201,7 +11256,7 @@
       <c r="AS71" s="126"/>
       <c r="AT71" s="126"/>
       <c r="AU71" s="126"/>
-      <c r="AV71" s="126"/>
+      <c r="AV71" s="22"/>
     </row>
     <row r="72" spans="1:48">
       <c r="A72" s="31"/>
@@ -11251,7 +11306,7 @@
       <c r="AS72" s="126"/>
       <c r="AT72" s="126"/>
       <c r="AU72" s="126"/>
-      <c r="AV72" s="126"/>
+      <c r="AV72" s="22"/>
     </row>
     <row r="73" spans="1:48">
       <c r="A73" s="31"/>
@@ -12458,10 +12513,10 @@
     <row r="97" spans="1:48">
       <c r="A97" s="31"/>
       <c r="B97" s="33"/>
-      <c r="C97" s="172"/>
-      <c r="D97" s="172"/>
-      <c r="E97" s="172"/>
-      <c r="F97" s="172"/>
+      <c r="C97" s="182"/>
+      <c r="D97" s="182"/>
+      <c r="E97" s="182"/>
+      <c r="F97" s="182"/>
       <c r="G97" s="33"/>
       <c r="H97" s="33"/>
       <c r="I97" s="33"/>
@@ -12511,61 +12566,61 @@
       <c r="C98" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="D98" s="173" t="s">
+      <c r="D98" s="181" t="s">
         <v>58</v>
       </c>
-      <c r="E98" s="173"/>
-      <c r="F98" s="173"/>
-      <c r="G98" s="173"/>
-      <c r="H98" s="173"/>
-      <c r="I98" s="173"/>
-      <c r="J98" s="173"/>
-      <c r="K98" s="173" t="s">
+      <c r="E98" s="181"/>
+      <c r="F98" s="181"/>
+      <c r="G98" s="181"/>
+      <c r="H98" s="181"/>
+      <c r="I98" s="181"/>
+      <c r="J98" s="181"/>
+      <c r="K98" s="181" t="s">
         <v>59</v>
       </c>
-      <c r="L98" s="173"/>
-      <c r="M98" s="173"/>
-      <c r="N98" s="173" t="s">
+      <c r="L98" s="181"/>
+      <c r="M98" s="181"/>
+      <c r="N98" s="181" t="s">
         <v>60</v>
       </c>
-      <c r="O98" s="173"/>
-      <c r="P98" s="173"/>
-      <c r="Q98" s="173" t="s">
+      <c r="O98" s="181"/>
+      <c r="P98" s="181"/>
+      <c r="Q98" s="181" t="s">
         <v>61</v>
       </c>
-      <c r="R98" s="173"/>
-      <c r="S98" s="173" t="s">
+      <c r="R98" s="181"/>
+      <c r="S98" s="181" t="s">
         <v>62</v>
       </c>
-      <c r="T98" s="173"/>
-      <c r="U98" s="173" t="s">
+      <c r="T98" s="181"/>
+      <c r="U98" s="181" t="s">
         <v>63</v>
       </c>
-      <c r="V98" s="173"/>
-      <c r="W98" s="173"/>
-      <c r="X98" s="173"/>
-      <c r="Y98" s="173" t="s">
+      <c r="V98" s="181"/>
+      <c r="W98" s="181"/>
+      <c r="X98" s="181"/>
+      <c r="Y98" s="181" t="s">
         <v>64</v>
       </c>
-      <c r="Z98" s="173"/>
-      <c r="AA98" s="173"/>
-      <c r="AB98" s="173"/>
-      <c r="AC98" s="173" t="s">
+      <c r="Z98" s="181"/>
+      <c r="AA98" s="181"/>
+      <c r="AB98" s="181"/>
+      <c r="AC98" s="181" t="s">
         <v>4</v>
       </c>
-      <c r="AD98" s="173"/>
-      <c r="AE98" s="173"/>
-      <c r="AF98" s="173"/>
-      <c r="AG98" s="173"/>
-      <c r="AH98" s="173"/>
-      <c r="AI98" s="173"/>
-      <c r="AJ98" s="173"/>
-      <c r="AK98" s="173"/>
-      <c r="AL98" s="173"/>
-      <c r="AM98" s="173"/>
-      <c r="AN98" s="173"/>
-      <c r="AO98" s="173"/>
-      <c r="AP98" s="173"/>
+      <c r="AD98" s="181"/>
+      <c r="AE98" s="181"/>
+      <c r="AF98" s="181"/>
+      <c r="AG98" s="181"/>
+      <c r="AH98" s="181"/>
+      <c r="AI98" s="181"/>
+      <c r="AJ98" s="181"/>
+      <c r="AK98" s="181"/>
+      <c r="AL98" s="181"/>
+      <c r="AM98" s="181"/>
+      <c r="AN98" s="181"/>
+      <c r="AO98" s="181"/>
+      <c r="AP98" s="181"/>
       <c r="AQ98" s="33"/>
       <c r="AR98" s="15"/>
       <c r="AS98" s="14"/>
@@ -12577,47 +12632,47 @@
       <c r="A99" s="31"/>
       <c r="B99" s="33"/>
       <c r="C99" s="102"/>
-      <c r="D99" s="172" t="s">
-        <v>65</v>
-      </c>
-      <c r="E99" s="172"/>
-      <c r="F99" s="172"/>
-      <c r="G99" s="172"/>
-      <c r="H99" s="172"/>
-      <c r="I99" s="172"/>
-      <c r="J99" s="172"/>
-      <c r="K99" s="172"/>
-      <c r="L99" s="172"/>
-      <c r="M99" s="172"/>
-      <c r="N99" s="172"/>
-      <c r="O99" s="172"/>
-      <c r="P99" s="172"/>
-      <c r="Q99" s="172"/>
-      <c r="R99" s="172"/>
-      <c r="S99" s="172"/>
-      <c r="T99" s="172"/>
-      <c r="U99" s="172"/>
-      <c r="V99" s="172"/>
-      <c r="W99" s="172"/>
-      <c r="X99" s="172"/>
-      <c r="Y99" s="172"/>
-      <c r="Z99" s="172"/>
-      <c r="AA99" s="172"/>
-      <c r="AB99" s="172"/>
-      <c r="AC99" s="172"/>
-      <c r="AD99" s="172"/>
-      <c r="AE99" s="172"/>
-      <c r="AF99" s="172"/>
-      <c r="AG99" s="172"/>
-      <c r="AH99" s="172"/>
-      <c r="AI99" s="172"/>
-      <c r="AJ99" s="172"/>
-      <c r="AK99" s="172"/>
-      <c r="AL99" s="172"/>
-      <c r="AM99" s="172"/>
-      <c r="AN99" s="172"/>
-      <c r="AO99" s="172"/>
-      <c r="AP99" s="172"/>
+      <c r="D99" s="182" t="s">
+        <v>216</v>
+      </c>
+      <c r="E99" s="182"/>
+      <c r="F99" s="182"/>
+      <c r="G99" s="182"/>
+      <c r="H99" s="182"/>
+      <c r="I99" s="182"/>
+      <c r="J99" s="182"/>
+      <c r="K99" s="182"/>
+      <c r="L99" s="182"/>
+      <c r="M99" s="182"/>
+      <c r="N99" s="182"/>
+      <c r="O99" s="182"/>
+      <c r="P99" s="182"/>
+      <c r="Q99" s="182"/>
+      <c r="R99" s="182"/>
+      <c r="S99" s="182"/>
+      <c r="T99" s="182"/>
+      <c r="U99" s="182"/>
+      <c r="V99" s="182"/>
+      <c r="W99" s="182"/>
+      <c r="X99" s="182"/>
+      <c r="Y99" s="182"/>
+      <c r="Z99" s="182"/>
+      <c r="AA99" s="182"/>
+      <c r="AB99" s="182"/>
+      <c r="AC99" s="182"/>
+      <c r="AD99" s="182"/>
+      <c r="AE99" s="182"/>
+      <c r="AF99" s="182"/>
+      <c r="AG99" s="182"/>
+      <c r="AH99" s="182"/>
+      <c r="AI99" s="182"/>
+      <c r="AJ99" s="182"/>
+      <c r="AK99" s="182"/>
+      <c r="AL99" s="182"/>
+      <c r="AM99" s="182"/>
+      <c r="AN99" s="182"/>
+      <c r="AO99" s="182"/>
+      <c r="AP99" s="182"/>
       <c r="AQ99" s="33"/>
       <c r="AR99" s="15"/>
       <c r="AS99" s="14"/>
@@ -12632,7 +12687,7 @@
         <v>1</v>
       </c>
       <c r="D100" s="65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E100" s="66"/>
       <c r="F100" s="66"/>
@@ -12640,18 +12695,18 @@
       <c r="H100" s="66"/>
       <c r="I100" s="66"/>
       <c r="J100" s="67"/>
-      <c r="K100" s="174" t="s">
-        <v>67</v>
-      </c>
-      <c r="L100" s="175"/>
-      <c r="M100" s="176"/>
-      <c r="N100" s="174"/>
-      <c r="O100" s="175"/>
-      <c r="P100" s="176"/>
-      <c r="Q100" s="174"/>
-      <c r="R100" s="176"/>
-      <c r="S100" s="174"/>
-      <c r="T100" s="176"/>
+      <c r="K100" s="183" t="s">
+        <v>66</v>
+      </c>
+      <c r="L100" s="184"/>
+      <c r="M100" s="185"/>
+      <c r="N100" s="183"/>
+      <c r="O100" s="184"/>
+      <c r="P100" s="185"/>
+      <c r="Q100" s="183"/>
+      <c r="R100" s="185"/>
+      <c r="S100" s="183"/>
+      <c r="T100" s="185"/>
       <c r="U100" s="69"/>
       <c r="V100" s="70"/>
       <c r="W100" s="70"/>
@@ -12660,22 +12715,22 @@
       <c r="Z100" s="70"/>
       <c r="AA100" s="70"/>
       <c r="AB100" s="52"/>
-      <c r="AC100" s="173" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD100" s="173"/>
-      <c r="AE100" s="173"/>
-      <c r="AF100" s="173"/>
-      <c r="AG100" s="173"/>
-      <c r="AH100" s="173"/>
-      <c r="AI100" s="173"/>
-      <c r="AJ100" s="173"/>
-      <c r="AK100" s="173"/>
-      <c r="AL100" s="173"/>
-      <c r="AM100" s="173"/>
-      <c r="AN100" s="173"/>
-      <c r="AO100" s="173"/>
-      <c r="AP100" s="173"/>
+      <c r="AC100" s="181" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD100" s="181"/>
+      <c r="AE100" s="181"/>
+      <c r="AF100" s="181"/>
+      <c r="AG100" s="181"/>
+      <c r="AH100" s="181"/>
+      <c r="AI100" s="181"/>
+      <c r="AJ100" s="181"/>
+      <c r="AK100" s="181"/>
+      <c r="AL100" s="181"/>
+      <c r="AM100" s="181"/>
+      <c r="AN100" s="181"/>
+      <c r="AO100" s="181"/>
+      <c r="AP100" s="181"/>
       <c r="AQ100" s="33"/>
       <c r="AR100" s="15"/>
       <c r="AS100" s="14"/>
@@ -12690,7 +12745,7 @@
         <v>2</v>
       </c>
       <c r="D101" s="65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E101" s="66"/>
       <c r="F101" s="66"/>
@@ -12698,18 +12753,18 @@
       <c r="H101" s="66"/>
       <c r="I101" s="66"/>
       <c r="J101" s="67"/>
-      <c r="K101" s="174" t="s">
-        <v>67</v>
-      </c>
-      <c r="L101" s="175"/>
-      <c r="M101" s="176"/>
-      <c r="N101" s="174"/>
-      <c r="O101" s="175"/>
-      <c r="P101" s="176"/>
-      <c r="Q101" s="174"/>
-      <c r="R101" s="176"/>
-      <c r="S101" s="174"/>
-      <c r="T101" s="176"/>
+      <c r="K101" s="183" t="s">
+        <v>66</v>
+      </c>
+      <c r="L101" s="184"/>
+      <c r="M101" s="185"/>
+      <c r="N101" s="183"/>
+      <c r="O101" s="184"/>
+      <c r="P101" s="185"/>
+      <c r="Q101" s="183"/>
+      <c r="R101" s="185"/>
+      <c r="S101" s="183"/>
+      <c r="T101" s="185"/>
       <c r="U101" s="69"/>
       <c r="V101" s="70"/>
       <c r="W101" s="70"/>
@@ -12718,22 +12773,22 @@
       <c r="Z101" s="70"/>
       <c r="AA101" s="70"/>
       <c r="AB101" s="52"/>
-      <c r="AC101" s="173" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD101" s="173"/>
-      <c r="AE101" s="173"/>
-      <c r="AF101" s="173"/>
-      <c r="AG101" s="173"/>
-      <c r="AH101" s="173"/>
-      <c r="AI101" s="173"/>
-      <c r="AJ101" s="173"/>
-      <c r="AK101" s="173"/>
-      <c r="AL101" s="173"/>
-      <c r="AM101" s="173"/>
-      <c r="AN101" s="173"/>
-      <c r="AO101" s="173"/>
-      <c r="AP101" s="173"/>
+      <c r="AC101" s="181" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD101" s="181"/>
+      <c r="AE101" s="181"/>
+      <c r="AF101" s="181"/>
+      <c r="AG101" s="181"/>
+      <c r="AH101" s="181"/>
+      <c r="AI101" s="181"/>
+      <c r="AJ101" s="181"/>
+      <c r="AK101" s="181"/>
+      <c r="AL101" s="181"/>
+      <c r="AM101" s="181"/>
+      <c r="AN101" s="181"/>
+      <c r="AO101" s="181"/>
+      <c r="AP101" s="181"/>
       <c r="AQ101" s="33"/>
       <c r="AR101" s="15"/>
       <c r="AS101" s="14"/>
@@ -12748,7 +12803,7 @@
         <v>3</v>
       </c>
       <c r="D102" s="65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E102" s="66"/>
       <c r="F102" s="66"/>
@@ -12756,44 +12811,44 @@
       <c r="H102" s="66"/>
       <c r="I102" s="66"/>
       <c r="J102" s="67"/>
-      <c r="K102" s="174" t="s">
+      <c r="K102" s="183" t="s">
+        <v>71</v>
+      </c>
+      <c r="L102" s="184"/>
+      <c r="M102" s="185"/>
+      <c r="N102" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="L102" s="175"/>
-      <c r="M102" s="176"/>
-      <c r="N102" s="174" t="s">
+      <c r="O102" s="184"/>
+      <c r="P102" s="185"/>
+      <c r="Q102" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="O102" s="175"/>
-      <c r="P102" s="176"/>
-      <c r="Q102" s="174" t="s">
-        <v>74</v>
-      </c>
-      <c r="R102" s="176"/>
-      <c r="S102" s="174"/>
-      <c r="T102" s="176"/>
+      <c r="R102" s="185"/>
+      <c r="S102" s="183"/>
+      <c r="T102" s="185"/>
       <c r="U102" s="69"/>
       <c r="V102" s="70"/>
       <c r="W102" s="70"/>
       <c r="X102" s="71"/>
-      <c r="Y102" s="172"/>
-      <c r="Z102" s="172"/>
-      <c r="AA102" s="172"/>
-      <c r="AB102" s="172"/>
-      <c r="AC102" s="173"/>
-      <c r="AD102" s="173"/>
-      <c r="AE102" s="173"/>
-      <c r="AF102" s="173"/>
-      <c r="AG102" s="173"/>
-      <c r="AH102" s="173"/>
-      <c r="AI102" s="173"/>
-      <c r="AJ102" s="173"/>
-      <c r="AK102" s="173"/>
-      <c r="AL102" s="173"/>
-      <c r="AM102" s="173"/>
-      <c r="AN102" s="173"/>
-      <c r="AO102" s="173"/>
-      <c r="AP102" s="173"/>
+      <c r="Y102" s="182"/>
+      <c r="Z102" s="182"/>
+      <c r="AA102" s="182"/>
+      <c r="AB102" s="182"/>
+      <c r="AC102" s="181"/>
+      <c r="AD102" s="181"/>
+      <c r="AE102" s="181"/>
+      <c r="AF102" s="181"/>
+      <c r="AG102" s="181"/>
+      <c r="AH102" s="181"/>
+      <c r="AI102" s="181"/>
+      <c r="AJ102" s="181"/>
+      <c r="AK102" s="181"/>
+      <c r="AL102" s="181"/>
+      <c r="AM102" s="181"/>
+      <c r="AN102" s="181"/>
+      <c r="AO102" s="181"/>
+      <c r="AP102" s="181"/>
       <c r="AQ102" s="33"/>
       <c r="AR102" s="15"/>
       <c r="AS102" s="14"/>
@@ -12816,22 +12871,22 @@
       <c r="H103" s="66"/>
       <c r="I103" s="66"/>
       <c r="J103" s="67"/>
-      <c r="K103" s="174" t="s">
+      <c r="K103" s="183" t="s">
+        <v>74</v>
+      </c>
+      <c r="L103" s="184"/>
+      <c r="M103" s="185"/>
+      <c r="N103" s="183" t="s">
+        <v>72</v>
+      </c>
+      <c r="O103" s="184"/>
+      <c r="P103" s="185"/>
+      <c r="Q103" s="183" t="s">
         <v>75</v>
       </c>
-      <c r="L103" s="175"/>
-      <c r="M103" s="176"/>
-      <c r="N103" s="174" t="s">
-        <v>73</v>
-      </c>
-      <c r="O103" s="175"/>
-      <c r="P103" s="176"/>
-      <c r="Q103" s="174" t="s">
-        <v>76</v>
-      </c>
-      <c r="R103" s="176"/>
-      <c r="S103" s="174"/>
-      <c r="T103" s="176"/>
+      <c r="R103" s="185"/>
+      <c r="S103" s="183"/>
+      <c r="T103" s="185"/>
       <c r="U103" s="69"/>
       <c r="V103" s="70"/>
       <c r="W103" s="70"/>
@@ -12840,22 +12895,22 @@
       <c r="Z103" s="70"/>
       <c r="AA103" s="70"/>
       <c r="AB103" s="52"/>
-      <c r="AC103" s="173" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD103" s="173"/>
-      <c r="AE103" s="173"/>
-      <c r="AF103" s="173"/>
-      <c r="AG103" s="173"/>
-      <c r="AH103" s="173"/>
-      <c r="AI103" s="173"/>
-      <c r="AJ103" s="173"/>
-      <c r="AK103" s="173"/>
-      <c r="AL103" s="173"/>
-      <c r="AM103" s="173"/>
-      <c r="AN103" s="173"/>
-      <c r="AO103" s="173"/>
-      <c r="AP103" s="173"/>
+      <c r="AC103" s="181" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD103" s="181"/>
+      <c r="AE103" s="181"/>
+      <c r="AF103" s="181"/>
+      <c r="AG103" s="181"/>
+      <c r="AH103" s="181"/>
+      <c r="AI103" s="181"/>
+      <c r="AJ103" s="181"/>
+      <c r="AK103" s="181"/>
+      <c r="AL103" s="181"/>
+      <c r="AM103" s="181"/>
+      <c r="AN103" s="181"/>
+      <c r="AO103" s="181"/>
+      <c r="AP103" s="181"/>
       <c r="AQ103" s="33"/>
       <c r="AR103" s="15"/>
       <c r="AS103" s="14"/>
@@ -12870,7 +12925,7 @@
         <v>5</v>
       </c>
       <c r="D104" s="65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E104" s="66"/>
       <c r="F104" s="66"/>
@@ -12878,44 +12933,44 @@
       <c r="H104" s="66"/>
       <c r="I104" s="66"/>
       <c r="J104" s="67"/>
-      <c r="K104" s="174" t="s">
+      <c r="K104" s="183" t="s">
+        <v>71</v>
+      </c>
+      <c r="L104" s="184"/>
+      <c r="M104" s="185"/>
+      <c r="N104" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="L104" s="175"/>
-      <c r="M104" s="176"/>
-      <c r="N104" s="174" t="s">
+      <c r="O104" s="184"/>
+      <c r="P104" s="185"/>
+      <c r="Q104" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="O104" s="175"/>
-      <c r="P104" s="176"/>
-      <c r="Q104" s="174" t="s">
-        <v>74</v>
-      </c>
-      <c r="R104" s="176"/>
-      <c r="S104" s="174"/>
-      <c r="T104" s="176"/>
+      <c r="R104" s="185"/>
+      <c r="S104" s="183"/>
+      <c r="T104" s="185"/>
       <c r="U104" s="69"/>
       <c r="V104" s="70"/>
       <c r="W104" s="70"/>
       <c r="X104" s="71"/>
-      <c r="Y104" s="172"/>
-      <c r="Z104" s="172"/>
-      <c r="AA104" s="172"/>
-      <c r="AB104" s="172"/>
-      <c r="AC104" s="173"/>
-      <c r="AD104" s="173"/>
-      <c r="AE104" s="173"/>
-      <c r="AF104" s="173"/>
-      <c r="AG104" s="173"/>
-      <c r="AH104" s="173"/>
-      <c r="AI104" s="173"/>
-      <c r="AJ104" s="173"/>
-      <c r="AK104" s="173"/>
-      <c r="AL104" s="173"/>
-      <c r="AM104" s="173"/>
-      <c r="AN104" s="173"/>
-      <c r="AO104" s="173"/>
-      <c r="AP104" s="173"/>
+      <c r="Y104" s="182"/>
+      <c r="Z104" s="182"/>
+      <c r="AA104" s="182"/>
+      <c r="AB104" s="182"/>
+      <c r="AC104" s="181"/>
+      <c r="AD104" s="181"/>
+      <c r="AE104" s="181"/>
+      <c r="AF104" s="181"/>
+      <c r="AG104" s="181"/>
+      <c r="AH104" s="181"/>
+      <c r="AI104" s="181"/>
+      <c r="AJ104" s="181"/>
+      <c r="AK104" s="181"/>
+      <c r="AL104" s="181"/>
+      <c r="AM104" s="181"/>
+      <c r="AN104" s="181"/>
+      <c r="AO104" s="181"/>
+      <c r="AP104" s="181"/>
       <c r="AQ104" s="33"/>
       <c r="AR104" s="15"/>
       <c r="AS104" s="14"/>
@@ -12930,7 +12985,7 @@
         <v>6</v>
       </c>
       <c r="D105" s="65" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E105" s="66"/>
       <c r="F105" s="66"/>
@@ -12938,22 +12993,22 @@
       <c r="H105" s="66"/>
       <c r="I105" s="66"/>
       <c r="J105" s="67"/>
-      <c r="K105" s="174" t="s">
+      <c r="K105" s="183" t="s">
+        <v>71</v>
+      </c>
+      <c r="L105" s="184"/>
+      <c r="M105" s="185"/>
+      <c r="N105" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="L105" s="175"/>
-      <c r="M105" s="176"/>
-      <c r="N105" s="174" t="s">
-        <v>73</v>
-      </c>
-      <c r="O105" s="175"/>
-      <c r="P105" s="176"/>
-      <c r="Q105" s="174" t="s">
-        <v>76</v>
-      </c>
-      <c r="R105" s="176"/>
-      <c r="S105" s="174"/>
-      <c r="T105" s="176"/>
+      <c r="O105" s="184"/>
+      <c r="P105" s="185"/>
+      <c r="Q105" s="183" t="s">
+        <v>75</v>
+      </c>
+      <c r="R105" s="185"/>
+      <c r="S105" s="183"/>
+      <c r="T105" s="185"/>
       <c r="U105" s="69"/>
       <c r="V105" s="70"/>
       <c r="W105" s="70"/>
@@ -12962,22 +13017,22 @@
       <c r="Z105" s="70"/>
       <c r="AA105" s="70"/>
       <c r="AB105" s="52"/>
-      <c r="AC105" s="173" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD105" s="173"/>
-      <c r="AE105" s="173"/>
-      <c r="AF105" s="173"/>
-      <c r="AG105" s="173"/>
-      <c r="AH105" s="173"/>
-      <c r="AI105" s="173"/>
-      <c r="AJ105" s="173"/>
-      <c r="AK105" s="173"/>
-      <c r="AL105" s="173"/>
-      <c r="AM105" s="173"/>
-      <c r="AN105" s="173"/>
-      <c r="AO105" s="173"/>
-      <c r="AP105" s="173"/>
+      <c r="AC105" s="181" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD105" s="181"/>
+      <c r="AE105" s="181"/>
+      <c r="AF105" s="181"/>
+      <c r="AG105" s="181"/>
+      <c r="AH105" s="181"/>
+      <c r="AI105" s="181"/>
+      <c r="AJ105" s="181"/>
+      <c r="AK105" s="181"/>
+      <c r="AL105" s="181"/>
+      <c r="AM105" s="181"/>
+      <c r="AN105" s="181"/>
+      <c r="AO105" s="181"/>
+      <c r="AP105" s="181"/>
       <c r="AQ105" s="33"/>
       <c r="AR105" s="15"/>
       <c r="AS105" s="14"/>
@@ -12992,7 +13047,7 @@
         <v>7</v>
       </c>
       <c r="D106" s="65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E106" s="66"/>
       <c r="F106" s="66"/>
@@ -13000,44 +13055,44 @@
       <c r="H106" s="66"/>
       <c r="I106" s="66"/>
       <c r="J106" s="67"/>
-      <c r="K106" s="174" t="s">
+      <c r="K106" s="183" t="s">
+        <v>71</v>
+      </c>
+      <c r="L106" s="184"/>
+      <c r="M106" s="185"/>
+      <c r="N106" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="L106" s="175"/>
-      <c r="M106" s="176"/>
-      <c r="N106" s="174" t="s">
+      <c r="O106" s="184"/>
+      <c r="P106" s="185"/>
+      <c r="Q106" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="O106" s="175"/>
-      <c r="P106" s="176"/>
-      <c r="Q106" s="174" t="s">
-        <v>74</v>
-      </c>
-      <c r="R106" s="176"/>
-      <c r="S106" s="174"/>
-      <c r="T106" s="176"/>
+      <c r="R106" s="185"/>
+      <c r="S106" s="183"/>
+      <c r="T106" s="185"/>
       <c r="U106" s="69"/>
       <c r="V106" s="70"/>
       <c r="W106" s="70"/>
       <c r="X106" s="71"/>
-      <c r="Y106" s="172"/>
-      <c r="Z106" s="172"/>
-      <c r="AA106" s="172"/>
-      <c r="AB106" s="172"/>
-      <c r="AC106" s="173"/>
-      <c r="AD106" s="173"/>
-      <c r="AE106" s="173"/>
-      <c r="AF106" s="173"/>
-      <c r="AG106" s="173"/>
-      <c r="AH106" s="173"/>
-      <c r="AI106" s="173"/>
-      <c r="AJ106" s="173"/>
-      <c r="AK106" s="173"/>
-      <c r="AL106" s="173"/>
-      <c r="AM106" s="173"/>
-      <c r="AN106" s="173"/>
-      <c r="AO106" s="173"/>
-      <c r="AP106" s="173"/>
+      <c r="Y106" s="182"/>
+      <c r="Z106" s="182"/>
+      <c r="AA106" s="182"/>
+      <c r="AB106" s="182"/>
+      <c r="AC106" s="181"/>
+      <c r="AD106" s="181"/>
+      <c r="AE106" s="181"/>
+      <c r="AF106" s="181"/>
+      <c r="AG106" s="181"/>
+      <c r="AH106" s="181"/>
+      <c r="AI106" s="181"/>
+      <c r="AJ106" s="181"/>
+      <c r="AK106" s="181"/>
+      <c r="AL106" s="181"/>
+      <c r="AM106" s="181"/>
+      <c r="AN106" s="181"/>
+      <c r="AO106" s="181"/>
+      <c r="AP106" s="181"/>
       <c r="AQ106" s="33"/>
       <c r="AR106" s="15"/>
       <c r="AS106" s="14"/>
@@ -13060,22 +13115,22 @@
       <c r="H107" s="66"/>
       <c r="I107" s="66"/>
       <c r="J107" s="67"/>
-      <c r="K107" s="174" t="s">
+      <c r="K107" s="183" t="s">
+        <v>74</v>
+      </c>
+      <c r="L107" s="184"/>
+      <c r="M107" s="185"/>
+      <c r="N107" s="183" t="s">
+        <v>72</v>
+      </c>
+      <c r="O107" s="184"/>
+      <c r="P107" s="185"/>
+      <c r="Q107" s="183" t="s">
         <v>75</v>
       </c>
-      <c r="L107" s="175"/>
-      <c r="M107" s="176"/>
-      <c r="N107" s="174" t="s">
-        <v>73</v>
-      </c>
-      <c r="O107" s="175"/>
-      <c r="P107" s="176"/>
-      <c r="Q107" s="174" t="s">
-        <v>76</v>
-      </c>
-      <c r="R107" s="176"/>
-      <c r="S107" s="174"/>
-      <c r="T107" s="176"/>
+      <c r="R107" s="185"/>
+      <c r="S107" s="183"/>
+      <c r="T107" s="185"/>
       <c r="U107" s="69"/>
       <c r="V107" s="70"/>
       <c r="W107" s="70"/>
@@ -13084,22 +13139,22 @@
       <c r="Z107" s="70"/>
       <c r="AA107" s="70"/>
       <c r="AB107" s="52"/>
-      <c r="AC107" s="173" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD107" s="173"/>
-      <c r="AE107" s="173"/>
-      <c r="AF107" s="173"/>
-      <c r="AG107" s="173"/>
-      <c r="AH107" s="173"/>
-      <c r="AI107" s="173"/>
-      <c r="AJ107" s="173"/>
-      <c r="AK107" s="173"/>
-      <c r="AL107" s="173"/>
-      <c r="AM107" s="173"/>
-      <c r="AN107" s="173"/>
-      <c r="AO107" s="173"/>
-      <c r="AP107" s="173"/>
+      <c r="AC107" s="181" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD107" s="181"/>
+      <c r="AE107" s="181"/>
+      <c r="AF107" s="181"/>
+      <c r="AG107" s="181"/>
+      <c r="AH107" s="181"/>
+      <c r="AI107" s="181"/>
+      <c r="AJ107" s="181"/>
+      <c r="AK107" s="181"/>
+      <c r="AL107" s="181"/>
+      <c r="AM107" s="181"/>
+      <c r="AN107" s="181"/>
+      <c r="AO107" s="181"/>
+      <c r="AP107" s="181"/>
       <c r="AQ107" s="33"/>
       <c r="AR107" s="15"/>
       <c r="AS107" s="14"/>
@@ -13114,7 +13169,7 @@
         <v>9</v>
       </c>
       <c r="D108" s="65" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E108" s="66"/>
       <c r="F108" s="66"/>
@@ -13122,44 +13177,44 @@
       <c r="H108" s="66"/>
       <c r="I108" s="66"/>
       <c r="J108" s="67"/>
-      <c r="K108" s="174" t="s">
+      <c r="K108" s="183" t="s">
+        <v>71</v>
+      </c>
+      <c r="L108" s="184"/>
+      <c r="M108" s="185"/>
+      <c r="N108" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="L108" s="175"/>
-      <c r="M108" s="176"/>
-      <c r="N108" s="174" t="s">
+      <c r="O108" s="184"/>
+      <c r="P108" s="185"/>
+      <c r="Q108" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="O108" s="175"/>
-      <c r="P108" s="176"/>
-      <c r="Q108" s="174" t="s">
-        <v>74</v>
-      </c>
-      <c r="R108" s="176"/>
+      <c r="R108" s="185"/>
       <c r="S108" s="64"/>
       <c r="T108" s="68"/>
       <c r="U108" s="69"/>
       <c r="V108" s="70"/>
       <c r="W108" s="70"/>
       <c r="X108" s="71"/>
-      <c r="Y108" s="172"/>
-      <c r="Z108" s="172"/>
-      <c r="AA108" s="172"/>
-      <c r="AB108" s="172"/>
-      <c r="AC108" s="173"/>
-      <c r="AD108" s="173"/>
-      <c r="AE108" s="173"/>
-      <c r="AF108" s="173"/>
-      <c r="AG108" s="173"/>
-      <c r="AH108" s="173"/>
-      <c r="AI108" s="173"/>
-      <c r="AJ108" s="173"/>
-      <c r="AK108" s="173"/>
-      <c r="AL108" s="173"/>
-      <c r="AM108" s="173"/>
-      <c r="AN108" s="173"/>
-      <c r="AO108" s="173"/>
-      <c r="AP108" s="173"/>
+      <c r="Y108" s="182"/>
+      <c r="Z108" s="182"/>
+      <c r="AA108" s="182"/>
+      <c r="AB108" s="182"/>
+      <c r="AC108" s="181"/>
+      <c r="AD108" s="181"/>
+      <c r="AE108" s="181"/>
+      <c r="AF108" s="181"/>
+      <c r="AG108" s="181"/>
+      <c r="AH108" s="181"/>
+      <c r="AI108" s="181"/>
+      <c r="AJ108" s="181"/>
+      <c r="AK108" s="181"/>
+      <c r="AL108" s="181"/>
+      <c r="AM108" s="181"/>
+      <c r="AN108" s="181"/>
+      <c r="AO108" s="181"/>
+      <c r="AP108" s="181"/>
       <c r="AQ108" s="33"/>
       <c r="AR108" s="15"/>
       <c r="AS108" s="14"/>
@@ -13182,20 +13237,20 @@
       <c r="H109" s="66"/>
       <c r="I109" s="66"/>
       <c r="J109" s="67"/>
-      <c r="K109" s="172" t="s">
+      <c r="K109" s="182" t="s">
+        <v>83</v>
+      </c>
+      <c r="L109" s="182"/>
+      <c r="M109" s="182"/>
+      <c r="N109" s="182" t="s">
         <v>84</v>
       </c>
-      <c r="L109" s="172"/>
-      <c r="M109" s="172"/>
-      <c r="N109" s="172" t="s">
-        <v>85</v>
-      </c>
-      <c r="O109" s="172"/>
-      <c r="P109" s="172"/>
-      <c r="Q109" s="174" t="s">
-        <v>76</v>
-      </c>
-      <c r="R109" s="176"/>
+      <c r="O109" s="182"/>
+      <c r="P109" s="182"/>
+      <c r="Q109" s="183" t="s">
+        <v>75</v>
+      </c>
+      <c r="R109" s="185"/>
       <c r="S109" s="64"/>
       <c r="T109" s="68"/>
       <c r="U109" s="69"/>
@@ -13206,22 +13261,22 @@
       <c r="Z109" s="70"/>
       <c r="AA109" s="70"/>
       <c r="AB109" s="52"/>
-      <c r="AC109" s="173" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD109" s="173"/>
-      <c r="AE109" s="173"/>
-      <c r="AF109" s="173"/>
-      <c r="AG109" s="173"/>
-      <c r="AH109" s="173"/>
-      <c r="AI109" s="173"/>
-      <c r="AJ109" s="173"/>
-      <c r="AK109" s="173"/>
-      <c r="AL109" s="173"/>
-      <c r="AM109" s="173"/>
-      <c r="AN109" s="173"/>
-      <c r="AO109" s="173"/>
-      <c r="AP109" s="173"/>
+      <c r="AC109" s="181" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD109" s="181"/>
+      <c r="AE109" s="181"/>
+      <c r="AF109" s="181"/>
+      <c r="AG109" s="181"/>
+      <c r="AH109" s="181"/>
+      <c r="AI109" s="181"/>
+      <c r="AJ109" s="181"/>
+      <c r="AK109" s="181"/>
+      <c r="AL109" s="181"/>
+      <c r="AM109" s="181"/>
+      <c r="AN109" s="181"/>
+      <c r="AO109" s="181"/>
+      <c r="AP109" s="181"/>
       <c r="AQ109" s="33"/>
       <c r="AR109" s="15"/>
       <c r="AS109" s="14"/>
@@ -13236,7 +13291,7 @@
         <v>11</v>
       </c>
       <c r="D110" s="65" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E110" s="66"/>
       <c r="F110" s="66"/>
@@ -13244,44 +13299,44 @@
       <c r="H110" s="66"/>
       <c r="I110" s="66"/>
       <c r="J110" s="67"/>
-      <c r="K110" s="174" t="s">
+      <c r="K110" s="183" t="s">
+        <v>71</v>
+      </c>
+      <c r="L110" s="184"/>
+      <c r="M110" s="185"/>
+      <c r="N110" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="L110" s="175"/>
-      <c r="M110" s="176"/>
-      <c r="N110" s="174" t="s">
+      <c r="O110" s="184"/>
+      <c r="P110" s="185"/>
+      <c r="Q110" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="O110" s="175"/>
-      <c r="P110" s="176"/>
-      <c r="Q110" s="174" t="s">
-        <v>74</v>
-      </c>
-      <c r="R110" s="176"/>
+      <c r="R110" s="185"/>
       <c r="S110" s="64"/>
       <c r="T110" s="68"/>
       <c r="U110" s="69"/>
       <c r="V110" s="70"/>
       <c r="W110" s="70"/>
       <c r="X110" s="71"/>
-      <c r="Y110" s="172"/>
-      <c r="Z110" s="172"/>
-      <c r="AA110" s="172"/>
-      <c r="AB110" s="172"/>
-      <c r="AC110" s="173"/>
-      <c r="AD110" s="173"/>
-      <c r="AE110" s="173"/>
-      <c r="AF110" s="173"/>
-      <c r="AG110" s="173"/>
-      <c r="AH110" s="173"/>
-      <c r="AI110" s="173"/>
-      <c r="AJ110" s="173"/>
-      <c r="AK110" s="173"/>
-      <c r="AL110" s="173"/>
-      <c r="AM110" s="173"/>
-      <c r="AN110" s="173"/>
-      <c r="AO110" s="173"/>
-      <c r="AP110" s="173"/>
+      <c r="Y110" s="182"/>
+      <c r="Z110" s="182"/>
+      <c r="AA110" s="182"/>
+      <c r="AB110" s="182"/>
+      <c r="AC110" s="181"/>
+      <c r="AD110" s="181"/>
+      <c r="AE110" s="181"/>
+      <c r="AF110" s="181"/>
+      <c r="AG110" s="181"/>
+      <c r="AH110" s="181"/>
+      <c r="AI110" s="181"/>
+      <c r="AJ110" s="181"/>
+      <c r="AK110" s="181"/>
+      <c r="AL110" s="181"/>
+      <c r="AM110" s="181"/>
+      <c r="AN110" s="181"/>
+      <c r="AO110" s="181"/>
+      <c r="AP110" s="181"/>
       <c r="AQ110" s="33"/>
       <c r="AR110" s="15"/>
       <c r="AS110" s="14"/>
@@ -13304,20 +13359,20 @@
       <c r="H111" s="66"/>
       <c r="I111" s="66"/>
       <c r="J111" s="67"/>
-      <c r="K111" s="172" t="s">
+      <c r="K111" s="182" t="s">
+        <v>83</v>
+      </c>
+      <c r="L111" s="182"/>
+      <c r="M111" s="182"/>
+      <c r="N111" s="182" t="s">
         <v>84</v>
       </c>
-      <c r="L111" s="172"/>
-      <c r="M111" s="172"/>
-      <c r="N111" s="172" t="s">
-        <v>85</v>
-      </c>
-      <c r="O111" s="172"/>
-      <c r="P111" s="172"/>
-      <c r="Q111" s="174" t="s">
-        <v>76</v>
-      </c>
-      <c r="R111" s="176"/>
+      <c r="O111" s="182"/>
+      <c r="P111" s="182"/>
+      <c r="Q111" s="183" t="s">
+        <v>75</v>
+      </c>
+      <c r="R111" s="185"/>
       <c r="S111" s="64"/>
       <c r="T111" s="68"/>
       <c r="U111" s="69"/>
@@ -13328,22 +13383,22 @@
       <c r="Z111" s="70"/>
       <c r="AA111" s="70"/>
       <c r="AB111" s="52"/>
-      <c r="AC111" s="173" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD111" s="173"/>
-      <c r="AE111" s="173"/>
-      <c r="AF111" s="173"/>
-      <c r="AG111" s="173"/>
-      <c r="AH111" s="173"/>
-      <c r="AI111" s="173"/>
-      <c r="AJ111" s="173"/>
-      <c r="AK111" s="173"/>
-      <c r="AL111" s="173"/>
-      <c r="AM111" s="173"/>
-      <c r="AN111" s="173"/>
-      <c r="AO111" s="173"/>
-      <c r="AP111" s="173"/>
+      <c r="AC111" s="181" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD111" s="181"/>
+      <c r="AE111" s="181"/>
+      <c r="AF111" s="181"/>
+      <c r="AG111" s="181"/>
+      <c r="AH111" s="181"/>
+      <c r="AI111" s="181"/>
+      <c r="AJ111" s="181"/>
+      <c r="AK111" s="181"/>
+      <c r="AL111" s="181"/>
+      <c r="AM111" s="181"/>
+      <c r="AN111" s="181"/>
+      <c r="AO111" s="181"/>
+      <c r="AP111" s="181"/>
       <c r="AQ111" s="33"/>
       <c r="AR111" s="15"/>
       <c r="AS111" s="14"/>
@@ -13358,7 +13413,7 @@
         <v>13</v>
       </c>
       <c r="D112" s="65" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E112" s="66"/>
       <c r="F112" s="66"/>
@@ -13366,44 +13421,44 @@
       <c r="H112" s="66"/>
       <c r="I112" s="66"/>
       <c r="J112" s="67"/>
-      <c r="K112" s="174" t="s">
+      <c r="K112" s="183" t="s">
+        <v>71</v>
+      </c>
+      <c r="L112" s="184"/>
+      <c r="M112" s="185"/>
+      <c r="N112" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="L112" s="175"/>
-      <c r="M112" s="176"/>
-      <c r="N112" s="174" t="s">
+      <c r="O112" s="184"/>
+      <c r="P112" s="185"/>
+      <c r="Q112" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="O112" s="175"/>
-      <c r="P112" s="176"/>
-      <c r="Q112" s="174" t="s">
-        <v>74</v>
-      </c>
-      <c r="R112" s="176"/>
-      <c r="S112" s="174"/>
-      <c r="T112" s="176"/>
+      <c r="R112" s="185"/>
+      <c r="S112" s="183"/>
+      <c r="T112" s="185"/>
       <c r="U112" s="69"/>
       <c r="V112" s="70"/>
       <c r="W112" s="70"/>
       <c r="X112" s="71"/>
-      <c r="Y112" s="172"/>
-      <c r="Z112" s="172"/>
-      <c r="AA112" s="172"/>
-      <c r="AB112" s="172"/>
-      <c r="AC112" s="173"/>
-      <c r="AD112" s="173"/>
-      <c r="AE112" s="173"/>
-      <c r="AF112" s="173"/>
-      <c r="AG112" s="173"/>
-      <c r="AH112" s="173"/>
-      <c r="AI112" s="173"/>
-      <c r="AJ112" s="173"/>
-      <c r="AK112" s="173"/>
-      <c r="AL112" s="173"/>
-      <c r="AM112" s="173"/>
-      <c r="AN112" s="173"/>
-      <c r="AO112" s="173"/>
-      <c r="AP112" s="173"/>
+      <c r="Y112" s="182"/>
+      <c r="Z112" s="182"/>
+      <c r="AA112" s="182"/>
+      <c r="AB112" s="182"/>
+      <c r="AC112" s="181"/>
+      <c r="AD112" s="181"/>
+      <c r="AE112" s="181"/>
+      <c r="AF112" s="181"/>
+      <c r="AG112" s="181"/>
+      <c r="AH112" s="181"/>
+      <c r="AI112" s="181"/>
+      <c r="AJ112" s="181"/>
+      <c r="AK112" s="181"/>
+      <c r="AL112" s="181"/>
+      <c r="AM112" s="181"/>
+      <c r="AN112" s="181"/>
+      <c r="AO112" s="181"/>
+      <c r="AP112" s="181"/>
       <c r="AQ112" s="33"/>
       <c r="AR112" s="15"/>
       <c r="AS112" s="14"/>
@@ -13426,22 +13481,22 @@
       <c r="H113" s="66"/>
       <c r="I113" s="66"/>
       <c r="J113" s="67"/>
-      <c r="K113" s="174" t="s">
-        <v>90</v>
-      </c>
-      <c r="L113" s="175"/>
-      <c r="M113" s="176"/>
-      <c r="N113" s="172" t="s">
-        <v>85</v>
-      </c>
-      <c r="O113" s="172"/>
-      <c r="P113" s="172"/>
-      <c r="Q113" s="174" t="s">
-        <v>76</v>
-      </c>
-      <c r="R113" s="176"/>
-      <c r="S113" s="174"/>
-      <c r="T113" s="176"/>
+      <c r="K113" s="183" t="s">
+        <v>89</v>
+      </c>
+      <c r="L113" s="184"/>
+      <c r="M113" s="185"/>
+      <c r="N113" s="182" t="s">
+        <v>84</v>
+      </c>
+      <c r="O113" s="182"/>
+      <c r="P113" s="182"/>
+      <c r="Q113" s="183" t="s">
+        <v>75</v>
+      </c>
+      <c r="R113" s="185"/>
+      <c r="S113" s="183"/>
+      <c r="T113" s="185"/>
       <c r="U113" s="69"/>
       <c r="V113" s="70"/>
       <c r="W113" s="70"/>
@@ -13450,22 +13505,22 @@
       <c r="Z113" s="70"/>
       <c r="AA113" s="70"/>
       <c r="AB113" s="52"/>
-      <c r="AC113" s="173" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD113" s="173"/>
-      <c r="AE113" s="173"/>
-      <c r="AF113" s="173"/>
-      <c r="AG113" s="173"/>
-      <c r="AH113" s="173"/>
-      <c r="AI113" s="173"/>
-      <c r="AJ113" s="173"/>
-      <c r="AK113" s="173"/>
-      <c r="AL113" s="173"/>
-      <c r="AM113" s="173"/>
-      <c r="AN113" s="173"/>
-      <c r="AO113" s="173"/>
-      <c r="AP113" s="173"/>
+      <c r="AC113" s="181" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD113" s="181"/>
+      <c r="AE113" s="181"/>
+      <c r="AF113" s="181"/>
+      <c r="AG113" s="181"/>
+      <c r="AH113" s="181"/>
+      <c r="AI113" s="181"/>
+      <c r="AJ113" s="181"/>
+      <c r="AK113" s="181"/>
+      <c r="AL113" s="181"/>
+      <c r="AM113" s="181"/>
+      <c r="AN113" s="181"/>
+      <c r="AO113" s="181"/>
+      <c r="AP113" s="181"/>
       <c r="AQ113" s="33"/>
       <c r="AR113" s="15"/>
       <c r="AS113" s="14"/>
@@ -13480,7 +13535,7 @@
         <v>15</v>
       </c>
       <c r="D114" s="74" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E114" s="75"/>
       <c r="F114" s="75"/>
@@ -13488,44 +13543,44 @@
       <c r="H114" s="75"/>
       <c r="I114" s="75"/>
       <c r="J114" s="76"/>
-      <c r="K114" s="172" t="s">
+      <c r="K114" s="182" t="s">
+        <v>71</v>
+      </c>
+      <c r="L114" s="182"/>
+      <c r="M114" s="182"/>
+      <c r="N114" s="182" t="s">
         <v>72</v>
       </c>
-      <c r="L114" s="172"/>
-      <c r="M114" s="172"/>
-      <c r="N114" s="172" t="s">
+      <c r="O114" s="182"/>
+      <c r="P114" s="182"/>
+      <c r="Q114" s="182" t="s">
         <v>73</v>
       </c>
-      <c r="O114" s="172"/>
-      <c r="P114" s="172"/>
-      <c r="Q114" s="172" t="s">
-        <v>74</v>
-      </c>
-      <c r="R114" s="172"/>
-      <c r="S114" s="172"/>
-      <c r="T114" s="172"/>
+      <c r="R114" s="182"/>
+      <c r="S114" s="182"/>
+      <c r="T114" s="182"/>
       <c r="U114" s="77"/>
       <c r="V114" s="70"/>
       <c r="W114" s="70"/>
       <c r="X114" s="71"/>
-      <c r="Y114" s="172"/>
-      <c r="Z114" s="172"/>
-      <c r="AA114" s="172"/>
-      <c r="AB114" s="172"/>
-      <c r="AC114" s="173"/>
-      <c r="AD114" s="173"/>
-      <c r="AE114" s="173"/>
-      <c r="AF114" s="173"/>
-      <c r="AG114" s="173"/>
-      <c r="AH114" s="173"/>
-      <c r="AI114" s="173"/>
-      <c r="AJ114" s="173"/>
-      <c r="AK114" s="173"/>
-      <c r="AL114" s="173"/>
-      <c r="AM114" s="173"/>
-      <c r="AN114" s="173"/>
-      <c r="AO114" s="173"/>
-      <c r="AP114" s="173"/>
+      <c r="Y114" s="182"/>
+      <c r="Z114" s="182"/>
+      <c r="AA114" s="182"/>
+      <c r="AB114" s="182"/>
+      <c r="AC114" s="181"/>
+      <c r="AD114" s="181"/>
+      <c r="AE114" s="181"/>
+      <c r="AF114" s="181"/>
+      <c r="AG114" s="181"/>
+      <c r="AH114" s="181"/>
+      <c r="AI114" s="181"/>
+      <c r="AJ114" s="181"/>
+      <c r="AK114" s="181"/>
+      <c r="AL114" s="181"/>
+      <c r="AM114" s="181"/>
+      <c r="AN114" s="181"/>
+      <c r="AO114" s="181"/>
+      <c r="AP114" s="181"/>
       <c r="AQ114" s="33"/>
       <c r="AR114" s="15"/>
       <c r="AS114" s="14"/>
@@ -13540,7 +13595,7 @@
         <v>16</v>
       </c>
       <c r="D115" s="74" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E115" s="75"/>
       <c r="F115" s="75"/>
@@ -13548,22 +13603,22 @@
       <c r="H115" s="75"/>
       <c r="I115" s="75"/>
       <c r="J115" s="76"/>
-      <c r="K115" s="172" t="s">
-        <v>90</v>
-      </c>
-      <c r="L115" s="172"/>
-      <c r="M115" s="172"/>
-      <c r="N115" s="172" t="s">
-        <v>85</v>
-      </c>
-      <c r="O115" s="172"/>
-      <c r="P115" s="172"/>
-      <c r="Q115" s="172" t="s">
-        <v>76</v>
-      </c>
-      <c r="R115" s="172"/>
-      <c r="S115" s="172"/>
-      <c r="T115" s="172"/>
+      <c r="K115" s="182" t="s">
+        <v>89</v>
+      </c>
+      <c r="L115" s="182"/>
+      <c r="M115" s="182"/>
+      <c r="N115" s="182" t="s">
+        <v>84</v>
+      </c>
+      <c r="O115" s="182"/>
+      <c r="P115" s="182"/>
+      <c r="Q115" s="182" t="s">
+        <v>75</v>
+      </c>
+      <c r="R115" s="182"/>
+      <c r="S115" s="182"/>
+      <c r="T115" s="182"/>
       <c r="U115" s="77"/>
       <c r="V115" s="70"/>
       <c r="W115" s="70"/>
@@ -13572,22 +13627,22 @@
       <c r="Z115" s="70"/>
       <c r="AA115" s="70"/>
       <c r="AB115" s="104"/>
-      <c r="AC115" s="173" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD115" s="173"/>
-      <c r="AE115" s="173"/>
-      <c r="AF115" s="173"/>
-      <c r="AG115" s="173"/>
-      <c r="AH115" s="173"/>
-      <c r="AI115" s="173"/>
-      <c r="AJ115" s="173"/>
-      <c r="AK115" s="173"/>
-      <c r="AL115" s="173"/>
-      <c r="AM115" s="173"/>
-      <c r="AN115" s="173"/>
-      <c r="AO115" s="173"/>
-      <c r="AP115" s="173"/>
+      <c r="AC115" s="181" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD115" s="181"/>
+      <c r="AE115" s="181"/>
+      <c r="AF115" s="181"/>
+      <c r="AG115" s="181"/>
+      <c r="AH115" s="181"/>
+      <c r="AI115" s="181"/>
+      <c r="AJ115" s="181"/>
+      <c r="AK115" s="181"/>
+      <c r="AL115" s="181"/>
+      <c r="AM115" s="181"/>
+      <c r="AN115" s="181"/>
+      <c r="AO115" s="181"/>
+      <c r="AP115" s="181"/>
       <c r="AQ115" s="33"/>
       <c r="AR115" s="15"/>
       <c r="AS115" s="14"/>
@@ -13602,7 +13657,7 @@
         <v>17</v>
       </c>
       <c r="D116" s="74" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E116" s="75"/>
       <c r="F116" s="75"/>
@@ -13610,44 +13665,44 @@
       <c r="H116" s="75"/>
       <c r="I116" s="75"/>
       <c r="J116" s="76"/>
-      <c r="K116" s="172" t="s">
+      <c r="K116" s="182" t="s">
+        <v>71</v>
+      </c>
+      <c r="L116" s="182"/>
+      <c r="M116" s="182"/>
+      <c r="N116" s="182" t="s">
         <v>72</v>
       </c>
-      <c r="L116" s="172"/>
-      <c r="M116" s="172"/>
-      <c r="N116" s="172" t="s">
+      <c r="O116" s="182"/>
+      <c r="P116" s="182"/>
+      <c r="Q116" s="182" t="s">
         <v>73</v>
       </c>
-      <c r="O116" s="172"/>
-      <c r="P116" s="172"/>
-      <c r="Q116" s="172" t="s">
-        <v>74</v>
-      </c>
-      <c r="R116" s="172"/>
-      <c r="S116" s="172"/>
-      <c r="T116" s="172"/>
+      <c r="R116" s="182"/>
+      <c r="S116" s="182"/>
+      <c r="T116" s="182"/>
       <c r="U116" s="77"/>
       <c r="V116" s="70"/>
       <c r="W116" s="70"/>
       <c r="X116" s="71"/>
-      <c r="Y116" s="172"/>
-      <c r="Z116" s="172"/>
-      <c r="AA116" s="172"/>
-      <c r="AB116" s="172"/>
-      <c r="AC116" s="173"/>
-      <c r="AD116" s="173"/>
-      <c r="AE116" s="173"/>
-      <c r="AF116" s="173"/>
-      <c r="AG116" s="173"/>
-      <c r="AH116" s="173"/>
-      <c r="AI116" s="173"/>
-      <c r="AJ116" s="173"/>
-      <c r="AK116" s="173"/>
-      <c r="AL116" s="173"/>
-      <c r="AM116" s="173"/>
-      <c r="AN116" s="173"/>
-      <c r="AO116" s="173"/>
-      <c r="AP116" s="173"/>
+      <c r="Y116" s="182"/>
+      <c r="Z116" s="182"/>
+      <c r="AA116" s="182"/>
+      <c r="AB116" s="182"/>
+      <c r="AC116" s="181"/>
+      <c r="AD116" s="181"/>
+      <c r="AE116" s="181"/>
+      <c r="AF116" s="181"/>
+      <c r="AG116" s="181"/>
+      <c r="AH116" s="181"/>
+      <c r="AI116" s="181"/>
+      <c r="AJ116" s="181"/>
+      <c r="AK116" s="181"/>
+      <c r="AL116" s="181"/>
+      <c r="AM116" s="181"/>
+      <c r="AN116" s="181"/>
+      <c r="AO116" s="181"/>
+      <c r="AP116" s="181"/>
       <c r="AQ116" s="33"/>
       <c r="AR116" s="15"/>
       <c r="AS116" s="14"/>
@@ -13662,7 +13717,7 @@
         <v>18</v>
       </c>
       <c r="D117" s="74" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E117" s="75"/>
       <c r="F117" s="75"/>
@@ -13670,22 +13725,22 @@
       <c r="H117" s="75"/>
       <c r="I117" s="75"/>
       <c r="J117" s="76"/>
-      <c r="K117" s="172" t="s">
-        <v>95</v>
-      </c>
-      <c r="L117" s="172"/>
-      <c r="M117" s="172"/>
-      <c r="N117" s="172" t="s">
-        <v>85</v>
-      </c>
-      <c r="O117" s="172"/>
-      <c r="P117" s="172"/>
-      <c r="Q117" s="172" t="s">
-        <v>76</v>
-      </c>
-      <c r="R117" s="172"/>
-      <c r="S117" s="172"/>
-      <c r="T117" s="172"/>
+      <c r="K117" s="182" t="s">
+        <v>94</v>
+      </c>
+      <c r="L117" s="182"/>
+      <c r="M117" s="182"/>
+      <c r="N117" s="182" t="s">
+        <v>84</v>
+      </c>
+      <c r="O117" s="182"/>
+      <c r="P117" s="182"/>
+      <c r="Q117" s="182" t="s">
+        <v>75</v>
+      </c>
+      <c r="R117" s="182"/>
+      <c r="S117" s="182"/>
+      <c r="T117" s="182"/>
       <c r="U117" s="77"/>
       <c r="V117" s="70"/>
       <c r="W117" s="70"/>
@@ -13694,22 +13749,22 @@
       <c r="Z117" s="70"/>
       <c r="AA117" s="70"/>
       <c r="AB117" s="104"/>
-      <c r="AC117" s="173" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD117" s="173"/>
-      <c r="AE117" s="173"/>
-      <c r="AF117" s="173"/>
-      <c r="AG117" s="173"/>
-      <c r="AH117" s="173"/>
-      <c r="AI117" s="173"/>
-      <c r="AJ117" s="173"/>
-      <c r="AK117" s="173"/>
-      <c r="AL117" s="173"/>
-      <c r="AM117" s="173"/>
-      <c r="AN117" s="173"/>
-      <c r="AO117" s="173"/>
-      <c r="AP117" s="173"/>
+      <c r="AC117" s="181" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD117" s="181"/>
+      <c r="AE117" s="181"/>
+      <c r="AF117" s="181"/>
+      <c r="AG117" s="181"/>
+      <c r="AH117" s="181"/>
+      <c r="AI117" s="181"/>
+      <c r="AJ117" s="181"/>
+      <c r="AK117" s="181"/>
+      <c r="AL117" s="181"/>
+      <c r="AM117" s="181"/>
+      <c r="AN117" s="181"/>
+      <c r="AO117" s="181"/>
+      <c r="AP117" s="181"/>
       <c r="AQ117" s="33"/>
       <c r="AR117" s="15"/>
       <c r="AS117" s="14"/>
@@ -13723,31 +13778,31 @@
       <c r="C118" s="64">
         <v>19</v>
       </c>
-      <c r="D118" s="173" t="s">
-        <v>97</v>
-      </c>
-      <c r="E118" s="173"/>
-      <c r="F118" s="173"/>
-      <c r="G118" s="173"/>
-      <c r="H118" s="173"/>
-      <c r="I118" s="173"/>
-      <c r="J118" s="173"/>
-      <c r="K118" s="174" t="s">
+      <c r="D118" s="181" t="s">
+        <v>96</v>
+      </c>
+      <c r="E118" s="181"/>
+      <c r="F118" s="181"/>
+      <c r="G118" s="181"/>
+      <c r="H118" s="181"/>
+      <c r="I118" s="181"/>
+      <c r="J118" s="181"/>
+      <c r="K118" s="183" t="s">
+        <v>74</v>
+      </c>
+      <c r="L118" s="184"/>
+      <c r="M118" s="185"/>
+      <c r="N118" s="183" t="s">
+        <v>72</v>
+      </c>
+      <c r="O118" s="184"/>
+      <c r="P118" s="185"/>
+      <c r="Q118" s="183" t="s">
         <v>75</v>
       </c>
-      <c r="L118" s="175"/>
-      <c r="M118" s="176"/>
-      <c r="N118" s="174" t="s">
-        <v>73</v>
-      </c>
-      <c r="O118" s="175"/>
-      <c r="P118" s="176"/>
-      <c r="Q118" s="174" t="s">
-        <v>76</v>
-      </c>
-      <c r="R118" s="176"/>
-      <c r="S118" s="174"/>
-      <c r="T118" s="176"/>
+      <c r="R118" s="185"/>
+      <c r="S118" s="183"/>
+      <c r="T118" s="185"/>
       <c r="U118" s="69"/>
       <c r="V118" s="70"/>
       <c r="W118" s="70"/>
@@ -13756,22 +13811,22 @@
       <c r="Z118" s="70"/>
       <c r="AA118" s="70"/>
       <c r="AB118" s="52"/>
-      <c r="AC118" s="173" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD118" s="173"/>
-      <c r="AE118" s="173"/>
-      <c r="AF118" s="173"/>
-      <c r="AG118" s="173"/>
-      <c r="AH118" s="173"/>
-      <c r="AI118" s="173"/>
-      <c r="AJ118" s="173"/>
-      <c r="AK118" s="173"/>
-      <c r="AL118" s="173"/>
-      <c r="AM118" s="173"/>
-      <c r="AN118" s="173"/>
-      <c r="AO118" s="173"/>
-      <c r="AP118" s="173"/>
+      <c r="AC118" s="181" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD118" s="181"/>
+      <c r="AE118" s="181"/>
+      <c r="AF118" s="181"/>
+      <c r="AG118" s="181"/>
+      <c r="AH118" s="181"/>
+      <c r="AI118" s="181"/>
+      <c r="AJ118" s="181"/>
+      <c r="AK118" s="181"/>
+      <c r="AL118" s="181"/>
+      <c r="AM118" s="181"/>
+      <c r="AN118" s="181"/>
+      <c r="AO118" s="181"/>
+      <c r="AP118" s="181"/>
       <c r="AQ118" s="33"/>
       <c r="AR118" s="15"/>
       <c r="AS118" s="14"/>
@@ -13783,47 +13838,47 @@
       <c r="A119" s="31"/>
       <c r="B119" s="33"/>
       <c r="C119" s="78"/>
-      <c r="D119" s="172" t="s">
+      <c r="D119" s="182" t="s">
         <v>26</v>
       </c>
-      <c r="E119" s="172"/>
-      <c r="F119" s="172"/>
-      <c r="G119" s="172"/>
-      <c r="H119" s="172"/>
-      <c r="I119" s="172"/>
-      <c r="J119" s="172"/>
-      <c r="K119" s="172"/>
-      <c r="L119" s="172"/>
-      <c r="M119" s="172"/>
-      <c r="N119" s="172"/>
-      <c r="O119" s="172"/>
-      <c r="P119" s="172"/>
-      <c r="Q119" s="172"/>
-      <c r="R119" s="172"/>
-      <c r="S119" s="172"/>
-      <c r="T119" s="172"/>
-      <c r="U119" s="172"/>
-      <c r="V119" s="172"/>
-      <c r="W119" s="172"/>
-      <c r="X119" s="172"/>
-      <c r="Y119" s="172"/>
-      <c r="Z119" s="172"/>
-      <c r="AA119" s="172"/>
-      <c r="AB119" s="172"/>
-      <c r="AC119" s="172"/>
-      <c r="AD119" s="172"/>
-      <c r="AE119" s="172"/>
-      <c r="AF119" s="172"/>
-      <c r="AG119" s="172"/>
-      <c r="AH119" s="172"/>
-      <c r="AI119" s="172"/>
-      <c r="AJ119" s="172"/>
-      <c r="AK119" s="172"/>
-      <c r="AL119" s="172"/>
-      <c r="AM119" s="172"/>
-      <c r="AN119" s="172"/>
-      <c r="AO119" s="172"/>
-      <c r="AP119" s="172"/>
+      <c r="E119" s="182"/>
+      <c r="F119" s="182"/>
+      <c r="G119" s="182"/>
+      <c r="H119" s="182"/>
+      <c r="I119" s="182"/>
+      <c r="J119" s="182"/>
+      <c r="K119" s="182"/>
+      <c r="L119" s="182"/>
+      <c r="M119" s="182"/>
+      <c r="N119" s="182"/>
+      <c r="O119" s="182"/>
+      <c r="P119" s="182"/>
+      <c r="Q119" s="182"/>
+      <c r="R119" s="182"/>
+      <c r="S119" s="182"/>
+      <c r="T119" s="182"/>
+      <c r="U119" s="182"/>
+      <c r="V119" s="182"/>
+      <c r="W119" s="182"/>
+      <c r="X119" s="182"/>
+      <c r="Y119" s="182"/>
+      <c r="Z119" s="182"/>
+      <c r="AA119" s="182"/>
+      <c r="AB119" s="182"/>
+      <c r="AC119" s="182"/>
+      <c r="AD119" s="182"/>
+      <c r="AE119" s="182"/>
+      <c r="AF119" s="182"/>
+      <c r="AG119" s="182"/>
+      <c r="AH119" s="182"/>
+      <c r="AI119" s="182"/>
+      <c r="AJ119" s="182"/>
+      <c r="AK119" s="182"/>
+      <c r="AL119" s="182"/>
+      <c r="AM119" s="182"/>
+      <c r="AN119" s="182"/>
+      <c r="AO119" s="182"/>
+      <c r="AP119" s="182"/>
       <c r="AQ119" s="33"/>
       <c r="AR119" s="15"/>
       <c r="AS119" s="14"/>
@@ -13846,46 +13901,46 @@
       <c r="H120" s="66"/>
       <c r="I120" s="66"/>
       <c r="J120" s="67"/>
-      <c r="K120" s="174" t="s">
+      <c r="K120" s="183" t="s">
+        <v>71</v>
+      </c>
+      <c r="L120" s="184"/>
+      <c r="M120" s="185"/>
+      <c r="N120" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="L120" s="175"/>
-      <c r="M120" s="176"/>
-      <c r="N120" s="174" t="s">
+      <c r="O120" s="184"/>
+      <c r="P120" s="185"/>
+      <c r="Q120" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="O120" s="175"/>
-      <c r="P120" s="176"/>
-      <c r="Q120" s="174" t="s">
-        <v>74</v>
-      </c>
-      <c r="R120" s="176"/>
-      <c r="S120" s="174"/>
-      <c r="T120" s="176"/>
+      <c r="R120" s="185"/>
+      <c r="S120" s="183"/>
+      <c r="T120" s="185"/>
       <c r="U120" s="69"/>
       <c r="V120" s="70"/>
       <c r="W120" s="70"/>
       <c r="X120" s="71"/>
-      <c r="Y120" s="173"/>
-      <c r="Z120" s="173"/>
-      <c r="AA120" s="173"/>
-      <c r="AB120" s="173"/>
-      <c r="AC120" s="177" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD120" s="178"/>
-      <c r="AE120" s="178"/>
-      <c r="AF120" s="178"/>
-      <c r="AG120" s="178"/>
-      <c r="AH120" s="178"/>
-      <c r="AI120" s="178"/>
-      <c r="AJ120" s="178"/>
-      <c r="AK120" s="178"/>
-      <c r="AL120" s="178"/>
-      <c r="AM120" s="178"/>
-      <c r="AN120" s="178"/>
-      <c r="AO120" s="178"/>
-      <c r="AP120" s="179"/>
+      <c r="Y120" s="181"/>
+      <c r="Z120" s="181"/>
+      <c r="AA120" s="181"/>
+      <c r="AB120" s="181"/>
+      <c r="AC120" s="186" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD120" s="187"/>
+      <c r="AE120" s="187"/>
+      <c r="AF120" s="187"/>
+      <c r="AG120" s="187"/>
+      <c r="AH120" s="187"/>
+      <c r="AI120" s="187"/>
+      <c r="AJ120" s="187"/>
+      <c r="AK120" s="187"/>
+      <c r="AL120" s="187"/>
+      <c r="AM120" s="187"/>
+      <c r="AN120" s="187"/>
+      <c r="AO120" s="187"/>
+      <c r="AP120" s="188"/>
       <c r="AQ120" s="33"/>
       <c r="AR120" s="15"/>
       <c r="AS120" s="14"/>
@@ -13908,46 +13963,46 @@
       <c r="H121" s="66"/>
       <c r="I121" s="66"/>
       <c r="J121" s="67"/>
-      <c r="K121" s="174" t="s">
+      <c r="K121" s="183" t="s">
+        <v>71</v>
+      </c>
+      <c r="L121" s="184"/>
+      <c r="M121" s="185"/>
+      <c r="N121" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="L121" s="175"/>
-      <c r="M121" s="176"/>
-      <c r="N121" s="174" t="s">
+      <c r="O121" s="184"/>
+      <c r="P121" s="185"/>
+      <c r="Q121" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="O121" s="175"/>
-      <c r="P121" s="176"/>
-      <c r="Q121" s="174" t="s">
-        <v>74</v>
-      </c>
-      <c r="R121" s="176"/>
-      <c r="S121" s="174"/>
-      <c r="T121" s="176"/>
+      <c r="R121" s="185"/>
+      <c r="S121" s="183"/>
+      <c r="T121" s="185"/>
       <c r="U121" s="69"/>
       <c r="V121" s="70"/>
       <c r="W121" s="70"/>
       <c r="X121" s="71"/>
-      <c r="Y121" s="173"/>
-      <c r="Z121" s="173"/>
-      <c r="AA121" s="173"/>
-      <c r="AB121" s="173"/>
-      <c r="AC121" s="177" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD121" s="178"/>
-      <c r="AE121" s="178"/>
-      <c r="AF121" s="178"/>
-      <c r="AG121" s="178"/>
-      <c r="AH121" s="178"/>
-      <c r="AI121" s="178"/>
-      <c r="AJ121" s="178"/>
-      <c r="AK121" s="178"/>
-      <c r="AL121" s="178"/>
-      <c r="AM121" s="178"/>
-      <c r="AN121" s="178"/>
-      <c r="AO121" s="178"/>
-      <c r="AP121" s="179"/>
+      <c r="Y121" s="181"/>
+      <c r="Z121" s="181"/>
+      <c r="AA121" s="181"/>
+      <c r="AB121" s="181"/>
+      <c r="AC121" s="186" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD121" s="187"/>
+      <c r="AE121" s="187"/>
+      <c r="AF121" s="187"/>
+      <c r="AG121" s="187"/>
+      <c r="AH121" s="187"/>
+      <c r="AI121" s="187"/>
+      <c r="AJ121" s="187"/>
+      <c r="AK121" s="187"/>
+      <c r="AL121" s="187"/>
+      <c r="AM121" s="187"/>
+      <c r="AN121" s="187"/>
+      <c r="AO121" s="187"/>
+      <c r="AP121" s="188"/>
       <c r="AQ121" s="33"/>
       <c r="AR121" s="15"/>
       <c r="AS121" s="14"/>
@@ -13970,46 +14025,46 @@
       <c r="H122" s="66"/>
       <c r="I122" s="66"/>
       <c r="J122" s="67"/>
-      <c r="K122" s="174" t="s">
+      <c r="K122" s="183" t="s">
+        <v>71</v>
+      </c>
+      <c r="L122" s="184"/>
+      <c r="M122" s="185"/>
+      <c r="N122" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="L122" s="175"/>
-      <c r="M122" s="176"/>
-      <c r="N122" s="174" t="s">
+      <c r="O122" s="184"/>
+      <c r="P122" s="185"/>
+      <c r="Q122" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="O122" s="175"/>
-      <c r="P122" s="176"/>
-      <c r="Q122" s="174" t="s">
-        <v>74</v>
-      </c>
-      <c r="R122" s="176"/>
-      <c r="S122" s="174"/>
-      <c r="T122" s="176"/>
+      <c r="R122" s="185"/>
+      <c r="S122" s="183"/>
+      <c r="T122" s="185"/>
       <c r="U122" s="69"/>
       <c r="V122" s="70"/>
       <c r="W122" s="70"/>
       <c r="X122" s="71"/>
-      <c r="Y122" s="173"/>
-      <c r="Z122" s="173"/>
-      <c r="AA122" s="173"/>
-      <c r="AB122" s="173"/>
-      <c r="AC122" s="177" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD122" s="178"/>
-      <c r="AE122" s="178"/>
-      <c r="AF122" s="178"/>
-      <c r="AG122" s="178"/>
-      <c r="AH122" s="178"/>
-      <c r="AI122" s="178"/>
-      <c r="AJ122" s="178"/>
-      <c r="AK122" s="178"/>
-      <c r="AL122" s="178"/>
-      <c r="AM122" s="178"/>
-      <c r="AN122" s="178"/>
-      <c r="AO122" s="178"/>
-      <c r="AP122" s="179"/>
+      <c r="Y122" s="181"/>
+      <c r="Z122" s="181"/>
+      <c r="AA122" s="181"/>
+      <c r="AB122" s="181"/>
+      <c r="AC122" s="186" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD122" s="187"/>
+      <c r="AE122" s="187"/>
+      <c r="AF122" s="187"/>
+      <c r="AG122" s="187"/>
+      <c r="AH122" s="187"/>
+      <c r="AI122" s="187"/>
+      <c r="AJ122" s="187"/>
+      <c r="AK122" s="187"/>
+      <c r="AL122" s="187"/>
+      <c r="AM122" s="187"/>
+      <c r="AN122" s="187"/>
+      <c r="AO122" s="187"/>
+      <c r="AP122" s="188"/>
       <c r="AQ122" s="33"/>
       <c r="AR122" s="15"/>
       <c r="AS122" s="14"/>
@@ -14032,46 +14087,46 @@
       <c r="H123" s="66"/>
       <c r="I123" s="66"/>
       <c r="J123" s="67"/>
-      <c r="K123" s="174" t="s">
-        <v>72</v>
-      </c>
-      <c r="L123" s="175"/>
-      <c r="M123" s="176"/>
-      <c r="N123" s="174" t="s">
-        <v>102</v>
-      </c>
-      <c r="O123" s="175"/>
-      <c r="P123" s="176"/>
-      <c r="Q123" s="174" t="s">
-        <v>74</v>
-      </c>
-      <c r="R123" s="176"/>
-      <c r="S123" s="174"/>
-      <c r="T123" s="176"/>
+      <c r="K123" s="183" t="s">
+        <v>71</v>
+      </c>
+      <c r="L123" s="184"/>
+      <c r="M123" s="185"/>
+      <c r="N123" s="183" t="s">
+        <v>101</v>
+      </c>
+      <c r="O123" s="184"/>
+      <c r="P123" s="185"/>
+      <c r="Q123" s="183" t="s">
+        <v>73</v>
+      </c>
+      <c r="R123" s="185"/>
+      <c r="S123" s="183"/>
+      <c r="T123" s="185"/>
       <c r="U123" s="69"/>
       <c r="V123" s="70"/>
       <c r="W123" s="70"/>
       <c r="X123" s="71"/>
-      <c r="Y123" s="173"/>
-      <c r="Z123" s="173"/>
-      <c r="AA123" s="173"/>
-      <c r="AB123" s="173"/>
-      <c r="AC123" s="177" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD123" s="178"/>
-      <c r="AE123" s="178"/>
-      <c r="AF123" s="178"/>
-      <c r="AG123" s="178"/>
-      <c r="AH123" s="178"/>
-      <c r="AI123" s="178"/>
-      <c r="AJ123" s="178"/>
-      <c r="AK123" s="178"/>
-      <c r="AL123" s="178"/>
-      <c r="AM123" s="178"/>
-      <c r="AN123" s="178"/>
-      <c r="AO123" s="178"/>
-      <c r="AP123" s="179"/>
+      <c r="Y123" s="181"/>
+      <c r="Z123" s="181"/>
+      <c r="AA123" s="181"/>
+      <c r="AB123" s="181"/>
+      <c r="AC123" s="186" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD123" s="187"/>
+      <c r="AE123" s="187"/>
+      <c r="AF123" s="187"/>
+      <c r="AG123" s="187"/>
+      <c r="AH123" s="187"/>
+      <c r="AI123" s="187"/>
+      <c r="AJ123" s="187"/>
+      <c r="AK123" s="187"/>
+      <c r="AL123" s="187"/>
+      <c r="AM123" s="187"/>
+      <c r="AN123" s="187"/>
+      <c r="AO123" s="187"/>
+      <c r="AP123" s="188"/>
       <c r="AQ123" s="33"/>
       <c r="AR123" s="15"/>
       <c r="AS123" s="14"/>
@@ -14094,20 +14149,20 @@
       <c r="H124" s="66"/>
       <c r="I124" s="66"/>
       <c r="J124" s="67"/>
-      <c r="K124" s="174" t="s">
-        <v>104</v>
-      </c>
-      <c r="L124" s="175"/>
-      <c r="M124" s="176"/>
-      <c r="N124" s="174"/>
-      <c r="O124" s="175"/>
-      <c r="P124" s="176"/>
-      <c r="Q124" s="174" t="s">
-        <v>74</v>
-      </c>
-      <c r="R124" s="176"/>
-      <c r="S124" s="174"/>
-      <c r="T124" s="176"/>
+      <c r="K124" s="183" t="s">
+        <v>103</v>
+      </c>
+      <c r="L124" s="184"/>
+      <c r="M124" s="185"/>
+      <c r="N124" s="183"/>
+      <c r="O124" s="184"/>
+      <c r="P124" s="185"/>
+      <c r="Q124" s="183" t="s">
+        <v>73</v>
+      </c>
+      <c r="R124" s="185"/>
+      <c r="S124" s="183"/>
+      <c r="T124" s="185"/>
       <c r="U124" s="69"/>
       <c r="V124" s="70"/>
       <c r="W124" s="70"/>
@@ -14116,22 +14171,22 @@
       <c r="Z124" s="70"/>
       <c r="AA124" s="70"/>
       <c r="AB124" s="73"/>
-      <c r="AC124" s="177" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD124" s="178"/>
-      <c r="AE124" s="178"/>
-      <c r="AF124" s="178"/>
-      <c r="AG124" s="178"/>
-      <c r="AH124" s="178"/>
-      <c r="AI124" s="178"/>
-      <c r="AJ124" s="178"/>
-      <c r="AK124" s="178"/>
-      <c r="AL124" s="178"/>
-      <c r="AM124" s="178"/>
-      <c r="AN124" s="178"/>
-      <c r="AO124" s="178"/>
-      <c r="AP124" s="179"/>
+      <c r="AC124" s="186" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD124" s="187"/>
+      <c r="AE124" s="187"/>
+      <c r="AF124" s="187"/>
+      <c r="AG124" s="187"/>
+      <c r="AH124" s="187"/>
+      <c r="AI124" s="187"/>
+      <c r="AJ124" s="187"/>
+      <c r="AK124" s="187"/>
+      <c r="AL124" s="187"/>
+      <c r="AM124" s="187"/>
+      <c r="AN124" s="187"/>
+      <c r="AO124" s="187"/>
+      <c r="AP124" s="188"/>
       <c r="AQ124" s="33"/>
       <c r="AR124" s="15"/>
       <c r="AS124" s="14"/>
@@ -14154,20 +14209,20 @@
       <c r="H125" s="66"/>
       <c r="I125" s="66"/>
       <c r="J125" s="67"/>
-      <c r="K125" s="174" t="s">
-        <v>104</v>
-      </c>
-      <c r="L125" s="175"/>
-      <c r="M125" s="176"/>
-      <c r="N125" s="174"/>
-      <c r="O125" s="175"/>
-      <c r="P125" s="176"/>
-      <c r="Q125" s="174" t="s">
-        <v>74</v>
-      </c>
-      <c r="R125" s="176"/>
-      <c r="S125" s="174"/>
-      <c r="T125" s="176"/>
+      <c r="K125" s="183" t="s">
+        <v>103</v>
+      </c>
+      <c r="L125" s="184"/>
+      <c r="M125" s="185"/>
+      <c r="N125" s="183"/>
+      <c r="O125" s="184"/>
+      <c r="P125" s="185"/>
+      <c r="Q125" s="183" t="s">
+        <v>73</v>
+      </c>
+      <c r="R125" s="185"/>
+      <c r="S125" s="183"/>
+      <c r="T125" s="185"/>
       <c r="U125" s="69"/>
       <c r="V125" s="70"/>
       <c r="W125" s="70"/>
@@ -14176,22 +14231,22 @@
       <c r="Z125" s="70"/>
       <c r="AA125" s="70"/>
       <c r="AB125" s="73"/>
-      <c r="AC125" s="177" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD125" s="178"/>
-      <c r="AE125" s="178"/>
-      <c r="AF125" s="178"/>
-      <c r="AG125" s="178"/>
-      <c r="AH125" s="178"/>
-      <c r="AI125" s="178"/>
-      <c r="AJ125" s="178"/>
-      <c r="AK125" s="178"/>
-      <c r="AL125" s="178"/>
-      <c r="AM125" s="178"/>
-      <c r="AN125" s="178"/>
-      <c r="AO125" s="178"/>
-      <c r="AP125" s="179"/>
+      <c r="AC125" s="186" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD125" s="187"/>
+      <c r="AE125" s="187"/>
+      <c r="AF125" s="187"/>
+      <c r="AG125" s="187"/>
+      <c r="AH125" s="187"/>
+      <c r="AI125" s="187"/>
+      <c r="AJ125" s="187"/>
+      <c r="AK125" s="187"/>
+      <c r="AL125" s="187"/>
+      <c r="AM125" s="187"/>
+      <c r="AN125" s="187"/>
+      <c r="AO125" s="187"/>
+      <c r="AP125" s="188"/>
       <c r="AQ125" s="33"/>
       <c r="AR125" s="15"/>
       <c r="AS125" s="14"/>
@@ -14214,20 +14269,20 @@
       <c r="H126" s="66"/>
       <c r="I126" s="66"/>
       <c r="J126" s="67"/>
-      <c r="K126" s="174" t="s">
-        <v>104</v>
-      </c>
-      <c r="L126" s="175"/>
-      <c r="M126" s="176"/>
-      <c r="N126" s="174"/>
-      <c r="O126" s="175"/>
-      <c r="P126" s="176"/>
-      <c r="Q126" s="174" t="s">
-        <v>74</v>
-      </c>
-      <c r="R126" s="176"/>
-      <c r="S126" s="174"/>
-      <c r="T126" s="176"/>
+      <c r="K126" s="183" t="s">
+        <v>103</v>
+      </c>
+      <c r="L126" s="184"/>
+      <c r="M126" s="185"/>
+      <c r="N126" s="183"/>
+      <c r="O126" s="184"/>
+      <c r="P126" s="185"/>
+      <c r="Q126" s="183" t="s">
+        <v>73</v>
+      </c>
+      <c r="R126" s="185"/>
+      <c r="S126" s="183"/>
+      <c r="T126" s="185"/>
       <c r="U126" s="69"/>
       <c r="V126" s="70"/>
       <c r="W126" s="70"/>
@@ -14236,22 +14291,22 @@
       <c r="Z126" s="70"/>
       <c r="AA126" s="70"/>
       <c r="AB126" s="73"/>
-      <c r="AC126" s="177" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD126" s="178"/>
-      <c r="AE126" s="178"/>
-      <c r="AF126" s="178"/>
-      <c r="AG126" s="178"/>
-      <c r="AH126" s="178"/>
-      <c r="AI126" s="178"/>
-      <c r="AJ126" s="178"/>
-      <c r="AK126" s="178"/>
-      <c r="AL126" s="178"/>
-      <c r="AM126" s="178"/>
-      <c r="AN126" s="178"/>
-      <c r="AO126" s="178"/>
-      <c r="AP126" s="179"/>
+      <c r="AC126" s="186" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD126" s="187"/>
+      <c r="AE126" s="187"/>
+      <c r="AF126" s="187"/>
+      <c r="AG126" s="187"/>
+      <c r="AH126" s="187"/>
+      <c r="AI126" s="187"/>
+      <c r="AJ126" s="187"/>
+      <c r="AK126" s="187"/>
+      <c r="AL126" s="187"/>
+      <c r="AM126" s="187"/>
+      <c r="AN126" s="187"/>
+      <c r="AO126" s="187"/>
+      <c r="AP126" s="188"/>
       <c r="AQ126" s="33"/>
       <c r="AR126" s="15"/>
       <c r="AS126" s="14"/>
@@ -14274,20 +14329,20 @@
       <c r="H127" s="66"/>
       <c r="I127" s="66"/>
       <c r="J127" s="67"/>
-      <c r="K127" s="174" t="s">
-        <v>104</v>
-      </c>
-      <c r="L127" s="175"/>
-      <c r="M127" s="176"/>
-      <c r="N127" s="174"/>
-      <c r="O127" s="175"/>
-      <c r="P127" s="176"/>
-      <c r="Q127" s="174" t="s">
-        <v>74</v>
-      </c>
-      <c r="R127" s="176"/>
-      <c r="S127" s="174"/>
-      <c r="T127" s="176"/>
+      <c r="K127" s="183" t="s">
+        <v>103</v>
+      </c>
+      <c r="L127" s="184"/>
+      <c r="M127" s="185"/>
+      <c r="N127" s="183"/>
+      <c r="O127" s="184"/>
+      <c r="P127" s="185"/>
+      <c r="Q127" s="183" t="s">
+        <v>73</v>
+      </c>
+      <c r="R127" s="185"/>
+      <c r="S127" s="183"/>
+      <c r="T127" s="185"/>
       <c r="U127" s="69"/>
       <c r="V127" s="70"/>
       <c r="W127" s="70"/>
@@ -14296,22 +14351,22 @@
       <c r="Z127" s="70"/>
       <c r="AA127" s="70"/>
       <c r="AB127" s="73"/>
-      <c r="AC127" s="177" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD127" s="178"/>
-      <c r="AE127" s="178"/>
-      <c r="AF127" s="178"/>
-      <c r="AG127" s="178"/>
-      <c r="AH127" s="178"/>
-      <c r="AI127" s="178"/>
-      <c r="AJ127" s="178"/>
-      <c r="AK127" s="178"/>
-      <c r="AL127" s="178"/>
-      <c r="AM127" s="178"/>
-      <c r="AN127" s="178"/>
-      <c r="AO127" s="178"/>
-      <c r="AP127" s="179"/>
+      <c r="AC127" s="186" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD127" s="187"/>
+      <c r="AE127" s="187"/>
+      <c r="AF127" s="187"/>
+      <c r="AG127" s="187"/>
+      <c r="AH127" s="187"/>
+      <c r="AI127" s="187"/>
+      <c r="AJ127" s="187"/>
+      <c r="AK127" s="187"/>
+      <c r="AL127" s="187"/>
+      <c r="AM127" s="187"/>
+      <c r="AN127" s="187"/>
+      <c r="AO127" s="187"/>
+      <c r="AP127" s="188"/>
       <c r="AQ127" s="33"/>
       <c r="AR127" s="15"/>
       <c r="AS127" s="14"/>
@@ -14334,46 +14389,46 @@
       <c r="H128" s="66"/>
       <c r="I128" s="66"/>
       <c r="J128" s="67"/>
-      <c r="K128" s="174" t="s">
+      <c r="K128" s="183" t="s">
+        <v>71</v>
+      </c>
+      <c r="L128" s="184"/>
+      <c r="M128" s="185"/>
+      <c r="N128" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="L128" s="175"/>
-      <c r="M128" s="176"/>
-      <c r="N128" s="174" t="s">
+      <c r="O128" s="184"/>
+      <c r="P128" s="185"/>
+      <c r="Q128" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="O128" s="175"/>
-      <c r="P128" s="176"/>
-      <c r="Q128" s="174" t="s">
-        <v>74</v>
-      </c>
-      <c r="R128" s="176"/>
-      <c r="S128" s="174"/>
-      <c r="T128" s="176"/>
+      <c r="R128" s="185"/>
+      <c r="S128" s="183"/>
+      <c r="T128" s="185"/>
       <c r="U128" s="69"/>
       <c r="V128" s="70"/>
       <c r="W128" s="70"/>
       <c r="X128" s="71"/>
-      <c r="Y128" s="172"/>
-      <c r="Z128" s="172"/>
-      <c r="AA128" s="172"/>
-      <c r="AB128" s="172"/>
-      <c r="AC128" s="177" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD128" s="178"/>
-      <c r="AE128" s="178"/>
-      <c r="AF128" s="178"/>
-      <c r="AG128" s="178"/>
-      <c r="AH128" s="178"/>
-      <c r="AI128" s="178"/>
-      <c r="AJ128" s="178"/>
-      <c r="AK128" s="178"/>
-      <c r="AL128" s="178"/>
-      <c r="AM128" s="178"/>
-      <c r="AN128" s="178"/>
-      <c r="AO128" s="178"/>
-      <c r="AP128" s="179"/>
+      <c r="Y128" s="182"/>
+      <c r="Z128" s="182"/>
+      <c r="AA128" s="182"/>
+      <c r="AB128" s="182"/>
+      <c r="AC128" s="186" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD128" s="187"/>
+      <c r="AE128" s="187"/>
+      <c r="AF128" s="187"/>
+      <c r="AG128" s="187"/>
+      <c r="AH128" s="187"/>
+      <c r="AI128" s="187"/>
+      <c r="AJ128" s="187"/>
+      <c r="AK128" s="187"/>
+      <c r="AL128" s="187"/>
+      <c r="AM128" s="187"/>
+      <c r="AN128" s="187"/>
+      <c r="AO128" s="187"/>
+      <c r="AP128" s="188"/>
       <c r="AQ128" s="33"/>
       <c r="AR128" s="15"/>
       <c r="AS128" s="14"/>
@@ -14396,46 +14451,46 @@
       <c r="H129" s="66"/>
       <c r="I129" s="66"/>
       <c r="J129" s="67"/>
-      <c r="K129" s="174" t="s">
+      <c r="K129" s="183" t="s">
+        <v>71</v>
+      </c>
+      <c r="L129" s="184"/>
+      <c r="M129" s="185"/>
+      <c r="N129" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="L129" s="175"/>
-      <c r="M129" s="176"/>
-      <c r="N129" s="174" t="s">
+      <c r="O129" s="184"/>
+      <c r="P129" s="185"/>
+      <c r="Q129" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="O129" s="175"/>
-      <c r="P129" s="176"/>
-      <c r="Q129" s="174" t="s">
-        <v>74</v>
-      </c>
-      <c r="R129" s="176"/>
-      <c r="S129" s="174"/>
-      <c r="T129" s="176"/>
+      <c r="R129" s="185"/>
+      <c r="S129" s="183"/>
+      <c r="T129" s="185"/>
       <c r="U129" s="69"/>
       <c r="V129" s="70"/>
       <c r="W129" s="70"/>
       <c r="X129" s="71"/>
-      <c r="Y129" s="172"/>
-      <c r="Z129" s="172"/>
-      <c r="AA129" s="172"/>
-      <c r="AB129" s="172"/>
-      <c r="AC129" s="177" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD129" s="178"/>
-      <c r="AE129" s="178"/>
-      <c r="AF129" s="178"/>
-      <c r="AG129" s="178"/>
-      <c r="AH129" s="178"/>
-      <c r="AI129" s="178"/>
-      <c r="AJ129" s="178"/>
-      <c r="AK129" s="178"/>
-      <c r="AL129" s="178"/>
-      <c r="AM129" s="178"/>
-      <c r="AN129" s="178"/>
-      <c r="AO129" s="178"/>
-      <c r="AP129" s="179"/>
+      <c r="Y129" s="182"/>
+      <c r="Z129" s="182"/>
+      <c r="AA129" s="182"/>
+      <c r="AB129" s="182"/>
+      <c r="AC129" s="186" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD129" s="187"/>
+      <c r="AE129" s="187"/>
+      <c r="AF129" s="187"/>
+      <c r="AG129" s="187"/>
+      <c r="AH129" s="187"/>
+      <c r="AI129" s="187"/>
+      <c r="AJ129" s="187"/>
+      <c r="AK129" s="187"/>
+      <c r="AL129" s="187"/>
+      <c r="AM129" s="187"/>
+      <c r="AN129" s="187"/>
+      <c r="AO129" s="187"/>
+      <c r="AP129" s="188"/>
       <c r="AQ129" s="33"/>
       <c r="AR129" s="15"/>
       <c r="AS129" s="14"/>
@@ -14458,46 +14513,46 @@
       <c r="H130" s="66"/>
       <c r="I130" s="66"/>
       <c r="J130" s="67"/>
-      <c r="K130" s="174" t="s">
+      <c r="K130" s="183" t="s">
+        <v>71</v>
+      </c>
+      <c r="L130" s="184"/>
+      <c r="M130" s="185"/>
+      <c r="N130" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="L130" s="175"/>
-      <c r="M130" s="176"/>
-      <c r="N130" s="174" t="s">
+      <c r="O130" s="184"/>
+      <c r="P130" s="185"/>
+      <c r="Q130" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="O130" s="175"/>
-      <c r="P130" s="176"/>
-      <c r="Q130" s="174" t="s">
-        <v>74</v>
-      </c>
-      <c r="R130" s="176"/>
-      <c r="S130" s="174"/>
-      <c r="T130" s="176"/>
+      <c r="R130" s="185"/>
+      <c r="S130" s="183"/>
+      <c r="T130" s="185"/>
       <c r="U130" s="69"/>
       <c r="V130" s="70"/>
       <c r="W130" s="70"/>
       <c r="X130" s="71"/>
-      <c r="Y130" s="172"/>
-      <c r="Z130" s="172"/>
-      <c r="AA130" s="172"/>
-      <c r="AB130" s="172"/>
-      <c r="AC130" s="177" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD130" s="178"/>
-      <c r="AE130" s="178"/>
-      <c r="AF130" s="178"/>
-      <c r="AG130" s="178"/>
-      <c r="AH130" s="178"/>
-      <c r="AI130" s="178"/>
-      <c r="AJ130" s="178"/>
-      <c r="AK130" s="178"/>
-      <c r="AL130" s="178"/>
-      <c r="AM130" s="178"/>
-      <c r="AN130" s="178"/>
-      <c r="AO130" s="178"/>
-      <c r="AP130" s="179"/>
+      <c r="Y130" s="182"/>
+      <c r="Z130" s="182"/>
+      <c r="AA130" s="182"/>
+      <c r="AB130" s="182"/>
+      <c r="AC130" s="186" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD130" s="187"/>
+      <c r="AE130" s="187"/>
+      <c r="AF130" s="187"/>
+      <c r="AG130" s="187"/>
+      <c r="AH130" s="187"/>
+      <c r="AI130" s="187"/>
+      <c r="AJ130" s="187"/>
+      <c r="AK130" s="187"/>
+      <c r="AL130" s="187"/>
+      <c r="AM130" s="187"/>
+      <c r="AN130" s="187"/>
+      <c r="AO130" s="187"/>
+      <c r="AP130" s="188"/>
       <c r="AQ130" s="33"/>
       <c r="AR130" s="15"/>
       <c r="AS130" s="14"/>
@@ -14520,46 +14575,46 @@
       <c r="H131" s="66"/>
       <c r="I131" s="66"/>
       <c r="J131" s="67"/>
-      <c r="K131" s="174" t="s">
+      <c r="K131" s="183" t="s">
+        <v>71</v>
+      </c>
+      <c r="L131" s="184"/>
+      <c r="M131" s="185"/>
+      <c r="N131" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="L131" s="175"/>
-      <c r="M131" s="176"/>
-      <c r="N131" s="174" t="s">
+      <c r="O131" s="184"/>
+      <c r="P131" s="185"/>
+      <c r="Q131" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="O131" s="175"/>
-      <c r="P131" s="176"/>
-      <c r="Q131" s="174" t="s">
-        <v>74</v>
-      </c>
-      <c r="R131" s="176"/>
-      <c r="S131" s="174"/>
-      <c r="T131" s="176"/>
+      <c r="R131" s="185"/>
+      <c r="S131" s="183"/>
+      <c r="T131" s="185"/>
       <c r="U131" s="69"/>
       <c r="V131" s="70"/>
       <c r="W131" s="70"/>
       <c r="X131" s="71"/>
-      <c r="Y131" s="172"/>
-      <c r="Z131" s="172"/>
-      <c r="AA131" s="172"/>
-      <c r="AB131" s="172"/>
-      <c r="AC131" s="177" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD131" s="178"/>
-      <c r="AE131" s="178"/>
-      <c r="AF131" s="178"/>
-      <c r="AG131" s="178"/>
-      <c r="AH131" s="178"/>
-      <c r="AI131" s="178"/>
-      <c r="AJ131" s="178"/>
-      <c r="AK131" s="178"/>
-      <c r="AL131" s="178"/>
-      <c r="AM131" s="178"/>
-      <c r="AN131" s="178"/>
-      <c r="AO131" s="178"/>
-      <c r="AP131" s="179"/>
+      <c r="Y131" s="182"/>
+      <c r="Z131" s="182"/>
+      <c r="AA131" s="182"/>
+      <c r="AB131" s="182"/>
+      <c r="AC131" s="186" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD131" s="187"/>
+      <c r="AE131" s="187"/>
+      <c r="AF131" s="187"/>
+      <c r="AG131" s="187"/>
+      <c r="AH131" s="187"/>
+      <c r="AI131" s="187"/>
+      <c r="AJ131" s="187"/>
+      <c r="AK131" s="187"/>
+      <c r="AL131" s="187"/>
+      <c r="AM131" s="187"/>
+      <c r="AN131" s="187"/>
+      <c r="AO131" s="187"/>
+      <c r="AP131" s="188"/>
       <c r="AQ131" s="33"/>
       <c r="AR131" s="15"/>
       <c r="AS131" s="14"/>
@@ -14582,46 +14637,46 @@
       <c r="H132" s="66"/>
       <c r="I132" s="66"/>
       <c r="J132" s="67"/>
-      <c r="K132" s="174" t="s">
+      <c r="K132" s="183" t="s">
+        <v>71</v>
+      </c>
+      <c r="L132" s="184"/>
+      <c r="M132" s="185"/>
+      <c r="N132" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="L132" s="175"/>
-      <c r="M132" s="176"/>
-      <c r="N132" s="174" t="s">
+      <c r="O132" s="184"/>
+      <c r="P132" s="185"/>
+      <c r="Q132" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="O132" s="175"/>
-      <c r="P132" s="176"/>
-      <c r="Q132" s="174" t="s">
-        <v>74</v>
-      </c>
-      <c r="R132" s="176"/>
-      <c r="S132" s="174"/>
-      <c r="T132" s="176"/>
+      <c r="R132" s="185"/>
+      <c r="S132" s="183"/>
+      <c r="T132" s="185"/>
       <c r="U132" s="69"/>
       <c r="V132" s="70"/>
       <c r="W132" s="70"/>
       <c r="X132" s="71"/>
-      <c r="Y132" s="172"/>
-      <c r="Z132" s="172"/>
-      <c r="AA132" s="172"/>
-      <c r="AB132" s="172"/>
-      <c r="AC132" s="177" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD132" s="178"/>
-      <c r="AE132" s="178"/>
-      <c r="AF132" s="178"/>
-      <c r="AG132" s="178"/>
-      <c r="AH132" s="178"/>
-      <c r="AI132" s="178"/>
-      <c r="AJ132" s="178"/>
-      <c r="AK132" s="178"/>
-      <c r="AL132" s="178"/>
-      <c r="AM132" s="178"/>
-      <c r="AN132" s="178"/>
-      <c r="AO132" s="178"/>
-      <c r="AP132" s="179"/>
+      <c r="Y132" s="182"/>
+      <c r="Z132" s="182"/>
+      <c r="AA132" s="182"/>
+      <c r="AB132" s="182"/>
+      <c r="AC132" s="186" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD132" s="187"/>
+      <c r="AE132" s="187"/>
+      <c r="AF132" s="187"/>
+      <c r="AG132" s="187"/>
+      <c r="AH132" s="187"/>
+      <c r="AI132" s="187"/>
+      <c r="AJ132" s="187"/>
+      <c r="AK132" s="187"/>
+      <c r="AL132" s="187"/>
+      <c r="AM132" s="187"/>
+      <c r="AN132" s="187"/>
+      <c r="AO132" s="187"/>
+      <c r="AP132" s="188"/>
       <c r="AQ132" s="33"/>
       <c r="AR132" s="15"/>
       <c r="AS132" s="14"/>
@@ -14644,46 +14699,46 @@
       <c r="H133" s="66"/>
       <c r="I133" s="66"/>
       <c r="J133" s="67"/>
-      <c r="K133" s="174" t="s">
+      <c r="K133" s="183" t="s">
+        <v>71</v>
+      </c>
+      <c r="L133" s="184"/>
+      <c r="M133" s="185"/>
+      <c r="N133" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="L133" s="175"/>
-      <c r="M133" s="176"/>
-      <c r="N133" s="174" t="s">
+      <c r="O133" s="184"/>
+      <c r="P133" s="185"/>
+      <c r="Q133" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="O133" s="175"/>
-      <c r="P133" s="176"/>
-      <c r="Q133" s="174" t="s">
-        <v>74</v>
-      </c>
-      <c r="R133" s="176"/>
-      <c r="S133" s="174"/>
-      <c r="T133" s="176"/>
+      <c r="R133" s="185"/>
+      <c r="S133" s="183"/>
+      <c r="T133" s="185"/>
       <c r="U133" s="69"/>
       <c r="V133" s="70"/>
       <c r="W133" s="70"/>
       <c r="X133" s="71"/>
-      <c r="Y133" s="172"/>
-      <c r="Z133" s="172"/>
-      <c r="AA133" s="172"/>
-      <c r="AB133" s="172"/>
-      <c r="AC133" s="177" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD133" s="178"/>
-      <c r="AE133" s="178"/>
-      <c r="AF133" s="178"/>
-      <c r="AG133" s="178"/>
-      <c r="AH133" s="178"/>
-      <c r="AI133" s="178"/>
-      <c r="AJ133" s="178"/>
-      <c r="AK133" s="178"/>
-      <c r="AL133" s="178"/>
-      <c r="AM133" s="178"/>
-      <c r="AN133" s="178"/>
-      <c r="AO133" s="178"/>
-      <c r="AP133" s="179"/>
+      <c r="Y133" s="182"/>
+      <c r="Z133" s="182"/>
+      <c r="AA133" s="182"/>
+      <c r="AB133" s="182"/>
+      <c r="AC133" s="186" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD133" s="187"/>
+      <c r="AE133" s="187"/>
+      <c r="AF133" s="187"/>
+      <c r="AG133" s="187"/>
+      <c r="AH133" s="187"/>
+      <c r="AI133" s="187"/>
+      <c r="AJ133" s="187"/>
+      <c r="AK133" s="187"/>
+      <c r="AL133" s="187"/>
+      <c r="AM133" s="187"/>
+      <c r="AN133" s="187"/>
+      <c r="AO133" s="187"/>
+      <c r="AP133" s="188"/>
       <c r="AQ133" s="33"/>
       <c r="AR133" s="15"/>
       <c r="AS133" s="14"/>
@@ -14698,7 +14753,7 @@
         <v>38</v>
       </c>
       <c r="D134" s="80" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E134" s="66"/>
       <c r="F134" s="66"/>
@@ -14706,20 +14761,20 @@
       <c r="H134" s="66"/>
       <c r="I134" s="66"/>
       <c r="J134" s="67"/>
-      <c r="K134" s="174" t="s">
-        <v>67</v>
-      </c>
-      <c r="L134" s="175"/>
-      <c r="M134" s="176"/>
-      <c r="N134" s="174"/>
-      <c r="O134" s="175"/>
-      <c r="P134" s="176"/>
-      <c r="Q134" s="174" t="s">
-        <v>76</v>
-      </c>
-      <c r="R134" s="176"/>
-      <c r="S134" s="174"/>
-      <c r="T134" s="176"/>
+      <c r="K134" s="183" t="s">
+        <v>66</v>
+      </c>
+      <c r="L134" s="184"/>
+      <c r="M134" s="185"/>
+      <c r="N134" s="183"/>
+      <c r="O134" s="184"/>
+      <c r="P134" s="185"/>
+      <c r="Q134" s="183" t="s">
+        <v>75</v>
+      </c>
+      <c r="R134" s="185"/>
+      <c r="S134" s="183"/>
+      <c r="T134" s="185"/>
       <c r="U134" s="69"/>
       <c r="V134" s="70"/>
       <c r="W134" s="70"/>
@@ -14728,22 +14783,22 @@
       <c r="Z134" s="70"/>
       <c r="AA134" s="70"/>
       <c r="AB134" s="73"/>
-      <c r="AC134" s="177" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD134" s="178"/>
-      <c r="AE134" s="178"/>
-      <c r="AF134" s="178"/>
-      <c r="AG134" s="178"/>
-      <c r="AH134" s="178"/>
-      <c r="AI134" s="178"/>
-      <c r="AJ134" s="178"/>
-      <c r="AK134" s="178"/>
-      <c r="AL134" s="178"/>
-      <c r="AM134" s="178"/>
-      <c r="AN134" s="178"/>
-      <c r="AO134" s="178"/>
-      <c r="AP134" s="179"/>
+      <c r="AC134" s="186" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD134" s="187"/>
+      <c r="AE134" s="187"/>
+      <c r="AF134" s="187"/>
+      <c r="AG134" s="187"/>
+      <c r="AH134" s="187"/>
+      <c r="AI134" s="187"/>
+      <c r="AJ134" s="187"/>
+      <c r="AK134" s="187"/>
+      <c r="AL134" s="187"/>
+      <c r="AM134" s="187"/>
+      <c r="AN134" s="187"/>
+      <c r="AO134" s="187"/>
+      <c r="AP134" s="188"/>
       <c r="AQ134" s="33"/>
       <c r="AR134" s="15"/>
       <c r="AS134" s="14"/>
@@ -14758,7 +14813,7 @@
         <v>39</v>
       </c>
       <c r="D135" s="80" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E135" s="66"/>
       <c r="F135" s="66"/>
@@ -14766,20 +14821,20 @@
       <c r="H135" s="66"/>
       <c r="I135" s="66"/>
       <c r="J135" s="67"/>
-      <c r="K135" s="174" t="s">
-        <v>67</v>
-      </c>
-      <c r="L135" s="175"/>
-      <c r="M135" s="176"/>
-      <c r="N135" s="174"/>
-      <c r="O135" s="175"/>
-      <c r="P135" s="176"/>
-      <c r="Q135" s="174" t="s">
-        <v>76</v>
-      </c>
-      <c r="R135" s="176"/>
-      <c r="S135" s="174"/>
-      <c r="T135" s="176"/>
+      <c r="K135" s="183" t="s">
+        <v>66</v>
+      </c>
+      <c r="L135" s="184"/>
+      <c r="M135" s="185"/>
+      <c r="N135" s="183"/>
+      <c r="O135" s="184"/>
+      <c r="P135" s="185"/>
+      <c r="Q135" s="183" t="s">
+        <v>75</v>
+      </c>
+      <c r="R135" s="185"/>
+      <c r="S135" s="183"/>
+      <c r="T135" s="185"/>
       <c r="U135" s="69"/>
       <c r="V135" s="70"/>
       <c r="W135" s="70"/>
@@ -14788,22 +14843,22 @@
       <c r="Z135" s="70"/>
       <c r="AA135" s="70"/>
       <c r="AB135" s="73"/>
-      <c r="AC135" s="177" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD135" s="178"/>
-      <c r="AE135" s="178"/>
-      <c r="AF135" s="178"/>
-      <c r="AG135" s="178"/>
-      <c r="AH135" s="178"/>
-      <c r="AI135" s="178"/>
-      <c r="AJ135" s="178"/>
-      <c r="AK135" s="178"/>
-      <c r="AL135" s="178"/>
-      <c r="AM135" s="178"/>
-      <c r="AN135" s="178"/>
-      <c r="AO135" s="178"/>
-      <c r="AP135" s="179"/>
+      <c r="AC135" s="186" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD135" s="187"/>
+      <c r="AE135" s="187"/>
+      <c r="AF135" s="187"/>
+      <c r="AG135" s="187"/>
+      <c r="AH135" s="187"/>
+      <c r="AI135" s="187"/>
+      <c r="AJ135" s="187"/>
+      <c r="AK135" s="187"/>
+      <c r="AL135" s="187"/>
+      <c r="AM135" s="187"/>
+      <c r="AN135" s="187"/>
+      <c r="AO135" s="187"/>
+      <c r="AP135" s="188"/>
       <c r="AQ135" s="33"/>
       <c r="AR135" s="15"/>
       <c r="AS135" s="14"/>
@@ -14815,47 +14870,47 @@
       <c r="A136" s="31"/>
       <c r="B136" s="33"/>
       <c r="C136" s="78"/>
-      <c r="D136" s="172" t="s">
-        <v>119</v>
-      </c>
-      <c r="E136" s="172"/>
-      <c r="F136" s="172"/>
-      <c r="G136" s="172"/>
-      <c r="H136" s="172"/>
-      <c r="I136" s="172"/>
-      <c r="J136" s="172"/>
-      <c r="K136" s="172"/>
-      <c r="L136" s="172"/>
-      <c r="M136" s="172"/>
-      <c r="N136" s="172"/>
-      <c r="O136" s="172"/>
-      <c r="P136" s="172"/>
-      <c r="Q136" s="172"/>
-      <c r="R136" s="172"/>
-      <c r="S136" s="172"/>
-      <c r="T136" s="172"/>
-      <c r="U136" s="172"/>
-      <c r="V136" s="172"/>
-      <c r="W136" s="172"/>
-      <c r="X136" s="172"/>
-      <c r="Y136" s="172"/>
-      <c r="Z136" s="172"/>
-      <c r="AA136" s="172"/>
-      <c r="AB136" s="172"/>
-      <c r="AC136" s="172"/>
-      <c r="AD136" s="172"/>
-      <c r="AE136" s="172"/>
-      <c r="AF136" s="172"/>
-      <c r="AG136" s="172"/>
-      <c r="AH136" s="172"/>
-      <c r="AI136" s="172"/>
-      <c r="AJ136" s="172"/>
-      <c r="AK136" s="172"/>
-      <c r="AL136" s="172"/>
-      <c r="AM136" s="172"/>
-      <c r="AN136" s="172"/>
-      <c r="AO136" s="172"/>
-      <c r="AP136" s="172"/>
+      <c r="D136" s="182" t="s">
+        <v>118</v>
+      </c>
+      <c r="E136" s="182"/>
+      <c r="F136" s="182"/>
+      <c r="G136" s="182"/>
+      <c r="H136" s="182"/>
+      <c r="I136" s="182"/>
+      <c r="J136" s="182"/>
+      <c r="K136" s="182"/>
+      <c r="L136" s="182"/>
+      <c r="M136" s="182"/>
+      <c r="N136" s="182"/>
+      <c r="O136" s="182"/>
+      <c r="P136" s="182"/>
+      <c r="Q136" s="182"/>
+      <c r="R136" s="182"/>
+      <c r="S136" s="182"/>
+      <c r="T136" s="182"/>
+      <c r="U136" s="182"/>
+      <c r="V136" s="182"/>
+      <c r="W136" s="182"/>
+      <c r="X136" s="182"/>
+      <c r="Y136" s="182"/>
+      <c r="Z136" s="182"/>
+      <c r="AA136" s="182"/>
+      <c r="AB136" s="182"/>
+      <c r="AC136" s="182"/>
+      <c r="AD136" s="182"/>
+      <c r="AE136" s="182"/>
+      <c r="AF136" s="182"/>
+      <c r="AG136" s="182"/>
+      <c r="AH136" s="182"/>
+      <c r="AI136" s="182"/>
+      <c r="AJ136" s="182"/>
+      <c r="AK136" s="182"/>
+      <c r="AL136" s="182"/>
+      <c r="AM136" s="182"/>
+      <c r="AN136" s="182"/>
+      <c r="AO136" s="182"/>
+      <c r="AP136" s="182"/>
       <c r="AQ136" s="33"/>
       <c r="AR136" s="15"/>
       <c r="AS136" s="14"/>
@@ -14870,7 +14925,7 @@
         <v>34</v>
       </c>
       <c r="D137" s="65" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E137" s="66"/>
       <c r="F137" s="66"/>
@@ -14878,20 +14933,20 @@
       <c r="H137" s="66"/>
       <c r="I137" s="66"/>
       <c r="J137" s="67"/>
-      <c r="K137" s="174" t="s">
-        <v>67</v>
-      </c>
-      <c r="L137" s="175"/>
-      <c r="M137" s="176"/>
-      <c r="N137" s="174"/>
-      <c r="O137" s="175"/>
-      <c r="P137" s="176"/>
-      <c r="Q137" s="174" t="s">
-        <v>76</v>
-      </c>
-      <c r="R137" s="176"/>
-      <c r="S137" s="174"/>
-      <c r="T137" s="176"/>
+      <c r="K137" s="183" t="s">
+        <v>66</v>
+      </c>
+      <c r="L137" s="184"/>
+      <c r="M137" s="185"/>
+      <c r="N137" s="183"/>
+      <c r="O137" s="184"/>
+      <c r="P137" s="185"/>
+      <c r="Q137" s="183" t="s">
+        <v>75</v>
+      </c>
+      <c r="R137" s="185"/>
+      <c r="S137" s="183"/>
+      <c r="T137" s="185"/>
       <c r="U137" s="69"/>
       <c r="V137" s="70"/>
       <c r="W137" s="70"/>
@@ -14900,22 +14955,22 @@
       <c r="Z137" s="70"/>
       <c r="AA137" s="70"/>
       <c r="AB137" s="73"/>
-      <c r="AC137" s="177" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD137" s="178"/>
-      <c r="AE137" s="178"/>
-      <c r="AF137" s="178"/>
-      <c r="AG137" s="178"/>
-      <c r="AH137" s="178"/>
-      <c r="AI137" s="178"/>
-      <c r="AJ137" s="178"/>
-      <c r="AK137" s="178"/>
-      <c r="AL137" s="178"/>
-      <c r="AM137" s="178"/>
-      <c r="AN137" s="178"/>
-      <c r="AO137" s="178"/>
-      <c r="AP137" s="179"/>
+      <c r="AC137" s="186" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD137" s="187"/>
+      <c r="AE137" s="187"/>
+      <c r="AF137" s="187"/>
+      <c r="AG137" s="187"/>
+      <c r="AH137" s="187"/>
+      <c r="AI137" s="187"/>
+      <c r="AJ137" s="187"/>
+      <c r="AK137" s="187"/>
+      <c r="AL137" s="187"/>
+      <c r="AM137" s="187"/>
+      <c r="AN137" s="187"/>
+      <c r="AO137" s="187"/>
+      <c r="AP137" s="188"/>
       <c r="AQ137" s="33"/>
       <c r="AR137" s="15"/>
       <c r="AS137" s="14"/>
@@ -14930,7 +14985,7 @@
         <v>35</v>
       </c>
       <c r="D138" s="65" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E138" s="66"/>
       <c r="F138" s="66"/>
@@ -14938,20 +14993,20 @@
       <c r="H138" s="66"/>
       <c r="I138" s="66"/>
       <c r="J138" s="67"/>
-      <c r="K138" s="174" t="s">
-        <v>67</v>
-      </c>
-      <c r="L138" s="175"/>
-      <c r="M138" s="176"/>
-      <c r="N138" s="174"/>
-      <c r="O138" s="175"/>
-      <c r="P138" s="176"/>
-      <c r="Q138" s="174" t="s">
-        <v>76</v>
-      </c>
-      <c r="R138" s="176"/>
-      <c r="S138" s="174"/>
-      <c r="T138" s="176"/>
+      <c r="K138" s="183" t="s">
+        <v>66</v>
+      </c>
+      <c r="L138" s="184"/>
+      <c r="M138" s="185"/>
+      <c r="N138" s="183"/>
+      <c r="O138" s="184"/>
+      <c r="P138" s="185"/>
+      <c r="Q138" s="183" t="s">
+        <v>75</v>
+      </c>
+      <c r="R138" s="185"/>
+      <c r="S138" s="183"/>
+      <c r="T138" s="185"/>
       <c r="U138" s="69"/>
       <c r="V138" s="70"/>
       <c r="W138" s="70"/>
@@ -14960,22 +15015,22 @@
       <c r="Z138" s="70"/>
       <c r="AA138" s="70"/>
       <c r="AB138" s="73"/>
-      <c r="AC138" s="177" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD138" s="178"/>
-      <c r="AE138" s="178"/>
-      <c r="AF138" s="178"/>
-      <c r="AG138" s="178"/>
-      <c r="AH138" s="178"/>
-      <c r="AI138" s="178"/>
-      <c r="AJ138" s="178"/>
-      <c r="AK138" s="178"/>
-      <c r="AL138" s="178"/>
-      <c r="AM138" s="178"/>
-      <c r="AN138" s="178"/>
-      <c r="AO138" s="178"/>
-      <c r="AP138" s="179"/>
+      <c r="AC138" s="186" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD138" s="187"/>
+      <c r="AE138" s="187"/>
+      <c r="AF138" s="187"/>
+      <c r="AG138" s="187"/>
+      <c r="AH138" s="187"/>
+      <c r="AI138" s="187"/>
+      <c r="AJ138" s="187"/>
+      <c r="AK138" s="187"/>
+      <c r="AL138" s="187"/>
+      <c r="AM138" s="187"/>
+      <c r="AN138" s="187"/>
+      <c r="AO138" s="187"/>
+      <c r="AP138" s="188"/>
       <c r="AQ138" s="33"/>
       <c r="AR138" s="15"/>
       <c r="AS138" s="14"/>
@@ -14990,7 +15045,7 @@
         <v>36</v>
       </c>
       <c r="D139" s="65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E139" s="66"/>
       <c r="F139" s="66"/>
@@ -14998,20 +15053,20 @@
       <c r="H139" s="66"/>
       <c r="I139" s="66"/>
       <c r="J139" s="67"/>
-      <c r="K139" s="174" t="s">
-        <v>67</v>
-      </c>
-      <c r="L139" s="175"/>
-      <c r="M139" s="176"/>
-      <c r="N139" s="174"/>
-      <c r="O139" s="175"/>
-      <c r="P139" s="176"/>
-      <c r="Q139" s="174" t="s">
-        <v>76</v>
-      </c>
-      <c r="R139" s="176"/>
-      <c r="S139" s="174"/>
-      <c r="T139" s="176"/>
+      <c r="K139" s="183" t="s">
+        <v>66</v>
+      </c>
+      <c r="L139" s="184"/>
+      <c r="M139" s="185"/>
+      <c r="N139" s="183"/>
+      <c r="O139" s="184"/>
+      <c r="P139" s="185"/>
+      <c r="Q139" s="183" t="s">
+        <v>75</v>
+      </c>
+      <c r="R139" s="185"/>
+      <c r="S139" s="183"/>
+      <c r="T139" s="185"/>
       <c r="U139" s="69"/>
       <c r="V139" s="70"/>
       <c r="W139" s="70"/>
@@ -15020,22 +15075,22 @@
       <c r="Z139" s="70"/>
       <c r="AA139" s="70"/>
       <c r="AB139" s="73"/>
-      <c r="AC139" s="177" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD139" s="178"/>
-      <c r="AE139" s="178"/>
-      <c r="AF139" s="178"/>
-      <c r="AG139" s="178"/>
-      <c r="AH139" s="178"/>
-      <c r="AI139" s="178"/>
-      <c r="AJ139" s="178"/>
-      <c r="AK139" s="178"/>
-      <c r="AL139" s="178"/>
-      <c r="AM139" s="178"/>
-      <c r="AN139" s="178"/>
-      <c r="AO139" s="178"/>
-      <c r="AP139" s="179"/>
+      <c r="AC139" s="186" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD139" s="187"/>
+      <c r="AE139" s="187"/>
+      <c r="AF139" s="187"/>
+      <c r="AG139" s="187"/>
+      <c r="AH139" s="187"/>
+      <c r="AI139" s="187"/>
+      <c r="AJ139" s="187"/>
+      <c r="AK139" s="187"/>
+      <c r="AL139" s="187"/>
+      <c r="AM139" s="187"/>
+      <c r="AN139" s="187"/>
+      <c r="AO139" s="187"/>
+      <c r="AP139" s="188"/>
       <c r="AQ139" s="33"/>
       <c r="AR139" s="15"/>
       <c r="AS139" s="14"/>
@@ -15050,7 +15105,7 @@
         <v>37</v>
       </c>
       <c r="D140" s="65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E140" s="66"/>
       <c r="F140" s="66"/>
@@ -15058,20 +15113,20 @@
       <c r="H140" s="66"/>
       <c r="I140" s="66"/>
       <c r="J140" s="67"/>
-      <c r="K140" s="174" t="s">
-        <v>67</v>
-      </c>
-      <c r="L140" s="175"/>
-      <c r="M140" s="176"/>
-      <c r="N140" s="174"/>
-      <c r="O140" s="175"/>
-      <c r="P140" s="176"/>
-      <c r="Q140" s="174" t="s">
-        <v>76</v>
-      </c>
-      <c r="R140" s="176"/>
-      <c r="S140" s="174"/>
-      <c r="T140" s="176"/>
+      <c r="K140" s="183" t="s">
+        <v>66</v>
+      </c>
+      <c r="L140" s="184"/>
+      <c r="M140" s="185"/>
+      <c r="N140" s="183"/>
+      <c r="O140" s="184"/>
+      <c r="P140" s="185"/>
+      <c r="Q140" s="183" t="s">
+        <v>75</v>
+      </c>
+      <c r="R140" s="185"/>
+      <c r="S140" s="183"/>
+      <c r="T140" s="185"/>
       <c r="U140" s="69"/>
       <c r="V140" s="70"/>
       <c r="W140" s="70"/>
@@ -15080,22 +15135,22 @@
       <c r="Z140" s="70"/>
       <c r="AA140" s="70"/>
       <c r="AB140" s="73"/>
-      <c r="AC140" s="177" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD140" s="178"/>
-      <c r="AE140" s="178"/>
-      <c r="AF140" s="178"/>
-      <c r="AG140" s="178"/>
-      <c r="AH140" s="178"/>
-      <c r="AI140" s="178"/>
-      <c r="AJ140" s="178"/>
-      <c r="AK140" s="178"/>
-      <c r="AL140" s="178"/>
-      <c r="AM140" s="178"/>
-      <c r="AN140" s="178"/>
-      <c r="AO140" s="178"/>
-      <c r="AP140" s="179"/>
+      <c r="AC140" s="186" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD140" s="187"/>
+      <c r="AE140" s="187"/>
+      <c r="AF140" s="187"/>
+      <c r="AG140" s="187"/>
+      <c r="AH140" s="187"/>
+      <c r="AI140" s="187"/>
+      <c r="AJ140" s="187"/>
+      <c r="AK140" s="187"/>
+      <c r="AL140" s="187"/>
+      <c r="AM140" s="187"/>
+      <c r="AN140" s="187"/>
+      <c r="AO140" s="187"/>
+      <c r="AP140" s="188"/>
       <c r="AQ140" s="33"/>
       <c r="AR140" s="15"/>
       <c r="AS140" s="14"/>
@@ -15156,7 +15211,7 @@
     <row r="142" spans="1:48">
       <c r="A142" s="31"/>
       <c r="B142" s="63" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C142" s="61"/>
       <c r="D142" s="61"/>
@@ -15209,7 +15264,7 @@
       <c r="A143" s="31"/>
       <c r="B143" s="33"/>
       <c r="C143" s="61" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D143" s="61"/>
       <c r="E143" s="61"/>
@@ -15262,7 +15317,7 @@
       <c r="B144" s="33"/>
       <c r="C144" s="61"/>
       <c r="D144" s="84" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E144" s="61"/>
       <c r="F144" s="61"/>
@@ -15315,7 +15370,7 @@
       <c r="C145" s="61"/>
       <c r="D145" s="61"/>
       <c r="E145" s="84" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F145" s="61"/>
       <c r="G145" s="33"/>
@@ -15367,7 +15422,7 @@
       <c r="C146" s="61"/>
       <c r="D146" s="61"/>
       <c r="E146" s="84" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F146" s="61"/>
       <c r="G146" s="33"/>
@@ -15418,7 +15473,7 @@
       <c r="B147" s="33"/>
       <c r="C147" s="61"/>
       <c r="D147" s="84" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E147" s="61"/>
       <c r="F147" s="61"/>
@@ -15472,7 +15527,7 @@
       <c r="D148" s="61"/>
       <c r="E148" s="61"/>
       <c r="F148" s="61" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G148" s="33"/>
       <c r="H148" s="33"/>
@@ -15522,7 +15577,7 @@
       <c r="B149" s="33"/>
       <c r="C149" s="61"/>
       <c r="D149" s="84" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E149" s="61"/>
       <c r="F149" s="61"/>
@@ -15575,7 +15630,7 @@
       <c r="C150" s="61"/>
       <c r="D150" s="84"/>
       <c r="E150" s="35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F150" s="32"/>
       <c r="G150" s="32"/>
@@ -15630,7 +15685,7 @@
       <c r="F151" s="32"/>
       <c r="G151" s="61"/>
       <c r="H151" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I151" s="33"/>
       <c r="J151" s="33"/>
@@ -15681,7 +15736,7 @@
       <c r="E152" s="61"/>
       <c r="F152" s="32"/>
       <c r="G152" s="61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H152" s="33"/>
       <c r="I152" s="33"/>
@@ -15733,7 +15788,7 @@
       <c r="E153" s="61"/>
       <c r="F153" s="32"/>
       <c r="G153" s="61" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H153" s="33"/>
       <c r="I153" s="33"/>
@@ -15833,7 +15888,7 @@
       <c r="C155" s="61"/>
       <c r="D155" s="61"/>
       <c r="E155" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F155" s="61"/>
       <c r="G155" s="33"/>
@@ -15888,7 +15943,7 @@
       <c r="F156" s="61"/>
       <c r="G156" s="33"/>
       <c r="H156" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I156" s="33"/>
       <c r="J156" s="33"/>
@@ -15986,7 +16041,7 @@
       <c r="B158" s="33"/>
       <c r="C158" s="61"/>
       <c r="D158" s="84" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E158" s="61"/>
       <c r="F158" s="61"/>
@@ -16040,7 +16095,7 @@
       <c r="D159" s="61"/>
       <c r="E159" s="61"/>
       <c r="F159" s="61" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G159" s="33"/>
       <c r="H159" s="33"/>
@@ -16092,7 +16147,7 @@
       <c r="D160" s="61"/>
       <c r="E160" s="61"/>
       <c r="F160" s="61" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G160" s="33"/>
       <c r="H160" s="33"/>
@@ -16143,7 +16198,7 @@
       <c r="C161" s="61"/>
       <c r="D161" s="61"/>
       <c r="E161" s="61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F161" s="61"/>
       <c r="G161" s="33"/>
@@ -16194,7 +16249,7 @@
       <c r="B162" s="33"/>
       <c r="C162" s="61"/>
       <c r="D162" s="84" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E162" s="61"/>
       <c r="F162" s="61"/>
@@ -16246,7 +16301,7 @@
       <c r="B163" s="33"/>
       <c r="C163" s="61"/>
       <c r="D163" s="84" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E163" s="61"/>
       <c r="F163" s="61"/>
@@ -16298,7 +16353,7 @@
       <c r="B164" s="33"/>
       <c r="C164" s="61"/>
       <c r="D164" s="61" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E164" s="61"/>
       <c r="F164" s="61"/>
@@ -16399,7 +16454,7 @@
       <c r="A166" s="31"/>
       <c r="B166" s="33"/>
       <c r="C166" s="61" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D166" s="61"/>
       <c r="E166" s="61"/>
@@ -16452,7 +16507,7 @@
       <c r="B167" s="33"/>
       <c r="C167" s="61"/>
       <c r="D167" s="85" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E167" s="86"/>
       <c r="F167" s="86"/>
@@ -16504,7 +16559,7 @@
       <c r="B168" s="33"/>
       <c r="C168" s="61"/>
       <c r="D168" s="85" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E168" s="86"/>
       <c r="F168" s="86"/>
@@ -16710,7 +16765,7 @@
       <c r="B172" s="33"/>
       <c r="C172" s="61"/>
       <c r="D172" s="61" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E172" s="32"/>
       <c r="F172" s="32"/>
@@ -16762,7 +16817,7 @@
       <c r="B173" s="33"/>
       <c r="C173" s="61"/>
       <c r="D173" s="32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E173" s="32"/>
       <c r="F173" s="32"/>
@@ -16814,7 +16869,7 @@
       <c r="B174" s="33"/>
       <c r="C174" s="61"/>
       <c r="D174" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E174" s="32"/>
       <c r="F174" s="32"/>
@@ -16866,14 +16921,14 @@
       <c r="B175" s="33"/>
       <c r="C175" s="61"/>
       <c r="D175" s="91" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E175" s="86"/>
       <c r="F175" s="86"/>
       <c r="G175" s="53"/>
       <c r="H175" s="54"/>
       <c r="I175" s="62" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J175" s="33"/>
       <c r="K175" s="33"/>
@@ -16927,7 +16982,7 @@
       <c r="G176" s="53"/>
       <c r="H176" s="54"/>
       <c r="I176" s="62" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J176" s="33"/>
       <c r="K176" s="33"/>
@@ -17024,7 +17079,7 @@
       <c r="B178" s="33"/>
       <c r="C178" s="61"/>
       <c r="D178" s="90" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E178" s="90"/>
       <c r="F178" s="90"/>
@@ -17125,46 +17180,46 @@
       <c r="A180" s="31"/>
       <c r="B180" s="33"/>
       <c r="C180" s="61"/>
-      <c r="D180" s="180" t="s">
-        <v>67</v>
-      </c>
-      <c r="E180" s="181"/>
-      <c r="F180" s="181"/>
-      <c r="G180" s="181"/>
-      <c r="H180" s="182"/>
-      <c r="I180" s="180" t="s">
+      <c r="D180" s="189" t="s">
+        <v>66</v>
+      </c>
+      <c r="E180" s="190"/>
+      <c r="F180" s="190"/>
+      <c r="G180" s="190"/>
+      <c r="H180" s="191"/>
+      <c r="I180" s="189" t="s">
+        <v>157</v>
+      </c>
+      <c r="J180" s="190"/>
+      <c r="K180" s="190"/>
+      <c r="L180" s="190"/>
+      <c r="M180" s="191"/>
+      <c r="N180" s="189" t="s">
         <v>158</v>
       </c>
-      <c r="J180" s="181"/>
-      <c r="K180" s="181"/>
-      <c r="L180" s="181"/>
-      <c r="M180" s="182"/>
-      <c r="N180" s="180" t="s">
-        <v>159</v>
-      </c>
-      <c r="O180" s="181"/>
-      <c r="P180" s="181"/>
-      <c r="Q180" s="181"/>
-      <c r="R180" s="181"/>
-      <c r="S180" s="181"/>
-      <c r="T180" s="181"/>
-      <c r="U180" s="182"/>
-      <c r="V180" s="180" t="s">
+      <c r="O180" s="190"/>
+      <c r="P180" s="190"/>
+      <c r="Q180" s="190"/>
+      <c r="R180" s="190"/>
+      <c r="S180" s="190"/>
+      <c r="T180" s="190"/>
+      <c r="U180" s="191"/>
+      <c r="V180" s="189" t="s">
         <v>4</v>
       </c>
-      <c r="W180" s="181"/>
-      <c r="X180" s="181"/>
-      <c r="Y180" s="181"/>
-      <c r="Z180" s="181"/>
-      <c r="AA180" s="181"/>
-      <c r="AB180" s="181"/>
-      <c r="AC180" s="181"/>
-      <c r="AD180" s="181"/>
-      <c r="AE180" s="181"/>
-      <c r="AF180" s="181"/>
-      <c r="AG180" s="181"/>
-      <c r="AH180" s="181"/>
-      <c r="AI180" s="182"/>
+      <c r="W180" s="190"/>
+      <c r="X180" s="190"/>
+      <c r="Y180" s="190"/>
+      <c r="Z180" s="190"/>
+      <c r="AA180" s="190"/>
+      <c r="AB180" s="190"/>
+      <c r="AC180" s="190"/>
+      <c r="AD180" s="190"/>
+      <c r="AE180" s="190"/>
+      <c r="AF180" s="190"/>
+      <c r="AG180" s="190"/>
+      <c r="AH180" s="190"/>
+      <c r="AI180" s="191"/>
       <c r="AJ180" s="33"/>
       <c r="AK180" s="33"/>
       <c r="AL180" s="33"/>
@@ -17183,42 +17238,42 @@
       <c r="A181" s="31"/>
       <c r="B181" s="33"/>
       <c r="C181" s="61"/>
-      <c r="D181" s="183" t="s">
+      <c r="D181" s="192" t="s">
         <v>27</v>
       </c>
-      <c r="E181" s="184"/>
-      <c r="F181" s="184"/>
-      <c r="G181" s="184"/>
-      <c r="H181" s="185"/>
-      <c r="I181" s="192"/>
-      <c r="J181" s="193"/>
-      <c r="K181" s="193"/>
-      <c r="L181" s="193"/>
-      <c r="M181" s="194"/>
-      <c r="N181" s="192"/>
-      <c r="O181" s="193"/>
-      <c r="P181" s="193"/>
-      <c r="Q181" s="193"/>
-      <c r="R181" s="193"/>
-      <c r="S181" s="193"/>
-      <c r="T181" s="193"/>
-      <c r="U181" s="194"/>
-      <c r="V181" s="172" t="s">
-        <v>160</v>
-      </c>
-      <c r="W181" s="172"/>
-      <c r="X181" s="172"/>
-      <c r="Y181" s="172"/>
-      <c r="Z181" s="172"/>
-      <c r="AA181" s="172"/>
-      <c r="AB181" s="172"/>
-      <c r="AC181" s="172"/>
-      <c r="AD181" s="172"/>
-      <c r="AE181" s="172"/>
-      <c r="AF181" s="172"/>
-      <c r="AG181" s="172"/>
-      <c r="AH181" s="172"/>
-      <c r="AI181" s="172"/>
+      <c r="E181" s="193"/>
+      <c r="F181" s="193"/>
+      <c r="G181" s="193"/>
+      <c r="H181" s="194"/>
+      <c r="I181" s="201"/>
+      <c r="J181" s="202"/>
+      <c r="K181" s="202"/>
+      <c r="L181" s="202"/>
+      <c r="M181" s="203"/>
+      <c r="N181" s="201"/>
+      <c r="O181" s="202"/>
+      <c r="P181" s="202"/>
+      <c r="Q181" s="202"/>
+      <c r="R181" s="202"/>
+      <c r="S181" s="202"/>
+      <c r="T181" s="202"/>
+      <c r="U181" s="203"/>
+      <c r="V181" s="182" t="s">
+        <v>159</v>
+      </c>
+      <c r="W181" s="182"/>
+      <c r="X181" s="182"/>
+      <c r="Y181" s="182"/>
+      <c r="Z181" s="182"/>
+      <c r="AA181" s="182"/>
+      <c r="AB181" s="182"/>
+      <c r="AC181" s="182"/>
+      <c r="AD181" s="182"/>
+      <c r="AE181" s="182"/>
+      <c r="AF181" s="182"/>
+      <c r="AG181" s="182"/>
+      <c r="AH181" s="182"/>
+      <c r="AI181" s="182"/>
       <c r="AJ181" s="33"/>
       <c r="AK181" s="33"/>
       <c r="AL181" s="33"/>
@@ -17237,44 +17292,44 @@
       <c r="A182" s="31"/>
       <c r="B182" s="33"/>
       <c r="C182" s="61"/>
-      <c r="D182" s="172" t="s">
+      <c r="D182" s="182" t="s">
+        <v>160</v>
+      </c>
+      <c r="E182" s="182"/>
+      <c r="F182" s="182"/>
+      <c r="G182" s="182"/>
+      <c r="H182" s="182"/>
+      <c r="I182" s="201" t="s">
         <v>161</v>
       </c>
-      <c r="E182" s="172"/>
-      <c r="F182" s="172"/>
-      <c r="G182" s="172"/>
-      <c r="H182" s="172"/>
-      <c r="I182" s="192" t="s">
-        <v>162</v>
-      </c>
-      <c r="J182" s="193"/>
-      <c r="K182" s="193"/>
-      <c r="L182" s="193"/>
-      <c r="M182" s="194"/>
-      <c r="N182" s="172" t="s">
+      <c r="J182" s="202"/>
+      <c r="K182" s="202"/>
+      <c r="L182" s="202"/>
+      <c r="M182" s="203"/>
+      <c r="N182" s="182" t="s">
         <v>21</v>
       </c>
-      <c r="O182" s="172"/>
-      <c r="P182" s="172"/>
-      <c r="Q182" s="172"/>
-      <c r="R182" s="172"/>
-      <c r="S182" s="172"/>
-      <c r="T182" s="172"/>
-      <c r="U182" s="172"/>
-      <c r="V182" s="172"/>
-      <c r="W182" s="172"/>
-      <c r="X182" s="172"/>
-      <c r="Y182" s="172"/>
-      <c r="Z182" s="172"/>
-      <c r="AA182" s="172"/>
-      <c r="AB182" s="172"/>
-      <c r="AC182" s="172"/>
-      <c r="AD182" s="172"/>
-      <c r="AE182" s="172"/>
-      <c r="AF182" s="172"/>
-      <c r="AG182" s="172"/>
-      <c r="AH182" s="172"/>
-      <c r="AI182" s="172"/>
+      <c r="O182" s="182"/>
+      <c r="P182" s="182"/>
+      <c r="Q182" s="182"/>
+      <c r="R182" s="182"/>
+      <c r="S182" s="182"/>
+      <c r="T182" s="182"/>
+      <c r="U182" s="182"/>
+      <c r="V182" s="182"/>
+      <c r="W182" s="182"/>
+      <c r="X182" s="182"/>
+      <c r="Y182" s="182"/>
+      <c r="Z182" s="182"/>
+      <c r="AA182" s="182"/>
+      <c r="AB182" s="182"/>
+      <c r="AC182" s="182"/>
+      <c r="AD182" s="182"/>
+      <c r="AE182" s="182"/>
+      <c r="AF182" s="182"/>
+      <c r="AG182" s="182"/>
+      <c r="AH182" s="182"/>
+      <c r="AI182" s="182"/>
       <c r="AJ182" s="33"/>
       <c r="AK182" s="33"/>
       <c r="AL182" s="33"/>
@@ -17293,44 +17348,44 @@
       <c r="A183" s="31"/>
       <c r="B183" s="33"/>
       <c r="C183" s="61"/>
-      <c r="D183" s="172" t="s">
-        <v>163</v>
-      </c>
-      <c r="E183" s="172"/>
-      <c r="F183" s="172"/>
-      <c r="G183" s="172"/>
-      <c r="H183" s="172"/>
-      <c r="I183" s="186" t="s">
-        <v>163</v>
-      </c>
-      <c r="J183" s="187"/>
-      <c r="K183" s="187"/>
-      <c r="L183" s="187"/>
-      <c r="M183" s="188"/>
-      <c r="N183" s="172" t="s">
+      <c r="D183" s="182" t="s">
+        <v>162</v>
+      </c>
+      <c r="E183" s="182"/>
+      <c r="F183" s="182"/>
+      <c r="G183" s="182"/>
+      <c r="H183" s="182"/>
+      <c r="I183" s="195" t="s">
+        <v>162</v>
+      </c>
+      <c r="J183" s="196"/>
+      <c r="K183" s="196"/>
+      <c r="L183" s="196"/>
+      <c r="M183" s="197"/>
+      <c r="N183" s="182" t="s">
         <v>21</v>
       </c>
-      <c r="O183" s="172"/>
-      <c r="P183" s="172"/>
-      <c r="Q183" s="172"/>
-      <c r="R183" s="172"/>
-      <c r="S183" s="172"/>
-      <c r="T183" s="172"/>
-      <c r="U183" s="172"/>
-      <c r="V183" s="172"/>
-      <c r="W183" s="172"/>
-      <c r="X183" s="172"/>
-      <c r="Y183" s="172"/>
-      <c r="Z183" s="172"/>
-      <c r="AA183" s="172"/>
-      <c r="AB183" s="172"/>
-      <c r="AC183" s="172"/>
-      <c r="AD183" s="172"/>
-      <c r="AE183" s="172"/>
-      <c r="AF183" s="172"/>
-      <c r="AG183" s="172"/>
-      <c r="AH183" s="172"/>
-      <c r="AI183" s="172"/>
+      <c r="O183" s="182"/>
+      <c r="P183" s="182"/>
+      <c r="Q183" s="182"/>
+      <c r="R183" s="182"/>
+      <c r="S183" s="182"/>
+      <c r="T183" s="182"/>
+      <c r="U183" s="182"/>
+      <c r="V183" s="182"/>
+      <c r="W183" s="182"/>
+      <c r="X183" s="182"/>
+      <c r="Y183" s="182"/>
+      <c r="Z183" s="182"/>
+      <c r="AA183" s="182"/>
+      <c r="AB183" s="182"/>
+      <c r="AC183" s="182"/>
+      <c r="AD183" s="182"/>
+      <c r="AE183" s="182"/>
+      <c r="AF183" s="182"/>
+      <c r="AG183" s="182"/>
+      <c r="AH183" s="182"/>
+      <c r="AI183" s="182"/>
       <c r="AJ183" s="33"/>
       <c r="AK183" s="33"/>
       <c r="AL183" s="33"/>
@@ -17349,46 +17404,46 @@
       <c r="A184" s="31"/>
       <c r="B184" s="33"/>
       <c r="C184" s="61"/>
-      <c r="D184" s="183" t="s">
-        <v>162</v>
-      </c>
-      <c r="E184" s="184"/>
-      <c r="F184" s="184"/>
-      <c r="G184" s="184"/>
-      <c r="H184" s="185"/>
-      <c r="I184" s="186" t="s">
-        <v>151</v>
-      </c>
-      <c r="J184" s="187"/>
-      <c r="K184" s="187"/>
-      <c r="L184" s="187"/>
-      <c r="M184" s="188"/>
-      <c r="N184" s="172" t="s">
+      <c r="D184" s="192" t="s">
+        <v>161</v>
+      </c>
+      <c r="E184" s="193"/>
+      <c r="F184" s="193"/>
+      <c r="G184" s="193"/>
+      <c r="H184" s="194"/>
+      <c r="I184" s="195" t="s">
+        <v>150</v>
+      </c>
+      <c r="J184" s="196"/>
+      <c r="K184" s="196"/>
+      <c r="L184" s="196"/>
+      <c r="M184" s="197"/>
+      <c r="N184" s="182" t="s">
+        <v>163</v>
+      </c>
+      <c r="O184" s="182"/>
+      <c r="P184" s="182"/>
+      <c r="Q184" s="182"/>
+      <c r="R184" s="182"/>
+      <c r="S184" s="182"/>
+      <c r="T184" s="182"/>
+      <c r="U184" s="182"/>
+      <c r="V184" s="198" t="s">
         <v>164</v>
       </c>
-      <c r="O184" s="172"/>
-      <c r="P184" s="172"/>
-      <c r="Q184" s="172"/>
-      <c r="R184" s="172"/>
-      <c r="S184" s="172"/>
-      <c r="T184" s="172"/>
-      <c r="U184" s="172"/>
-      <c r="V184" s="189" t="s">
-        <v>165</v>
-      </c>
-      <c r="W184" s="190"/>
-      <c r="X184" s="190"/>
-      <c r="Y184" s="190"/>
-      <c r="Z184" s="190"/>
-      <c r="AA184" s="190"/>
-      <c r="AB184" s="190"/>
-      <c r="AC184" s="190"/>
-      <c r="AD184" s="190"/>
-      <c r="AE184" s="190"/>
-      <c r="AF184" s="190"/>
-      <c r="AG184" s="190"/>
-      <c r="AH184" s="190"/>
-      <c r="AI184" s="191"/>
+      <c r="W184" s="199"/>
+      <c r="X184" s="199"/>
+      <c r="Y184" s="199"/>
+      <c r="Z184" s="199"/>
+      <c r="AA184" s="199"/>
+      <c r="AB184" s="199"/>
+      <c r="AC184" s="199"/>
+      <c r="AD184" s="199"/>
+      <c r="AE184" s="199"/>
+      <c r="AF184" s="199"/>
+      <c r="AG184" s="199"/>
+      <c r="AH184" s="199"/>
+      <c r="AI184" s="200"/>
       <c r="AJ184" s="33"/>
       <c r="AK184" s="33"/>
       <c r="AL184" s="33"/>
@@ -17407,46 +17462,46 @@
       <c r="A185" s="31"/>
       <c r="B185" s="33"/>
       <c r="C185" s="61"/>
-      <c r="D185" s="183" t="s">
+      <c r="D185" s="192" t="s">
         <v>28</v>
       </c>
-      <c r="E185" s="184"/>
-      <c r="F185" s="184"/>
-      <c r="G185" s="184"/>
-      <c r="H185" s="185"/>
-      <c r="I185" s="186" t="s">
+      <c r="E185" s="193"/>
+      <c r="F185" s="193"/>
+      <c r="G185" s="193"/>
+      <c r="H185" s="194"/>
+      <c r="I185" s="195" t="s">
         <v>28</v>
       </c>
-      <c r="J185" s="187"/>
-      <c r="K185" s="187"/>
-      <c r="L185" s="187"/>
-      <c r="M185" s="188"/>
-      <c r="N185" s="172" t="s">
+      <c r="J185" s="196"/>
+      <c r="K185" s="196"/>
+      <c r="L185" s="196"/>
+      <c r="M185" s="197"/>
+      <c r="N185" s="182" t="s">
+        <v>165</v>
+      </c>
+      <c r="O185" s="182"/>
+      <c r="P185" s="182"/>
+      <c r="Q185" s="182"/>
+      <c r="R185" s="182"/>
+      <c r="S185" s="182"/>
+      <c r="T185" s="182"/>
+      <c r="U185" s="182"/>
+      <c r="V185" s="198" t="s">
         <v>166</v>
       </c>
-      <c r="O185" s="172"/>
-      <c r="P185" s="172"/>
-      <c r="Q185" s="172"/>
-      <c r="R185" s="172"/>
-      <c r="S185" s="172"/>
-      <c r="T185" s="172"/>
-      <c r="U185" s="172"/>
-      <c r="V185" s="189" t="s">
-        <v>167</v>
-      </c>
-      <c r="W185" s="190"/>
-      <c r="X185" s="190"/>
-      <c r="Y185" s="190"/>
-      <c r="Z185" s="190"/>
-      <c r="AA185" s="190"/>
-      <c r="AB185" s="190"/>
-      <c r="AC185" s="190"/>
-      <c r="AD185" s="190"/>
-      <c r="AE185" s="190"/>
-      <c r="AF185" s="190"/>
-      <c r="AG185" s="190"/>
-      <c r="AH185" s="190"/>
-      <c r="AI185" s="191"/>
+      <c r="W185" s="199"/>
+      <c r="X185" s="199"/>
+      <c r="Y185" s="199"/>
+      <c r="Z185" s="199"/>
+      <c r="AA185" s="199"/>
+      <c r="AB185" s="199"/>
+      <c r="AC185" s="199"/>
+      <c r="AD185" s="199"/>
+      <c r="AE185" s="199"/>
+      <c r="AF185" s="199"/>
+      <c r="AG185" s="199"/>
+      <c r="AH185" s="199"/>
+      <c r="AI185" s="200"/>
       <c r="AJ185" s="33"/>
       <c r="AK185" s="33"/>
       <c r="AL185" s="33"/>
@@ -17465,46 +17520,46 @@
       <c r="A186" s="31"/>
       <c r="B186" s="33"/>
       <c r="C186" s="61"/>
-      <c r="D186" s="183" t="s">
+      <c r="D186" s="192" t="s">
         <v>29</v>
       </c>
-      <c r="E186" s="184"/>
-      <c r="F186" s="184"/>
-      <c r="G186" s="184"/>
-      <c r="H186" s="185"/>
-      <c r="I186" s="186" t="s">
+      <c r="E186" s="193"/>
+      <c r="F186" s="193"/>
+      <c r="G186" s="193"/>
+      <c r="H186" s="194"/>
+      <c r="I186" s="195" t="s">
         <v>29</v>
       </c>
-      <c r="J186" s="187"/>
-      <c r="K186" s="187"/>
-      <c r="L186" s="187"/>
-      <c r="M186" s="188"/>
-      <c r="N186" s="172" t="s">
+      <c r="J186" s="196"/>
+      <c r="K186" s="196"/>
+      <c r="L186" s="196"/>
+      <c r="M186" s="197"/>
+      <c r="N186" s="182" t="s">
+        <v>167</v>
+      </c>
+      <c r="O186" s="182"/>
+      <c r="P186" s="182"/>
+      <c r="Q186" s="182"/>
+      <c r="R186" s="182"/>
+      <c r="S186" s="182"/>
+      <c r="T186" s="182"/>
+      <c r="U186" s="182"/>
+      <c r="V186" s="198" t="s">
         <v>168</v>
       </c>
-      <c r="O186" s="172"/>
-      <c r="P186" s="172"/>
-      <c r="Q186" s="172"/>
-      <c r="R186" s="172"/>
-      <c r="S186" s="172"/>
-      <c r="T186" s="172"/>
-      <c r="U186" s="172"/>
-      <c r="V186" s="189" t="s">
-        <v>169</v>
-      </c>
-      <c r="W186" s="190"/>
-      <c r="X186" s="190"/>
-      <c r="Y186" s="190"/>
-      <c r="Z186" s="190"/>
-      <c r="AA186" s="190"/>
-      <c r="AB186" s="190"/>
-      <c r="AC186" s="190"/>
-      <c r="AD186" s="190"/>
-      <c r="AE186" s="190"/>
-      <c r="AF186" s="190"/>
-      <c r="AG186" s="190"/>
-      <c r="AH186" s="190"/>
-      <c r="AI186" s="191"/>
+      <c r="W186" s="199"/>
+      <c r="X186" s="199"/>
+      <c r="Y186" s="199"/>
+      <c r="Z186" s="199"/>
+      <c r="AA186" s="199"/>
+      <c r="AB186" s="199"/>
+      <c r="AC186" s="199"/>
+      <c r="AD186" s="199"/>
+      <c r="AE186" s="199"/>
+      <c r="AF186" s="199"/>
+      <c r="AG186" s="199"/>
+      <c r="AH186" s="199"/>
+      <c r="AI186" s="200"/>
       <c r="AJ186" s="33"/>
       <c r="AK186" s="33"/>
       <c r="AL186" s="33"/>
@@ -17523,46 +17578,46 @@
       <c r="A187" s="31"/>
       <c r="B187" s="33"/>
       <c r="C187" s="61"/>
-      <c r="D187" s="183" t="s">
+      <c r="D187" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="E187" s="184"/>
-      <c r="F187" s="184"/>
-      <c r="G187" s="184"/>
-      <c r="H187" s="185"/>
-      <c r="I187" s="186" t="s">
-        <v>162</v>
-      </c>
-      <c r="J187" s="187"/>
-      <c r="K187" s="187"/>
-      <c r="L187" s="187"/>
-      <c r="M187" s="188"/>
-      <c r="N187" s="172" t="s">
+      <c r="E187" s="193"/>
+      <c r="F187" s="193"/>
+      <c r="G187" s="193"/>
+      <c r="H187" s="194"/>
+      <c r="I187" s="195" t="s">
+        <v>161</v>
+      </c>
+      <c r="J187" s="196"/>
+      <c r="K187" s="196"/>
+      <c r="L187" s="196"/>
+      <c r="M187" s="197"/>
+      <c r="N187" s="182" t="s">
+        <v>169</v>
+      </c>
+      <c r="O187" s="182"/>
+      <c r="P187" s="182"/>
+      <c r="Q187" s="182"/>
+      <c r="R187" s="182"/>
+      <c r="S187" s="182"/>
+      <c r="T187" s="182"/>
+      <c r="U187" s="182"/>
+      <c r="V187" s="198" t="s">
         <v>170</v>
       </c>
-      <c r="O187" s="172"/>
-      <c r="P187" s="172"/>
-      <c r="Q187" s="172"/>
-      <c r="R187" s="172"/>
-      <c r="S187" s="172"/>
-      <c r="T187" s="172"/>
-      <c r="U187" s="172"/>
-      <c r="V187" s="189" t="s">
-        <v>171</v>
-      </c>
-      <c r="W187" s="190"/>
-      <c r="X187" s="190"/>
-      <c r="Y187" s="190"/>
-      <c r="Z187" s="190"/>
-      <c r="AA187" s="190"/>
-      <c r="AB187" s="190"/>
-      <c r="AC187" s="190"/>
-      <c r="AD187" s="190"/>
-      <c r="AE187" s="190"/>
-      <c r="AF187" s="190"/>
-      <c r="AG187" s="190"/>
-      <c r="AH187" s="190"/>
-      <c r="AI187" s="191"/>
+      <c r="W187" s="199"/>
+      <c r="X187" s="199"/>
+      <c r="Y187" s="199"/>
+      <c r="Z187" s="199"/>
+      <c r="AA187" s="199"/>
+      <c r="AB187" s="199"/>
+      <c r="AC187" s="199"/>
+      <c r="AD187" s="199"/>
+      <c r="AE187" s="199"/>
+      <c r="AF187" s="199"/>
+      <c r="AG187" s="199"/>
+      <c r="AH187" s="199"/>
+      <c r="AI187" s="200"/>
       <c r="AJ187" s="33"/>
       <c r="AK187" s="33"/>
       <c r="AL187" s="33"/>
@@ -17581,44 +17636,44 @@
       <c r="A188" s="31"/>
       <c r="B188" s="33"/>
       <c r="C188" s="61"/>
-      <c r="D188" s="183" t="s">
+      <c r="D188" s="192" t="s">
+        <v>171</v>
+      </c>
+      <c r="E188" s="193"/>
+      <c r="F188" s="193"/>
+      <c r="G188" s="193"/>
+      <c r="H188" s="194"/>
+      <c r="I188" s="195" t="s">
+        <v>161</v>
+      </c>
+      <c r="J188" s="196"/>
+      <c r="K188" s="196"/>
+      <c r="L188" s="196"/>
+      <c r="M188" s="197"/>
+      <c r="N188" s="201"/>
+      <c r="O188" s="202"/>
+      <c r="P188" s="202"/>
+      <c r="Q188" s="202"/>
+      <c r="R188" s="202"/>
+      <c r="S188" s="202"/>
+      <c r="T188" s="202"/>
+      <c r="U188" s="203"/>
+      <c r="V188" s="204" t="s">
         <v>172</v>
       </c>
-      <c r="E188" s="184"/>
-      <c r="F188" s="184"/>
-      <c r="G188" s="184"/>
-      <c r="H188" s="185"/>
-      <c r="I188" s="186" t="s">
-        <v>162</v>
-      </c>
-      <c r="J188" s="187"/>
-      <c r="K188" s="187"/>
-      <c r="L188" s="187"/>
-      <c r="M188" s="188"/>
-      <c r="N188" s="192"/>
-      <c r="O188" s="193"/>
-      <c r="P188" s="193"/>
-      <c r="Q188" s="193"/>
-      <c r="R188" s="193"/>
-      <c r="S188" s="193"/>
-      <c r="T188" s="193"/>
-      <c r="U188" s="194"/>
-      <c r="V188" s="195" t="s">
-        <v>173</v>
-      </c>
-      <c r="W188" s="196"/>
-      <c r="X188" s="196"/>
-      <c r="Y188" s="196"/>
-      <c r="Z188" s="196"/>
-      <c r="AA188" s="196"/>
-      <c r="AB188" s="196"/>
-      <c r="AC188" s="196"/>
-      <c r="AD188" s="196"/>
-      <c r="AE188" s="196"/>
-      <c r="AF188" s="196"/>
-      <c r="AG188" s="196"/>
-      <c r="AH188" s="196"/>
-      <c r="AI188" s="197"/>
+      <c r="W188" s="205"/>
+      <c r="X188" s="205"/>
+      <c r="Y188" s="205"/>
+      <c r="Z188" s="205"/>
+      <c r="AA188" s="205"/>
+      <c r="AB188" s="205"/>
+      <c r="AC188" s="205"/>
+      <c r="AD188" s="205"/>
+      <c r="AE188" s="205"/>
+      <c r="AF188" s="205"/>
+      <c r="AG188" s="205"/>
+      <c r="AH188" s="205"/>
+      <c r="AI188" s="206"/>
       <c r="AJ188" s="33"/>
       <c r="AK188" s="33"/>
       <c r="AL188" s="33"/>
@@ -17637,44 +17692,44 @@
       <c r="A189" s="31"/>
       <c r="B189" s="33"/>
       <c r="C189" s="61"/>
-      <c r="D189" s="183" t="s">
+      <c r="D189" s="192" t="s">
+        <v>173</v>
+      </c>
+      <c r="E189" s="193"/>
+      <c r="F189" s="193"/>
+      <c r="G189" s="193"/>
+      <c r="H189" s="194"/>
+      <c r="I189" s="195" t="s">
+        <v>161</v>
+      </c>
+      <c r="J189" s="196"/>
+      <c r="K189" s="196"/>
+      <c r="L189" s="196"/>
+      <c r="M189" s="197"/>
+      <c r="N189" s="201"/>
+      <c r="O189" s="202"/>
+      <c r="P189" s="202"/>
+      <c r="Q189" s="202"/>
+      <c r="R189" s="202"/>
+      <c r="S189" s="202"/>
+      <c r="T189" s="202"/>
+      <c r="U189" s="203"/>
+      <c r="V189" s="198" t="s">
         <v>174</v>
       </c>
-      <c r="E189" s="184"/>
-      <c r="F189" s="184"/>
-      <c r="G189" s="184"/>
-      <c r="H189" s="185"/>
-      <c r="I189" s="186" t="s">
-        <v>162</v>
-      </c>
-      <c r="J189" s="187"/>
-      <c r="K189" s="187"/>
-      <c r="L189" s="187"/>
-      <c r="M189" s="188"/>
-      <c r="N189" s="192"/>
-      <c r="O189" s="193"/>
-      <c r="P189" s="193"/>
-      <c r="Q189" s="193"/>
-      <c r="R189" s="193"/>
-      <c r="S189" s="193"/>
-      <c r="T189" s="193"/>
-      <c r="U189" s="194"/>
-      <c r="V189" s="189" t="s">
-        <v>175</v>
-      </c>
-      <c r="W189" s="190"/>
-      <c r="X189" s="190"/>
-      <c r="Y189" s="190"/>
-      <c r="Z189" s="190"/>
-      <c r="AA189" s="190"/>
-      <c r="AB189" s="190"/>
-      <c r="AC189" s="190"/>
-      <c r="AD189" s="190"/>
-      <c r="AE189" s="190"/>
-      <c r="AF189" s="190"/>
-      <c r="AG189" s="190"/>
-      <c r="AH189" s="190"/>
-      <c r="AI189" s="191"/>
+      <c r="W189" s="199"/>
+      <c r="X189" s="199"/>
+      <c r="Y189" s="199"/>
+      <c r="Z189" s="199"/>
+      <c r="AA189" s="199"/>
+      <c r="AB189" s="199"/>
+      <c r="AC189" s="199"/>
+      <c r="AD189" s="199"/>
+      <c r="AE189" s="199"/>
+      <c r="AF189" s="199"/>
+      <c r="AG189" s="199"/>
+      <c r="AH189" s="199"/>
+      <c r="AI189" s="200"/>
       <c r="AJ189" s="33"/>
       <c r="AK189" s="33"/>
       <c r="AL189" s="33"/>
@@ -17743,7 +17798,7 @@
       <c r="A191" s="31"/>
       <c r="B191" s="33"/>
       <c r="C191" s="61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D191" s="90"/>
       <c r="E191" s="90"/>
@@ -17809,11 +17864,11 @@
       <c r="K192" s="58"/>
       <c r="L192" s="59"/>
       <c r="M192" s="60"/>
-      <c r="N192" s="172" t="s">
+      <c r="N192" s="182" t="s">
         <v>50</v>
       </c>
-      <c r="O192" s="172"/>
-      <c r="P192" s="172"/>
+      <c r="O192" s="182"/>
+      <c r="P192" s="182"/>
       <c r="Q192" s="57">
         <v>99</v>
       </c>
@@ -17828,35 +17883,35 @@
       <c r="X192" s="60"/>
       <c r="Y192" s="58"/>
       <c r="Z192" s="58"/>
-      <c r="AA192" s="172" t="s">
+      <c r="AA192" s="182" t="s">
         <v>51</v>
       </c>
-      <c r="AB192" s="172"/>
-      <c r="AC192" s="172"/>
-      <c r="AD192" s="172" t="s">
+      <c r="AB192" s="182"/>
+      <c r="AC192" s="182"/>
+      <c r="AD192" s="182" t="s">
         <v>52</v>
       </c>
-      <c r="AE192" s="172"/>
-      <c r="AF192" s="172"/>
-      <c r="AG192" s="172" t="s">
+      <c r="AE192" s="182"/>
+      <c r="AF192" s="182"/>
+      <c r="AG192" s="182" t="s">
         <v>46</v>
       </c>
-      <c r="AH192" s="172"/>
-      <c r="AI192" s="172">
+      <c r="AH192" s="182"/>
+      <c r="AI192" s="182">
         <v>40149</v>
       </c>
-      <c r="AJ192" s="172"/>
-      <c r="AK192" s="172"/>
-      <c r="AL192" s="172">
+      <c r="AJ192" s="182"/>
+      <c r="AK192" s="182"/>
+      <c r="AL192" s="182">
         <v>40512</v>
       </c>
-      <c r="AM192" s="172"/>
-      <c r="AN192" s="172"/>
-      <c r="AO192" s="172" t="s">
+      <c r="AM192" s="182"/>
+      <c r="AN192" s="182"/>
+      <c r="AO192" s="182" t="s">
         <v>47</v>
       </c>
-      <c r="AP192" s="172"/>
-      <c r="AQ192" s="172"/>
+      <c r="AP192" s="182"/>
+      <c r="AQ192" s="182"/>
       <c r="AR192" s="15"/>
       <c r="AS192" s="14"/>
       <c r="AT192" s="14"/>
@@ -17917,7 +17972,7 @@
       <c r="A194" s="31"/>
       <c r="B194" s="33"/>
       <c r="C194" s="61" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D194" s="90"/>
       <c r="E194" s="90"/>
@@ -18019,7 +18074,7 @@
       <c r="A196" s="31"/>
       <c r="B196" s="33"/>
       <c r="C196" s="92" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D196" s="32"/>
       <c r="E196" s="90"/>
@@ -18072,7 +18127,7 @@
       <c r="B197" s="33"/>
       <c r="C197" s="92"/>
       <c r="D197" s="92" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E197" s="90"/>
       <c r="F197" s="90"/>
@@ -18124,7 +18179,7 @@
       <c r="B198" s="33"/>
       <c r="C198" s="32"/>
       <c r="D198" s="106" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E198" s="90"/>
       <c r="F198" s="90"/>
@@ -18176,7 +18231,7 @@
       <c r="B199" s="33"/>
       <c r="C199" s="32"/>
       <c r="D199" s="93" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E199" s="90"/>
       <c r="F199" s="90"/>
@@ -18277,74 +18332,74 @@
       <c r="A201" s="31"/>
       <c r="B201" s="33"/>
       <c r="C201" s="61"/>
-      <c r="D201" s="200" t="s">
+      <c r="D201" s="209" t="s">
         <v>31</v>
       </c>
-      <c r="E201" s="201"/>
-      <c r="F201" s="201"/>
-      <c r="G201" s="202"/>
-      <c r="H201" s="200" t="s">
+      <c r="E201" s="210"/>
+      <c r="F201" s="210"/>
+      <c r="G201" s="211"/>
+      <c r="H201" s="209" t="s">
         <v>32</v>
       </c>
-      <c r="I201" s="201"/>
-      <c r="J201" s="201"/>
-      <c r="K201" s="201"/>
-      <c r="L201" s="201"/>
-      <c r="M201" s="202"/>
-      <c r="N201" s="203" t="s">
+      <c r="I201" s="210"/>
+      <c r="J201" s="210"/>
+      <c r="K201" s="210"/>
+      <c r="L201" s="210"/>
+      <c r="M201" s="211"/>
+      <c r="N201" s="212" t="s">
         <v>33</v>
       </c>
-      <c r="O201" s="172"/>
-      <c r="P201" s="172"/>
-      <c r="Q201" s="203" t="s">
+      <c r="O201" s="182"/>
+      <c r="P201" s="182"/>
+      <c r="Q201" s="212" t="s">
         <v>34</v>
       </c>
-      <c r="R201" s="172"/>
-      <c r="S201" s="203" t="s">
+      <c r="R201" s="182"/>
+      <c r="S201" s="212" t="s">
         <v>35</v>
       </c>
-      <c r="T201" s="172"/>
-      <c r="U201" s="203" t="s">
+      <c r="T201" s="182"/>
+      <c r="U201" s="212" t="s">
         <v>36</v>
       </c>
-      <c r="V201" s="172"/>
-      <c r="W201" s="203" t="s">
+      <c r="V201" s="182"/>
+      <c r="W201" s="212" t="s">
         <v>37</v>
       </c>
-      <c r="X201" s="172"/>
-      <c r="Y201" s="172" t="s">
+      <c r="X201" s="182"/>
+      <c r="Y201" s="182" t="s">
         <v>38</v>
       </c>
-      <c r="Z201" s="172"/>
-      <c r="AA201" s="198" t="s">
+      <c r="Z201" s="182"/>
+      <c r="AA201" s="207" t="s">
         <v>39</v>
       </c>
-      <c r="AB201" s="199"/>
-      <c r="AC201" s="172"/>
-      <c r="AD201" s="198" t="s">
+      <c r="AB201" s="208"/>
+      <c r="AC201" s="182"/>
+      <c r="AD201" s="207" t="s">
         <v>40</v>
       </c>
-      <c r="AE201" s="199"/>
-      <c r="AF201" s="172"/>
-      <c r="AG201" s="198" t="s">
+      <c r="AE201" s="208"/>
+      <c r="AF201" s="182"/>
+      <c r="AG201" s="207" t="s">
         <v>41</v>
       </c>
-      <c r="AH201" s="172"/>
-      <c r="AI201" s="198" t="s">
+      <c r="AH201" s="182"/>
+      <c r="AI201" s="207" t="s">
         <v>42</v>
       </c>
-      <c r="AJ201" s="199"/>
-      <c r="AK201" s="199"/>
-      <c r="AL201" s="198" t="s">
+      <c r="AJ201" s="208"/>
+      <c r="AK201" s="208"/>
+      <c r="AL201" s="207" t="s">
         <v>43</v>
       </c>
-      <c r="AM201" s="199"/>
-      <c r="AN201" s="172"/>
-      <c r="AO201" s="198" t="s">
+      <c r="AM201" s="208"/>
+      <c r="AN201" s="182"/>
+      <c r="AO201" s="207" t="s">
         <v>44</v>
       </c>
-      <c r="AP201" s="199"/>
-      <c r="AQ201" s="199"/>
+      <c r="AP201" s="208"/>
+      <c r="AQ201" s="208"/>
       <c r="AR201" s="33"/>
       <c r="AS201" s="14"/>
       <c r="AT201" s="14"/>
@@ -18404,7 +18459,7 @@
     <row r="203" spans="1:48">
       <c r="A203" s="31"/>
       <c r="B203" s="63" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C203" s="61"/>
       <c r="D203" s="95"/>
@@ -18457,7 +18512,7 @@
       <c r="A204" s="31"/>
       <c r="B204" s="33"/>
       <c r="C204" s="61" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D204" s="95"/>
       <c r="E204" s="90"/>
@@ -18542,7 +18597,7 @@
       </c>
       <c r="O205" s="107"/>
       <c r="P205" s="100" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q205" s="99"/>
       <c r="R205" s="33"/>
@@ -18582,7 +18637,7 @@
       <c r="B206" s="33"/>
       <c r="C206" s="33"/>
       <c r="D206" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E206" s="94"/>
       <c r="F206" s="94"/>
@@ -18683,7 +18738,7 @@
       <c r="A208" s="101"/>
       <c r="B208" s="63"/>
       <c r="C208" s="61" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D208" s="33"/>
       <c r="E208" s="94"/>
@@ -18785,7 +18840,7 @@
       <c r="A210" s="31"/>
       <c r="B210" s="33"/>
       <c r="C210" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D210" s="33"/>
       <c r="E210" s="61"/>
@@ -18838,7 +18893,7 @@
       <c r="B211" s="33"/>
       <c r="C211" s="33"/>
       <c r="D211" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E211" s="61"/>
       <c r="F211" s="61"/>
@@ -18890,7 +18945,7 @@
       <c r="B212" s="33"/>
       <c r="C212" s="33"/>
       <c r="D212" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E212" s="61"/>
       <c r="F212" s="61"/>
@@ -18942,7 +18997,7 @@
       <c r="B213" s="33"/>
       <c r="C213" s="33"/>
       <c r="D213" s="33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E213" s="61"/>
       <c r="F213" s="61"/>
@@ -18994,7 +19049,7 @@
       <c r="B214" s="33"/>
       <c r="C214" s="33"/>
       <c r="D214" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E214" s="61"/>
       <c r="F214" s="61"/>
@@ -19046,7 +19101,7 @@
       <c r="B215" s="33"/>
       <c r="C215" s="33"/>
       <c r="D215" s="32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E215" s="94"/>
       <c r="F215" s="94"/>
@@ -19098,7 +19153,7 @@
       <c r="B216" s="33"/>
       <c r="C216" s="33"/>
       <c r="D216" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E216" s="94"/>
       <c r="F216" s="94"/>
@@ -19567,232 +19622,232 @@
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:48" ht="12.2" customHeight="1">
-      <c r="A1" s="127" t="s">
-        <v>194</v>
-      </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="131" t="s">
-        <v>205</v>
-      </c>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
-      <c r="R1" s="131"/>
-      <c r="S1" s="131"/>
-      <c r="T1" s="131"/>
-      <c r="U1" s="131"/>
-      <c r="V1" s="131"/>
-      <c r="W1" s="131"/>
-      <c r="X1" s="131"/>
-      <c r="Y1" s="131"/>
-      <c r="Z1" s="131"/>
-      <c r="AA1" s="131"/>
-      <c r="AB1" s="131"/>
-      <c r="AC1" s="131"/>
-      <c r="AD1" s="131"/>
-      <c r="AE1" s="131"/>
-      <c r="AF1" s="136" t="s">
+      <c r="A1" s="133" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="137" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="137"/>
+      <c r="T1" s="137"/>
+      <c r="U1" s="137"/>
+      <c r="V1" s="137"/>
+      <c r="W1" s="137"/>
+      <c r="X1" s="137"/>
+      <c r="Y1" s="137"/>
+      <c r="Z1" s="137"/>
+      <c r="AA1" s="137"/>
+      <c r="AB1" s="137"/>
+      <c r="AC1" s="137"/>
+      <c r="AD1" s="137"/>
+      <c r="AE1" s="137"/>
+      <c r="AF1" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="AG1" s="137"/>
-      <c r="AH1" s="137"/>
-      <c r="AI1" s="137"/>
-      <c r="AJ1" s="137"/>
-      <c r="AK1" s="137"/>
-      <c r="AL1" s="137"/>
-      <c r="AM1" s="137"/>
-      <c r="AN1" s="137"/>
-      <c r="AO1" s="137"/>
-      <c r="AP1" s="137"/>
-      <c r="AQ1" s="137"/>
-      <c r="AR1" s="137"/>
-      <c r="AS1" s="137"/>
-      <c r="AT1" s="137"/>
-      <c r="AU1" s="137"/>
-      <c r="AV1" s="138"/>
+      <c r="AG1" s="143"/>
+      <c r="AH1" s="143"/>
+      <c r="AI1" s="143"/>
+      <c r="AJ1" s="143"/>
+      <c r="AK1" s="143"/>
+      <c r="AL1" s="143"/>
+      <c r="AM1" s="143"/>
+      <c r="AN1" s="143"/>
+      <c r="AO1" s="143"/>
+      <c r="AP1" s="143"/>
+      <c r="AQ1" s="143"/>
+      <c r="AR1" s="143"/>
+      <c r="AS1" s="143"/>
+      <c r="AT1" s="143"/>
+      <c r="AU1" s="143"/>
+      <c r="AV1" s="144"/>
     </row>
     <row r="2" spans="1:48" ht="14.1" customHeight="1">
-      <c r="A2" s="129"/>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="132"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="132"/>
-      <c r="S2" s="132"/>
-      <c r="T2" s="132"/>
-      <c r="U2" s="132"/>
-      <c r="V2" s="132"/>
-      <c r="W2" s="132"/>
-      <c r="X2" s="132"/>
-      <c r="Y2" s="132"/>
-      <c r="Z2" s="132"/>
-      <c r="AA2" s="132"/>
-      <c r="AB2" s="132"/>
-      <c r="AC2" s="132"/>
-      <c r="AD2" s="132"/>
-      <c r="AE2" s="132"/>
-      <c r="AF2" s="133" t="s">
+      <c r="A2" s="135"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="138"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="138"/>
+      <c r="T2" s="138"/>
+      <c r="U2" s="138"/>
+      <c r="V2" s="138"/>
+      <c r="W2" s="138"/>
+      <c r="X2" s="138"/>
+      <c r="Y2" s="138"/>
+      <c r="Z2" s="138"/>
+      <c r="AA2" s="138"/>
+      <c r="AB2" s="138"/>
+      <c r="AC2" s="138"/>
+      <c r="AD2" s="138"/>
+      <c r="AE2" s="138"/>
+      <c r="AF2" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="AG2" s="134"/>
-      <c r="AH2" s="134"/>
-      <c r="AI2" s="134"/>
-      <c r="AJ2" s="134"/>
-      <c r="AK2" s="134"/>
-      <c r="AL2" s="134"/>
-      <c r="AM2" s="134"/>
-      <c r="AN2" s="134"/>
-      <c r="AO2" s="134"/>
-      <c r="AP2" s="134"/>
-      <c r="AQ2" s="134"/>
-      <c r="AR2" s="134"/>
-      <c r="AS2" s="134"/>
-      <c r="AT2" s="134"/>
-      <c r="AU2" s="134"/>
-      <c r="AV2" s="135"/>
+      <c r="AG2" s="140"/>
+      <c r="AH2" s="140"/>
+      <c r="AI2" s="140"/>
+      <c r="AJ2" s="140"/>
+      <c r="AK2" s="140"/>
+      <c r="AL2" s="140"/>
+      <c r="AM2" s="140"/>
+      <c r="AN2" s="140"/>
+      <c r="AO2" s="140"/>
+      <c r="AP2" s="140"/>
+      <c r="AQ2" s="140"/>
+      <c r="AR2" s="140"/>
+      <c r="AS2" s="140"/>
+      <c r="AT2" s="140"/>
+      <c r="AU2" s="140"/>
+      <c r="AV2" s="141"/>
     </row>
     <row r="3" spans="1:48">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="146" t="str">
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="153" t="str">
         <f>Cover!D45</f>
         <v>SCR_003</v>
       </c>
-      <c r="G3" s="147"/>
-      <c r="H3" s="147"/>
-      <c r="I3" s="147"/>
-      <c r="J3" s="147"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="158" t="s">
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="165" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="153"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="153"/>
-      <c r="P3" s="153"/>
-      <c r="Q3" s="154"/>
-      <c r="R3" s="140" t="str">
+      <c r="M3" s="160"/>
+      <c r="N3" s="160"/>
+      <c r="O3" s="160"/>
+      <c r="P3" s="160"/>
+      <c r="Q3" s="161"/>
+      <c r="R3" s="147" t="str">
         <f>Cover!L45</f>
         <v>Giao diện quản trị</v>
       </c>
-      <c r="S3" s="141"/>
-      <c r="T3" s="141"/>
-      <c r="U3" s="141"/>
-      <c r="V3" s="141"/>
-      <c r="W3" s="141"/>
-      <c r="X3" s="141"/>
-      <c r="Y3" s="141"/>
-      <c r="Z3" s="141"/>
-      <c r="AA3" s="141"/>
-      <c r="AB3" s="141"/>
-      <c r="AC3" s="141"/>
-      <c r="AD3" s="141"/>
-      <c r="AE3" s="142"/>
-      <c r="AF3" s="139" t="s">
+      <c r="S3" s="148"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="148"/>
+      <c r="V3" s="148"/>
+      <c r="W3" s="148"/>
+      <c r="X3" s="148"/>
+      <c r="Y3" s="148"/>
+      <c r="Z3" s="148"/>
+      <c r="AA3" s="148"/>
+      <c r="AB3" s="148"/>
+      <c r="AC3" s="148"/>
+      <c r="AD3" s="148"/>
+      <c r="AE3" s="149"/>
+      <c r="AF3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="AG3" s="139"/>
-      <c r="AH3" s="139"/>
-      <c r="AI3" s="139"/>
-      <c r="AJ3" s="139"/>
-      <c r="AK3" s="212">
+      <c r="AG3" s="145"/>
+      <c r="AH3" s="145"/>
+      <c r="AI3" s="145"/>
+      <c r="AJ3" s="145"/>
+      <c r="AK3" s="180">
         <v>42781</v>
       </c>
-      <c r="AL3" s="212"/>
-      <c r="AM3" s="212"/>
-      <c r="AN3" s="212"/>
-      <c r="AO3" s="139" t="s">
+      <c r="AL3" s="180"/>
+      <c r="AM3" s="180"/>
+      <c r="AN3" s="180"/>
+      <c r="AO3" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="AP3" s="139"/>
-      <c r="AQ3" s="139"/>
-      <c r="AR3" s="139"/>
-      <c r="AS3" s="160"/>
-      <c r="AT3" s="160"/>
-      <c r="AU3" s="160"/>
-      <c r="AV3" s="161"/>
+      <c r="AP3" s="145"/>
+      <c r="AQ3" s="145"/>
+      <c r="AR3" s="145"/>
+      <c r="AS3" s="167"/>
+      <c r="AT3" s="167"/>
+      <c r="AU3" s="167"/>
+      <c r="AV3" s="168"/>
     </row>
     <row r="4" spans="1:48">
-      <c r="A4" s="155"/>
-      <c r="B4" s="156"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="157"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="150"/>
-      <c r="I4" s="150"/>
-      <c r="J4" s="150"/>
-      <c r="K4" s="151"/>
-      <c r="L4" s="159"/>
-      <c r="M4" s="156"/>
-      <c r="N4" s="156"/>
-      <c r="O4" s="156"/>
-      <c r="P4" s="156"/>
-      <c r="Q4" s="157"/>
-      <c r="R4" s="143"/>
-      <c r="S4" s="144"/>
-      <c r="T4" s="144"/>
-      <c r="U4" s="144"/>
-      <c r="V4" s="144"/>
-      <c r="W4" s="144"/>
-      <c r="X4" s="144"/>
-      <c r="Y4" s="144"/>
-      <c r="Z4" s="144"/>
-      <c r="AA4" s="144"/>
-      <c r="AB4" s="144"/>
-      <c r="AC4" s="144"/>
-      <c r="AD4" s="144"/>
-      <c r="AE4" s="145"/>
-      <c r="AF4" s="162" t="s">
+      <c r="A4" s="162"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="156"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="157"/>
+      <c r="I4" s="157"/>
+      <c r="J4" s="157"/>
+      <c r="K4" s="158"/>
+      <c r="L4" s="166"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="163"/>
+      <c r="O4" s="163"/>
+      <c r="P4" s="163"/>
+      <c r="Q4" s="164"/>
+      <c r="R4" s="150"/>
+      <c r="S4" s="151"/>
+      <c r="T4" s="151"/>
+      <c r="U4" s="151"/>
+      <c r="V4" s="151"/>
+      <c r="W4" s="151"/>
+      <c r="X4" s="151"/>
+      <c r="Y4" s="151"/>
+      <c r="Z4" s="151"/>
+      <c r="AA4" s="151"/>
+      <c r="AB4" s="151"/>
+      <c r="AC4" s="151"/>
+      <c r="AD4" s="151"/>
+      <c r="AE4" s="152"/>
+      <c r="AF4" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="AG4" s="162"/>
-      <c r="AH4" s="162"/>
-      <c r="AI4" s="162"/>
-      <c r="AJ4" s="162"/>
-      <c r="AK4" s="213"/>
-      <c r="AL4" s="213"/>
-      <c r="AM4" s="213"/>
-      <c r="AN4" s="213"/>
-      <c r="AO4" s="162" t="s">
+      <c r="AG4" s="169"/>
+      <c r="AH4" s="169"/>
+      <c r="AI4" s="169"/>
+      <c r="AJ4" s="169"/>
+      <c r="AK4" s="179"/>
+      <c r="AL4" s="179"/>
+      <c r="AM4" s="179"/>
+      <c r="AN4" s="179"/>
+      <c r="AO4" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="AP4" s="162"/>
-      <c r="AQ4" s="162"/>
-      <c r="AR4" s="162"/>
-      <c r="AS4" s="164"/>
-      <c r="AT4" s="164"/>
-      <c r="AU4" s="164"/>
-      <c r="AV4" s="165"/>
+      <c r="AP4" s="169"/>
+      <c r="AQ4" s="169"/>
+      <c r="AR4" s="169"/>
+      <c r="AS4" s="171"/>
+      <c r="AT4" s="171"/>
+      <c r="AU4" s="171"/>
+      <c r="AV4" s="172"/>
     </row>
     <row r="5" spans="1:48">
       <c r="A5" s="17"/>
@@ -21654,48 +21709,48 @@
       <c r="C42" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="166" t="s">
+      <c r="D42" s="173" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="167"/>
-      <c r="F42" s="167"/>
-      <c r="G42" s="167"/>
-      <c r="H42" s="167"/>
-      <c r="I42" s="167"/>
-      <c r="J42" s="167"/>
-      <c r="K42" s="168"/>
-      <c r="L42" s="166" t="s">
+      <c r="E42" s="174"/>
+      <c r="F42" s="174"/>
+      <c r="G42" s="174"/>
+      <c r="H42" s="174"/>
+      <c r="I42" s="174"/>
+      <c r="J42" s="174"/>
+      <c r="K42" s="175"/>
+      <c r="L42" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="M42" s="167"/>
-      <c r="N42" s="167"/>
-      <c r="O42" s="167"/>
-      <c r="P42" s="167"/>
-      <c r="Q42" s="167"/>
-      <c r="R42" s="167"/>
-      <c r="S42" s="167"/>
-      <c r="T42" s="167"/>
-      <c r="U42" s="167"/>
-      <c r="V42" s="167"/>
-      <c r="W42" s="167"/>
-      <c r="X42" s="167"/>
-      <c r="Y42" s="168"/>
-      <c r="Z42" s="166" t="s">
+      <c r="M42" s="174"/>
+      <c r="N42" s="174"/>
+      <c r="O42" s="174"/>
+      <c r="P42" s="174"/>
+      <c r="Q42" s="174"/>
+      <c r="R42" s="174"/>
+      <c r="S42" s="174"/>
+      <c r="T42" s="174"/>
+      <c r="U42" s="174"/>
+      <c r="V42" s="174"/>
+      <c r="W42" s="174"/>
+      <c r="X42" s="174"/>
+      <c r="Y42" s="175"/>
+      <c r="Z42" s="173" t="s">
         <v>20</v>
       </c>
-      <c r="AA42" s="167"/>
-      <c r="AB42" s="167"/>
-      <c r="AC42" s="167"/>
-      <c r="AD42" s="167"/>
-      <c r="AE42" s="167"/>
-      <c r="AF42" s="167"/>
-      <c r="AG42" s="167"/>
-      <c r="AH42" s="167"/>
-      <c r="AI42" s="167"/>
-      <c r="AJ42" s="167"/>
-      <c r="AK42" s="167"/>
-      <c r="AL42" s="167"/>
-      <c r="AM42" s="168"/>
+      <c r="AA42" s="174"/>
+      <c r="AB42" s="174"/>
+      <c r="AC42" s="174"/>
+      <c r="AD42" s="174"/>
+      <c r="AE42" s="174"/>
+      <c r="AF42" s="174"/>
+      <c r="AG42" s="174"/>
+      <c r="AH42" s="174"/>
+      <c r="AI42" s="174"/>
+      <c r="AJ42" s="174"/>
+      <c r="AK42" s="174"/>
+      <c r="AL42" s="174"/>
+      <c r="AM42" s="175"/>
       <c r="AN42" s="15"/>
       <c r="AO42" s="14"/>
       <c r="AP42" s="14"/>
@@ -21734,20 +21789,20 @@
       <c r="W43" s="12"/>
       <c r="X43" s="12"/>
       <c r="Y43" s="13"/>
-      <c r="Z43" s="169"/>
-      <c r="AA43" s="170"/>
-      <c r="AB43" s="170"/>
-      <c r="AC43" s="170"/>
-      <c r="AD43" s="170"/>
-      <c r="AE43" s="170"/>
-      <c r="AF43" s="170"/>
-      <c r="AG43" s="170"/>
-      <c r="AH43" s="170"/>
-      <c r="AI43" s="170"/>
-      <c r="AJ43" s="170"/>
-      <c r="AK43" s="170"/>
-      <c r="AL43" s="170"/>
-      <c r="AM43" s="171"/>
+      <c r="Z43" s="213"/>
+      <c r="AA43" s="214"/>
+      <c r="AB43" s="214"/>
+      <c r="AC43" s="214"/>
+      <c r="AD43" s="214"/>
+      <c r="AE43" s="214"/>
+      <c r="AF43" s="214"/>
+      <c r="AG43" s="214"/>
+      <c r="AH43" s="214"/>
+      <c r="AI43" s="214"/>
+      <c r="AJ43" s="214"/>
+      <c r="AK43" s="214"/>
+      <c r="AL43" s="214"/>
+      <c r="AM43" s="215"/>
       <c r="AN43" s="15"/>
       <c r="AO43" s="14"/>
       <c r="AP43" s="14"/>
@@ -23258,232 +23313,232 @@
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:48" ht="12.2" customHeight="1">
-      <c r="A1" s="127" t="s">
-        <v>194</v>
-      </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="131" t="s">
-        <v>205</v>
-      </c>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
-      <c r="R1" s="131"/>
-      <c r="S1" s="131"/>
-      <c r="T1" s="131"/>
-      <c r="U1" s="131"/>
-      <c r="V1" s="131"/>
-      <c r="W1" s="131"/>
-      <c r="X1" s="131"/>
-      <c r="Y1" s="131"/>
-      <c r="Z1" s="131"/>
-      <c r="AA1" s="131"/>
-      <c r="AB1" s="131"/>
-      <c r="AC1" s="131"/>
-      <c r="AD1" s="131"/>
-      <c r="AE1" s="131"/>
-      <c r="AF1" s="136" t="s">
+      <c r="A1" s="133" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="137" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="137"/>
+      <c r="T1" s="137"/>
+      <c r="U1" s="137"/>
+      <c r="V1" s="137"/>
+      <c r="W1" s="137"/>
+      <c r="X1" s="137"/>
+      <c r="Y1" s="137"/>
+      <c r="Z1" s="137"/>
+      <c r="AA1" s="137"/>
+      <c r="AB1" s="137"/>
+      <c r="AC1" s="137"/>
+      <c r="AD1" s="137"/>
+      <c r="AE1" s="137"/>
+      <c r="AF1" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="AG1" s="137"/>
-      <c r="AH1" s="137"/>
-      <c r="AI1" s="137"/>
-      <c r="AJ1" s="137"/>
-      <c r="AK1" s="137"/>
-      <c r="AL1" s="137"/>
-      <c r="AM1" s="137"/>
-      <c r="AN1" s="137"/>
-      <c r="AO1" s="137"/>
-      <c r="AP1" s="137"/>
-      <c r="AQ1" s="137"/>
-      <c r="AR1" s="137"/>
-      <c r="AS1" s="137"/>
-      <c r="AT1" s="137"/>
-      <c r="AU1" s="137"/>
-      <c r="AV1" s="138"/>
+      <c r="AG1" s="143"/>
+      <c r="AH1" s="143"/>
+      <c r="AI1" s="143"/>
+      <c r="AJ1" s="143"/>
+      <c r="AK1" s="143"/>
+      <c r="AL1" s="143"/>
+      <c r="AM1" s="143"/>
+      <c r="AN1" s="143"/>
+      <c r="AO1" s="143"/>
+      <c r="AP1" s="143"/>
+      <c r="AQ1" s="143"/>
+      <c r="AR1" s="143"/>
+      <c r="AS1" s="143"/>
+      <c r="AT1" s="143"/>
+      <c r="AU1" s="143"/>
+      <c r="AV1" s="144"/>
     </row>
     <row r="2" spans="1:48" ht="14.1" customHeight="1">
-      <c r="A2" s="129"/>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="132"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="132"/>
-      <c r="S2" s="132"/>
-      <c r="T2" s="132"/>
-      <c r="U2" s="132"/>
-      <c r="V2" s="132"/>
-      <c r="W2" s="132"/>
-      <c r="X2" s="132"/>
-      <c r="Y2" s="132"/>
-      <c r="Z2" s="132"/>
-      <c r="AA2" s="132"/>
-      <c r="AB2" s="132"/>
-      <c r="AC2" s="132"/>
-      <c r="AD2" s="132"/>
-      <c r="AE2" s="132"/>
-      <c r="AF2" s="133" t="s">
+      <c r="A2" s="135"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="138"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="138"/>
+      <c r="T2" s="138"/>
+      <c r="U2" s="138"/>
+      <c r="V2" s="138"/>
+      <c r="W2" s="138"/>
+      <c r="X2" s="138"/>
+      <c r="Y2" s="138"/>
+      <c r="Z2" s="138"/>
+      <c r="AA2" s="138"/>
+      <c r="AB2" s="138"/>
+      <c r="AC2" s="138"/>
+      <c r="AD2" s="138"/>
+      <c r="AE2" s="138"/>
+      <c r="AF2" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="AG2" s="134"/>
-      <c r="AH2" s="134"/>
-      <c r="AI2" s="134"/>
-      <c r="AJ2" s="134"/>
-      <c r="AK2" s="134"/>
-      <c r="AL2" s="134"/>
-      <c r="AM2" s="134"/>
-      <c r="AN2" s="134"/>
-      <c r="AO2" s="134"/>
-      <c r="AP2" s="134"/>
-      <c r="AQ2" s="134"/>
-      <c r="AR2" s="134"/>
-      <c r="AS2" s="134"/>
-      <c r="AT2" s="134"/>
-      <c r="AU2" s="134"/>
-      <c r="AV2" s="135"/>
+      <c r="AG2" s="140"/>
+      <c r="AH2" s="140"/>
+      <c r="AI2" s="140"/>
+      <c r="AJ2" s="140"/>
+      <c r="AK2" s="140"/>
+      <c r="AL2" s="140"/>
+      <c r="AM2" s="140"/>
+      <c r="AN2" s="140"/>
+      <c r="AO2" s="140"/>
+      <c r="AP2" s="140"/>
+      <c r="AQ2" s="140"/>
+      <c r="AR2" s="140"/>
+      <c r="AS2" s="140"/>
+      <c r="AT2" s="140"/>
+      <c r="AU2" s="140"/>
+      <c r="AV2" s="141"/>
     </row>
     <row r="3" spans="1:48">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="159" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="140" t="str">
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="147" t="str">
         <f>Cover!D43</f>
         <v>SCR_001</v>
       </c>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="158" t="s">
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="165" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="153"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="153"/>
-      <c r="P3" s="153"/>
-      <c r="Q3" s="154"/>
-      <c r="R3" s="140" t="str">
+      <c r="M3" s="160"/>
+      <c r="N3" s="160"/>
+      <c r="O3" s="160"/>
+      <c r="P3" s="160"/>
+      <c r="Q3" s="161"/>
+      <c r="R3" s="147" t="str">
         <f>Cover!L43</f>
         <v>Giao diện chính</v>
       </c>
-      <c r="S3" s="141"/>
-      <c r="T3" s="141"/>
-      <c r="U3" s="141"/>
-      <c r="V3" s="141"/>
-      <c r="W3" s="141"/>
-      <c r="X3" s="141"/>
-      <c r="Y3" s="141"/>
-      <c r="Z3" s="141"/>
-      <c r="AA3" s="141"/>
-      <c r="AB3" s="141"/>
-      <c r="AC3" s="141"/>
-      <c r="AD3" s="141"/>
-      <c r="AE3" s="142"/>
-      <c r="AF3" s="139" t="s">
+      <c r="S3" s="148"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="148"/>
+      <c r="V3" s="148"/>
+      <c r="W3" s="148"/>
+      <c r="X3" s="148"/>
+      <c r="Y3" s="148"/>
+      <c r="Z3" s="148"/>
+      <c r="AA3" s="148"/>
+      <c r="AB3" s="148"/>
+      <c r="AC3" s="148"/>
+      <c r="AD3" s="148"/>
+      <c r="AE3" s="149"/>
+      <c r="AF3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="AG3" s="139"/>
-      <c r="AH3" s="139"/>
-      <c r="AI3" s="139"/>
-      <c r="AJ3" s="139"/>
-      <c r="AK3" s="212">
+      <c r="AG3" s="145"/>
+      <c r="AH3" s="145"/>
+      <c r="AI3" s="145"/>
+      <c r="AJ3" s="145"/>
+      <c r="AK3" s="180">
         <v>42781</v>
       </c>
-      <c r="AL3" s="212"/>
-      <c r="AM3" s="212"/>
-      <c r="AN3" s="212"/>
-      <c r="AO3" s="139" t="s">
+      <c r="AL3" s="180"/>
+      <c r="AM3" s="180"/>
+      <c r="AN3" s="180"/>
+      <c r="AO3" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="AP3" s="139"/>
-      <c r="AQ3" s="139"/>
-      <c r="AR3" s="139"/>
-      <c r="AS3" s="160"/>
-      <c r="AT3" s="160"/>
-      <c r="AU3" s="160"/>
-      <c r="AV3" s="161"/>
+      <c r="AP3" s="145"/>
+      <c r="AQ3" s="145"/>
+      <c r="AR3" s="145"/>
+      <c r="AS3" s="167"/>
+      <c r="AT3" s="167"/>
+      <c r="AU3" s="167"/>
+      <c r="AV3" s="168"/>
     </row>
     <row r="4" spans="1:48">
-      <c r="A4" s="155"/>
-      <c r="B4" s="156"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="157"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
-      <c r="K4" s="145"/>
-      <c r="L4" s="159"/>
-      <c r="M4" s="156"/>
-      <c r="N4" s="156"/>
-      <c r="O4" s="156"/>
-      <c r="P4" s="156"/>
-      <c r="Q4" s="157"/>
-      <c r="R4" s="143"/>
-      <c r="S4" s="144"/>
-      <c r="T4" s="144"/>
-      <c r="U4" s="144"/>
-      <c r="V4" s="144"/>
-      <c r="W4" s="144"/>
-      <c r="X4" s="144"/>
-      <c r="Y4" s="144"/>
-      <c r="Z4" s="144"/>
-      <c r="AA4" s="144"/>
-      <c r="AB4" s="144"/>
-      <c r="AC4" s="144"/>
-      <c r="AD4" s="144"/>
-      <c r="AE4" s="145"/>
-      <c r="AF4" s="162" t="s">
+      <c r="A4" s="162"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="152"/>
+      <c r="L4" s="166"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="163"/>
+      <c r="O4" s="163"/>
+      <c r="P4" s="163"/>
+      <c r="Q4" s="164"/>
+      <c r="R4" s="150"/>
+      <c r="S4" s="151"/>
+      <c r="T4" s="151"/>
+      <c r="U4" s="151"/>
+      <c r="V4" s="151"/>
+      <c r="W4" s="151"/>
+      <c r="X4" s="151"/>
+      <c r="Y4" s="151"/>
+      <c r="Z4" s="151"/>
+      <c r="AA4" s="151"/>
+      <c r="AB4" s="151"/>
+      <c r="AC4" s="151"/>
+      <c r="AD4" s="151"/>
+      <c r="AE4" s="152"/>
+      <c r="AF4" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="AG4" s="162"/>
-      <c r="AH4" s="162"/>
-      <c r="AI4" s="162"/>
-      <c r="AJ4" s="162"/>
-      <c r="AK4" s="213"/>
-      <c r="AL4" s="213"/>
-      <c r="AM4" s="213"/>
-      <c r="AN4" s="213"/>
-      <c r="AO4" s="162" t="s">
+      <c r="AG4" s="169"/>
+      <c r="AH4" s="169"/>
+      <c r="AI4" s="169"/>
+      <c r="AJ4" s="169"/>
+      <c r="AK4" s="179"/>
+      <c r="AL4" s="179"/>
+      <c r="AM4" s="179"/>
+      <c r="AN4" s="179"/>
+      <c r="AO4" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="AP4" s="162"/>
-      <c r="AQ4" s="162"/>
-      <c r="AR4" s="162"/>
-      <c r="AS4" s="164"/>
-      <c r="AT4" s="164"/>
-      <c r="AU4" s="164"/>
-      <c r="AV4" s="165"/>
+      <c r="AP4" s="169"/>
+      <c r="AQ4" s="169"/>
+      <c r="AR4" s="169"/>
+      <c r="AS4" s="171"/>
+      <c r="AT4" s="171"/>
+      <c r="AU4" s="171"/>
+      <c r="AV4" s="172"/>
     </row>
     <row r="5" spans="1:48">
       <c r="A5" s="17"/>
@@ -26894,7 +26949,7 @@
     <row r="73" spans="1:48">
       <c r="A73" s="20"/>
       <c r="B73" s="123" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C73" s="14"/>
       <c r="D73" s="14"/>
@@ -26974,7 +27029,7 @@
       </c>
       <c r="S74" s="122"/>
       <c r="T74" s="120" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U74" s="121"/>
       <c r="V74" s="122"/>
@@ -28622,7 +28677,7 @@
     <row r="107" spans="1:48">
       <c r="A107" s="17"/>
       <c r="B107" s="125" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C107" s="18"/>
       <c r="D107" s="18"/>
@@ -30324,7 +30379,7 @@
     <row r="141" spans="1:48">
       <c r="A141" s="17"/>
       <c r="B141" s="125" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C141" s="18"/>
       <c r="D141" s="18"/>

--- a/doc/design/RFID_ScreenDesign_v1.0.xlsx
+++ b/doc/design/RFID_ScreenDesign_v1.0.xlsx
@@ -2009,6 +2009,27 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="31" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="31" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="24" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="7" borderId="28" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2044,9 +2065,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="7" borderId="35" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="24" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="18" fillId="0" borderId="24" xfId="38" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2129,32 +2147,70 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="31" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="31" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="26" xfId="38" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="24" xfId="38" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2182,68 +2238,12 @@
     <xf numFmtId="0" fontId="27" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="26" xfId="38" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="24" xfId="38" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3956,232 +3956,232 @@
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:48" ht="12.2" customHeight="1">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="140" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="137" t="s">
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="144" t="s">
         <v>204</v>
       </c>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="137"/>
-      <c r="S1" s="137"/>
-      <c r="T1" s="137"/>
-      <c r="U1" s="137"/>
-      <c r="V1" s="137"/>
-      <c r="W1" s="137"/>
-      <c r="X1" s="137"/>
-      <c r="Y1" s="137"/>
-      <c r="Z1" s="137"/>
-      <c r="AA1" s="137"/>
-      <c r="AB1" s="137"/>
-      <c r="AC1" s="137"/>
-      <c r="AD1" s="137"/>
-      <c r="AE1" s="137"/>
-      <c r="AF1" s="142" t="s">
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="144"/>
+      <c r="M1" s="144"/>
+      <c r="N1" s="144"/>
+      <c r="O1" s="144"/>
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="144"/>
+      <c r="S1" s="144"/>
+      <c r="T1" s="144"/>
+      <c r="U1" s="144"/>
+      <c r="V1" s="144"/>
+      <c r="W1" s="144"/>
+      <c r="X1" s="144"/>
+      <c r="Y1" s="144"/>
+      <c r="Z1" s="144"/>
+      <c r="AA1" s="144"/>
+      <c r="AB1" s="144"/>
+      <c r="AC1" s="144"/>
+      <c r="AD1" s="144"/>
+      <c r="AE1" s="144"/>
+      <c r="AF1" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="AG1" s="143"/>
-      <c r="AH1" s="143"/>
-      <c r="AI1" s="143"/>
-      <c r="AJ1" s="143"/>
-      <c r="AK1" s="143"/>
-      <c r="AL1" s="143"/>
-      <c r="AM1" s="143"/>
-      <c r="AN1" s="143"/>
-      <c r="AO1" s="143"/>
-      <c r="AP1" s="143"/>
-      <c r="AQ1" s="143"/>
-      <c r="AR1" s="143"/>
-      <c r="AS1" s="143"/>
-      <c r="AT1" s="143"/>
-      <c r="AU1" s="143"/>
-      <c r="AV1" s="144"/>
+      <c r="AG1" s="150"/>
+      <c r="AH1" s="150"/>
+      <c r="AI1" s="150"/>
+      <c r="AJ1" s="150"/>
+      <c r="AK1" s="150"/>
+      <c r="AL1" s="150"/>
+      <c r="AM1" s="150"/>
+      <c r="AN1" s="150"/>
+      <c r="AO1" s="150"/>
+      <c r="AP1" s="150"/>
+      <c r="AQ1" s="150"/>
+      <c r="AR1" s="150"/>
+      <c r="AS1" s="150"/>
+      <c r="AT1" s="150"/>
+      <c r="AU1" s="150"/>
+      <c r="AV1" s="151"/>
     </row>
     <row r="2" spans="1:48" ht="14.1" customHeight="1">
-      <c r="A2" s="135"/>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="138"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="138"/>
-      <c r="Q2" s="138"/>
-      <c r="R2" s="138"/>
-      <c r="S2" s="138"/>
-      <c r="T2" s="138"/>
-      <c r="U2" s="138"/>
-      <c r="V2" s="138"/>
-      <c r="W2" s="138"/>
-      <c r="X2" s="138"/>
-      <c r="Y2" s="138"/>
-      <c r="Z2" s="138"/>
-      <c r="AA2" s="138"/>
-      <c r="AB2" s="138"/>
-      <c r="AC2" s="138"/>
-      <c r="AD2" s="138"/>
-      <c r="AE2" s="138"/>
-      <c r="AF2" s="139" t="s">
+      <c r="A2" s="142"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="145"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="145"/>
+      <c r="R2" s="145"/>
+      <c r="S2" s="145"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="145"/>
+      <c r="W2" s="145"/>
+      <c r="X2" s="145"/>
+      <c r="Y2" s="145"/>
+      <c r="Z2" s="145"/>
+      <c r="AA2" s="145"/>
+      <c r="AB2" s="145"/>
+      <c r="AC2" s="145"/>
+      <c r="AD2" s="145"/>
+      <c r="AE2" s="145"/>
+      <c r="AF2" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="AG2" s="140"/>
-      <c r="AH2" s="140"/>
-      <c r="AI2" s="140"/>
-      <c r="AJ2" s="140"/>
-      <c r="AK2" s="140"/>
-      <c r="AL2" s="140"/>
-      <c r="AM2" s="140"/>
-      <c r="AN2" s="140"/>
-      <c r="AO2" s="140"/>
-      <c r="AP2" s="140"/>
-      <c r="AQ2" s="140"/>
-      <c r="AR2" s="140"/>
-      <c r="AS2" s="140"/>
-      <c r="AT2" s="140"/>
-      <c r="AU2" s="140"/>
-      <c r="AV2" s="141"/>
+      <c r="AG2" s="147"/>
+      <c r="AH2" s="147"/>
+      <c r="AI2" s="147"/>
+      <c r="AJ2" s="147"/>
+      <c r="AK2" s="147"/>
+      <c r="AL2" s="147"/>
+      <c r="AM2" s="147"/>
+      <c r="AN2" s="147"/>
+      <c r="AO2" s="147"/>
+      <c r="AP2" s="147"/>
+      <c r="AQ2" s="147"/>
+      <c r="AR2" s="147"/>
+      <c r="AS2" s="147"/>
+      <c r="AT2" s="147"/>
+      <c r="AU2" s="147"/>
+      <c r="AV2" s="148"/>
     </row>
     <row r="3" spans="1:48">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="165" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="153" t="s">
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="159" t="s">
         <v>201</v>
       </c>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="165" t="s">
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="161"/>
+      <c r="L3" s="171" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="160"/>
-      <c r="N3" s="160"/>
-      <c r="O3" s="160"/>
-      <c r="P3" s="160"/>
-      <c r="Q3" s="161"/>
-      <c r="R3" s="147" t="s">
+      <c r="M3" s="166"/>
+      <c r="N3" s="166"/>
+      <c r="O3" s="166"/>
+      <c r="P3" s="166"/>
+      <c r="Q3" s="167"/>
+      <c r="R3" s="153" t="s">
         <v>202</v>
       </c>
-      <c r="S3" s="148"/>
-      <c r="T3" s="148"/>
-      <c r="U3" s="148"/>
-      <c r="V3" s="148"/>
-      <c r="W3" s="148"/>
-      <c r="X3" s="148"/>
-      <c r="Y3" s="148"/>
-      <c r="Z3" s="148"/>
-      <c r="AA3" s="148"/>
-      <c r="AB3" s="148"/>
-      <c r="AC3" s="148"/>
-      <c r="AD3" s="148"/>
-      <c r="AE3" s="149"/>
-      <c r="AF3" s="145" t="s">
+      <c r="S3" s="154"/>
+      <c r="T3" s="154"/>
+      <c r="U3" s="154"/>
+      <c r="V3" s="154"/>
+      <c r="W3" s="154"/>
+      <c r="X3" s="154"/>
+      <c r="Y3" s="154"/>
+      <c r="Z3" s="154"/>
+      <c r="AA3" s="154"/>
+      <c r="AB3" s="154"/>
+      <c r="AC3" s="154"/>
+      <c r="AD3" s="154"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="AG3" s="145"/>
-      <c r="AH3" s="145"/>
-      <c r="AI3" s="145"/>
-      <c r="AJ3" s="145"/>
-      <c r="AK3" s="146">
+      <c r="AG3" s="139"/>
+      <c r="AH3" s="139"/>
+      <c r="AI3" s="139"/>
+      <c r="AJ3" s="139"/>
+      <c r="AK3" s="152">
         <v>42781</v>
       </c>
-      <c r="AL3" s="146"/>
-      <c r="AM3" s="146"/>
-      <c r="AN3" s="146"/>
-      <c r="AO3" s="145" t="s">
+      <c r="AL3" s="152"/>
+      <c r="AM3" s="152"/>
+      <c r="AN3" s="152"/>
+      <c r="AO3" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="AP3" s="145"/>
-      <c r="AQ3" s="145"/>
-      <c r="AR3" s="145"/>
-      <c r="AS3" s="167" t="s">
+      <c r="AP3" s="139"/>
+      <c r="AQ3" s="139"/>
+      <c r="AR3" s="139"/>
+      <c r="AS3" s="173" t="s">
         <v>203</v>
       </c>
-      <c r="AT3" s="167"/>
-      <c r="AU3" s="167"/>
-      <c r="AV3" s="168"/>
+      <c r="AT3" s="173"/>
+      <c r="AU3" s="173"/>
+      <c r="AV3" s="174"/>
     </row>
     <row r="4" spans="1:48">
-      <c r="A4" s="162"/>
-      <c r="B4" s="163"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="164"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="157"/>
-      <c r="H4" s="157"/>
-      <c r="I4" s="157"/>
-      <c r="J4" s="157"/>
-      <c r="K4" s="158"/>
-      <c r="L4" s="166"/>
-      <c r="M4" s="163"/>
-      <c r="N4" s="163"/>
-      <c r="O4" s="163"/>
-      <c r="P4" s="163"/>
-      <c r="Q4" s="164"/>
-      <c r="R4" s="150"/>
-      <c r="S4" s="151"/>
-      <c r="T4" s="151"/>
-      <c r="U4" s="151"/>
-      <c r="V4" s="151"/>
-      <c r="W4" s="151"/>
-      <c r="X4" s="151"/>
-      <c r="Y4" s="151"/>
-      <c r="Z4" s="151"/>
-      <c r="AA4" s="151"/>
-      <c r="AB4" s="151"/>
-      <c r="AC4" s="151"/>
-      <c r="AD4" s="151"/>
-      <c r="AE4" s="152"/>
-      <c r="AF4" s="169" t="s">
+      <c r="A4" s="168"/>
+      <c r="B4" s="169"/>
+      <c r="C4" s="169"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="162"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="164"/>
+      <c r="L4" s="172"/>
+      <c r="M4" s="169"/>
+      <c r="N4" s="169"/>
+      <c r="O4" s="169"/>
+      <c r="P4" s="169"/>
+      <c r="Q4" s="170"/>
+      <c r="R4" s="156"/>
+      <c r="S4" s="157"/>
+      <c r="T4" s="157"/>
+      <c r="U4" s="157"/>
+      <c r="V4" s="157"/>
+      <c r="W4" s="157"/>
+      <c r="X4" s="157"/>
+      <c r="Y4" s="157"/>
+      <c r="Z4" s="157"/>
+      <c r="AA4" s="157"/>
+      <c r="AB4" s="157"/>
+      <c r="AC4" s="157"/>
+      <c r="AD4" s="157"/>
+      <c r="AE4" s="158"/>
+      <c r="AF4" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="AG4" s="169"/>
-      <c r="AH4" s="169"/>
-      <c r="AI4" s="169"/>
-      <c r="AJ4" s="169"/>
-      <c r="AK4" s="170"/>
-      <c r="AL4" s="170"/>
-      <c r="AM4" s="170"/>
-      <c r="AN4" s="170"/>
-      <c r="AO4" s="169" t="s">
+      <c r="AG4" s="175"/>
+      <c r="AH4" s="175"/>
+      <c r="AI4" s="175"/>
+      <c r="AJ4" s="175"/>
+      <c r="AK4" s="176"/>
+      <c r="AL4" s="176"/>
+      <c r="AM4" s="176"/>
+      <c r="AN4" s="176"/>
+      <c r="AO4" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="AP4" s="169"/>
-      <c r="AQ4" s="169"/>
-      <c r="AR4" s="169"/>
-      <c r="AS4" s="171"/>
-      <c r="AT4" s="171"/>
-      <c r="AU4" s="171"/>
-      <c r="AV4" s="172"/>
+      <c r="AP4" s="175"/>
+      <c r="AQ4" s="175"/>
+      <c r="AR4" s="175"/>
+      <c r="AS4" s="177"/>
+      <c r="AT4" s="177"/>
+      <c r="AU4" s="177"/>
+      <c r="AV4" s="178"/>
     </row>
     <row r="5" spans="1:48">
       <c r="A5" s="17"/>
@@ -6047,48 +6047,48 @@
       <c r="C42" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="173" t="s">
+      <c r="D42" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="174"/>
-      <c r="F42" s="174"/>
-      <c r="G42" s="174"/>
-      <c r="H42" s="174"/>
-      <c r="I42" s="174"/>
-      <c r="J42" s="174"/>
-      <c r="K42" s="175"/>
-      <c r="L42" s="173" t="s">
+      <c r="E42" s="134"/>
+      <c r="F42" s="134"/>
+      <c r="G42" s="134"/>
+      <c r="H42" s="134"/>
+      <c r="I42" s="134"/>
+      <c r="J42" s="134"/>
+      <c r="K42" s="135"/>
+      <c r="L42" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="M42" s="174"/>
-      <c r="N42" s="174"/>
-      <c r="O42" s="174"/>
-      <c r="P42" s="174"/>
-      <c r="Q42" s="174"/>
-      <c r="R42" s="174"/>
-      <c r="S42" s="174"/>
-      <c r="T42" s="174"/>
-      <c r="U42" s="174"/>
-      <c r="V42" s="174"/>
-      <c r="W42" s="174"/>
-      <c r="X42" s="174"/>
-      <c r="Y42" s="175"/>
-      <c r="Z42" s="173" t="s">
+      <c r="M42" s="134"/>
+      <c r="N42" s="134"/>
+      <c r="O42" s="134"/>
+      <c r="P42" s="134"/>
+      <c r="Q42" s="134"/>
+      <c r="R42" s="134"/>
+      <c r="S42" s="134"/>
+      <c r="T42" s="134"/>
+      <c r="U42" s="134"/>
+      <c r="V42" s="134"/>
+      <c r="W42" s="134"/>
+      <c r="X42" s="134"/>
+      <c r="Y42" s="135"/>
+      <c r="Z42" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="AA42" s="174"/>
-      <c r="AB42" s="174"/>
-      <c r="AC42" s="174"/>
-      <c r="AD42" s="174"/>
-      <c r="AE42" s="174"/>
-      <c r="AF42" s="174"/>
-      <c r="AG42" s="174"/>
-      <c r="AH42" s="174"/>
-      <c r="AI42" s="174"/>
-      <c r="AJ42" s="174"/>
-      <c r="AK42" s="174"/>
-      <c r="AL42" s="174"/>
-      <c r="AM42" s="175"/>
+      <c r="AA42" s="134"/>
+      <c r="AB42" s="134"/>
+      <c r="AC42" s="134"/>
+      <c r="AD42" s="134"/>
+      <c r="AE42" s="134"/>
+      <c r="AF42" s="134"/>
+      <c r="AG42" s="134"/>
+      <c r="AH42" s="134"/>
+      <c r="AI42" s="134"/>
+      <c r="AJ42" s="134"/>
+      <c r="AK42" s="134"/>
+      <c r="AL42" s="134"/>
+      <c r="AM42" s="135"/>
       <c r="AN42" s="15"/>
       <c r="AO42" s="14"/>
       <c r="AP42" s="14"/>
@@ -6131,20 +6131,20 @@
       <c r="W43" s="127"/>
       <c r="X43" s="127"/>
       <c r="Y43" s="127"/>
-      <c r="Z43" s="176"/>
-      <c r="AA43" s="177"/>
-      <c r="AB43" s="177"/>
-      <c r="AC43" s="177"/>
-      <c r="AD43" s="177"/>
-      <c r="AE43" s="177"/>
-      <c r="AF43" s="177"/>
-      <c r="AG43" s="177"/>
-      <c r="AH43" s="177"/>
-      <c r="AI43" s="177"/>
-      <c r="AJ43" s="177"/>
-      <c r="AK43" s="177"/>
-      <c r="AL43" s="177"/>
-      <c r="AM43" s="178"/>
+      <c r="Z43" s="136"/>
+      <c r="AA43" s="137"/>
+      <c r="AB43" s="137"/>
+      <c r="AC43" s="137"/>
+      <c r="AD43" s="137"/>
+      <c r="AE43" s="137"/>
+      <c r="AF43" s="137"/>
+      <c r="AG43" s="137"/>
+      <c r="AH43" s="137"/>
+      <c r="AI43" s="137"/>
+      <c r="AJ43" s="137"/>
+      <c r="AK43" s="137"/>
+      <c r="AL43" s="137"/>
+      <c r="AM43" s="138"/>
       <c r="AN43" s="15"/>
       <c r="AO43" s="14"/>
       <c r="AP43" s="14"/>
@@ -7622,11 +7622,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="20">
-    <mergeCell ref="D42:K42"/>
-    <mergeCell ref="L42:Y42"/>
-    <mergeCell ref="Z42:AM42"/>
-    <mergeCell ref="Z43:AM43"/>
-    <mergeCell ref="AO3:AR3"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:AE2"/>
     <mergeCell ref="AF2:AV2"/>
@@ -7642,6 +7637,11 @@
     <mergeCell ref="AK4:AN4"/>
     <mergeCell ref="AO4:AR4"/>
     <mergeCell ref="AS4:AV4"/>
+    <mergeCell ref="D42:K42"/>
+    <mergeCell ref="L42:Y42"/>
+    <mergeCell ref="Z42:AM42"/>
+    <mergeCell ref="Z43:AM43"/>
+    <mergeCell ref="AO3:AR3"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.3" top="0.53749999999999998" bottom="0.3" header="0.3" footer="0.2"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7658,239 +7658,239 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV218"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="BE18" sqref="BE18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:48" ht="12.2" customHeight="1">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="140" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="137" t="s">
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="144" t="s">
         <v>204</v>
       </c>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="137"/>
-      <c r="S1" s="137"/>
-      <c r="T1" s="137"/>
-      <c r="U1" s="137"/>
-      <c r="V1" s="137"/>
-      <c r="W1" s="137"/>
-      <c r="X1" s="137"/>
-      <c r="Y1" s="137"/>
-      <c r="Z1" s="137"/>
-      <c r="AA1" s="137"/>
-      <c r="AB1" s="137"/>
-      <c r="AC1" s="137"/>
-      <c r="AD1" s="137"/>
-      <c r="AE1" s="137"/>
-      <c r="AF1" s="142" t="s">
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="144"/>
+      <c r="M1" s="144"/>
+      <c r="N1" s="144"/>
+      <c r="O1" s="144"/>
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="144"/>
+      <c r="S1" s="144"/>
+      <c r="T1" s="144"/>
+      <c r="U1" s="144"/>
+      <c r="V1" s="144"/>
+      <c r="W1" s="144"/>
+      <c r="X1" s="144"/>
+      <c r="Y1" s="144"/>
+      <c r="Z1" s="144"/>
+      <c r="AA1" s="144"/>
+      <c r="AB1" s="144"/>
+      <c r="AC1" s="144"/>
+      <c r="AD1" s="144"/>
+      <c r="AE1" s="144"/>
+      <c r="AF1" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="AG1" s="143"/>
-      <c r="AH1" s="143"/>
-      <c r="AI1" s="143"/>
-      <c r="AJ1" s="143"/>
-      <c r="AK1" s="143"/>
-      <c r="AL1" s="143"/>
-      <c r="AM1" s="143"/>
-      <c r="AN1" s="143"/>
-      <c r="AO1" s="143"/>
-      <c r="AP1" s="143"/>
-      <c r="AQ1" s="143"/>
-      <c r="AR1" s="143"/>
-      <c r="AS1" s="143"/>
-      <c r="AT1" s="143"/>
-      <c r="AU1" s="143"/>
-      <c r="AV1" s="144"/>
+      <c r="AG1" s="150"/>
+      <c r="AH1" s="150"/>
+      <c r="AI1" s="150"/>
+      <c r="AJ1" s="150"/>
+      <c r="AK1" s="150"/>
+      <c r="AL1" s="150"/>
+      <c r="AM1" s="150"/>
+      <c r="AN1" s="150"/>
+      <c r="AO1" s="150"/>
+      <c r="AP1" s="150"/>
+      <c r="AQ1" s="150"/>
+      <c r="AR1" s="150"/>
+      <c r="AS1" s="150"/>
+      <c r="AT1" s="150"/>
+      <c r="AU1" s="150"/>
+      <c r="AV1" s="151"/>
     </row>
     <row r="2" spans="1:48" ht="14.1" customHeight="1">
-      <c r="A2" s="135"/>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="138"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="138"/>
-      <c r="Q2" s="138"/>
-      <c r="R2" s="138"/>
-      <c r="S2" s="138"/>
-      <c r="T2" s="138"/>
-      <c r="U2" s="138"/>
-      <c r="V2" s="138"/>
-      <c r="W2" s="138"/>
-      <c r="X2" s="138"/>
-      <c r="Y2" s="138"/>
-      <c r="Z2" s="138"/>
-      <c r="AA2" s="138"/>
-      <c r="AB2" s="138"/>
-      <c r="AC2" s="138"/>
-      <c r="AD2" s="138"/>
-      <c r="AE2" s="138"/>
-      <c r="AF2" s="139" t="s">
+      <c r="A2" s="142"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="145"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="145"/>
+      <c r="R2" s="145"/>
+      <c r="S2" s="145"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="145"/>
+      <c r="W2" s="145"/>
+      <c r="X2" s="145"/>
+      <c r="Y2" s="145"/>
+      <c r="Z2" s="145"/>
+      <c r="AA2" s="145"/>
+      <c r="AB2" s="145"/>
+      <c r="AC2" s="145"/>
+      <c r="AD2" s="145"/>
+      <c r="AE2" s="145"/>
+      <c r="AF2" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="AG2" s="140"/>
-      <c r="AH2" s="140"/>
-      <c r="AI2" s="140"/>
-      <c r="AJ2" s="140"/>
-      <c r="AK2" s="140"/>
-      <c r="AL2" s="140"/>
-      <c r="AM2" s="140"/>
-      <c r="AN2" s="140"/>
-      <c r="AO2" s="140"/>
-      <c r="AP2" s="140"/>
-      <c r="AQ2" s="140"/>
-      <c r="AR2" s="140"/>
-      <c r="AS2" s="140"/>
-      <c r="AT2" s="140"/>
-      <c r="AU2" s="140"/>
-      <c r="AV2" s="141"/>
+      <c r="AG2" s="147"/>
+      <c r="AH2" s="147"/>
+      <c r="AI2" s="147"/>
+      <c r="AJ2" s="147"/>
+      <c r="AK2" s="147"/>
+      <c r="AL2" s="147"/>
+      <c r="AM2" s="147"/>
+      <c r="AN2" s="147"/>
+      <c r="AO2" s="147"/>
+      <c r="AP2" s="147"/>
+      <c r="AQ2" s="147"/>
+      <c r="AR2" s="147"/>
+      <c r="AS2" s="147"/>
+      <c r="AT2" s="147"/>
+      <c r="AU2" s="147"/>
+      <c r="AV2" s="148"/>
     </row>
     <row r="3" spans="1:48">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="147" t="str">
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="153" t="str">
         <f>Cover!D43</f>
         <v>SCR_001</v>
       </c>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="165" t="s">
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="171" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="160"/>
-      <c r="N3" s="160"/>
-      <c r="O3" s="160"/>
-      <c r="P3" s="160"/>
-      <c r="Q3" s="161"/>
-      <c r="R3" s="147" t="str">
+      <c r="M3" s="166"/>
+      <c r="N3" s="166"/>
+      <c r="O3" s="166"/>
+      <c r="P3" s="166"/>
+      <c r="Q3" s="167"/>
+      <c r="R3" s="153" t="str">
         <f>Cover!L43</f>
         <v>Giao diện chính</v>
       </c>
-      <c r="S3" s="148"/>
-      <c r="T3" s="148"/>
-      <c r="U3" s="148"/>
-      <c r="V3" s="148"/>
-      <c r="W3" s="148"/>
-      <c r="X3" s="148"/>
-      <c r="Y3" s="148"/>
-      <c r="Z3" s="148"/>
-      <c r="AA3" s="148"/>
-      <c r="AB3" s="148"/>
-      <c r="AC3" s="148"/>
-      <c r="AD3" s="148"/>
-      <c r="AE3" s="149"/>
-      <c r="AF3" s="145" t="s">
+      <c r="S3" s="154"/>
+      <c r="T3" s="154"/>
+      <c r="U3" s="154"/>
+      <c r="V3" s="154"/>
+      <c r="W3" s="154"/>
+      <c r="X3" s="154"/>
+      <c r="Y3" s="154"/>
+      <c r="Z3" s="154"/>
+      <c r="AA3" s="154"/>
+      <c r="AB3" s="154"/>
+      <c r="AC3" s="154"/>
+      <c r="AD3" s="154"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="AG3" s="145"/>
-      <c r="AH3" s="145"/>
-      <c r="AI3" s="145"/>
-      <c r="AJ3" s="145"/>
-      <c r="AK3" s="180">
+      <c r="AG3" s="139"/>
+      <c r="AH3" s="139"/>
+      <c r="AI3" s="139"/>
+      <c r="AJ3" s="139"/>
+      <c r="AK3" s="212">
         <v>42781</v>
       </c>
-      <c r="AL3" s="180"/>
-      <c r="AM3" s="180"/>
-      <c r="AN3" s="180"/>
-      <c r="AO3" s="145" t="s">
+      <c r="AL3" s="212"/>
+      <c r="AM3" s="212"/>
+      <c r="AN3" s="212"/>
+      <c r="AO3" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="AP3" s="145"/>
-      <c r="AQ3" s="145"/>
-      <c r="AR3" s="145"/>
-      <c r="AS3" s="167"/>
-      <c r="AT3" s="167"/>
-      <c r="AU3" s="167"/>
-      <c r="AV3" s="168"/>
+      <c r="AP3" s="139"/>
+      <c r="AQ3" s="139"/>
+      <c r="AR3" s="139"/>
+      <c r="AS3" s="173"/>
+      <c r="AT3" s="173"/>
+      <c r="AU3" s="173"/>
+      <c r="AV3" s="174"/>
     </row>
     <row r="4" spans="1:48">
-      <c r="A4" s="162"/>
-      <c r="B4" s="163"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="164"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="151"/>
-      <c r="H4" s="151"/>
-      <c r="I4" s="151"/>
-      <c r="J4" s="151"/>
-      <c r="K4" s="152"/>
-      <c r="L4" s="166"/>
-      <c r="M4" s="163"/>
-      <c r="N4" s="163"/>
-      <c r="O4" s="163"/>
-      <c r="P4" s="163"/>
-      <c r="Q4" s="164"/>
-      <c r="R4" s="150"/>
-      <c r="S4" s="151"/>
-      <c r="T4" s="151"/>
-      <c r="U4" s="151"/>
-      <c r="V4" s="151"/>
-      <c r="W4" s="151"/>
-      <c r="X4" s="151"/>
-      <c r="Y4" s="151"/>
-      <c r="Z4" s="151"/>
-      <c r="AA4" s="151"/>
-      <c r="AB4" s="151"/>
-      <c r="AC4" s="151"/>
-      <c r="AD4" s="151"/>
-      <c r="AE4" s="152"/>
-      <c r="AF4" s="169" t="s">
+      <c r="A4" s="168"/>
+      <c r="B4" s="169"/>
+      <c r="C4" s="169"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="156"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="157"/>
+      <c r="I4" s="157"/>
+      <c r="J4" s="157"/>
+      <c r="K4" s="158"/>
+      <c r="L4" s="172"/>
+      <c r="M4" s="169"/>
+      <c r="N4" s="169"/>
+      <c r="O4" s="169"/>
+      <c r="P4" s="169"/>
+      <c r="Q4" s="170"/>
+      <c r="R4" s="156"/>
+      <c r="S4" s="157"/>
+      <c r="T4" s="157"/>
+      <c r="U4" s="157"/>
+      <c r="V4" s="157"/>
+      <c r="W4" s="157"/>
+      <c r="X4" s="157"/>
+      <c r="Y4" s="157"/>
+      <c r="Z4" s="157"/>
+      <c r="AA4" s="157"/>
+      <c r="AB4" s="157"/>
+      <c r="AC4" s="157"/>
+      <c r="AD4" s="157"/>
+      <c r="AE4" s="158"/>
+      <c r="AF4" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="AG4" s="169"/>
-      <c r="AH4" s="169"/>
-      <c r="AI4" s="169"/>
-      <c r="AJ4" s="169"/>
-      <c r="AK4" s="179"/>
-      <c r="AL4" s="179"/>
-      <c r="AM4" s="179"/>
-      <c r="AN4" s="179"/>
-      <c r="AO4" s="169" t="s">
+      <c r="AG4" s="175"/>
+      <c r="AH4" s="175"/>
+      <c r="AI4" s="175"/>
+      <c r="AJ4" s="175"/>
+      <c r="AK4" s="211"/>
+      <c r="AL4" s="211"/>
+      <c r="AM4" s="211"/>
+      <c r="AN4" s="211"/>
+      <c r="AO4" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="AP4" s="169"/>
-      <c r="AQ4" s="169"/>
-      <c r="AR4" s="169"/>
-      <c r="AS4" s="171"/>
-      <c r="AT4" s="171"/>
-      <c r="AU4" s="171"/>
-      <c r="AV4" s="172"/>
+      <c r="AP4" s="175"/>
+      <c r="AQ4" s="175"/>
+      <c r="AR4" s="175"/>
+      <c r="AS4" s="177"/>
+      <c r="AT4" s="177"/>
+      <c r="AU4" s="177"/>
+      <c r="AV4" s="178"/>
     </row>
     <row r="5" spans="1:48">
       <c r="A5" s="105"/>
@@ -12513,10 +12513,10 @@
     <row r="97" spans="1:48">
       <c r="A97" s="31"/>
       <c r="B97" s="33"/>
-      <c r="C97" s="182"/>
-      <c r="D97" s="182"/>
-      <c r="E97" s="182"/>
-      <c r="F97" s="182"/>
+      <c r="C97" s="180"/>
+      <c r="D97" s="180"/>
+      <c r="E97" s="180"/>
+      <c r="F97" s="180"/>
       <c r="G97" s="33"/>
       <c r="H97" s="33"/>
       <c r="I97" s="33"/>
@@ -12566,61 +12566,61 @@
       <c r="C98" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="D98" s="181" t="s">
+      <c r="D98" s="210" t="s">
         <v>58</v>
       </c>
-      <c r="E98" s="181"/>
-      <c r="F98" s="181"/>
-      <c r="G98" s="181"/>
-      <c r="H98" s="181"/>
-      <c r="I98" s="181"/>
-      <c r="J98" s="181"/>
-      <c r="K98" s="181" t="s">
+      <c r="E98" s="210"/>
+      <c r="F98" s="210"/>
+      <c r="G98" s="210"/>
+      <c r="H98" s="210"/>
+      <c r="I98" s="210"/>
+      <c r="J98" s="210"/>
+      <c r="K98" s="210" t="s">
         <v>59</v>
       </c>
-      <c r="L98" s="181"/>
-      <c r="M98" s="181"/>
-      <c r="N98" s="181" t="s">
+      <c r="L98" s="210"/>
+      <c r="M98" s="210"/>
+      <c r="N98" s="210" t="s">
         <v>60</v>
       </c>
-      <c r="O98" s="181"/>
-      <c r="P98" s="181"/>
-      <c r="Q98" s="181" t="s">
+      <c r="O98" s="210"/>
+      <c r="P98" s="210"/>
+      <c r="Q98" s="210" t="s">
         <v>61</v>
       </c>
-      <c r="R98" s="181"/>
-      <c r="S98" s="181" t="s">
+      <c r="R98" s="210"/>
+      <c r="S98" s="210" t="s">
         <v>62</v>
       </c>
-      <c r="T98" s="181"/>
-      <c r="U98" s="181" t="s">
+      <c r="T98" s="210"/>
+      <c r="U98" s="210" t="s">
         <v>63</v>
       </c>
-      <c r="V98" s="181"/>
-      <c r="W98" s="181"/>
-      <c r="X98" s="181"/>
-      <c r="Y98" s="181" t="s">
+      <c r="V98" s="210"/>
+      <c r="W98" s="210"/>
+      <c r="X98" s="210"/>
+      <c r="Y98" s="210" t="s">
         <v>64</v>
       </c>
-      <c r="Z98" s="181"/>
-      <c r="AA98" s="181"/>
-      <c r="AB98" s="181"/>
-      <c r="AC98" s="181" t="s">
+      <c r="Z98" s="210"/>
+      <c r="AA98" s="210"/>
+      <c r="AB98" s="210"/>
+      <c r="AC98" s="210" t="s">
         <v>4</v>
       </c>
-      <c r="AD98" s="181"/>
-      <c r="AE98" s="181"/>
-      <c r="AF98" s="181"/>
-      <c r="AG98" s="181"/>
-      <c r="AH98" s="181"/>
-      <c r="AI98" s="181"/>
-      <c r="AJ98" s="181"/>
-      <c r="AK98" s="181"/>
-      <c r="AL98" s="181"/>
-      <c r="AM98" s="181"/>
-      <c r="AN98" s="181"/>
-      <c r="AO98" s="181"/>
-      <c r="AP98" s="181"/>
+      <c r="AD98" s="210"/>
+      <c r="AE98" s="210"/>
+      <c r="AF98" s="210"/>
+      <c r="AG98" s="210"/>
+      <c r="AH98" s="210"/>
+      <c r="AI98" s="210"/>
+      <c r="AJ98" s="210"/>
+      <c r="AK98" s="210"/>
+      <c r="AL98" s="210"/>
+      <c r="AM98" s="210"/>
+      <c r="AN98" s="210"/>
+      <c r="AO98" s="210"/>
+      <c r="AP98" s="210"/>
       <c r="AQ98" s="33"/>
       <c r="AR98" s="15"/>
       <c r="AS98" s="14"/>
@@ -12632,47 +12632,47 @@
       <c r="A99" s="31"/>
       <c r="B99" s="33"/>
       <c r="C99" s="102"/>
-      <c r="D99" s="182" t="s">
+      <c r="D99" s="180" t="s">
         <v>216</v>
       </c>
-      <c r="E99" s="182"/>
-      <c r="F99" s="182"/>
-      <c r="G99" s="182"/>
-      <c r="H99" s="182"/>
-      <c r="I99" s="182"/>
-      <c r="J99" s="182"/>
-      <c r="K99" s="182"/>
-      <c r="L99" s="182"/>
-      <c r="M99" s="182"/>
-      <c r="N99" s="182"/>
-      <c r="O99" s="182"/>
-      <c r="P99" s="182"/>
-      <c r="Q99" s="182"/>
-      <c r="R99" s="182"/>
-      <c r="S99" s="182"/>
-      <c r="T99" s="182"/>
-      <c r="U99" s="182"/>
-      <c r="V99" s="182"/>
-      <c r="W99" s="182"/>
-      <c r="X99" s="182"/>
-      <c r="Y99" s="182"/>
-      <c r="Z99" s="182"/>
-      <c r="AA99" s="182"/>
-      <c r="AB99" s="182"/>
-      <c r="AC99" s="182"/>
-      <c r="AD99" s="182"/>
-      <c r="AE99" s="182"/>
-      <c r="AF99" s="182"/>
-      <c r="AG99" s="182"/>
-      <c r="AH99" s="182"/>
-      <c r="AI99" s="182"/>
-      <c r="AJ99" s="182"/>
-      <c r="AK99" s="182"/>
-      <c r="AL99" s="182"/>
-      <c r="AM99" s="182"/>
-      <c r="AN99" s="182"/>
-      <c r="AO99" s="182"/>
-      <c r="AP99" s="182"/>
+      <c r="E99" s="180"/>
+      <c r="F99" s="180"/>
+      <c r="G99" s="180"/>
+      <c r="H99" s="180"/>
+      <c r="I99" s="180"/>
+      <c r="J99" s="180"/>
+      <c r="K99" s="180"/>
+      <c r="L99" s="180"/>
+      <c r="M99" s="180"/>
+      <c r="N99" s="180"/>
+      <c r="O99" s="180"/>
+      <c r="P99" s="180"/>
+      <c r="Q99" s="180"/>
+      <c r="R99" s="180"/>
+      <c r="S99" s="180"/>
+      <c r="T99" s="180"/>
+      <c r="U99" s="180"/>
+      <c r="V99" s="180"/>
+      <c r="W99" s="180"/>
+      <c r="X99" s="180"/>
+      <c r="Y99" s="180"/>
+      <c r="Z99" s="180"/>
+      <c r="AA99" s="180"/>
+      <c r="AB99" s="180"/>
+      <c r="AC99" s="180"/>
+      <c r="AD99" s="180"/>
+      <c r="AE99" s="180"/>
+      <c r="AF99" s="180"/>
+      <c r="AG99" s="180"/>
+      <c r="AH99" s="180"/>
+      <c r="AI99" s="180"/>
+      <c r="AJ99" s="180"/>
+      <c r="AK99" s="180"/>
+      <c r="AL99" s="180"/>
+      <c r="AM99" s="180"/>
+      <c r="AN99" s="180"/>
+      <c r="AO99" s="180"/>
+      <c r="AP99" s="180"/>
       <c r="AQ99" s="33"/>
       <c r="AR99" s="15"/>
       <c r="AS99" s="14"/>
@@ -12695,18 +12695,18 @@
       <c r="H100" s="66"/>
       <c r="I100" s="66"/>
       <c r="J100" s="67"/>
-      <c r="K100" s="183" t="s">
+      <c r="K100" s="201" t="s">
         <v>66</v>
       </c>
-      <c r="L100" s="184"/>
-      <c r="M100" s="185"/>
-      <c r="N100" s="183"/>
-      <c r="O100" s="184"/>
-      <c r="P100" s="185"/>
-      <c r="Q100" s="183"/>
-      <c r="R100" s="185"/>
-      <c r="S100" s="183"/>
-      <c r="T100" s="185"/>
+      <c r="L100" s="202"/>
+      <c r="M100" s="203"/>
+      <c r="N100" s="201"/>
+      <c r="O100" s="202"/>
+      <c r="P100" s="203"/>
+      <c r="Q100" s="201"/>
+      <c r="R100" s="203"/>
+      <c r="S100" s="201"/>
+      <c r="T100" s="203"/>
       <c r="U100" s="69"/>
       <c r="V100" s="70"/>
       <c r="W100" s="70"/>
@@ -12715,22 +12715,22 @@
       <c r="Z100" s="70"/>
       <c r="AA100" s="70"/>
       <c r="AB100" s="52"/>
-      <c r="AC100" s="181" t="s">
+      <c r="AC100" s="210" t="s">
         <v>67</v>
       </c>
-      <c r="AD100" s="181"/>
-      <c r="AE100" s="181"/>
-      <c r="AF100" s="181"/>
-      <c r="AG100" s="181"/>
-      <c r="AH100" s="181"/>
-      <c r="AI100" s="181"/>
-      <c r="AJ100" s="181"/>
-      <c r="AK100" s="181"/>
-      <c r="AL100" s="181"/>
-      <c r="AM100" s="181"/>
-      <c r="AN100" s="181"/>
-      <c r="AO100" s="181"/>
-      <c r="AP100" s="181"/>
+      <c r="AD100" s="210"/>
+      <c r="AE100" s="210"/>
+      <c r="AF100" s="210"/>
+      <c r="AG100" s="210"/>
+      <c r="AH100" s="210"/>
+      <c r="AI100" s="210"/>
+      <c r="AJ100" s="210"/>
+      <c r="AK100" s="210"/>
+      <c r="AL100" s="210"/>
+      <c r="AM100" s="210"/>
+      <c r="AN100" s="210"/>
+      <c r="AO100" s="210"/>
+      <c r="AP100" s="210"/>
       <c r="AQ100" s="33"/>
       <c r="AR100" s="15"/>
       <c r="AS100" s="14"/>
@@ -12753,18 +12753,18 @@
       <c r="H101" s="66"/>
       <c r="I101" s="66"/>
       <c r="J101" s="67"/>
-      <c r="K101" s="183" t="s">
+      <c r="K101" s="201" t="s">
         <v>66</v>
       </c>
-      <c r="L101" s="184"/>
-      <c r="M101" s="185"/>
-      <c r="N101" s="183"/>
-      <c r="O101" s="184"/>
-      <c r="P101" s="185"/>
-      <c r="Q101" s="183"/>
-      <c r="R101" s="185"/>
-      <c r="S101" s="183"/>
-      <c r="T101" s="185"/>
+      <c r="L101" s="202"/>
+      <c r="M101" s="203"/>
+      <c r="N101" s="201"/>
+      <c r="O101" s="202"/>
+      <c r="P101" s="203"/>
+      <c r="Q101" s="201"/>
+      <c r="R101" s="203"/>
+      <c r="S101" s="201"/>
+      <c r="T101" s="203"/>
       <c r="U101" s="69"/>
       <c r="V101" s="70"/>
       <c r="W101" s="70"/>
@@ -12773,22 +12773,22 @@
       <c r="Z101" s="70"/>
       <c r="AA101" s="70"/>
       <c r="AB101" s="52"/>
-      <c r="AC101" s="181" t="s">
+      <c r="AC101" s="210" t="s">
         <v>69</v>
       </c>
-      <c r="AD101" s="181"/>
-      <c r="AE101" s="181"/>
-      <c r="AF101" s="181"/>
-      <c r="AG101" s="181"/>
-      <c r="AH101" s="181"/>
-      <c r="AI101" s="181"/>
-      <c r="AJ101" s="181"/>
-      <c r="AK101" s="181"/>
-      <c r="AL101" s="181"/>
-      <c r="AM101" s="181"/>
-      <c r="AN101" s="181"/>
-      <c r="AO101" s="181"/>
-      <c r="AP101" s="181"/>
+      <c r="AD101" s="210"/>
+      <c r="AE101" s="210"/>
+      <c r="AF101" s="210"/>
+      <c r="AG101" s="210"/>
+      <c r="AH101" s="210"/>
+      <c r="AI101" s="210"/>
+      <c r="AJ101" s="210"/>
+      <c r="AK101" s="210"/>
+      <c r="AL101" s="210"/>
+      <c r="AM101" s="210"/>
+      <c r="AN101" s="210"/>
+      <c r="AO101" s="210"/>
+      <c r="AP101" s="210"/>
       <c r="AQ101" s="33"/>
       <c r="AR101" s="15"/>
       <c r="AS101" s="14"/>
@@ -12811,44 +12811,44 @@
       <c r="H102" s="66"/>
       <c r="I102" s="66"/>
       <c r="J102" s="67"/>
-      <c r="K102" s="183" t="s">
+      <c r="K102" s="201" t="s">
         <v>71</v>
       </c>
-      <c r="L102" s="184"/>
-      <c r="M102" s="185"/>
-      <c r="N102" s="183" t="s">
+      <c r="L102" s="202"/>
+      <c r="M102" s="203"/>
+      <c r="N102" s="201" t="s">
         <v>72</v>
       </c>
-      <c r="O102" s="184"/>
-      <c r="P102" s="185"/>
-      <c r="Q102" s="183" t="s">
+      <c r="O102" s="202"/>
+      <c r="P102" s="203"/>
+      <c r="Q102" s="201" t="s">
         <v>73</v>
       </c>
-      <c r="R102" s="185"/>
-      <c r="S102" s="183"/>
-      <c r="T102" s="185"/>
+      <c r="R102" s="203"/>
+      <c r="S102" s="201"/>
+      <c r="T102" s="203"/>
       <c r="U102" s="69"/>
       <c r="V102" s="70"/>
       <c r="W102" s="70"/>
       <c r="X102" s="71"/>
-      <c r="Y102" s="182"/>
-      <c r="Z102" s="182"/>
-      <c r="AA102" s="182"/>
-      <c r="AB102" s="182"/>
-      <c r="AC102" s="181"/>
-      <c r="AD102" s="181"/>
-      <c r="AE102" s="181"/>
-      <c r="AF102" s="181"/>
-      <c r="AG102" s="181"/>
-      <c r="AH102" s="181"/>
-      <c r="AI102" s="181"/>
-      <c r="AJ102" s="181"/>
-      <c r="AK102" s="181"/>
-      <c r="AL102" s="181"/>
-      <c r="AM102" s="181"/>
-      <c r="AN102" s="181"/>
-      <c r="AO102" s="181"/>
-      <c r="AP102" s="181"/>
+      <c r="Y102" s="180"/>
+      <c r="Z102" s="180"/>
+      <c r="AA102" s="180"/>
+      <c r="AB102" s="180"/>
+      <c r="AC102" s="210"/>
+      <c r="AD102" s="210"/>
+      <c r="AE102" s="210"/>
+      <c r="AF102" s="210"/>
+      <c r="AG102" s="210"/>
+      <c r="AH102" s="210"/>
+      <c r="AI102" s="210"/>
+      <c r="AJ102" s="210"/>
+      <c r="AK102" s="210"/>
+      <c r="AL102" s="210"/>
+      <c r="AM102" s="210"/>
+      <c r="AN102" s="210"/>
+      <c r="AO102" s="210"/>
+      <c r="AP102" s="210"/>
       <c r="AQ102" s="33"/>
       <c r="AR102" s="15"/>
       <c r="AS102" s="14"/>
@@ -12871,22 +12871,22 @@
       <c r="H103" s="66"/>
       <c r="I103" s="66"/>
       <c r="J103" s="67"/>
-      <c r="K103" s="183" t="s">
+      <c r="K103" s="201" t="s">
         <v>74</v>
       </c>
-      <c r="L103" s="184"/>
-      <c r="M103" s="185"/>
-      <c r="N103" s="183" t="s">
+      <c r="L103" s="202"/>
+      <c r="M103" s="203"/>
+      <c r="N103" s="201" t="s">
         <v>72</v>
       </c>
-      <c r="O103" s="184"/>
-      <c r="P103" s="185"/>
-      <c r="Q103" s="183" t="s">
+      <c r="O103" s="202"/>
+      <c r="P103" s="203"/>
+      <c r="Q103" s="201" t="s">
         <v>75</v>
       </c>
-      <c r="R103" s="185"/>
-      <c r="S103" s="183"/>
-      <c r="T103" s="185"/>
+      <c r="R103" s="203"/>
+      <c r="S103" s="201"/>
+      <c r="T103" s="203"/>
       <c r="U103" s="69"/>
       <c r="V103" s="70"/>
       <c r="W103" s="70"/>
@@ -12895,22 +12895,22 @@
       <c r="Z103" s="70"/>
       <c r="AA103" s="70"/>
       <c r="AB103" s="52"/>
-      <c r="AC103" s="181" t="s">
+      <c r="AC103" s="210" t="s">
         <v>76</v>
       </c>
-      <c r="AD103" s="181"/>
-      <c r="AE103" s="181"/>
-      <c r="AF103" s="181"/>
-      <c r="AG103" s="181"/>
-      <c r="AH103" s="181"/>
-      <c r="AI103" s="181"/>
-      <c r="AJ103" s="181"/>
-      <c r="AK103" s="181"/>
-      <c r="AL103" s="181"/>
-      <c r="AM103" s="181"/>
-      <c r="AN103" s="181"/>
-      <c r="AO103" s="181"/>
-      <c r="AP103" s="181"/>
+      <c r="AD103" s="210"/>
+      <c r="AE103" s="210"/>
+      <c r="AF103" s="210"/>
+      <c r="AG103" s="210"/>
+      <c r="AH103" s="210"/>
+      <c r="AI103" s="210"/>
+      <c r="AJ103" s="210"/>
+      <c r="AK103" s="210"/>
+      <c r="AL103" s="210"/>
+      <c r="AM103" s="210"/>
+      <c r="AN103" s="210"/>
+      <c r="AO103" s="210"/>
+      <c r="AP103" s="210"/>
       <c r="AQ103" s="33"/>
       <c r="AR103" s="15"/>
       <c r="AS103" s="14"/>
@@ -12933,44 +12933,44 @@
       <c r="H104" s="66"/>
       <c r="I104" s="66"/>
       <c r="J104" s="67"/>
-      <c r="K104" s="183" t="s">
+      <c r="K104" s="201" t="s">
         <v>71</v>
       </c>
-      <c r="L104" s="184"/>
-      <c r="M104" s="185"/>
-      <c r="N104" s="183" t="s">
+      <c r="L104" s="202"/>
+      <c r="M104" s="203"/>
+      <c r="N104" s="201" t="s">
         <v>72</v>
       </c>
-      <c r="O104" s="184"/>
-      <c r="P104" s="185"/>
-      <c r="Q104" s="183" t="s">
+      <c r="O104" s="202"/>
+      <c r="P104" s="203"/>
+      <c r="Q104" s="201" t="s">
         <v>73</v>
       </c>
-      <c r="R104" s="185"/>
-      <c r="S104" s="183"/>
-      <c r="T104" s="185"/>
+      <c r="R104" s="203"/>
+      <c r="S104" s="201"/>
+      <c r="T104" s="203"/>
       <c r="U104" s="69"/>
       <c r="V104" s="70"/>
       <c r="W104" s="70"/>
       <c r="X104" s="71"/>
-      <c r="Y104" s="182"/>
-      <c r="Z104" s="182"/>
-      <c r="AA104" s="182"/>
-      <c r="AB104" s="182"/>
-      <c r="AC104" s="181"/>
-      <c r="AD104" s="181"/>
-      <c r="AE104" s="181"/>
-      <c r="AF104" s="181"/>
-      <c r="AG104" s="181"/>
-      <c r="AH104" s="181"/>
-      <c r="AI104" s="181"/>
-      <c r="AJ104" s="181"/>
-      <c r="AK104" s="181"/>
-      <c r="AL104" s="181"/>
-      <c r="AM104" s="181"/>
-      <c r="AN104" s="181"/>
-      <c r="AO104" s="181"/>
-      <c r="AP104" s="181"/>
+      <c r="Y104" s="180"/>
+      <c r="Z104" s="180"/>
+      <c r="AA104" s="180"/>
+      <c r="AB104" s="180"/>
+      <c r="AC104" s="210"/>
+      <c r="AD104" s="210"/>
+      <c r="AE104" s="210"/>
+      <c r="AF104" s="210"/>
+      <c r="AG104" s="210"/>
+      <c r="AH104" s="210"/>
+      <c r="AI104" s="210"/>
+      <c r="AJ104" s="210"/>
+      <c r="AK104" s="210"/>
+      <c r="AL104" s="210"/>
+      <c r="AM104" s="210"/>
+      <c r="AN104" s="210"/>
+      <c r="AO104" s="210"/>
+      <c r="AP104" s="210"/>
       <c r="AQ104" s="33"/>
       <c r="AR104" s="15"/>
       <c r="AS104" s="14"/>
@@ -12993,22 +12993,22 @@
       <c r="H105" s="66"/>
       <c r="I105" s="66"/>
       <c r="J105" s="67"/>
-      <c r="K105" s="183" t="s">
+      <c r="K105" s="201" t="s">
         <v>71</v>
       </c>
-      <c r="L105" s="184"/>
-      <c r="M105" s="185"/>
-      <c r="N105" s="183" t="s">
+      <c r="L105" s="202"/>
+      <c r="M105" s="203"/>
+      <c r="N105" s="201" t="s">
         <v>72</v>
       </c>
-      <c r="O105" s="184"/>
-      <c r="P105" s="185"/>
-      <c r="Q105" s="183" t="s">
+      <c r="O105" s="202"/>
+      <c r="P105" s="203"/>
+      <c r="Q105" s="201" t="s">
         <v>75</v>
       </c>
-      <c r="R105" s="185"/>
-      <c r="S105" s="183"/>
-      <c r="T105" s="185"/>
+      <c r="R105" s="203"/>
+      <c r="S105" s="201"/>
+      <c r="T105" s="203"/>
       <c r="U105" s="69"/>
       <c r="V105" s="70"/>
       <c r="W105" s="70"/>
@@ -13017,22 +13017,22 @@
       <c r="Z105" s="70"/>
       <c r="AA105" s="70"/>
       <c r="AB105" s="52"/>
-      <c r="AC105" s="181" t="s">
+      <c r="AC105" s="210" t="s">
         <v>79</v>
       </c>
-      <c r="AD105" s="181"/>
-      <c r="AE105" s="181"/>
-      <c r="AF105" s="181"/>
-      <c r="AG105" s="181"/>
-      <c r="AH105" s="181"/>
-      <c r="AI105" s="181"/>
-      <c r="AJ105" s="181"/>
-      <c r="AK105" s="181"/>
-      <c r="AL105" s="181"/>
-      <c r="AM105" s="181"/>
-      <c r="AN105" s="181"/>
-      <c r="AO105" s="181"/>
-      <c r="AP105" s="181"/>
+      <c r="AD105" s="210"/>
+      <c r="AE105" s="210"/>
+      <c r="AF105" s="210"/>
+      <c r="AG105" s="210"/>
+      <c r="AH105" s="210"/>
+      <c r="AI105" s="210"/>
+      <c r="AJ105" s="210"/>
+      <c r="AK105" s="210"/>
+      <c r="AL105" s="210"/>
+      <c r="AM105" s="210"/>
+      <c r="AN105" s="210"/>
+      <c r="AO105" s="210"/>
+      <c r="AP105" s="210"/>
       <c r="AQ105" s="33"/>
       <c r="AR105" s="15"/>
       <c r="AS105" s="14"/>
@@ -13055,44 +13055,44 @@
       <c r="H106" s="66"/>
       <c r="I106" s="66"/>
       <c r="J106" s="67"/>
-      <c r="K106" s="183" t="s">
+      <c r="K106" s="201" t="s">
         <v>71</v>
       </c>
-      <c r="L106" s="184"/>
-      <c r="M106" s="185"/>
-      <c r="N106" s="183" t="s">
+      <c r="L106" s="202"/>
+      <c r="M106" s="203"/>
+      <c r="N106" s="201" t="s">
         <v>72</v>
       </c>
-      <c r="O106" s="184"/>
-      <c r="P106" s="185"/>
-      <c r="Q106" s="183" t="s">
+      <c r="O106" s="202"/>
+      <c r="P106" s="203"/>
+      <c r="Q106" s="201" t="s">
         <v>73</v>
       </c>
-      <c r="R106" s="185"/>
-      <c r="S106" s="183"/>
-      <c r="T106" s="185"/>
+      <c r="R106" s="203"/>
+      <c r="S106" s="201"/>
+      <c r="T106" s="203"/>
       <c r="U106" s="69"/>
       <c r="V106" s="70"/>
       <c r="W106" s="70"/>
       <c r="X106" s="71"/>
-      <c r="Y106" s="182"/>
-      <c r="Z106" s="182"/>
-      <c r="AA106" s="182"/>
-      <c r="AB106" s="182"/>
-      <c r="AC106" s="181"/>
-      <c r="AD106" s="181"/>
-      <c r="AE106" s="181"/>
-      <c r="AF106" s="181"/>
-      <c r="AG106" s="181"/>
-      <c r="AH106" s="181"/>
-      <c r="AI106" s="181"/>
-      <c r="AJ106" s="181"/>
-      <c r="AK106" s="181"/>
-      <c r="AL106" s="181"/>
-      <c r="AM106" s="181"/>
-      <c r="AN106" s="181"/>
-      <c r="AO106" s="181"/>
-      <c r="AP106" s="181"/>
+      <c r="Y106" s="180"/>
+      <c r="Z106" s="180"/>
+      <c r="AA106" s="180"/>
+      <c r="AB106" s="180"/>
+      <c r="AC106" s="210"/>
+      <c r="AD106" s="210"/>
+      <c r="AE106" s="210"/>
+      <c r="AF106" s="210"/>
+      <c r="AG106" s="210"/>
+      <c r="AH106" s="210"/>
+      <c r="AI106" s="210"/>
+      <c r="AJ106" s="210"/>
+      <c r="AK106" s="210"/>
+      <c r="AL106" s="210"/>
+      <c r="AM106" s="210"/>
+      <c r="AN106" s="210"/>
+      <c r="AO106" s="210"/>
+      <c r="AP106" s="210"/>
       <c r="AQ106" s="33"/>
       <c r="AR106" s="15"/>
       <c r="AS106" s="14"/>
@@ -13115,22 +13115,22 @@
       <c r="H107" s="66"/>
       <c r="I107" s="66"/>
       <c r="J107" s="67"/>
-      <c r="K107" s="183" t="s">
+      <c r="K107" s="201" t="s">
         <v>74</v>
       </c>
-      <c r="L107" s="184"/>
-      <c r="M107" s="185"/>
-      <c r="N107" s="183" t="s">
+      <c r="L107" s="202"/>
+      <c r="M107" s="203"/>
+      <c r="N107" s="201" t="s">
         <v>72</v>
       </c>
-      <c r="O107" s="184"/>
-      <c r="P107" s="185"/>
-      <c r="Q107" s="183" t="s">
+      <c r="O107" s="202"/>
+      <c r="P107" s="203"/>
+      <c r="Q107" s="201" t="s">
         <v>75</v>
       </c>
-      <c r="R107" s="185"/>
-      <c r="S107" s="183"/>
-      <c r="T107" s="185"/>
+      <c r="R107" s="203"/>
+      <c r="S107" s="201"/>
+      <c r="T107" s="203"/>
       <c r="U107" s="69"/>
       <c r="V107" s="70"/>
       <c r="W107" s="70"/>
@@ -13139,22 +13139,22 @@
       <c r="Z107" s="70"/>
       <c r="AA107" s="70"/>
       <c r="AB107" s="52"/>
-      <c r="AC107" s="181" t="s">
+      <c r="AC107" s="210" t="s">
         <v>81</v>
       </c>
-      <c r="AD107" s="181"/>
-      <c r="AE107" s="181"/>
-      <c r="AF107" s="181"/>
-      <c r="AG107" s="181"/>
-      <c r="AH107" s="181"/>
-      <c r="AI107" s="181"/>
-      <c r="AJ107" s="181"/>
-      <c r="AK107" s="181"/>
-      <c r="AL107" s="181"/>
-      <c r="AM107" s="181"/>
-      <c r="AN107" s="181"/>
-      <c r="AO107" s="181"/>
-      <c r="AP107" s="181"/>
+      <c r="AD107" s="210"/>
+      <c r="AE107" s="210"/>
+      <c r="AF107" s="210"/>
+      <c r="AG107" s="210"/>
+      <c r="AH107" s="210"/>
+      <c r="AI107" s="210"/>
+      <c r="AJ107" s="210"/>
+      <c r="AK107" s="210"/>
+      <c r="AL107" s="210"/>
+      <c r="AM107" s="210"/>
+      <c r="AN107" s="210"/>
+      <c r="AO107" s="210"/>
+      <c r="AP107" s="210"/>
       <c r="AQ107" s="33"/>
       <c r="AR107" s="15"/>
       <c r="AS107" s="14"/>
@@ -13177,44 +13177,44 @@
       <c r="H108" s="66"/>
       <c r="I108" s="66"/>
       <c r="J108" s="67"/>
-      <c r="K108" s="183" t="s">
+      <c r="K108" s="201" t="s">
         <v>71</v>
       </c>
-      <c r="L108" s="184"/>
-      <c r="M108" s="185"/>
-      <c r="N108" s="183" t="s">
+      <c r="L108" s="202"/>
+      <c r="M108" s="203"/>
+      <c r="N108" s="201" t="s">
         <v>72</v>
       </c>
-      <c r="O108" s="184"/>
-      <c r="P108" s="185"/>
-      <c r="Q108" s="183" t="s">
+      <c r="O108" s="202"/>
+      <c r="P108" s="203"/>
+      <c r="Q108" s="201" t="s">
         <v>73</v>
       </c>
-      <c r="R108" s="185"/>
+      <c r="R108" s="203"/>
       <c r="S108" s="64"/>
       <c r="T108" s="68"/>
       <c r="U108" s="69"/>
       <c r="V108" s="70"/>
       <c r="W108" s="70"/>
       <c r="X108" s="71"/>
-      <c r="Y108" s="182"/>
-      <c r="Z108" s="182"/>
-      <c r="AA108" s="182"/>
-      <c r="AB108" s="182"/>
-      <c r="AC108" s="181"/>
-      <c r="AD108" s="181"/>
-      <c r="AE108" s="181"/>
-      <c r="AF108" s="181"/>
-      <c r="AG108" s="181"/>
-      <c r="AH108" s="181"/>
-      <c r="AI108" s="181"/>
-      <c r="AJ108" s="181"/>
-      <c r="AK108" s="181"/>
-      <c r="AL108" s="181"/>
-      <c r="AM108" s="181"/>
-      <c r="AN108" s="181"/>
-      <c r="AO108" s="181"/>
-      <c r="AP108" s="181"/>
+      <c r="Y108" s="180"/>
+      <c r="Z108" s="180"/>
+      <c r="AA108" s="180"/>
+      <c r="AB108" s="180"/>
+      <c r="AC108" s="210"/>
+      <c r="AD108" s="210"/>
+      <c r="AE108" s="210"/>
+      <c r="AF108" s="210"/>
+      <c r="AG108" s="210"/>
+      <c r="AH108" s="210"/>
+      <c r="AI108" s="210"/>
+      <c r="AJ108" s="210"/>
+      <c r="AK108" s="210"/>
+      <c r="AL108" s="210"/>
+      <c r="AM108" s="210"/>
+      <c r="AN108" s="210"/>
+      <c r="AO108" s="210"/>
+      <c r="AP108" s="210"/>
       <c r="AQ108" s="33"/>
       <c r="AR108" s="15"/>
       <c r="AS108" s="14"/>
@@ -13237,20 +13237,20 @@
       <c r="H109" s="66"/>
       <c r="I109" s="66"/>
       <c r="J109" s="67"/>
-      <c r="K109" s="182" t="s">
+      <c r="K109" s="180" t="s">
         <v>83</v>
       </c>
-      <c r="L109" s="182"/>
-      <c r="M109" s="182"/>
-      <c r="N109" s="182" t="s">
+      <c r="L109" s="180"/>
+      <c r="M109" s="180"/>
+      <c r="N109" s="180" t="s">
         <v>84</v>
       </c>
-      <c r="O109" s="182"/>
-      <c r="P109" s="182"/>
-      <c r="Q109" s="183" t="s">
+      <c r="O109" s="180"/>
+      <c r="P109" s="180"/>
+      <c r="Q109" s="201" t="s">
         <v>75</v>
       </c>
-      <c r="R109" s="185"/>
+      <c r="R109" s="203"/>
       <c r="S109" s="64"/>
       <c r="T109" s="68"/>
       <c r="U109" s="69"/>
@@ -13261,22 +13261,22 @@
       <c r="Z109" s="70"/>
       <c r="AA109" s="70"/>
       <c r="AB109" s="52"/>
-      <c r="AC109" s="181" t="s">
+      <c r="AC109" s="210" t="s">
         <v>85</v>
       </c>
-      <c r="AD109" s="181"/>
-      <c r="AE109" s="181"/>
-      <c r="AF109" s="181"/>
-      <c r="AG109" s="181"/>
-      <c r="AH109" s="181"/>
-      <c r="AI109" s="181"/>
-      <c r="AJ109" s="181"/>
-      <c r="AK109" s="181"/>
-      <c r="AL109" s="181"/>
-      <c r="AM109" s="181"/>
-      <c r="AN109" s="181"/>
-      <c r="AO109" s="181"/>
-      <c r="AP109" s="181"/>
+      <c r="AD109" s="210"/>
+      <c r="AE109" s="210"/>
+      <c r="AF109" s="210"/>
+      <c r="AG109" s="210"/>
+      <c r="AH109" s="210"/>
+      <c r="AI109" s="210"/>
+      <c r="AJ109" s="210"/>
+      <c r="AK109" s="210"/>
+      <c r="AL109" s="210"/>
+      <c r="AM109" s="210"/>
+      <c r="AN109" s="210"/>
+      <c r="AO109" s="210"/>
+      <c r="AP109" s="210"/>
       <c r="AQ109" s="33"/>
       <c r="AR109" s="15"/>
       <c r="AS109" s="14"/>
@@ -13299,44 +13299,44 @@
       <c r="H110" s="66"/>
       <c r="I110" s="66"/>
       <c r="J110" s="67"/>
-      <c r="K110" s="183" t="s">
+      <c r="K110" s="201" t="s">
         <v>71</v>
       </c>
-      <c r="L110" s="184"/>
-      <c r="M110" s="185"/>
-      <c r="N110" s="183" t="s">
+      <c r="L110" s="202"/>
+      <c r="M110" s="203"/>
+      <c r="N110" s="201" t="s">
         <v>72</v>
       </c>
-      <c r="O110" s="184"/>
-      <c r="P110" s="185"/>
-      <c r="Q110" s="183" t="s">
+      <c r="O110" s="202"/>
+      <c r="P110" s="203"/>
+      <c r="Q110" s="201" t="s">
         <v>73</v>
       </c>
-      <c r="R110" s="185"/>
+      <c r="R110" s="203"/>
       <c r="S110" s="64"/>
       <c r="T110" s="68"/>
       <c r="U110" s="69"/>
       <c r="V110" s="70"/>
       <c r="W110" s="70"/>
       <c r="X110" s="71"/>
-      <c r="Y110" s="182"/>
-      <c r="Z110" s="182"/>
-      <c r="AA110" s="182"/>
-      <c r="AB110" s="182"/>
-      <c r="AC110" s="181"/>
-      <c r="AD110" s="181"/>
-      <c r="AE110" s="181"/>
-      <c r="AF110" s="181"/>
-      <c r="AG110" s="181"/>
-      <c r="AH110" s="181"/>
-      <c r="AI110" s="181"/>
-      <c r="AJ110" s="181"/>
-      <c r="AK110" s="181"/>
-      <c r="AL110" s="181"/>
-      <c r="AM110" s="181"/>
-      <c r="AN110" s="181"/>
-      <c r="AO110" s="181"/>
-      <c r="AP110" s="181"/>
+      <c r="Y110" s="180"/>
+      <c r="Z110" s="180"/>
+      <c r="AA110" s="180"/>
+      <c r="AB110" s="180"/>
+      <c r="AC110" s="210"/>
+      <c r="AD110" s="210"/>
+      <c r="AE110" s="210"/>
+      <c r="AF110" s="210"/>
+      <c r="AG110" s="210"/>
+      <c r="AH110" s="210"/>
+      <c r="AI110" s="210"/>
+      <c r="AJ110" s="210"/>
+      <c r="AK110" s="210"/>
+      <c r="AL110" s="210"/>
+      <c r="AM110" s="210"/>
+      <c r="AN110" s="210"/>
+      <c r="AO110" s="210"/>
+      <c r="AP110" s="210"/>
       <c r="AQ110" s="33"/>
       <c r="AR110" s="15"/>
       <c r="AS110" s="14"/>
@@ -13359,20 +13359,20 @@
       <c r="H111" s="66"/>
       <c r="I111" s="66"/>
       <c r="J111" s="67"/>
-      <c r="K111" s="182" t="s">
+      <c r="K111" s="180" t="s">
         <v>83</v>
       </c>
-      <c r="L111" s="182"/>
-      <c r="M111" s="182"/>
-      <c r="N111" s="182" t="s">
+      <c r="L111" s="180"/>
+      <c r="M111" s="180"/>
+      <c r="N111" s="180" t="s">
         <v>84</v>
       </c>
-      <c r="O111" s="182"/>
-      <c r="P111" s="182"/>
-      <c r="Q111" s="183" t="s">
+      <c r="O111" s="180"/>
+      <c r="P111" s="180"/>
+      <c r="Q111" s="201" t="s">
         <v>75</v>
       </c>
-      <c r="R111" s="185"/>
+      <c r="R111" s="203"/>
       <c r="S111" s="64"/>
       <c r="T111" s="68"/>
       <c r="U111" s="69"/>
@@ -13383,22 +13383,22 @@
       <c r="Z111" s="70"/>
       <c r="AA111" s="70"/>
       <c r="AB111" s="52"/>
-      <c r="AC111" s="181" t="s">
+      <c r="AC111" s="210" t="s">
         <v>87</v>
       </c>
-      <c r="AD111" s="181"/>
-      <c r="AE111" s="181"/>
-      <c r="AF111" s="181"/>
-      <c r="AG111" s="181"/>
-      <c r="AH111" s="181"/>
-      <c r="AI111" s="181"/>
-      <c r="AJ111" s="181"/>
-      <c r="AK111" s="181"/>
-      <c r="AL111" s="181"/>
-      <c r="AM111" s="181"/>
-      <c r="AN111" s="181"/>
-      <c r="AO111" s="181"/>
-      <c r="AP111" s="181"/>
+      <c r="AD111" s="210"/>
+      <c r="AE111" s="210"/>
+      <c r="AF111" s="210"/>
+      <c r="AG111" s="210"/>
+      <c r="AH111" s="210"/>
+      <c r="AI111" s="210"/>
+      <c r="AJ111" s="210"/>
+      <c r="AK111" s="210"/>
+      <c r="AL111" s="210"/>
+      <c r="AM111" s="210"/>
+      <c r="AN111" s="210"/>
+      <c r="AO111" s="210"/>
+      <c r="AP111" s="210"/>
       <c r="AQ111" s="33"/>
       <c r="AR111" s="15"/>
       <c r="AS111" s="14"/>
@@ -13421,44 +13421,44 @@
       <c r="H112" s="66"/>
       <c r="I112" s="66"/>
       <c r="J112" s="67"/>
-      <c r="K112" s="183" t="s">
+      <c r="K112" s="201" t="s">
         <v>71</v>
       </c>
-      <c r="L112" s="184"/>
-      <c r="M112" s="185"/>
-      <c r="N112" s="183" t="s">
+      <c r="L112" s="202"/>
+      <c r="M112" s="203"/>
+      <c r="N112" s="201" t="s">
         <v>72</v>
       </c>
-      <c r="O112" s="184"/>
-      <c r="P112" s="185"/>
-      <c r="Q112" s="183" t="s">
+      <c r="O112" s="202"/>
+      <c r="P112" s="203"/>
+      <c r="Q112" s="201" t="s">
         <v>73</v>
       </c>
-      <c r="R112" s="185"/>
-      <c r="S112" s="183"/>
-      <c r="T112" s="185"/>
+      <c r="R112" s="203"/>
+      <c r="S112" s="201"/>
+      <c r="T112" s="203"/>
       <c r="U112" s="69"/>
       <c r="V112" s="70"/>
       <c r="W112" s="70"/>
       <c r="X112" s="71"/>
-      <c r="Y112" s="182"/>
-      <c r="Z112" s="182"/>
-      <c r="AA112" s="182"/>
-      <c r="AB112" s="182"/>
-      <c r="AC112" s="181"/>
-      <c r="AD112" s="181"/>
-      <c r="AE112" s="181"/>
-      <c r="AF112" s="181"/>
-      <c r="AG112" s="181"/>
-      <c r="AH112" s="181"/>
-      <c r="AI112" s="181"/>
-      <c r="AJ112" s="181"/>
-      <c r="AK112" s="181"/>
-      <c r="AL112" s="181"/>
-      <c r="AM112" s="181"/>
-      <c r="AN112" s="181"/>
-      <c r="AO112" s="181"/>
-      <c r="AP112" s="181"/>
+      <c r="Y112" s="180"/>
+      <c r="Z112" s="180"/>
+      <c r="AA112" s="180"/>
+      <c r="AB112" s="180"/>
+      <c r="AC112" s="210"/>
+      <c r="AD112" s="210"/>
+      <c r="AE112" s="210"/>
+      <c r="AF112" s="210"/>
+      <c r="AG112" s="210"/>
+      <c r="AH112" s="210"/>
+      <c r="AI112" s="210"/>
+      <c r="AJ112" s="210"/>
+      <c r="AK112" s="210"/>
+      <c r="AL112" s="210"/>
+      <c r="AM112" s="210"/>
+      <c r="AN112" s="210"/>
+      <c r="AO112" s="210"/>
+      <c r="AP112" s="210"/>
       <c r="AQ112" s="33"/>
       <c r="AR112" s="15"/>
       <c r="AS112" s="14"/>
@@ -13481,22 +13481,22 @@
       <c r="H113" s="66"/>
       <c r="I113" s="66"/>
       <c r="J113" s="67"/>
-      <c r="K113" s="183" t="s">
+      <c r="K113" s="201" t="s">
         <v>89</v>
       </c>
-      <c r="L113" s="184"/>
-      <c r="M113" s="185"/>
-      <c r="N113" s="182" t="s">
+      <c r="L113" s="202"/>
+      <c r="M113" s="203"/>
+      <c r="N113" s="180" t="s">
         <v>84</v>
       </c>
-      <c r="O113" s="182"/>
-      <c r="P113" s="182"/>
-      <c r="Q113" s="183" t="s">
+      <c r="O113" s="180"/>
+      <c r="P113" s="180"/>
+      <c r="Q113" s="201" t="s">
         <v>75</v>
       </c>
-      <c r="R113" s="185"/>
-      <c r="S113" s="183"/>
-      <c r="T113" s="185"/>
+      <c r="R113" s="203"/>
+      <c r="S113" s="201"/>
+      <c r="T113" s="203"/>
       <c r="U113" s="69"/>
       <c r="V113" s="70"/>
       <c r="W113" s="70"/>
@@ -13505,22 +13505,22 @@
       <c r="Z113" s="70"/>
       <c r="AA113" s="70"/>
       <c r="AB113" s="52"/>
-      <c r="AC113" s="181" t="s">
+      <c r="AC113" s="210" t="s">
         <v>90</v>
       </c>
-      <c r="AD113" s="181"/>
-      <c r="AE113" s="181"/>
-      <c r="AF113" s="181"/>
-      <c r="AG113" s="181"/>
-      <c r="AH113" s="181"/>
-      <c r="AI113" s="181"/>
-      <c r="AJ113" s="181"/>
-      <c r="AK113" s="181"/>
-      <c r="AL113" s="181"/>
-      <c r="AM113" s="181"/>
-      <c r="AN113" s="181"/>
-      <c r="AO113" s="181"/>
-      <c r="AP113" s="181"/>
+      <c r="AD113" s="210"/>
+      <c r="AE113" s="210"/>
+      <c r="AF113" s="210"/>
+      <c r="AG113" s="210"/>
+      <c r="AH113" s="210"/>
+      <c r="AI113" s="210"/>
+      <c r="AJ113" s="210"/>
+      <c r="AK113" s="210"/>
+      <c r="AL113" s="210"/>
+      <c r="AM113" s="210"/>
+      <c r="AN113" s="210"/>
+      <c r="AO113" s="210"/>
+      <c r="AP113" s="210"/>
       <c r="AQ113" s="33"/>
       <c r="AR113" s="15"/>
       <c r="AS113" s="14"/>
@@ -13543,44 +13543,44 @@
       <c r="H114" s="75"/>
       <c r="I114" s="75"/>
       <c r="J114" s="76"/>
-      <c r="K114" s="182" t="s">
+      <c r="K114" s="180" t="s">
         <v>71</v>
       </c>
-      <c r="L114" s="182"/>
-      <c r="M114" s="182"/>
-      <c r="N114" s="182" t="s">
+      <c r="L114" s="180"/>
+      <c r="M114" s="180"/>
+      <c r="N114" s="180" t="s">
         <v>72</v>
       </c>
-      <c r="O114" s="182"/>
-      <c r="P114" s="182"/>
-      <c r="Q114" s="182" t="s">
+      <c r="O114" s="180"/>
+      <c r="P114" s="180"/>
+      <c r="Q114" s="180" t="s">
         <v>73</v>
       </c>
-      <c r="R114" s="182"/>
-      <c r="S114" s="182"/>
-      <c r="T114" s="182"/>
+      <c r="R114" s="180"/>
+      <c r="S114" s="180"/>
+      <c r="T114" s="180"/>
       <c r="U114" s="77"/>
       <c r="V114" s="70"/>
       <c r="W114" s="70"/>
       <c r="X114" s="71"/>
-      <c r="Y114" s="182"/>
-      <c r="Z114" s="182"/>
-      <c r="AA114" s="182"/>
-      <c r="AB114" s="182"/>
-      <c r="AC114" s="181"/>
-      <c r="AD114" s="181"/>
-      <c r="AE114" s="181"/>
-      <c r="AF114" s="181"/>
-      <c r="AG114" s="181"/>
-      <c r="AH114" s="181"/>
-      <c r="AI114" s="181"/>
-      <c r="AJ114" s="181"/>
-      <c r="AK114" s="181"/>
-      <c r="AL114" s="181"/>
-      <c r="AM114" s="181"/>
-      <c r="AN114" s="181"/>
-      <c r="AO114" s="181"/>
-      <c r="AP114" s="181"/>
+      <c r="Y114" s="180"/>
+      <c r="Z114" s="180"/>
+      <c r="AA114" s="180"/>
+      <c r="AB114" s="180"/>
+      <c r="AC114" s="210"/>
+      <c r="AD114" s="210"/>
+      <c r="AE114" s="210"/>
+      <c r="AF114" s="210"/>
+      <c r="AG114" s="210"/>
+      <c r="AH114" s="210"/>
+      <c r="AI114" s="210"/>
+      <c r="AJ114" s="210"/>
+      <c r="AK114" s="210"/>
+      <c r="AL114" s="210"/>
+      <c r="AM114" s="210"/>
+      <c r="AN114" s="210"/>
+      <c r="AO114" s="210"/>
+      <c r="AP114" s="210"/>
       <c r="AQ114" s="33"/>
       <c r="AR114" s="15"/>
       <c r="AS114" s="14"/>
@@ -13603,22 +13603,22 @@
       <c r="H115" s="75"/>
       <c r="I115" s="75"/>
       <c r="J115" s="76"/>
-      <c r="K115" s="182" t="s">
+      <c r="K115" s="180" t="s">
         <v>89</v>
       </c>
-      <c r="L115" s="182"/>
-      <c r="M115" s="182"/>
-      <c r="N115" s="182" t="s">
+      <c r="L115" s="180"/>
+      <c r="M115" s="180"/>
+      <c r="N115" s="180" t="s">
         <v>84</v>
       </c>
-      <c r="O115" s="182"/>
-      <c r="P115" s="182"/>
-      <c r="Q115" s="182" t="s">
+      <c r="O115" s="180"/>
+      <c r="P115" s="180"/>
+      <c r="Q115" s="180" t="s">
         <v>75</v>
       </c>
-      <c r="R115" s="182"/>
-      <c r="S115" s="182"/>
-      <c r="T115" s="182"/>
+      <c r="R115" s="180"/>
+      <c r="S115" s="180"/>
+      <c r="T115" s="180"/>
       <c r="U115" s="77"/>
       <c r="V115" s="70"/>
       <c r="W115" s="70"/>
@@ -13627,22 +13627,22 @@
       <c r="Z115" s="70"/>
       <c r="AA115" s="70"/>
       <c r="AB115" s="104"/>
-      <c r="AC115" s="181" t="s">
+      <c r="AC115" s="210" t="s">
         <v>92</v>
       </c>
-      <c r="AD115" s="181"/>
-      <c r="AE115" s="181"/>
-      <c r="AF115" s="181"/>
-      <c r="AG115" s="181"/>
-      <c r="AH115" s="181"/>
-      <c r="AI115" s="181"/>
-      <c r="AJ115" s="181"/>
-      <c r="AK115" s="181"/>
-      <c r="AL115" s="181"/>
-      <c r="AM115" s="181"/>
-      <c r="AN115" s="181"/>
-      <c r="AO115" s="181"/>
-      <c r="AP115" s="181"/>
+      <c r="AD115" s="210"/>
+      <c r="AE115" s="210"/>
+      <c r="AF115" s="210"/>
+      <c r="AG115" s="210"/>
+      <c r="AH115" s="210"/>
+      <c r="AI115" s="210"/>
+      <c r="AJ115" s="210"/>
+      <c r="AK115" s="210"/>
+      <c r="AL115" s="210"/>
+      <c r="AM115" s="210"/>
+      <c r="AN115" s="210"/>
+      <c r="AO115" s="210"/>
+      <c r="AP115" s="210"/>
       <c r="AQ115" s="33"/>
       <c r="AR115" s="15"/>
       <c r="AS115" s="14"/>
@@ -13665,44 +13665,44 @@
       <c r="H116" s="75"/>
       <c r="I116" s="75"/>
       <c r="J116" s="76"/>
-      <c r="K116" s="182" t="s">
+      <c r="K116" s="180" t="s">
         <v>71</v>
       </c>
-      <c r="L116" s="182"/>
-      <c r="M116" s="182"/>
-      <c r="N116" s="182" t="s">
+      <c r="L116" s="180"/>
+      <c r="M116" s="180"/>
+      <c r="N116" s="180" t="s">
         <v>72</v>
       </c>
-      <c r="O116" s="182"/>
-      <c r="P116" s="182"/>
-      <c r="Q116" s="182" t="s">
+      <c r="O116" s="180"/>
+      <c r="P116" s="180"/>
+      <c r="Q116" s="180" t="s">
         <v>73</v>
       </c>
-      <c r="R116" s="182"/>
-      <c r="S116" s="182"/>
-      <c r="T116" s="182"/>
+      <c r="R116" s="180"/>
+      <c r="S116" s="180"/>
+      <c r="T116" s="180"/>
       <c r="U116" s="77"/>
       <c r="V116" s="70"/>
       <c r="W116" s="70"/>
       <c r="X116" s="71"/>
-      <c r="Y116" s="182"/>
-      <c r="Z116" s="182"/>
-      <c r="AA116" s="182"/>
-      <c r="AB116" s="182"/>
-      <c r="AC116" s="181"/>
-      <c r="AD116" s="181"/>
-      <c r="AE116" s="181"/>
-      <c r="AF116" s="181"/>
-      <c r="AG116" s="181"/>
-      <c r="AH116" s="181"/>
-      <c r="AI116" s="181"/>
-      <c r="AJ116" s="181"/>
-      <c r="AK116" s="181"/>
-      <c r="AL116" s="181"/>
-      <c r="AM116" s="181"/>
-      <c r="AN116" s="181"/>
-      <c r="AO116" s="181"/>
-      <c r="AP116" s="181"/>
+      <c r="Y116" s="180"/>
+      <c r="Z116" s="180"/>
+      <c r="AA116" s="180"/>
+      <c r="AB116" s="180"/>
+      <c r="AC116" s="210"/>
+      <c r="AD116" s="210"/>
+      <c r="AE116" s="210"/>
+      <c r="AF116" s="210"/>
+      <c r="AG116" s="210"/>
+      <c r="AH116" s="210"/>
+      <c r="AI116" s="210"/>
+      <c r="AJ116" s="210"/>
+      <c r="AK116" s="210"/>
+      <c r="AL116" s="210"/>
+      <c r="AM116" s="210"/>
+      <c r="AN116" s="210"/>
+      <c r="AO116" s="210"/>
+      <c r="AP116" s="210"/>
       <c r="AQ116" s="33"/>
       <c r="AR116" s="15"/>
       <c r="AS116" s="14"/>
@@ -13725,22 +13725,22 @@
       <c r="H117" s="75"/>
       <c r="I117" s="75"/>
       <c r="J117" s="76"/>
-      <c r="K117" s="182" t="s">
+      <c r="K117" s="180" t="s">
         <v>94</v>
       </c>
-      <c r="L117" s="182"/>
-      <c r="M117" s="182"/>
-      <c r="N117" s="182" t="s">
+      <c r="L117" s="180"/>
+      <c r="M117" s="180"/>
+      <c r="N117" s="180" t="s">
         <v>84</v>
       </c>
-      <c r="O117" s="182"/>
-      <c r="P117" s="182"/>
-      <c r="Q117" s="182" t="s">
+      <c r="O117" s="180"/>
+      <c r="P117" s="180"/>
+      <c r="Q117" s="180" t="s">
         <v>75</v>
       </c>
-      <c r="R117" s="182"/>
-      <c r="S117" s="182"/>
-      <c r="T117" s="182"/>
+      <c r="R117" s="180"/>
+      <c r="S117" s="180"/>
+      <c r="T117" s="180"/>
       <c r="U117" s="77"/>
       <c r="V117" s="70"/>
       <c r="W117" s="70"/>
@@ -13749,22 +13749,22 @@
       <c r="Z117" s="70"/>
       <c r="AA117" s="70"/>
       <c r="AB117" s="104"/>
-      <c r="AC117" s="181" t="s">
+      <c r="AC117" s="210" t="s">
         <v>95</v>
       </c>
-      <c r="AD117" s="181"/>
-      <c r="AE117" s="181"/>
-      <c r="AF117" s="181"/>
-      <c r="AG117" s="181"/>
-      <c r="AH117" s="181"/>
-      <c r="AI117" s="181"/>
-      <c r="AJ117" s="181"/>
-      <c r="AK117" s="181"/>
-      <c r="AL117" s="181"/>
-      <c r="AM117" s="181"/>
-      <c r="AN117" s="181"/>
-      <c r="AO117" s="181"/>
-      <c r="AP117" s="181"/>
+      <c r="AD117" s="210"/>
+      <c r="AE117" s="210"/>
+      <c r="AF117" s="210"/>
+      <c r="AG117" s="210"/>
+      <c r="AH117" s="210"/>
+      <c r="AI117" s="210"/>
+      <c r="AJ117" s="210"/>
+      <c r="AK117" s="210"/>
+      <c r="AL117" s="210"/>
+      <c r="AM117" s="210"/>
+      <c r="AN117" s="210"/>
+      <c r="AO117" s="210"/>
+      <c r="AP117" s="210"/>
       <c r="AQ117" s="33"/>
       <c r="AR117" s="15"/>
       <c r="AS117" s="14"/>
@@ -13778,31 +13778,31 @@
       <c r="C118" s="64">
         <v>19</v>
       </c>
-      <c r="D118" s="181" t="s">
+      <c r="D118" s="210" t="s">
         <v>96</v>
       </c>
-      <c r="E118" s="181"/>
-      <c r="F118" s="181"/>
-      <c r="G118" s="181"/>
-      <c r="H118" s="181"/>
-      <c r="I118" s="181"/>
-      <c r="J118" s="181"/>
-      <c r="K118" s="183" t="s">
+      <c r="E118" s="210"/>
+      <c r="F118" s="210"/>
+      <c r="G118" s="210"/>
+      <c r="H118" s="210"/>
+      <c r="I118" s="210"/>
+      <c r="J118" s="210"/>
+      <c r="K118" s="201" t="s">
         <v>74</v>
       </c>
-      <c r="L118" s="184"/>
-      <c r="M118" s="185"/>
-      <c r="N118" s="183" t="s">
+      <c r="L118" s="202"/>
+      <c r="M118" s="203"/>
+      <c r="N118" s="201" t="s">
         <v>72</v>
       </c>
-      <c r="O118" s="184"/>
-      <c r="P118" s="185"/>
-      <c r="Q118" s="183" t="s">
+      <c r="O118" s="202"/>
+      <c r="P118" s="203"/>
+      <c r="Q118" s="201" t="s">
         <v>75</v>
       </c>
-      <c r="R118" s="185"/>
-      <c r="S118" s="183"/>
-      <c r="T118" s="185"/>
+      <c r="R118" s="203"/>
+      <c r="S118" s="201"/>
+      <c r="T118" s="203"/>
       <c r="U118" s="69"/>
       <c r="V118" s="70"/>
       <c r="W118" s="70"/>
@@ -13811,22 +13811,22 @@
       <c r="Z118" s="70"/>
       <c r="AA118" s="70"/>
       <c r="AB118" s="52"/>
-      <c r="AC118" s="181" t="s">
+      <c r="AC118" s="210" t="s">
         <v>97</v>
       </c>
-      <c r="AD118" s="181"/>
-      <c r="AE118" s="181"/>
-      <c r="AF118" s="181"/>
-      <c r="AG118" s="181"/>
-      <c r="AH118" s="181"/>
-      <c r="AI118" s="181"/>
-      <c r="AJ118" s="181"/>
-      <c r="AK118" s="181"/>
-      <c r="AL118" s="181"/>
-      <c r="AM118" s="181"/>
-      <c r="AN118" s="181"/>
-      <c r="AO118" s="181"/>
-      <c r="AP118" s="181"/>
+      <c r="AD118" s="210"/>
+      <c r="AE118" s="210"/>
+      <c r="AF118" s="210"/>
+      <c r="AG118" s="210"/>
+      <c r="AH118" s="210"/>
+      <c r="AI118" s="210"/>
+      <c r="AJ118" s="210"/>
+      <c r="AK118" s="210"/>
+      <c r="AL118" s="210"/>
+      <c r="AM118" s="210"/>
+      <c r="AN118" s="210"/>
+      <c r="AO118" s="210"/>
+      <c r="AP118" s="210"/>
       <c r="AQ118" s="33"/>
       <c r="AR118" s="15"/>
       <c r="AS118" s="14"/>
@@ -13838,47 +13838,47 @@
       <c r="A119" s="31"/>
       <c r="B119" s="33"/>
       <c r="C119" s="78"/>
-      <c r="D119" s="182" t="s">
+      <c r="D119" s="180" t="s">
         <v>26</v>
       </c>
-      <c r="E119" s="182"/>
-      <c r="F119" s="182"/>
-      <c r="G119" s="182"/>
-      <c r="H119" s="182"/>
-      <c r="I119" s="182"/>
-      <c r="J119" s="182"/>
-      <c r="K119" s="182"/>
-      <c r="L119" s="182"/>
-      <c r="M119" s="182"/>
-      <c r="N119" s="182"/>
-      <c r="O119" s="182"/>
-      <c r="P119" s="182"/>
-      <c r="Q119" s="182"/>
-      <c r="R119" s="182"/>
-      <c r="S119" s="182"/>
-      <c r="T119" s="182"/>
-      <c r="U119" s="182"/>
-      <c r="V119" s="182"/>
-      <c r="W119" s="182"/>
-      <c r="X119" s="182"/>
-      <c r="Y119" s="182"/>
-      <c r="Z119" s="182"/>
-      <c r="AA119" s="182"/>
-      <c r="AB119" s="182"/>
-      <c r="AC119" s="182"/>
-      <c r="AD119" s="182"/>
-      <c r="AE119" s="182"/>
-      <c r="AF119" s="182"/>
-      <c r="AG119" s="182"/>
-      <c r="AH119" s="182"/>
-      <c r="AI119" s="182"/>
-      <c r="AJ119" s="182"/>
-      <c r="AK119" s="182"/>
-      <c r="AL119" s="182"/>
-      <c r="AM119" s="182"/>
-      <c r="AN119" s="182"/>
-      <c r="AO119" s="182"/>
-      <c r="AP119" s="182"/>
+      <c r="E119" s="180"/>
+      <c r="F119" s="180"/>
+      <c r="G119" s="180"/>
+      <c r="H119" s="180"/>
+      <c r="I119" s="180"/>
+      <c r="J119" s="180"/>
+      <c r="K119" s="180"/>
+      <c r="L119" s="180"/>
+      <c r="M119" s="180"/>
+      <c r="N119" s="180"/>
+      <c r="O119" s="180"/>
+      <c r="P119" s="180"/>
+      <c r="Q119" s="180"/>
+      <c r="R119" s="180"/>
+      <c r="S119" s="180"/>
+      <c r="T119" s="180"/>
+      <c r="U119" s="180"/>
+      <c r="V119" s="180"/>
+      <c r="W119" s="180"/>
+      <c r="X119" s="180"/>
+      <c r="Y119" s="180"/>
+      <c r="Z119" s="180"/>
+      <c r="AA119" s="180"/>
+      <c r="AB119" s="180"/>
+      <c r="AC119" s="180"/>
+      <c r="AD119" s="180"/>
+      <c r="AE119" s="180"/>
+      <c r="AF119" s="180"/>
+      <c r="AG119" s="180"/>
+      <c r="AH119" s="180"/>
+      <c r="AI119" s="180"/>
+      <c r="AJ119" s="180"/>
+      <c r="AK119" s="180"/>
+      <c r="AL119" s="180"/>
+      <c r="AM119" s="180"/>
+      <c r="AN119" s="180"/>
+      <c r="AO119" s="180"/>
+      <c r="AP119" s="180"/>
       <c r="AQ119" s="33"/>
       <c r="AR119" s="15"/>
       <c r="AS119" s="14"/>
@@ -13901,46 +13901,46 @@
       <c r="H120" s="66"/>
       <c r="I120" s="66"/>
       <c r="J120" s="67"/>
-      <c r="K120" s="183" t="s">
+      <c r="K120" s="201" t="s">
         <v>71</v>
       </c>
-      <c r="L120" s="184"/>
-      <c r="M120" s="185"/>
-      <c r="N120" s="183" t="s">
+      <c r="L120" s="202"/>
+      <c r="M120" s="203"/>
+      <c r="N120" s="201" t="s">
         <v>72</v>
       </c>
-      <c r="O120" s="184"/>
-      <c r="P120" s="185"/>
-      <c r="Q120" s="183" t="s">
+      <c r="O120" s="202"/>
+      <c r="P120" s="203"/>
+      <c r="Q120" s="201" t="s">
         <v>73</v>
       </c>
-      <c r="R120" s="185"/>
-      <c r="S120" s="183"/>
-      <c r="T120" s="185"/>
+      <c r="R120" s="203"/>
+      <c r="S120" s="201"/>
+      <c r="T120" s="203"/>
       <c r="U120" s="69"/>
       <c r="V120" s="70"/>
       <c r="W120" s="70"/>
       <c r="X120" s="71"/>
-      <c r="Y120" s="181"/>
-      <c r="Z120" s="181"/>
-      <c r="AA120" s="181"/>
-      <c r="AB120" s="181"/>
-      <c r="AC120" s="186" t="s">
+      <c r="Y120" s="210"/>
+      <c r="Z120" s="210"/>
+      <c r="AA120" s="210"/>
+      <c r="AB120" s="210"/>
+      <c r="AC120" s="204" t="s">
         <v>98</v>
       </c>
-      <c r="AD120" s="187"/>
-      <c r="AE120" s="187"/>
-      <c r="AF120" s="187"/>
-      <c r="AG120" s="187"/>
-      <c r="AH120" s="187"/>
-      <c r="AI120" s="187"/>
-      <c r="AJ120" s="187"/>
-      <c r="AK120" s="187"/>
-      <c r="AL120" s="187"/>
-      <c r="AM120" s="187"/>
-      <c r="AN120" s="187"/>
-      <c r="AO120" s="187"/>
-      <c r="AP120" s="188"/>
+      <c r="AD120" s="205"/>
+      <c r="AE120" s="205"/>
+      <c r="AF120" s="205"/>
+      <c r="AG120" s="205"/>
+      <c r="AH120" s="205"/>
+      <c r="AI120" s="205"/>
+      <c r="AJ120" s="205"/>
+      <c r="AK120" s="205"/>
+      <c r="AL120" s="205"/>
+      <c r="AM120" s="205"/>
+      <c r="AN120" s="205"/>
+      <c r="AO120" s="205"/>
+      <c r="AP120" s="206"/>
       <c r="AQ120" s="33"/>
       <c r="AR120" s="15"/>
       <c r="AS120" s="14"/>
@@ -13963,46 +13963,46 @@
       <c r="H121" s="66"/>
       <c r="I121" s="66"/>
       <c r="J121" s="67"/>
-      <c r="K121" s="183" t="s">
+      <c r="K121" s="201" t="s">
         <v>71</v>
       </c>
-      <c r="L121" s="184"/>
-      <c r="M121" s="185"/>
-      <c r="N121" s="183" t="s">
+      <c r="L121" s="202"/>
+      <c r="M121" s="203"/>
+      <c r="N121" s="201" t="s">
         <v>72</v>
       </c>
-      <c r="O121" s="184"/>
-      <c r="P121" s="185"/>
-      <c r="Q121" s="183" t="s">
+      <c r="O121" s="202"/>
+      <c r="P121" s="203"/>
+      <c r="Q121" s="201" t="s">
         <v>73</v>
       </c>
-      <c r="R121" s="185"/>
-      <c r="S121" s="183"/>
-      <c r="T121" s="185"/>
+      <c r="R121" s="203"/>
+      <c r="S121" s="201"/>
+      <c r="T121" s="203"/>
       <c r="U121" s="69"/>
       <c r="V121" s="70"/>
       <c r="W121" s="70"/>
       <c r="X121" s="71"/>
-      <c r="Y121" s="181"/>
-      <c r="Z121" s="181"/>
-      <c r="AA121" s="181"/>
-      <c r="AB121" s="181"/>
-      <c r="AC121" s="186" t="s">
+      <c r="Y121" s="210"/>
+      <c r="Z121" s="210"/>
+      <c r="AA121" s="210"/>
+      <c r="AB121" s="210"/>
+      <c r="AC121" s="204" t="s">
         <v>99</v>
       </c>
-      <c r="AD121" s="187"/>
-      <c r="AE121" s="187"/>
-      <c r="AF121" s="187"/>
-      <c r="AG121" s="187"/>
-      <c r="AH121" s="187"/>
-      <c r="AI121" s="187"/>
-      <c r="AJ121" s="187"/>
-      <c r="AK121" s="187"/>
-      <c r="AL121" s="187"/>
-      <c r="AM121" s="187"/>
-      <c r="AN121" s="187"/>
-      <c r="AO121" s="187"/>
-      <c r="AP121" s="188"/>
+      <c r="AD121" s="205"/>
+      <c r="AE121" s="205"/>
+      <c r="AF121" s="205"/>
+      <c r="AG121" s="205"/>
+      <c r="AH121" s="205"/>
+      <c r="AI121" s="205"/>
+      <c r="AJ121" s="205"/>
+      <c r="AK121" s="205"/>
+      <c r="AL121" s="205"/>
+      <c r="AM121" s="205"/>
+      <c r="AN121" s="205"/>
+      <c r="AO121" s="205"/>
+      <c r="AP121" s="206"/>
       <c r="AQ121" s="33"/>
       <c r="AR121" s="15"/>
       <c r="AS121" s="14"/>
@@ -14025,46 +14025,46 @@
       <c r="H122" s="66"/>
       <c r="I122" s="66"/>
       <c r="J122" s="67"/>
-      <c r="K122" s="183" t="s">
+      <c r="K122" s="201" t="s">
         <v>71</v>
       </c>
-      <c r="L122" s="184"/>
-      <c r="M122" s="185"/>
-      <c r="N122" s="183" t="s">
+      <c r="L122" s="202"/>
+      <c r="M122" s="203"/>
+      <c r="N122" s="201" t="s">
         <v>72</v>
       </c>
-      <c r="O122" s="184"/>
-      <c r="P122" s="185"/>
-      <c r="Q122" s="183" t="s">
+      <c r="O122" s="202"/>
+      <c r="P122" s="203"/>
+      <c r="Q122" s="201" t="s">
         <v>73</v>
       </c>
-      <c r="R122" s="185"/>
-      <c r="S122" s="183"/>
-      <c r="T122" s="185"/>
+      <c r="R122" s="203"/>
+      <c r="S122" s="201"/>
+      <c r="T122" s="203"/>
       <c r="U122" s="69"/>
       <c r="V122" s="70"/>
       <c r="W122" s="70"/>
       <c r="X122" s="71"/>
-      <c r="Y122" s="181"/>
-      <c r="Z122" s="181"/>
-      <c r="AA122" s="181"/>
-      <c r="AB122" s="181"/>
-      <c r="AC122" s="186" t="s">
+      <c r="Y122" s="210"/>
+      <c r="Z122" s="210"/>
+      <c r="AA122" s="210"/>
+      <c r="AB122" s="210"/>
+      <c r="AC122" s="204" t="s">
         <v>100</v>
       </c>
-      <c r="AD122" s="187"/>
-      <c r="AE122" s="187"/>
-      <c r="AF122" s="187"/>
-      <c r="AG122" s="187"/>
-      <c r="AH122" s="187"/>
-      <c r="AI122" s="187"/>
-      <c r="AJ122" s="187"/>
-      <c r="AK122" s="187"/>
-      <c r="AL122" s="187"/>
-      <c r="AM122" s="187"/>
-      <c r="AN122" s="187"/>
-      <c r="AO122" s="187"/>
-      <c r="AP122" s="188"/>
+      <c r="AD122" s="205"/>
+      <c r="AE122" s="205"/>
+      <c r="AF122" s="205"/>
+      <c r="AG122" s="205"/>
+      <c r="AH122" s="205"/>
+      <c r="AI122" s="205"/>
+      <c r="AJ122" s="205"/>
+      <c r="AK122" s="205"/>
+      <c r="AL122" s="205"/>
+      <c r="AM122" s="205"/>
+      <c r="AN122" s="205"/>
+      <c r="AO122" s="205"/>
+      <c r="AP122" s="206"/>
       <c r="AQ122" s="33"/>
       <c r="AR122" s="15"/>
       <c r="AS122" s="14"/>
@@ -14087,46 +14087,46 @@
       <c r="H123" s="66"/>
       <c r="I123" s="66"/>
       <c r="J123" s="67"/>
-      <c r="K123" s="183" t="s">
+      <c r="K123" s="201" t="s">
         <v>71</v>
       </c>
-      <c r="L123" s="184"/>
-      <c r="M123" s="185"/>
-      <c r="N123" s="183" t="s">
+      <c r="L123" s="202"/>
+      <c r="M123" s="203"/>
+      <c r="N123" s="201" t="s">
         <v>101</v>
       </c>
-      <c r="O123" s="184"/>
-      <c r="P123" s="185"/>
-      <c r="Q123" s="183" t="s">
+      <c r="O123" s="202"/>
+      <c r="P123" s="203"/>
+      <c r="Q123" s="201" t="s">
         <v>73</v>
       </c>
-      <c r="R123" s="185"/>
-      <c r="S123" s="183"/>
-      <c r="T123" s="185"/>
+      <c r="R123" s="203"/>
+      <c r="S123" s="201"/>
+      <c r="T123" s="203"/>
       <c r="U123" s="69"/>
       <c r="V123" s="70"/>
       <c r="W123" s="70"/>
       <c r="X123" s="71"/>
-      <c r="Y123" s="181"/>
-      <c r="Z123" s="181"/>
-      <c r="AA123" s="181"/>
-      <c r="AB123" s="181"/>
-      <c r="AC123" s="186" t="s">
+      <c r="Y123" s="210"/>
+      <c r="Z123" s="210"/>
+      <c r="AA123" s="210"/>
+      <c r="AB123" s="210"/>
+      <c r="AC123" s="204" t="s">
         <v>102</v>
       </c>
-      <c r="AD123" s="187"/>
-      <c r="AE123" s="187"/>
-      <c r="AF123" s="187"/>
-      <c r="AG123" s="187"/>
-      <c r="AH123" s="187"/>
-      <c r="AI123" s="187"/>
-      <c r="AJ123" s="187"/>
-      <c r="AK123" s="187"/>
-      <c r="AL123" s="187"/>
-      <c r="AM123" s="187"/>
-      <c r="AN123" s="187"/>
-      <c r="AO123" s="187"/>
-      <c r="AP123" s="188"/>
+      <c r="AD123" s="205"/>
+      <c r="AE123" s="205"/>
+      <c r="AF123" s="205"/>
+      <c r="AG123" s="205"/>
+      <c r="AH123" s="205"/>
+      <c r="AI123" s="205"/>
+      <c r="AJ123" s="205"/>
+      <c r="AK123" s="205"/>
+      <c r="AL123" s="205"/>
+      <c r="AM123" s="205"/>
+      <c r="AN123" s="205"/>
+      <c r="AO123" s="205"/>
+      <c r="AP123" s="206"/>
       <c r="AQ123" s="33"/>
       <c r="AR123" s="15"/>
       <c r="AS123" s="14"/>
@@ -14149,20 +14149,20 @@
       <c r="H124" s="66"/>
       <c r="I124" s="66"/>
       <c r="J124" s="67"/>
-      <c r="K124" s="183" t="s">
+      <c r="K124" s="201" t="s">
         <v>103</v>
       </c>
-      <c r="L124" s="184"/>
-      <c r="M124" s="185"/>
-      <c r="N124" s="183"/>
-      <c r="O124" s="184"/>
-      <c r="P124" s="185"/>
-      <c r="Q124" s="183" t="s">
+      <c r="L124" s="202"/>
+      <c r="M124" s="203"/>
+      <c r="N124" s="201"/>
+      <c r="O124" s="202"/>
+      <c r="P124" s="203"/>
+      <c r="Q124" s="201" t="s">
         <v>73</v>
       </c>
-      <c r="R124" s="185"/>
-      <c r="S124" s="183"/>
-      <c r="T124" s="185"/>
+      <c r="R124" s="203"/>
+      <c r="S124" s="201"/>
+      <c r="T124" s="203"/>
       <c r="U124" s="69"/>
       <c r="V124" s="70"/>
       <c r="W124" s="70"/>
@@ -14171,22 +14171,22 @@
       <c r="Z124" s="70"/>
       <c r="AA124" s="70"/>
       <c r="AB124" s="73"/>
-      <c r="AC124" s="186" t="s">
+      <c r="AC124" s="204" t="s">
         <v>104</v>
       </c>
-      <c r="AD124" s="187"/>
-      <c r="AE124" s="187"/>
-      <c r="AF124" s="187"/>
-      <c r="AG124" s="187"/>
-      <c r="AH124" s="187"/>
-      <c r="AI124" s="187"/>
-      <c r="AJ124" s="187"/>
-      <c r="AK124" s="187"/>
-      <c r="AL124" s="187"/>
-      <c r="AM124" s="187"/>
-      <c r="AN124" s="187"/>
-      <c r="AO124" s="187"/>
-      <c r="AP124" s="188"/>
+      <c r="AD124" s="205"/>
+      <c r="AE124" s="205"/>
+      <c r="AF124" s="205"/>
+      <c r="AG124" s="205"/>
+      <c r="AH124" s="205"/>
+      <c r="AI124" s="205"/>
+      <c r="AJ124" s="205"/>
+      <c r="AK124" s="205"/>
+      <c r="AL124" s="205"/>
+      <c r="AM124" s="205"/>
+      <c r="AN124" s="205"/>
+      <c r="AO124" s="205"/>
+      <c r="AP124" s="206"/>
       <c r="AQ124" s="33"/>
       <c r="AR124" s="15"/>
       <c r="AS124" s="14"/>
@@ -14209,20 +14209,20 @@
       <c r="H125" s="66"/>
       <c r="I125" s="66"/>
       <c r="J125" s="67"/>
-      <c r="K125" s="183" t="s">
+      <c r="K125" s="201" t="s">
         <v>103</v>
       </c>
-      <c r="L125" s="184"/>
-      <c r="M125" s="185"/>
-      <c r="N125" s="183"/>
-      <c r="O125" s="184"/>
-      <c r="P125" s="185"/>
-      <c r="Q125" s="183" t="s">
+      <c r="L125" s="202"/>
+      <c r="M125" s="203"/>
+      <c r="N125" s="201"/>
+      <c r="O125" s="202"/>
+      <c r="P125" s="203"/>
+      <c r="Q125" s="201" t="s">
         <v>73</v>
       </c>
-      <c r="R125" s="185"/>
-      <c r="S125" s="183"/>
-      <c r="T125" s="185"/>
+      <c r="R125" s="203"/>
+      <c r="S125" s="201"/>
+      <c r="T125" s="203"/>
       <c r="U125" s="69"/>
       <c r="V125" s="70"/>
       <c r="W125" s="70"/>
@@ -14231,22 +14231,22 @@
       <c r="Z125" s="70"/>
       <c r="AA125" s="70"/>
       <c r="AB125" s="73"/>
-      <c r="AC125" s="186" t="s">
+      <c r="AC125" s="204" t="s">
         <v>105</v>
       </c>
-      <c r="AD125" s="187"/>
-      <c r="AE125" s="187"/>
-      <c r="AF125" s="187"/>
-      <c r="AG125" s="187"/>
-      <c r="AH125" s="187"/>
-      <c r="AI125" s="187"/>
-      <c r="AJ125" s="187"/>
-      <c r="AK125" s="187"/>
-      <c r="AL125" s="187"/>
-      <c r="AM125" s="187"/>
-      <c r="AN125" s="187"/>
-      <c r="AO125" s="187"/>
-      <c r="AP125" s="188"/>
+      <c r="AD125" s="205"/>
+      <c r="AE125" s="205"/>
+      <c r="AF125" s="205"/>
+      <c r="AG125" s="205"/>
+      <c r="AH125" s="205"/>
+      <c r="AI125" s="205"/>
+      <c r="AJ125" s="205"/>
+      <c r="AK125" s="205"/>
+      <c r="AL125" s="205"/>
+      <c r="AM125" s="205"/>
+      <c r="AN125" s="205"/>
+      <c r="AO125" s="205"/>
+      <c r="AP125" s="206"/>
       <c r="AQ125" s="33"/>
       <c r="AR125" s="15"/>
       <c r="AS125" s="14"/>
@@ -14269,20 +14269,20 @@
       <c r="H126" s="66"/>
       <c r="I126" s="66"/>
       <c r="J126" s="67"/>
-      <c r="K126" s="183" t="s">
+      <c r="K126" s="201" t="s">
         <v>103</v>
       </c>
-      <c r="L126" s="184"/>
-      <c r="M126" s="185"/>
-      <c r="N126" s="183"/>
-      <c r="O126" s="184"/>
-      <c r="P126" s="185"/>
-      <c r="Q126" s="183" t="s">
+      <c r="L126" s="202"/>
+      <c r="M126" s="203"/>
+      <c r="N126" s="201"/>
+      <c r="O126" s="202"/>
+      <c r="P126" s="203"/>
+      <c r="Q126" s="201" t="s">
         <v>73</v>
       </c>
-      <c r="R126" s="185"/>
-      <c r="S126" s="183"/>
-      <c r="T126" s="185"/>
+      <c r="R126" s="203"/>
+      <c r="S126" s="201"/>
+      <c r="T126" s="203"/>
       <c r="U126" s="69"/>
       <c r="V126" s="70"/>
       <c r="W126" s="70"/>
@@ -14291,22 +14291,22 @@
       <c r="Z126" s="70"/>
       <c r="AA126" s="70"/>
       <c r="AB126" s="73"/>
-      <c r="AC126" s="186" t="s">
+      <c r="AC126" s="204" t="s">
         <v>106</v>
       </c>
-      <c r="AD126" s="187"/>
-      <c r="AE126" s="187"/>
-      <c r="AF126" s="187"/>
-      <c r="AG126" s="187"/>
-      <c r="AH126" s="187"/>
-      <c r="AI126" s="187"/>
-      <c r="AJ126" s="187"/>
-      <c r="AK126" s="187"/>
-      <c r="AL126" s="187"/>
-      <c r="AM126" s="187"/>
-      <c r="AN126" s="187"/>
-      <c r="AO126" s="187"/>
-      <c r="AP126" s="188"/>
+      <c r="AD126" s="205"/>
+      <c r="AE126" s="205"/>
+      <c r="AF126" s="205"/>
+      <c r="AG126" s="205"/>
+      <c r="AH126" s="205"/>
+      <c r="AI126" s="205"/>
+      <c r="AJ126" s="205"/>
+      <c r="AK126" s="205"/>
+      <c r="AL126" s="205"/>
+      <c r="AM126" s="205"/>
+      <c r="AN126" s="205"/>
+      <c r="AO126" s="205"/>
+      <c r="AP126" s="206"/>
       <c r="AQ126" s="33"/>
       <c r="AR126" s="15"/>
       <c r="AS126" s="14"/>
@@ -14329,20 +14329,20 @@
       <c r="H127" s="66"/>
       <c r="I127" s="66"/>
       <c r="J127" s="67"/>
-      <c r="K127" s="183" t="s">
+      <c r="K127" s="201" t="s">
         <v>103</v>
       </c>
-      <c r="L127" s="184"/>
-      <c r="M127" s="185"/>
-      <c r="N127" s="183"/>
-      <c r="O127" s="184"/>
-      <c r="P127" s="185"/>
-      <c r="Q127" s="183" t="s">
+      <c r="L127" s="202"/>
+      <c r="M127" s="203"/>
+      <c r="N127" s="201"/>
+      <c r="O127" s="202"/>
+      <c r="P127" s="203"/>
+      <c r="Q127" s="201" t="s">
         <v>73</v>
       </c>
-      <c r="R127" s="185"/>
-      <c r="S127" s="183"/>
-      <c r="T127" s="185"/>
+      <c r="R127" s="203"/>
+      <c r="S127" s="201"/>
+      <c r="T127" s="203"/>
       <c r="U127" s="69"/>
       <c r="V127" s="70"/>
       <c r="W127" s="70"/>
@@ -14351,22 +14351,22 @@
       <c r="Z127" s="70"/>
       <c r="AA127" s="70"/>
       <c r="AB127" s="73"/>
-      <c r="AC127" s="186" t="s">
+      <c r="AC127" s="204" t="s">
         <v>107</v>
       </c>
-      <c r="AD127" s="187"/>
-      <c r="AE127" s="187"/>
-      <c r="AF127" s="187"/>
-      <c r="AG127" s="187"/>
-      <c r="AH127" s="187"/>
-      <c r="AI127" s="187"/>
-      <c r="AJ127" s="187"/>
-      <c r="AK127" s="187"/>
-      <c r="AL127" s="187"/>
-      <c r="AM127" s="187"/>
-      <c r="AN127" s="187"/>
-      <c r="AO127" s="187"/>
-      <c r="AP127" s="188"/>
+      <c r="AD127" s="205"/>
+      <c r="AE127" s="205"/>
+      <c r="AF127" s="205"/>
+      <c r="AG127" s="205"/>
+      <c r="AH127" s="205"/>
+      <c r="AI127" s="205"/>
+      <c r="AJ127" s="205"/>
+      <c r="AK127" s="205"/>
+      <c r="AL127" s="205"/>
+      <c r="AM127" s="205"/>
+      <c r="AN127" s="205"/>
+      <c r="AO127" s="205"/>
+      <c r="AP127" s="206"/>
       <c r="AQ127" s="33"/>
       <c r="AR127" s="15"/>
       <c r="AS127" s="14"/>
@@ -14389,46 +14389,46 @@
       <c r="H128" s="66"/>
       <c r="I128" s="66"/>
       <c r="J128" s="67"/>
-      <c r="K128" s="183" t="s">
+      <c r="K128" s="201" t="s">
         <v>71</v>
       </c>
-      <c r="L128" s="184"/>
-      <c r="M128" s="185"/>
-      <c r="N128" s="183" t="s">
+      <c r="L128" s="202"/>
+      <c r="M128" s="203"/>
+      <c r="N128" s="201" t="s">
         <v>72</v>
       </c>
-      <c r="O128" s="184"/>
-      <c r="P128" s="185"/>
-      <c r="Q128" s="183" t="s">
+      <c r="O128" s="202"/>
+      <c r="P128" s="203"/>
+      <c r="Q128" s="201" t="s">
         <v>73</v>
       </c>
-      <c r="R128" s="185"/>
-      <c r="S128" s="183"/>
-      <c r="T128" s="185"/>
+      <c r="R128" s="203"/>
+      <c r="S128" s="201"/>
+      <c r="T128" s="203"/>
       <c r="U128" s="69"/>
       <c r="V128" s="70"/>
       <c r="W128" s="70"/>
       <c r="X128" s="71"/>
-      <c r="Y128" s="182"/>
-      <c r="Z128" s="182"/>
-      <c r="AA128" s="182"/>
-      <c r="AB128" s="182"/>
-      <c r="AC128" s="186" t="s">
+      <c r="Y128" s="180"/>
+      <c r="Z128" s="180"/>
+      <c r="AA128" s="180"/>
+      <c r="AB128" s="180"/>
+      <c r="AC128" s="204" t="s">
         <v>108</v>
       </c>
-      <c r="AD128" s="187"/>
-      <c r="AE128" s="187"/>
-      <c r="AF128" s="187"/>
-      <c r="AG128" s="187"/>
-      <c r="AH128" s="187"/>
-      <c r="AI128" s="187"/>
-      <c r="AJ128" s="187"/>
-      <c r="AK128" s="187"/>
-      <c r="AL128" s="187"/>
-      <c r="AM128" s="187"/>
-      <c r="AN128" s="187"/>
-      <c r="AO128" s="187"/>
-      <c r="AP128" s="188"/>
+      <c r="AD128" s="205"/>
+      <c r="AE128" s="205"/>
+      <c r="AF128" s="205"/>
+      <c r="AG128" s="205"/>
+      <c r="AH128" s="205"/>
+      <c r="AI128" s="205"/>
+      <c r="AJ128" s="205"/>
+      <c r="AK128" s="205"/>
+      <c r="AL128" s="205"/>
+      <c r="AM128" s="205"/>
+      <c r="AN128" s="205"/>
+      <c r="AO128" s="205"/>
+      <c r="AP128" s="206"/>
       <c r="AQ128" s="33"/>
       <c r="AR128" s="15"/>
       <c r="AS128" s="14"/>
@@ -14451,46 +14451,46 @@
       <c r="H129" s="66"/>
       <c r="I129" s="66"/>
       <c r="J129" s="67"/>
-      <c r="K129" s="183" t="s">
+      <c r="K129" s="201" t="s">
         <v>71</v>
       </c>
-      <c r="L129" s="184"/>
-      <c r="M129" s="185"/>
-      <c r="N129" s="183" t="s">
+      <c r="L129" s="202"/>
+      <c r="M129" s="203"/>
+      <c r="N129" s="201" t="s">
         <v>72</v>
       </c>
-      <c r="O129" s="184"/>
-      <c r="P129" s="185"/>
-      <c r="Q129" s="183" t="s">
+      <c r="O129" s="202"/>
+      <c r="P129" s="203"/>
+      <c r="Q129" s="201" t="s">
         <v>73</v>
       </c>
-      <c r="R129" s="185"/>
-      <c r="S129" s="183"/>
-      <c r="T129" s="185"/>
+      <c r="R129" s="203"/>
+      <c r="S129" s="201"/>
+      <c r="T129" s="203"/>
       <c r="U129" s="69"/>
       <c r="V129" s="70"/>
       <c r="W129" s="70"/>
       <c r="X129" s="71"/>
-      <c r="Y129" s="182"/>
-      <c r="Z129" s="182"/>
-      <c r="AA129" s="182"/>
-      <c r="AB129" s="182"/>
-      <c r="AC129" s="186" t="s">
+      <c r="Y129" s="180"/>
+      <c r="Z129" s="180"/>
+      <c r="AA129" s="180"/>
+      <c r="AB129" s="180"/>
+      <c r="AC129" s="204" t="s">
         <v>109</v>
       </c>
-      <c r="AD129" s="187"/>
-      <c r="AE129" s="187"/>
-      <c r="AF129" s="187"/>
-      <c r="AG129" s="187"/>
-      <c r="AH129" s="187"/>
-      <c r="AI129" s="187"/>
-      <c r="AJ129" s="187"/>
-      <c r="AK129" s="187"/>
-      <c r="AL129" s="187"/>
-      <c r="AM129" s="187"/>
-      <c r="AN129" s="187"/>
-      <c r="AO129" s="187"/>
-      <c r="AP129" s="188"/>
+      <c r="AD129" s="205"/>
+      <c r="AE129" s="205"/>
+      <c r="AF129" s="205"/>
+      <c r="AG129" s="205"/>
+      <c r="AH129" s="205"/>
+      <c r="AI129" s="205"/>
+      <c r="AJ129" s="205"/>
+      <c r="AK129" s="205"/>
+      <c r="AL129" s="205"/>
+      <c r="AM129" s="205"/>
+      <c r="AN129" s="205"/>
+      <c r="AO129" s="205"/>
+      <c r="AP129" s="206"/>
       <c r="AQ129" s="33"/>
       <c r="AR129" s="15"/>
       <c r="AS129" s="14"/>
@@ -14513,46 +14513,46 @@
       <c r="H130" s="66"/>
       <c r="I130" s="66"/>
       <c r="J130" s="67"/>
-      <c r="K130" s="183" t="s">
+      <c r="K130" s="201" t="s">
         <v>71</v>
       </c>
-      <c r="L130" s="184"/>
-      <c r="M130" s="185"/>
-      <c r="N130" s="183" t="s">
+      <c r="L130" s="202"/>
+      <c r="M130" s="203"/>
+      <c r="N130" s="201" t="s">
         <v>72</v>
       </c>
-      <c r="O130" s="184"/>
-      <c r="P130" s="185"/>
-      <c r="Q130" s="183" t="s">
+      <c r="O130" s="202"/>
+      <c r="P130" s="203"/>
+      <c r="Q130" s="201" t="s">
         <v>73</v>
       </c>
-      <c r="R130" s="185"/>
-      <c r="S130" s="183"/>
-      <c r="T130" s="185"/>
+      <c r="R130" s="203"/>
+      <c r="S130" s="201"/>
+      <c r="T130" s="203"/>
       <c r="U130" s="69"/>
       <c r="V130" s="70"/>
       <c r="W130" s="70"/>
       <c r="X130" s="71"/>
-      <c r="Y130" s="182"/>
-      <c r="Z130" s="182"/>
-      <c r="AA130" s="182"/>
-      <c r="AB130" s="182"/>
-      <c r="AC130" s="186" t="s">
+      <c r="Y130" s="180"/>
+      <c r="Z130" s="180"/>
+      <c r="AA130" s="180"/>
+      <c r="AB130" s="180"/>
+      <c r="AC130" s="204" t="s">
         <v>110</v>
       </c>
-      <c r="AD130" s="187"/>
-      <c r="AE130" s="187"/>
-      <c r="AF130" s="187"/>
-      <c r="AG130" s="187"/>
-      <c r="AH130" s="187"/>
-      <c r="AI130" s="187"/>
-      <c r="AJ130" s="187"/>
-      <c r="AK130" s="187"/>
-      <c r="AL130" s="187"/>
-      <c r="AM130" s="187"/>
-      <c r="AN130" s="187"/>
-      <c r="AO130" s="187"/>
-      <c r="AP130" s="188"/>
+      <c r="AD130" s="205"/>
+      <c r="AE130" s="205"/>
+      <c r="AF130" s="205"/>
+      <c r="AG130" s="205"/>
+      <c r="AH130" s="205"/>
+      <c r="AI130" s="205"/>
+      <c r="AJ130" s="205"/>
+      <c r="AK130" s="205"/>
+      <c r="AL130" s="205"/>
+      <c r="AM130" s="205"/>
+      <c r="AN130" s="205"/>
+      <c r="AO130" s="205"/>
+      <c r="AP130" s="206"/>
       <c r="AQ130" s="33"/>
       <c r="AR130" s="15"/>
       <c r="AS130" s="14"/>
@@ -14575,46 +14575,46 @@
       <c r="H131" s="66"/>
       <c r="I131" s="66"/>
       <c r="J131" s="67"/>
-      <c r="K131" s="183" t="s">
+      <c r="K131" s="201" t="s">
         <v>71</v>
       </c>
-      <c r="L131" s="184"/>
-      <c r="M131" s="185"/>
-      <c r="N131" s="183" t="s">
+      <c r="L131" s="202"/>
+      <c r="M131" s="203"/>
+      <c r="N131" s="201" t="s">
         <v>72</v>
       </c>
-      <c r="O131" s="184"/>
-      <c r="P131" s="185"/>
-      <c r="Q131" s="183" t="s">
+      <c r="O131" s="202"/>
+      <c r="P131" s="203"/>
+      <c r="Q131" s="201" t="s">
         <v>73</v>
       </c>
-      <c r="R131" s="185"/>
-      <c r="S131" s="183"/>
-      <c r="T131" s="185"/>
+      <c r="R131" s="203"/>
+      <c r="S131" s="201"/>
+      <c r="T131" s="203"/>
       <c r="U131" s="69"/>
       <c r="V131" s="70"/>
       <c r="W131" s="70"/>
       <c r="X131" s="71"/>
-      <c r="Y131" s="182"/>
-      <c r="Z131" s="182"/>
-      <c r="AA131" s="182"/>
-      <c r="AB131" s="182"/>
-      <c r="AC131" s="186" t="s">
+      <c r="Y131" s="180"/>
+      <c r="Z131" s="180"/>
+      <c r="AA131" s="180"/>
+      <c r="AB131" s="180"/>
+      <c r="AC131" s="204" t="s">
         <v>111</v>
       </c>
-      <c r="AD131" s="187"/>
-      <c r="AE131" s="187"/>
-      <c r="AF131" s="187"/>
-      <c r="AG131" s="187"/>
-      <c r="AH131" s="187"/>
-      <c r="AI131" s="187"/>
-      <c r="AJ131" s="187"/>
-      <c r="AK131" s="187"/>
-      <c r="AL131" s="187"/>
-      <c r="AM131" s="187"/>
-      <c r="AN131" s="187"/>
-      <c r="AO131" s="187"/>
-      <c r="AP131" s="188"/>
+      <c r="AD131" s="205"/>
+      <c r="AE131" s="205"/>
+      <c r="AF131" s="205"/>
+      <c r="AG131" s="205"/>
+      <c r="AH131" s="205"/>
+      <c r="AI131" s="205"/>
+      <c r="AJ131" s="205"/>
+      <c r="AK131" s="205"/>
+      <c r="AL131" s="205"/>
+      <c r="AM131" s="205"/>
+      <c r="AN131" s="205"/>
+      <c r="AO131" s="205"/>
+      <c r="AP131" s="206"/>
       <c r="AQ131" s="33"/>
       <c r="AR131" s="15"/>
       <c r="AS131" s="14"/>
@@ -14637,46 +14637,46 @@
       <c r="H132" s="66"/>
       <c r="I132" s="66"/>
       <c r="J132" s="67"/>
-      <c r="K132" s="183" t="s">
+      <c r="K132" s="201" t="s">
         <v>71</v>
       </c>
-      <c r="L132" s="184"/>
-      <c r="M132" s="185"/>
-      <c r="N132" s="183" t="s">
+      <c r="L132" s="202"/>
+      <c r="M132" s="203"/>
+      <c r="N132" s="201" t="s">
         <v>72</v>
       </c>
-      <c r="O132" s="184"/>
-      <c r="P132" s="185"/>
-      <c r="Q132" s="183" t="s">
+      <c r="O132" s="202"/>
+      <c r="P132" s="203"/>
+      <c r="Q132" s="201" t="s">
         <v>73</v>
       </c>
-      <c r="R132" s="185"/>
-      <c r="S132" s="183"/>
-      <c r="T132" s="185"/>
+      <c r="R132" s="203"/>
+      <c r="S132" s="201"/>
+      <c r="T132" s="203"/>
       <c r="U132" s="69"/>
       <c r="V132" s="70"/>
       <c r="W132" s="70"/>
       <c r="X132" s="71"/>
-      <c r="Y132" s="182"/>
-      <c r="Z132" s="182"/>
-      <c r="AA132" s="182"/>
-      <c r="AB132" s="182"/>
-      <c r="AC132" s="186" t="s">
+      <c r="Y132" s="180"/>
+      <c r="Z132" s="180"/>
+      <c r="AA132" s="180"/>
+      <c r="AB132" s="180"/>
+      <c r="AC132" s="204" t="s">
         <v>112</v>
       </c>
-      <c r="AD132" s="187"/>
-      <c r="AE132" s="187"/>
-      <c r="AF132" s="187"/>
-      <c r="AG132" s="187"/>
-      <c r="AH132" s="187"/>
-      <c r="AI132" s="187"/>
-      <c r="AJ132" s="187"/>
-      <c r="AK132" s="187"/>
-      <c r="AL132" s="187"/>
-      <c r="AM132" s="187"/>
-      <c r="AN132" s="187"/>
-      <c r="AO132" s="187"/>
-      <c r="AP132" s="188"/>
+      <c r="AD132" s="205"/>
+      <c r="AE132" s="205"/>
+      <c r="AF132" s="205"/>
+      <c r="AG132" s="205"/>
+      <c r="AH132" s="205"/>
+      <c r="AI132" s="205"/>
+      <c r="AJ132" s="205"/>
+      <c r="AK132" s="205"/>
+      <c r="AL132" s="205"/>
+      <c r="AM132" s="205"/>
+      <c r="AN132" s="205"/>
+      <c r="AO132" s="205"/>
+      <c r="AP132" s="206"/>
       <c r="AQ132" s="33"/>
       <c r="AR132" s="15"/>
       <c r="AS132" s="14"/>
@@ -14699,46 +14699,46 @@
       <c r="H133" s="66"/>
       <c r="I133" s="66"/>
       <c r="J133" s="67"/>
-      <c r="K133" s="183" t="s">
+      <c r="K133" s="201" t="s">
         <v>71</v>
       </c>
-      <c r="L133" s="184"/>
-      <c r="M133" s="185"/>
-      <c r="N133" s="183" t="s">
+      <c r="L133" s="202"/>
+      <c r="M133" s="203"/>
+      <c r="N133" s="201" t="s">
         <v>72</v>
       </c>
-      <c r="O133" s="184"/>
-      <c r="P133" s="185"/>
-      <c r="Q133" s="183" t="s">
+      <c r="O133" s="202"/>
+      <c r="P133" s="203"/>
+      <c r="Q133" s="201" t="s">
         <v>73</v>
       </c>
-      <c r="R133" s="185"/>
-      <c r="S133" s="183"/>
-      <c r="T133" s="185"/>
+      <c r="R133" s="203"/>
+      <c r="S133" s="201"/>
+      <c r="T133" s="203"/>
       <c r="U133" s="69"/>
       <c r="V133" s="70"/>
       <c r="W133" s="70"/>
       <c r="X133" s="71"/>
-      <c r="Y133" s="182"/>
-      <c r="Z133" s="182"/>
-      <c r="AA133" s="182"/>
-      <c r="AB133" s="182"/>
-      <c r="AC133" s="186" t="s">
+      <c r="Y133" s="180"/>
+      <c r="Z133" s="180"/>
+      <c r="AA133" s="180"/>
+      <c r="AB133" s="180"/>
+      <c r="AC133" s="204" t="s">
         <v>113</v>
       </c>
-      <c r="AD133" s="187"/>
-      <c r="AE133" s="187"/>
-      <c r="AF133" s="187"/>
-      <c r="AG133" s="187"/>
-      <c r="AH133" s="187"/>
-      <c r="AI133" s="187"/>
-      <c r="AJ133" s="187"/>
-      <c r="AK133" s="187"/>
-      <c r="AL133" s="187"/>
-      <c r="AM133" s="187"/>
-      <c r="AN133" s="187"/>
-      <c r="AO133" s="187"/>
-      <c r="AP133" s="188"/>
+      <c r="AD133" s="205"/>
+      <c r="AE133" s="205"/>
+      <c r="AF133" s="205"/>
+      <c r="AG133" s="205"/>
+      <c r="AH133" s="205"/>
+      <c r="AI133" s="205"/>
+      <c r="AJ133" s="205"/>
+      <c r="AK133" s="205"/>
+      <c r="AL133" s="205"/>
+      <c r="AM133" s="205"/>
+      <c r="AN133" s="205"/>
+      <c r="AO133" s="205"/>
+      <c r="AP133" s="206"/>
       <c r="AQ133" s="33"/>
       <c r="AR133" s="15"/>
       <c r="AS133" s="14"/>
@@ -14761,20 +14761,20 @@
       <c r="H134" s="66"/>
       <c r="I134" s="66"/>
       <c r="J134" s="67"/>
-      <c r="K134" s="183" t="s">
+      <c r="K134" s="201" t="s">
         <v>66</v>
       </c>
-      <c r="L134" s="184"/>
-      <c r="M134" s="185"/>
-      <c r="N134" s="183"/>
-      <c r="O134" s="184"/>
-      <c r="P134" s="185"/>
-      <c r="Q134" s="183" t="s">
+      <c r="L134" s="202"/>
+      <c r="M134" s="203"/>
+      <c r="N134" s="201"/>
+      <c r="O134" s="202"/>
+      <c r="P134" s="203"/>
+      <c r="Q134" s="201" t="s">
         <v>75</v>
       </c>
-      <c r="R134" s="185"/>
-      <c r="S134" s="183"/>
-      <c r="T134" s="185"/>
+      <c r="R134" s="203"/>
+      <c r="S134" s="201"/>
+      <c r="T134" s="203"/>
       <c r="U134" s="69"/>
       <c r="V134" s="70"/>
       <c r="W134" s="70"/>
@@ -14783,22 +14783,22 @@
       <c r="Z134" s="70"/>
       <c r="AA134" s="70"/>
       <c r="AB134" s="73"/>
-      <c r="AC134" s="186" t="s">
+      <c r="AC134" s="204" t="s">
         <v>115</v>
       </c>
-      <c r="AD134" s="187"/>
-      <c r="AE134" s="187"/>
-      <c r="AF134" s="187"/>
-      <c r="AG134" s="187"/>
-      <c r="AH134" s="187"/>
-      <c r="AI134" s="187"/>
-      <c r="AJ134" s="187"/>
-      <c r="AK134" s="187"/>
-      <c r="AL134" s="187"/>
-      <c r="AM134" s="187"/>
-      <c r="AN134" s="187"/>
-      <c r="AO134" s="187"/>
-      <c r="AP134" s="188"/>
+      <c r="AD134" s="205"/>
+      <c r="AE134" s="205"/>
+      <c r="AF134" s="205"/>
+      <c r="AG134" s="205"/>
+      <c r="AH134" s="205"/>
+      <c r="AI134" s="205"/>
+      <c r="AJ134" s="205"/>
+      <c r="AK134" s="205"/>
+      <c r="AL134" s="205"/>
+      <c r="AM134" s="205"/>
+      <c r="AN134" s="205"/>
+      <c r="AO134" s="205"/>
+      <c r="AP134" s="206"/>
       <c r="AQ134" s="33"/>
       <c r="AR134" s="15"/>
       <c r="AS134" s="14"/>
@@ -14821,20 +14821,20 @@
       <c r="H135" s="66"/>
       <c r="I135" s="66"/>
       <c r="J135" s="67"/>
-      <c r="K135" s="183" t="s">
+      <c r="K135" s="201" t="s">
         <v>66</v>
       </c>
-      <c r="L135" s="184"/>
-      <c r="M135" s="185"/>
-      <c r="N135" s="183"/>
-      <c r="O135" s="184"/>
-      <c r="P135" s="185"/>
-      <c r="Q135" s="183" t="s">
+      <c r="L135" s="202"/>
+      <c r="M135" s="203"/>
+      <c r="N135" s="201"/>
+      <c r="O135" s="202"/>
+      <c r="P135" s="203"/>
+      <c r="Q135" s="201" t="s">
         <v>75</v>
       </c>
-      <c r="R135" s="185"/>
-      <c r="S135" s="183"/>
-      <c r="T135" s="185"/>
+      <c r="R135" s="203"/>
+      <c r="S135" s="201"/>
+      <c r="T135" s="203"/>
       <c r="U135" s="69"/>
       <c r="V135" s="70"/>
       <c r="W135" s="70"/>
@@ -14843,22 +14843,22 @@
       <c r="Z135" s="70"/>
       <c r="AA135" s="70"/>
       <c r="AB135" s="73"/>
-      <c r="AC135" s="186" t="s">
+      <c r="AC135" s="204" t="s">
         <v>117</v>
       </c>
-      <c r="AD135" s="187"/>
-      <c r="AE135" s="187"/>
-      <c r="AF135" s="187"/>
-      <c r="AG135" s="187"/>
-      <c r="AH135" s="187"/>
-      <c r="AI135" s="187"/>
-      <c r="AJ135" s="187"/>
-      <c r="AK135" s="187"/>
-      <c r="AL135" s="187"/>
-      <c r="AM135" s="187"/>
-      <c r="AN135" s="187"/>
-      <c r="AO135" s="187"/>
-      <c r="AP135" s="188"/>
+      <c r="AD135" s="205"/>
+      <c r="AE135" s="205"/>
+      <c r="AF135" s="205"/>
+      <c r="AG135" s="205"/>
+      <c r="AH135" s="205"/>
+      <c r="AI135" s="205"/>
+      <c r="AJ135" s="205"/>
+      <c r="AK135" s="205"/>
+      <c r="AL135" s="205"/>
+      <c r="AM135" s="205"/>
+      <c r="AN135" s="205"/>
+      <c r="AO135" s="205"/>
+      <c r="AP135" s="206"/>
       <c r="AQ135" s="33"/>
       <c r="AR135" s="15"/>
       <c r="AS135" s="14"/>
@@ -14870,47 +14870,47 @@
       <c r="A136" s="31"/>
       <c r="B136" s="33"/>
       <c r="C136" s="78"/>
-      <c r="D136" s="182" t="s">
+      <c r="D136" s="180" t="s">
         <v>118</v>
       </c>
-      <c r="E136" s="182"/>
-      <c r="F136" s="182"/>
-      <c r="G136" s="182"/>
-      <c r="H136" s="182"/>
-      <c r="I136" s="182"/>
-      <c r="J136" s="182"/>
-      <c r="K136" s="182"/>
-      <c r="L136" s="182"/>
-      <c r="M136" s="182"/>
-      <c r="N136" s="182"/>
-      <c r="O136" s="182"/>
-      <c r="P136" s="182"/>
-      <c r="Q136" s="182"/>
-      <c r="R136" s="182"/>
-      <c r="S136" s="182"/>
-      <c r="T136" s="182"/>
-      <c r="U136" s="182"/>
-      <c r="V136" s="182"/>
-      <c r="W136" s="182"/>
-      <c r="X136" s="182"/>
-      <c r="Y136" s="182"/>
-      <c r="Z136" s="182"/>
-      <c r="AA136" s="182"/>
-      <c r="AB136" s="182"/>
-      <c r="AC136" s="182"/>
-      <c r="AD136" s="182"/>
-      <c r="AE136" s="182"/>
-      <c r="AF136" s="182"/>
-      <c r="AG136" s="182"/>
-      <c r="AH136" s="182"/>
-      <c r="AI136" s="182"/>
-      <c r="AJ136" s="182"/>
-      <c r="AK136" s="182"/>
-      <c r="AL136" s="182"/>
-      <c r="AM136" s="182"/>
-      <c r="AN136" s="182"/>
-      <c r="AO136" s="182"/>
-      <c r="AP136" s="182"/>
+      <c r="E136" s="180"/>
+      <c r="F136" s="180"/>
+      <c r="G136" s="180"/>
+      <c r="H136" s="180"/>
+      <c r="I136" s="180"/>
+      <c r="J136" s="180"/>
+      <c r="K136" s="180"/>
+      <c r="L136" s="180"/>
+      <c r="M136" s="180"/>
+      <c r="N136" s="180"/>
+      <c r="O136" s="180"/>
+      <c r="P136" s="180"/>
+      <c r="Q136" s="180"/>
+      <c r="R136" s="180"/>
+      <c r="S136" s="180"/>
+      <c r="T136" s="180"/>
+      <c r="U136" s="180"/>
+      <c r="V136" s="180"/>
+      <c r="W136" s="180"/>
+      <c r="X136" s="180"/>
+      <c r="Y136" s="180"/>
+      <c r="Z136" s="180"/>
+      <c r="AA136" s="180"/>
+      <c r="AB136" s="180"/>
+      <c r="AC136" s="180"/>
+      <c r="AD136" s="180"/>
+      <c r="AE136" s="180"/>
+      <c r="AF136" s="180"/>
+      <c r="AG136" s="180"/>
+      <c r="AH136" s="180"/>
+      <c r="AI136" s="180"/>
+      <c r="AJ136" s="180"/>
+      <c r="AK136" s="180"/>
+      <c r="AL136" s="180"/>
+      <c r="AM136" s="180"/>
+      <c r="AN136" s="180"/>
+      <c r="AO136" s="180"/>
+      <c r="AP136" s="180"/>
       <c r="AQ136" s="33"/>
       <c r="AR136" s="15"/>
       <c r="AS136" s="14"/>
@@ -14933,20 +14933,20 @@
       <c r="H137" s="66"/>
       <c r="I137" s="66"/>
       <c r="J137" s="67"/>
-      <c r="K137" s="183" t="s">
+      <c r="K137" s="201" t="s">
         <v>66</v>
       </c>
-      <c r="L137" s="184"/>
-      <c r="M137" s="185"/>
-      <c r="N137" s="183"/>
-      <c r="O137" s="184"/>
-      <c r="P137" s="185"/>
-      <c r="Q137" s="183" t="s">
+      <c r="L137" s="202"/>
+      <c r="M137" s="203"/>
+      <c r="N137" s="201"/>
+      <c r="O137" s="202"/>
+      <c r="P137" s="203"/>
+      <c r="Q137" s="201" t="s">
         <v>75</v>
       </c>
-      <c r="R137" s="185"/>
-      <c r="S137" s="183"/>
-      <c r="T137" s="185"/>
+      <c r="R137" s="203"/>
+      <c r="S137" s="201"/>
+      <c r="T137" s="203"/>
       <c r="U137" s="69"/>
       <c r="V137" s="70"/>
       <c r="W137" s="70"/>
@@ -14955,22 +14955,22 @@
       <c r="Z137" s="70"/>
       <c r="AA137" s="70"/>
       <c r="AB137" s="73"/>
-      <c r="AC137" s="186" t="s">
+      <c r="AC137" s="204" t="s">
         <v>120</v>
       </c>
-      <c r="AD137" s="187"/>
-      <c r="AE137" s="187"/>
-      <c r="AF137" s="187"/>
-      <c r="AG137" s="187"/>
-      <c r="AH137" s="187"/>
-      <c r="AI137" s="187"/>
-      <c r="AJ137" s="187"/>
-      <c r="AK137" s="187"/>
-      <c r="AL137" s="187"/>
-      <c r="AM137" s="187"/>
-      <c r="AN137" s="187"/>
-      <c r="AO137" s="187"/>
-      <c r="AP137" s="188"/>
+      <c r="AD137" s="205"/>
+      <c r="AE137" s="205"/>
+      <c r="AF137" s="205"/>
+      <c r="AG137" s="205"/>
+      <c r="AH137" s="205"/>
+      <c r="AI137" s="205"/>
+      <c r="AJ137" s="205"/>
+      <c r="AK137" s="205"/>
+      <c r="AL137" s="205"/>
+      <c r="AM137" s="205"/>
+      <c r="AN137" s="205"/>
+      <c r="AO137" s="205"/>
+      <c r="AP137" s="206"/>
       <c r="AQ137" s="33"/>
       <c r="AR137" s="15"/>
       <c r="AS137" s="14"/>
@@ -14993,20 +14993,20 @@
       <c r="H138" s="66"/>
       <c r="I138" s="66"/>
       <c r="J138" s="67"/>
-      <c r="K138" s="183" t="s">
+      <c r="K138" s="201" t="s">
         <v>66</v>
       </c>
-      <c r="L138" s="184"/>
-      <c r="M138" s="185"/>
-      <c r="N138" s="183"/>
-      <c r="O138" s="184"/>
-      <c r="P138" s="185"/>
-      <c r="Q138" s="183" t="s">
+      <c r="L138" s="202"/>
+      <c r="M138" s="203"/>
+      <c r="N138" s="201"/>
+      <c r="O138" s="202"/>
+      <c r="P138" s="203"/>
+      <c r="Q138" s="201" t="s">
         <v>75</v>
       </c>
-      <c r="R138" s="185"/>
-      <c r="S138" s="183"/>
-      <c r="T138" s="185"/>
+      <c r="R138" s="203"/>
+      <c r="S138" s="201"/>
+      <c r="T138" s="203"/>
       <c r="U138" s="69"/>
       <c r="V138" s="70"/>
       <c r="W138" s="70"/>
@@ -15015,22 +15015,22 @@
       <c r="Z138" s="70"/>
       <c r="AA138" s="70"/>
       <c r="AB138" s="73"/>
-      <c r="AC138" s="186" t="s">
+      <c r="AC138" s="204" t="s">
         <v>122</v>
       </c>
-      <c r="AD138" s="187"/>
-      <c r="AE138" s="187"/>
-      <c r="AF138" s="187"/>
-      <c r="AG138" s="187"/>
-      <c r="AH138" s="187"/>
-      <c r="AI138" s="187"/>
-      <c r="AJ138" s="187"/>
-      <c r="AK138" s="187"/>
-      <c r="AL138" s="187"/>
-      <c r="AM138" s="187"/>
-      <c r="AN138" s="187"/>
-      <c r="AO138" s="187"/>
-      <c r="AP138" s="188"/>
+      <c r="AD138" s="205"/>
+      <c r="AE138" s="205"/>
+      <c r="AF138" s="205"/>
+      <c r="AG138" s="205"/>
+      <c r="AH138" s="205"/>
+      <c r="AI138" s="205"/>
+      <c r="AJ138" s="205"/>
+      <c r="AK138" s="205"/>
+      <c r="AL138" s="205"/>
+      <c r="AM138" s="205"/>
+      <c r="AN138" s="205"/>
+      <c r="AO138" s="205"/>
+      <c r="AP138" s="206"/>
       <c r="AQ138" s="33"/>
       <c r="AR138" s="15"/>
       <c r="AS138" s="14"/>
@@ -15053,20 +15053,20 @@
       <c r="H139" s="66"/>
       <c r="I139" s="66"/>
       <c r="J139" s="67"/>
-      <c r="K139" s="183" t="s">
+      <c r="K139" s="201" t="s">
         <v>66</v>
       </c>
-      <c r="L139" s="184"/>
-      <c r="M139" s="185"/>
-      <c r="N139" s="183"/>
-      <c r="O139" s="184"/>
-      <c r="P139" s="185"/>
-      <c r="Q139" s="183" t="s">
+      <c r="L139" s="202"/>
+      <c r="M139" s="203"/>
+      <c r="N139" s="201"/>
+      <c r="O139" s="202"/>
+      <c r="P139" s="203"/>
+      <c r="Q139" s="201" t="s">
         <v>75</v>
       </c>
-      <c r="R139" s="185"/>
-      <c r="S139" s="183"/>
-      <c r="T139" s="185"/>
+      <c r="R139" s="203"/>
+      <c r="S139" s="201"/>
+      <c r="T139" s="203"/>
       <c r="U139" s="69"/>
       <c r="V139" s="70"/>
       <c r="W139" s="70"/>
@@ -15075,22 +15075,22 @@
       <c r="Z139" s="70"/>
       <c r="AA139" s="70"/>
       <c r="AB139" s="73"/>
-      <c r="AC139" s="186" t="s">
+      <c r="AC139" s="204" t="s">
         <v>124</v>
       </c>
-      <c r="AD139" s="187"/>
-      <c r="AE139" s="187"/>
-      <c r="AF139" s="187"/>
-      <c r="AG139" s="187"/>
-      <c r="AH139" s="187"/>
-      <c r="AI139" s="187"/>
-      <c r="AJ139" s="187"/>
-      <c r="AK139" s="187"/>
-      <c r="AL139" s="187"/>
-      <c r="AM139" s="187"/>
-      <c r="AN139" s="187"/>
-      <c r="AO139" s="187"/>
-      <c r="AP139" s="188"/>
+      <c r="AD139" s="205"/>
+      <c r="AE139" s="205"/>
+      <c r="AF139" s="205"/>
+      <c r="AG139" s="205"/>
+      <c r="AH139" s="205"/>
+      <c r="AI139" s="205"/>
+      <c r="AJ139" s="205"/>
+      <c r="AK139" s="205"/>
+      <c r="AL139" s="205"/>
+      <c r="AM139" s="205"/>
+      <c r="AN139" s="205"/>
+      <c r="AO139" s="205"/>
+      <c r="AP139" s="206"/>
       <c r="AQ139" s="33"/>
       <c r="AR139" s="15"/>
       <c r="AS139" s="14"/>
@@ -15113,20 +15113,20 @@
       <c r="H140" s="66"/>
       <c r="I140" s="66"/>
       <c r="J140" s="67"/>
-      <c r="K140" s="183" t="s">
+      <c r="K140" s="201" t="s">
         <v>66</v>
       </c>
-      <c r="L140" s="184"/>
-      <c r="M140" s="185"/>
-      <c r="N140" s="183"/>
-      <c r="O140" s="184"/>
-      <c r="P140" s="185"/>
-      <c r="Q140" s="183" t="s">
+      <c r="L140" s="202"/>
+      <c r="M140" s="203"/>
+      <c r="N140" s="201"/>
+      <c r="O140" s="202"/>
+      <c r="P140" s="203"/>
+      <c r="Q140" s="201" t="s">
         <v>75</v>
       </c>
-      <c r="R140" s="185"/>
-      <c r="S140" s="183"/>
-      <c r="T140" s="185"/>
+      <c r="R140" s="203"/>
+      <c r="S140" s="201"/>
+      <c r="T140" s="203"/>
       <c r="U140" s="69"/>
       <c r="V140" s="70"/>
       <c r="W140" s="70"/>
@@ -15135,22 +15135,22 @@
       <c r="Z140" s="70"/>
       <c r="AA140" s="70"/>
       <c r="AB140" s="73"/>
-      <c r="AC140" s="186" t="s">
+      <c r="AC140" s="204" t="s">
         <v>126</v>
       </c>
-      <c r="AD140" s="187"/>
-      <c r="AE140" s="187"/>
-      <c r="AF140" s="187"/>
-      <c r="AG140" s="187"/>
-      <c r="AH140" s="187"/>
-      <c r="AI140" s="187"/>
-      <c r="AJ140" s="187"/>
-      <c r="AK140" s="187"/>
-      <c r="AL140" s="187"/>
-      <c r="AM140" s="187"/>
-      <c r="AN140" s="187"/>
-      <c r="AO140" s="187"/>
-      <c r="AP140" s="188"/>
+      <c r="AD140" s="205"/>
+      <c r="AE140" s="205"/>
+      <c r="AF140" s="205"/>
+      <c r="AG140" s="205"/>
+      <c r="AH140" s="205"/>
+      <c r="AI140" s="205"/>
+      <c r="AJ140" s="205"/>
+      <c r="AK140" s="205"/>
+      <c r="AL140" s="205"/>
+      <c r="AM140" s="205"/>
+      <c r="AN140" s="205"/>
+      <c r="AO140" s="205"/>
+      <c r="AP140" s="206"/>
       <c r="AQ140" s="33"/>
       <c r="AR140" s="15"/>
       <c r="AS140" s="14"/>
@@ -17180,46 +17180,46 @@
       <c r="A180" s="31"/>
       <c r="B180" s="33"/>
       <c r="C180" s="61"/>
-      <c r="D180" s="189" t="s">
+      <c r="D180" s="207" t="s">
         <v>66</v>
       </c>
-      <c r="E180" s="190"/>
-      <c r="F180" s="190"/>
-      <c r="G180" s="190"/>
-      <c r="H180" s="191"/>
-      <c r="I180" s="189" t="s">
+      <c r="E180" s="208"/>
+      <c r="F180" s="208"/>
+      <c r="G180" s="208"/>
+      <c r="H180" s="209"/>
+      <c r="I180" s="207" t="s">
         <v>157</v>
       </c>
-      <c r="J180" s="190"/>
-      <c r="K180" s="190"/>
-      <c r="L180" s="190"/>
-      <c r="M180" s="191"/>
-      <c r="N180" s="189" t="s">
+      <c r="J180" s="208"/>
+      <c r="K180" s="208"/>
+      <c r="L180" s="208"/>
+      <c r="M180" s="209"/>
+      <c r="N180" s="207" t="s">
         <v>158</v>
       </c>
-      <c r="O180" s="190"/>
-      <c r="P180" s="190"/>
-      <c r="Q180" s="190"/>
-      <c r="R180" s="190"/>
-      <c r="S180" s="190"/>
-      <c r="T180" s="190"/>
-      <c r="U180" s="191"/>
-      <c r="V180" s="189" t="s">
+      <c r="O180" s="208"/>
+      <c r="P180" s="208"/>
+      <c r="Q180" s="208"/>
+      <c r="R180" s="208"/>
+      <c r="S180" s="208"/>
+      <c r="T180" s="208"/>
+      <c r="U180" s="209"/>
+      <c r="V180" s="207" t="s">
         <v>4</v>
       </c>
-      <c r="W180" s="190"/>
-      <c r="X180" s="190"/>
-      <c r="Y180" s="190"/>
-      <c r="Z180" s="190"/>
-      <c r="AA180" s="190"/>
-      <c r="AB180" s="190"/>
-      <c r="AC180" s="190"/>
-      <c r="AD180" s="190"/>
-      <c r="AE180" s="190"/>
-      <c r="AF180" s="190"/>
-      <c r="AG180" s="190"/>
-      <c r="AH180" s="190"/>
-      <c r="AI180" s="191"/>
+      <c r="W180" s="208"/>
+      <c r="X180" s="208"/>
+      <c r="Y180" s="208"/>
+      <c r="Z180" s="208"/>
+      <c r="AA180" s="208"/>
+      <c r="AB180" s="208"/>
+      <c r="AC180" s="208"/>
+      <c r="AD180" s="208"/>
+      <c r="AE180" s="208"/>
+      <c r="AF180" s="208"/>
+      <c r="AG180" s="208"/>
+      <c r="AH180" s="208"/>
+      <c r="AI180" s="209"/>
       <c r="AJ180" s="33"/>
       <c r="AK180" s="33"/>
       <c r="AL180" s="33"/>
@@ -17238,42 +17238,42 @@
       <c r="A181" s="31"/>
       <c r="B181" s="33"/>
       <c r="C181" s="61"/>
-      <c r="D181" s="192" t="s">
+      <c r="D181" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="E181" s="193"/>
-      <c r="F181" s="193"/>
-      <c r="G181" s="193"/>
-      <c r="H181" s="194"/>
-      <c r="I181" s="201"/>
-      <c r="J181" s="202"/>
-      <c r="K181" s="202"/>
-      <c r="L181" s="202"/>
-      <c r="M181" s="203"/>
-      <c r="N181" s="201"/>
-      <c r="O181" s="202"/>
-      <c r="P181" s="202"/>
-      <c r="Q181" s="202"/>
-      <c r="R181" s="202"/>
-      <c r="S181" s="202"/>
-      <c r="T181" s="202"/>
-      <c r="U181" s="203"/>
-      <c r="V181" s="182" t="s">
+      <c r="E181" s="187"/>
+      <c r="F181" s="187"/>
+      <c r="G181" s="187"/>
+      <c r="H181" s="188"/>
+      <c r="I181" s="192"/>
+      <c r="J181" s="193"/>
+      <c r="K181" s="193"/>
+      <c r="L181" s="193"/>
+      <c r="M181" s="194"/>
+      <c r="N181" s="192"/>
+      <c r="O181" s="193"/>
+      <c r="P181" s="193"/>
+      <c r="Q181" s="193"/>
+      <c r="R181" s="193"/>
+      <c r="S181" s="193"/>
+      <c r="T181" s="193"/>
+      <c r="U181" s="194"/>
+      <c r="V181" s="180" t="s">
         <v>159</v>
       </c>
-      <c r="W181" s="182"/>
-      <c r="X181" s="182"/>
-      <c r="Y181" s="182"/>
-      <c r="Z181" s="182"/>
-      <c r="AA181" s="182"/>
-      <c r="AB181" s="182"/>
-      <c r="AC181" s="182"/>
-      <c r="AD181" s="182"/>
-      <c r="AE181" s="182"/>
-      <c r="AF181" s="182"/>
-      <c r="AG181" s="182"/>
-      <c r="AH181" s="182"/>
-      <c r="AI181" s="182"/>
+      <c r="W181" s="180"/>
+      <c r="X181" s="180"/>
+      <c r="Y181" s="180"/>
+      <c r="Z181" s="180"/>
+      <c r="AA181" s="180"/>
+      <c r="AB181" s="180"/>
+      <c r="AC181" s="180"/>
+      <c r="AD181" s="180"/>
+      <c r="AE181" s="180"/>
+      <c r="AF181" s="180"/>
+      <c r="AG181" s="180"/>
+      <c r="AH181" s="180"/>
+      <c r="AI181" s="180"/>
       <c r="AJ181" s="33"/>
       <c r="AK181" s="33"/>
       <c r="AL181" s="33"/>
@@ -17292,44 +17292,44 @@
       <c r="A182" s="31"/>
       <c r="B182" s="33"/>
       <c r="C182" s="61"/>
-      <c r="D182" s="182" t="s">
+      <c r="D182" s="180" t="s">
         <v>160</v>
       </c>
-      <c r="E182" s="182"/>
-      <c r="F182" s="182"/>
-      <c r="G182" s="182"/>
-      <c r="H182" s="182"/>
-      <c r="I182" s="201" t="s">
+      <c r="E182" s="180"/>
+      <c r="F182" s="180"/>
+      <c r="G182" s="180"/>
+      <c r="H182" s="180"/>
+      <c r="I182" s="192" t="s">
         <v>161</v>
       </c>
-      <c r="J182" s="202"/>
-      <c r="K182" s="202"/>
-      <c r="L182" s="202"/>
-      <c r="M182" s="203"/>
-      <c r="N182" s="182" t="s">
+      <c r="J182" s="193"/>
+      <c r="K182" s="193"/>
+      <c r="L182" s="193"/>
+      <c r="M182" s="194"/>
+      <c r="N182" s="180" t="s">
         <v>21</v>
       </c>
-      <c r="O182" s="182"/>
-      <c r="P182" s="182"/>
-      <c r="Q182" s="182"/>
-      <c r="R182" s="182"/>
-      <c r="S182" s="182"/>
-      <c r="T182" s="182"/>
-      <c r="U182" s="182"/>
-      <c r="V182" s="182"/>
-      <c r="W182" s="182"/>
-      <c r="X182" s="182"/>
-      <c r="Y182" s="182"/>
-      <c r="Z182" s="182"/>
-      <c r="AA182" s="182"/>
-      <c r="AB182" s="182"/>
-      <c r="AC182" s="182"/>
-      <c r="AD182" s="182"/>
-      <c r="AE182" s="182"/>
-      <c r="AF182" s="182"/>
-      <c r="AG182" s="182"/>
-      <c r="AH182" s="182"/>
-      <c r="AI182" s="182"/>
+      <c r="O182" s="180"/>
+      <c r="P182" s="180"/>
+      <c r="Q182" s="180"/>
+      <c r="R182" s="180"/>
+      <c r="S182" s="180"/>
+      <c r="T182" s="180"/>
+      <c r="U182" s="180"/>
+      <c r="V182" s="180"/>
+      <c r="W182" s="180"/>
+      <c r="X182" s="180"/>
+      <c r="Y182" s="180"/>
+      <c r="Z182" s="180"/>
+      <c r="AA182" s="180"/>
+      <c r="AB182" s="180"/>
+      <c r="AC182" s="180"/>
+      <c r="AD182" s="180"/>
+      <c r="AE182" s="180"/>
+      <c r="AF182" s="180"/>
+      <c r="AG182" s="180"/>
+      <c r="AH182" s="180"/>
+      <c r="AI182" s="180"/>
       <c r="AJ182" s="33"/>
       <c r="AK182" s="33"/>
       <c r="AL182" s="33"/>
@@ -17348,44 +17348,44 @@
       <c r="A183" s="31"/>
       <c r="B183" s="33"/>
       <c r="C183" s="61"/>
-      <c r="D183" s="182" t="s">
+      <c r="D183" s="180" t="s">
         <v>162</v>
       </c>
-      <c r="E183" s="182"/>
-      <c r="F183" s="182"/>
-      <c r="G183" s="182"/>
-      <c r="H183" s="182"/>
-      <c r="I183" s="195" t="s">
+      <c r="E183" s="180"/>
+      <c r="F183" s="180"/>
+      <c r="G183" s="180"/>
+      <c r="H183" s="180"/>
+      <c r="I183" s="189" t="s">
         <v>162</v>
       </c>
-      <c r="J183" s="196"/>
-      <c r="K183" s="196"/>
-      <c r="L183" s="196"/>
-      <c r="M183" s="197"/>
-      <c r="N183" s="182" t="s">
+      <c r="J183" s="190"/>
+      <c r="K183" s="190"/>
+      <c r="L183" s="190"/>
+      <c r="M183" s="191"/>
+      <c r="N183" s="180" t="s">
         <v>21</v>
       </c>
-      <c r="O183" s="182"/>
-      <c r="P183" s="182"/>
-      <c r="Q183" s="182"/>
-      <c r="R183" s="182"/>
-      <c r="S183" s="182"/>
-      <c r="T183" s="182"/>
-      <c r="U183" s="182"/>
-      <c r="V183" s="182"/>
-      <c r="W183" s="182"/>
-      <c r="X183" s="182"/>
-      <c r="Y183" s="182"/>
-      <c r="Z183" s="182"/>
-      <c r="AA183" s="182"/>
-      <c r="AB183" s="182"/>
-      <c r="AC183" s="182"/>
-      <c r="AD183" s="182"/>
-      <c r="AE183" s="182"/>
-      <c r="AF183" s="182"/>
-      <c r="AG183" s="182"/>
-      <c r="AH183" s="182"/>
-      <c r="AI183" s="182"/>
+      <c r="O183" s="180"/>
+      <c r="P183" s="180"/>
+      <c r="Q183" s="180"/>
+      <c r="R183" s="180"/>
+      <c r="S183" s="180"/>
+      <c r="T183" s="180"/>
+      <c r="U183" s="180"/>
+      <c r="V183" s="180"/>
+      <c r="W183" s="180"/>
+      <c r="X183" s="180"/>
+      <c r="Y183" s="180"/>
+      <c r="Z183" s="180"/>
+      <c r="AA183" s="180"/>
+      <c r="AB183" s="180"/>
+      <c r="AC183" s="180"/>
+      <c r="AD183" s="180"/>
+      <c r="AE183" s="180"/>
+      <c r="AF183" s="180"/>
+      <c r="AG183" s="180"/>
+      <c r="AH183" s="180"/>
+      <c r="AI183" s="180"/>
       <c r="AJ183" s="33"/>
       <c r="AK183" s="33"/>
       <c r="AL183" s="33"/>
@@ -17404,30 +17404,30 @@
       <c r="A184" s="31"/>
       <c r="B184" s="33"/>
       <c r="C184" s="61"/>
-      <c r="D184" s="192" t="s">
+      <c r="D184" s="186" t="s">
         <v>161</v>
       </c>
-      <c r="E184" s="193"/>
-      <c r="F184" s="193"/>
-      <c r="G184" s="193"/>
-      <c r="H184" s="194"/>
-      <c r="I184" s="195" t="s">
+      <c r="E184" s="187"/>
+      <c r="F184" s="187"/>
+      <c r="G184" s="187"/>
+      <c r="H184" s="188"/>
+      <c r="I184" s="189" t="s">
         <v>150</v>
       </c>
-      <c r="J184" s="196"/>
-      <c r="K184" s="196"/>
-      <c r="L184" s="196"/>
-      <c r="M184" s="197"/>
-      <c r="N184" s="182" t="s">
+      <c r="J184" s="190"/>
+      <c r="K184" s="190"/>
+      <c r="L184" s="190"/>
+      <c r="M184" s="191"/>
+      <c r="N184" s="180" t="s">
         <v>163</v>
       </c>
-      <c r="O184" s="182"/>
-      <c r="P184" s="182"/>
-      <c r="Q184" s="182"/>
-      <c r="R184" s="182"/>
-      <c r="S184" s="182"/>
-      <c r="T184" s="182"/>
-      <c r="U184" s="182"/>
+      <c r="O184" s="180"/>
+      <c r="P184" s="180"/>
+      <c r="Q184" s="180"/>
+      <c r="R184" s="180"/>
+      <c r="S184" s="180"/>
+      <c r="T184" s="180"/>
+      <c r="U184" s="180"/>
       <c r="V184" s="198" t="s">
         <v>164</v>
       </c>
@@ -17462,30 +17462,30 @@
       <c r="A185" s="31"/>
       <c r="B185" s="33"/>
       <c r="C185" s="61"/>
-      <c r="D185" s="192" t="s">
+      <c r="D185" s="186" t="s">
         <v>28</v>
       </c>
-      <c r="E185" s="193"/>
-      <c r="F185" s="193"/>
-      <c r="G185" s="193"/>
-      <c r="H185" s="194"/>
-      <c r="I185" s="195" t="s">
+      <c r="E185" s="187"/>
+      <c r="F185" s="187"/>
+      <c r="G185" s="187"/>
+      <c r="H185" s="188"/>
+      <c r="I185" s="189" t="s">
         <v>28</v>
       </c>
-      <c r="J185" s="196"/>
-      <c r="K185" s="196"/>
-      <c r="L185" s="196"/>
-      <c r="M185" s="197"/>
-      <c r="N185" s="182" t="s">
+      <c r="J185" s="190"/>
+      <c r="K185" s="190"/>
+      <c r="L185" s="190"/>
+      <c r="M185" s="191"/>
+      <c r="N185" s="180" t="s">
         <v>165</v>
       </c>
-      <c r="O185" s="182"/>
-      <c r="P185" s="182"/>
-      <c r="Q185" s="182"/>
-      <c r="R185" s="182"/>
-      <c r="S185" s="182"/>
-      <c r="T185" s="182"/>
-      <c r="U185" s="182"/>
+      <c r="O185" s="180"/>
+      <c r="P185" s="180"/>
+      <c r="Q185" s="180"/>
+      <c r="R185" s="180"/>
+      <c r="S185" s="180"/>
+      <c r="T185" s="180"/>
+      <c r="U185" s="180"/>
       <c r="V185" s="198" t="s">
         <v>166</v>
       </c>
@@ -17520,30 +17520,30 @@
       <c r="A186" s="31"/>
       <c r="B186" s="33"/>
       <c r="C186" s="61"/>
-      <c r="D186" s="192" t="s">
+      <c r="D186" s="186" t="s">
         <v>29</v>
       </c>
-      <c r="E186" s="193"/>
-      <c r="F186" s="193"/>
-      <c r="G186" s="193"/>
-      <c r="H186" s="194"/>
-      <c r="I186" s="195" t="s">
+      <c r="E186" s="187"/>
+      <c r="F186" s="187"/>
+      <c r="G186" s="187"/>
+      <c r="H186" s="188"/>
+      <c r="I186" s="189" t="s">
         <v>29</v>
       </c>
-      <c r="J186" s="196"/>
-      <c r="K186" s="196"/>
-      <c r="L186" s="196"/>
-      <c r="M186" s="197"/>
-      <c r="N186" s="182" t="s">
+      <c r="J186" s="190"/>
+      <c r="K186" s="190"/>
+      <c r="L186" s="190"/>
+      <c r="M186" s="191"/>
+      <c r="N186" s="180" t="s">
         <v>167</v>
       </c>
-      <c r="O186" s="182"/>
-      <c r="P186" s="182"/>
-      <c r="Q186" s="182"/>
-      <c r="R186" s="182"/>
-      <c r="S186" s="182"/>
-      <c r="T186" s="182"/>
-      <c r="U186" s="182"/>
+      <c r="O186" s="180"/>
+      <c r="P186" s="180"/>
+      <c r="Q186" s="180"/>
+      <c r="R186" s="180"/>
+      <c r="S186" s="180"/>
+      <c r="T186" s="180"/>
+      <c r="U186" s="180"/>
       <c r="V186" s="198" t="s">
         <v>168</v>
       </c>
@@ -17578,30 +17578,30 @@
       <c r="A187" s="31"/>
       <c r="B187" s="33"/>
       <c r="C187" s="61"/>
-      <c r="D187" s="192" t="s">
+      <c r="D187" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="E187" s="193"/>
-      <c r="F187" s="193"/>
-      <c r="G187" s="193"/>
-      <c r="H187" s="194"/>
-      <c r="I187" s="195" t="s">
+      <c r="E187" s="187"/>
+      <c r="F187" s="187"/>
+      <c r="G187" s="187"/>
+      <c r="H187" s="188"/>
+      <c r="I187" s="189" t="s">
         <v>161</v>
       </c>
-      <c r="J187" s="196"/>
-      <c r="K187" s="196"/>
-      <c r="L187" s="196"/>
-      <c r="M187" s="197"/>
-      <c r="N187" s="182" t="s">
+      <c r="J187" s="190"/>
+      <c r="K187" s="190"/>
+      <c r="L187" s="190"/>
+      <c r="M187" s="191"/>
+      <c r="N187" s="180" t="s">
         <v>169</v>
       </c>
-      <c r="O187" s="182"/>
-      <c r="P187" s="182"/>
-      <c r="Q187" s="182"/>
-      <c r="R187" s="182"/>
-      <c r="S187" s="182"/>
-      <c r="T187" s="182"/>
-      <c r="U187" s="182"/>
+      <c r="O187" s="180"/>
+      <c r="P187" s="180"/>
+      <c r="Q187" s="180"/>
+      <c r="R187" s="180"/>
+      <c r="S187" s="180"/>
+      <c r="T187" s="180"/>
+      <c r="U187" s="180"/>
       <c r="V187" s="198" t="s">
         <v>170</v>
       </c>
@@ -17636,44 +17636,44 @@
       <c r="A188" s="31"/>
       <c r="B188" s="33"/>
       <c r="C188" s="61"/>
-      <c r="D188" s="192" t="s">
+      <c r="D188" s="186" t="s">
         <v>171</v>
       </c>
-      <c r="E188" s="193"/>
-      <c r="F188" s="193"/>
-      <c r="G188" s="193"/>
-      <c r="H188" s="194"/>
-      <c r="I188" s="195" t="s">
+      <c r="E188" s="187"/>
+      <c r="F188" s="187"/>
+      <c r="G188" s="187"/>
+      <c r="H188" s="188"/>
+      <c r="I188" s="189" t="s">
         <v>161</v>
       </c>
-      <c r="J188" s="196"/>
-      <c r="K188" s="196"/>
-      <c r="L188" s="196"/>
-      <c r="M188" s="197"/>
-      <c r="N188" s="201"/>
-      <c r="O188" s="202"/>
-      <c r="P188" s="202"/>
-      <c r="Q188" s="202"/>
-      <c r="R188" s="202"/>
-      <c r="S188" s="202"/>
-      <c r="T188" s="202"/>
-      <c r="U188" s="203"/>
-      <c r="V188" s="204" t="s">
+      <c r="J188" s="190"/>
+      <c r="K188" s="190"/>
+      <c r="L188" s="190"/>
+      <c r="M188" s="191"/>
+      <c r="N188" s="192"/>
+      <c r="O188" s="193"/>
+      <c r="P188" s="193"/>
+      <c r="Q188" s="193"/>
+      <c r="R188" s="193"/>
+      <c r="S188" s="193"/>
+      <c r="T188" s="193"/>
+      <c r="U188" s="194"/>
+      <c r="V188" s="195" t="s">
         <v>172</v>
       </c>
-      <c r="W188" s="205"/>
-      <c r="X188" s="205"/>
-      <c r="Y188" s="205"/>
-      <c r="Z188" s="205"/>
-      <c r="AA188" s="205"/>
-      <c r="AB188" s="205"/>
-      <c r="AC188" s="205"/>
-      <c r="AD188" s="205"/>
-      <c r="AE188" s="205"/>
-      <c r="AF188" s="205"/>
-      <c r="AG188" s="205"/>
-      <c r="AH188" s="205"/>
-      <c r="AI188" s="206"/>
+      <c r="W188" s="196"/>
+      <c r="X188" s="196"/>
+      <c r="Y188" s="196"/>
+      <c r="Z188" s="196"/>
+      <c r="AA188" s="196"/>
+      <c r="AB188" s="196"/>
+      <c r="AC188" s="196"/>
+      <c r="AD188" s="196"/>
+      <c r="AE188" s="196"/>
+      <c r="AF188" s="196"/>
+      <c r="AG188" s="196"/>
+      <c r="AH188" s="196"/>
+      <c r="AI188" s="197"/>
       <c r="AJ188" s="33"/>
       <c r="AK188" s="33"/>
       <c r="AL188" s="33"/>
@@ -17692,28 +17692,28 @@
       <c r="A189" s="31"/>
       <c r="B189" s="33"/>
       <c r="C189" s="61"/>
-      <c r="D189" s="192" t="s">
+      <c r="D189" s="186" t="s">
         <v>173</v>
       </c>
-      <c r="E189" s="193"/>
-      <c r="F189" s="193"/>
-      <c r="G189" s="193"/>
-      <c r="H189" s="194"/>
-      <c r="I189" s="195" t="s">
+      <c r="E189" s="187"/>
+      <c r="F189" s="187"/>
+      <c r="G189" s="187"/>
+      <c r="H189" s="188"/>
+      <c r="I189" s="189" t="s">
         <v>161</v>
       </c>
-      <c r="J189" s="196"/>
-      <c r="K189" s="196"/>
-      <c r="L189" s="196"/>
-      <c r="M189" s="197"/>
-      <c r="N189" s="201"/>
-      <c r="O189" s="202"/>
-      <c r="P189" s="202"/>
-      <c r="Q189" s="202"/>
-      <c r="R189" s="202"/>
-      <c r="S189" s="202"/>
-      <c r="T189" s="202"/>
-      <c r="U189" s="203"/>
+      <c r="J189" s="190"/>
+      <c r="K189" s="190"/>
+      <c r="L189" s="190"/>
+      <c r="M189" s="191"/>
+      <c r="N189" s="192"/>
+      <c r="O189" s="193"/>
+      <c r="P189" s="193"/>
+      <c r="Q189" s="193"/>
+      <c r="R189" s="193"/>
+      <c r="S189" s="193"/>
+      <c r="T189" s="193"/>
+      <c r="U189" s="194"/>
       <c r="V189" s="198" t="s">
         <v>174</v>
       </c>
@@ -17864,11 +17864,11 @@
       <c r="K192" s="58"/>
       <c r="L192" s="59"/>
       <c r="M192" s="60"/>
-      <c r="N192" s="182" t="s">
+      <c r="N192" s="180" t="s">
         <v>50</v>
       </c>
-      <c r="O192" s="182"/>
-      <c r="P192" s="182"/>
+      <c r="O192" s="180"/>
+      <c r="P192" s="180"/>
       <c r="Q192" s="57">
         <v>99</v>
       </c>
@@ -17883,35 +17883,35 @@
       <c r="X192" s="60"/>
       <c r="Y192" s="58"/>
       <c r="Z192" s="58"/>
-      <c r="AA192" s="182" t="s">
+      <c r="AA192" s="180" t="s">
         <v>51</v>
       </c>
-      <c r="AB192" s="182"/>
-      <c r="AC192" s="182"/>
-      <c r="AD192" s="182" t="s">
+      <c r="AB192" s="180"/>
+      <c r="AC192" s="180"/>
+      <c r="AD192" s="180" t="s">
         <v>52</v>
       </c>
-      <c r="AE192" s="182"/>
-      <c r="AF192" s="182"/>
-      <c r="AG192" s="182" t="s">
+      <c r="AE192" s="180"/>
+      <c r="AF192" s="180"/>
+      <c r="AG192" s="180" t="s">
         <v>46</v>
       </c>
-      <c r="AH192" s="182"/>
-      <c r="AI192" s="182">
+      <c r="AH192" s="180"/>
+      <c r="AI192" s="180">
         <v>40149</v>
       </c>
-      <c r="AJ192" s="182"/>
-      <c r="AK192" s="182"/>
-      <c r="AL192" s="182">
+      <c r="AJ192" s="180"/>
+      <c r="AK192" s="180"/>
+      <c r="AL192" s="180">
         <v>40512</v>
       </c>
-      <c r="AM192" s="182"/>
-      <c r="AN192" s="182"/>
-      <c r="AO192" s="182" t="s">
+      <c r="AM192" s="180"/>
+      <c r="AN192" s="180"/>
+      <c r="AO192" s="180" t="s">
         <v>47</v>
       </c>
-      <c r="AP192" s="182"/>
-      <c r="AQ192" s="182"/>
+      <c r="AP192" s="180"/>
+      <c r="AQ192" s="180"/>
       <c r="AR192" s="15"/>
       <c r="AS192" s="14"/>
       <c r="AT192" s="14"/>
@@ -18332,74 +18332,74 @@
       <c r="A201" s="31"/>
       <c r="B201" s="33"/>
       <c r="C201" s="61"/>
-      <c r="D201" s="209" t="s">
+      <c r="D201" s="182" t="s">
         <v>31</v>
       </c>
-      <c r="E201" s="210"/>
-      <c r="F201" s="210"/>
-      <c r="G201" s="211"/>
-      <c r="H201" s="209" t="s">
+      <c r="E201" s="183"/>
+      <c r="F201" s="183"/>
+      <c r="G201" s="184"/>
+      <c r="H201" s="182" t="s">
         <v>32</v>
       </c>
-      <c r="I201" s="210"/>
-      <c r="J201" s="210"/>
-      <c r="K201" s="210"/>
-      <c r="L201" s="210"/>
-      <c r="M201" s="211"/>
-      <c r="N201" s="212" t="s">
+      <c r="I201" s="183"/>
+      <c r="J201" s="183"/>
+      <c r="K201" s="183"/>
+      <c r="L201" s="183"/>
+      <c r="M201" s="184"/>
+      <c r="N201" s="185" t="s">
         <v>33</v>
       </c>
-      <c r="O201" s="182"/>
-      <c r="P201" s="182"/>
-      <c r="Q201" s="212" t="s">
+      <c r="O201" s="180"/>
+      <c r="P201" s="180"/>
+      <c r="Q201" s="185" t="s">
         <v>34</v>
       </c>
-      <c r="R201" s="182"/>
-      <c r="S201" s="212" t="s">
+      <c r="R201" s="180"/>
+      <c r="S201" s="185" t="s">
         <v>35</v>
       </c>
-      <c r="T201" s="182"/>
-      <c r="U201" s="212" t="s">
+      <c r="T201" s="180"/>
+      <c r="U201" s="185" t="s">
         <v>36</v>
       </c>
-      <c r="V201" s="182"/>
-      <c r="W201" s="212" t="s">
+      <c r="V201" s="180"/>
+      <c r="W201" s="185" t="s">
         <v>37</v>
       </c>
-      <c r="X201" s="182"/>
-      <c r="Y201" s="182" t="s">
+      <c r="X201" s="180"/>
+      <c r="Y201" s="180" t="s">
         <v>38</v>
       </c>
-      <c r="Z201" s="182"/>
-      <c r="AA201" s="207" t="s">
+      <c r="Z201" s="180"/>
+      <c r="AA201" s="179" t="s">
         <v>39</v>
       </c>
-      <c r="AB201" s="208"/>
-      <c r="AC201" s="182"/>
-      <c r="AD201" s="207" t="s">
+      <c r="AB201" s="181"/>
+      <c r="AC201" s="180"/>
+      <c r="AD201" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="AE201" s="208"/>
-      <c r="AF201" s="182"/>
-      <c r="AG201" s="207" t="s">
+      <c r="AE201" s="181"/>
+      <c r="AF201" s="180"/>
+      <c r="AG201" s="179" t="s">
         <v>41</v>
       </c>
-      <c r="AH201" s="182"/>
-      <c r="AI201" s="207" t="s">
+      <c r="AH201" s="180"/>
+      <c r="AI201" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="AJ201" s="208"/>
-      <c r="AK201" s="208"/>
-      <c r="AL201" s="207" t="s">
+      <c r="AJ201" s="181"/>
+      <c r="AK201" s="181"/>
+      <c r="AL201" s="179" t="s">
         <v>43</v>
       </c>
-      <c r="AM201" s="208"/>
-      <c r="AN201" s="182"/>
-      <c r="AO201" s="207" t="s">
+      <c r="AM201" s="181"/>
+      <c r="AN201" s="180"/>
+      <c r="AO201" s="179" t="s">
         <v>44</v>
       </c>
-      <c r="AP201" s="208"/>
-      <c r="AQ201" s="208"/>
+      <c r="AP201" s="181"/>
+      <c r="AQ201" s="181"/>
       <c r="AR201" s="33"/>
       <c r="AS201" s="14"/>
       <c r="AT201" s="14"/>
@@ -19303,6 +19303,282 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="297">
+    <mergeCell ref="AO3:AR3"/>
+    <mergeCell ref="AS3:AV3"/>
+    <mergeCell ref="AF4:AJ4"/>
+    <mergeCell ref="AK4:AN4"/>
+    <mergeCell ref="AO4:AR4"/>
+    <mergeCell ref="AS4:AV4"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:AE2"/>
+    <mergeCell ref="AF1:AV1"/>
+    <mergeCell ref="AF2:AV2"/>
+    <mergeCell ref="A3:E4"/>
+    <mergeCell ref="F3:K4"/>
+    <mergeCell ref="L3:Q4"/>
+    <mergeCell ref="R3:AE4"/>
+    <mergeCell ref="AF3:AJ3"/>
+    <mergeCell ref="AK3:AN3"/>
+    <mergeCell ref="Y98:AB98"/>
+    <mergeCell ref="AC98:AP98"/>
+    <mergeCell ref="D99:AP99"/>
+    <mergeCell ref="K100:M100"/>
+    <mergeCell ref="N100:P100"/>
+    <mergeCell ref="Q100:R100"/>
+    <mergeCell ref="S100:T100"/>
+    <mergeCell ref="AC100:AP100"/>
+    <mergeCell ref="C97:F97"/>
+    <mergeCell ref="D98:J98"/>
+    <mergeCell ref="K98:M98"/>
+    <mergeCell ref="N98:P98"/>
+    <mergeCell ref="Q98:R98"/>
+    <mergeCell ref="S98:T98"/>
+    <mergeCell ref="U98:X98"/>
+    <mergeCell ref="K101:M101"/>
+    <mergeCell ref="N101:P101"/>
+    <mergeCell ref="Q101:R101"/>
+    <mergeCell ref="S101:T101"/>
+    <mergeCell ref="AC101:AP101"/>
+    <mergeCell ref="K102:M102"/>
+    <mergeCell ref="N102:P102"/>
+    <mergeCell ref="Q102:R102"/>
+    <mergeCell ref="S102:T102"/>
+    <mergeCell ref="Y102:AB102"/>
+    <mergeCell ref="K104:M104"/>
+    <mergeCell ref="N104:P104"/>
+    <mergeCell ref="Q104:R104"/>
+    <mergeCell ref="S104:T104"/>
+    <mergeCell ref="Y104:AB104"/>
+    <mergeCell ref="AC104:AP104"/>
+    <mergeCell ref="AC102:AP102"/>
+    <mergeCell ref="K103:M103"/>
+    <mergeCell ref="N103:P103"/>
+    <mergeCell ref="Q103:R103"/>
+    <mergeCell ref="S103:T103"/>
+    <mergeCell ref="AC103:AP103"/>
+    <mergeCell ref="AC106:AP106"/>
+    <mergeCell ref="K107:M107"/>
+    <mergeCell ref="N107:P107"/>
+    <mergeCell ref="Q107:R107"/>
+    <mergeCell ref="S107:T107"/>
+    <mergeCell ref="AC107:AP107"/>
+    <mergeCell ref="K105:M105"/>
+    <mergeCell ref="N105:P105"/>
+    <mergeCell ref="Q105:R105"/>
+    <mergeCell ref="S105:T105"/>
+    <mergeCell ref="AC105:AP105"/>
+    <mergeCell ref="K106:M106"/>
+    <mergeCell ref="N106:P106"/>
+    <mergeCell ref="Q106:R106"/>
+    <mergeCell ref="S106:T106"/>
+    <mergeCell ref="Y106:AB106"/>
+    <mergeCell ref="K108:M108"/>
+    <mergeCell ref="N108:P108"/>
+    <mergeCell ref="Q108:R108"/>
+    <mergeCell ref="Y108:AB108"/>
+    <mergeCell ref="AC108:AP108"/>
+    <mergeCell ref="K109:M109"/>
+    <mergeCell ref="N109:P109"/>
+    <mergeCell ref="Q109:R109"/>
+    <mergeCell ref="AC109:AP109"/>
+    <mergeCell ref="K112:M112"/>
+    <mergeCell ref="N112:P112"/>
+    <mergeCell ref="Q112:R112"/>
+    <mergeCell ref="S112:T112"/>
+    <mergeCell ref="Y112:AB112"/>
+    <mergeCell ref="AC112:AP112"/>
+    <mergeCell ref="K110:M110"/>
+    <mergeCell ref="N110:P110"/>
+    <mergeCell ref="Q110:R110"/>
+    <mergeCell ref="Y110:AB110"/>
+    <mergeCell ref="AC110:AP110"/>
+    <mergeCell ref="K111:M111"/>
+    <mergeCell ref="N111:P111"/>
+    <mergeCell ref="Q111:R111"/>
+    <mergeCell ref="AC111:AP111"/>
+    <mergeCell ref="K113:M113"/>
+    <mergeCell ref="N113:P113"/>
+    <mergeCell ref="Q113:R113"/>
+    <mergeCell ref="S113:T113"/>
+    <mergeCell ref="AC113:AP113"/>
+    <mergeCell ref="K114:M114"/>
+    <mergeCell ref="N114:P114"/>
+    <mergeCell ref="Q114:R114"/>
+    <mergeCell ref="S114:T114"/>
+    <mergeCell ref="Y114:AB114"/>
+    <mergeCell ref="K116:M116"/>
+    <mergeCell ref="N116:P116"/>
+    <mergeCell ref="Q116:R116"/>
+    <mergeCell ref="S116:T116"/>
+    <mergeCell ref="Y116:AB116"/>
+    <mergeCell ref="AC116:AP116"/>
+    <mergeCell ref="AC114:AP114"/>
+    <mergeCell ref="K115:M115"/>
+    <mergeCell ref="N115:P115"/>
+    <mergeCell ref="Q115:R115"/>
+    <mergeCell ref="S115:T115"/>
+    <mergeCell ref="AC115:AP115"/>
+    <mergeCell ref="K117:M117"/>
+    <mergeCell ref="N117:P117"/>
+    <mergeCell ref="Q117:R117"/>
+    <mergeCell ref="S117:T117"/>
+    <mergeCell ref="AC117:AP117"/>
+    <mergeCell ref="D118:J118"/>
+    <mergeCell ref="K118:M118"/>
+    <mergeCell ref="N118:P118"/>
+    <mergeCell ref="Q118:R118"/>
+    <mergeCell ref="S118:T118"/>
+    <mergeCell ref="K121:M121"/>
+    <mergeCell ref="N121:P121"/>
+    <mergeCell ref="Q121:R121"/>
+    <mergeCell ref="S121:T121"/>
+    <mergeCell ref="Y121:AB121"/>
+    <mergeCell ref="AC121:AP121"/>
+    <mergeCell ref="AC118:AP118"/>
+    <mergeCell ref="D119:AP119"/>
+    <mergeCell ref="K120:M120"/>
+    <mergeCell ref="N120:P120"/>
+    <mergeCell ref="Q120:R120"/>
+    <mergeCell ref="S120:T120"/>
+    <mergeCell ref="Y120:AB120"/>
+    <mergeCell ref="AC120:AP120"/>
+    <mergeCell ref="K123:M123"/>
+    <mergeCell ref="N123:P123"/>
+    <mergeCell ref="Q123:R123"/>
+    <mergeCell ref="S123:T123"/>
+    <mergeCell ref="Y123:AB123"/>
+    <mergeCell ref="AC123:AP123"/>
+    <mergeCell ref="K122:M122"/>
+    <mergeCell ref="N122:P122"/>
+    <mergeCell ref="Q122:R122"/>
+    <mergeCell ref="S122:T122"/>
+    <mergeCell ref="Y122:AB122"/>
+    <mergeCell ref="AC122:AP122"/>
+    <mergeCell ref="K124:M124"/>
+    <mergeCell ref="N124:P124"/>
+    <mergeCell ref="Q124:R124"/>
+    <mergeCell ref="S124:T124"/>
+    <mergeCell ref="AC124:AP124"/>
+    <mergeCell ref="K125:M125"/>
+    <mergeCell ref="N125:P125"/>
+    <mergeCell ref="Q125:R125"/>
+    <mergeCell ref="S125:T125"/>
+    <mergeCell ref="AC125:AP125"/>
+    <mergeCell ref="K126:M126"/>
+    <mergeCell ref="N126:P126"/>
+    <mergeCell ref="Q126:R126"/>
+    <mergeCell ref="S126:T126"/>
+    <mergeCell ref="AC126:AP126"/>
+    <mergeCell ref="K127:M127"/>
+    <mergeCell ref="N127:P127"/>
+    <mergeCell ref="Q127:R127"/>
+    <mergeCell ref="S127:T127"/>
+    <mergeCell ref="AC127:AP127"/>
+    <mergeCell ref="K129:M129"/>
+    <mergeCell ref="N129:P129"/>
+    <mergeCell ref="Q129:R129"/>
+    <mergeCell ref="S129:T129"/>
+    <mergeCell ref="Y129:AB129"/>
+    <mergeCell ref="AC129:AP129"/>
+    <mergeCell ref="K128:M128"/>
+    <mergeCell ref="N128:P128"/>
+    <mergeCell ref="Q128:R128"/>
+    <mergeCell ref="S128:T128"/>
+    <mergeCell ref="Y128:AB128"/>
+    <mergeCell ref="AC128:AP128"/>
+    <mergeCell ref="K131:M131"/>
+    <mergeCell ref="N131:P131"/>
+    <mergeCell ref="Q131:R131"/>
+    <mergeCell ref="S131:T131"/>
+    <mergeCell ref="Y131:AB131"/>
+    <mergeCell ref="AC131:AP131"/>
+    <mergeCell ref="K130:M130"/>
+    <mergeCell ref="N130:P130"/>
+    <mergeCell ref="Q130:R130"/>
+    <mergeCell ref="S130:T130"/>
+    <mergeCell ref="Y130:AB130"/>
+    <mergeCell ref="AC130:AP130"/>
+    <mergeCell ref="K133:M133"/>
+    <mergeCell ref="N133:P133"/>
+    <mergeCell ref="Q133:R133"/>
+    <mergeCell ref="S133:T133"/>
+    <mergeCell ref="Y133:AB133"/>
+    <mergeCell ref="AC133:AP133"/>
+    <mergeCell ref="K132:M132"/>
+    <mergeCell ref="N132:P132"/>
+    <mergeCell ref="Q132:R132"/>
+    <mergeCell ref="S132:T132"/>
+    <mergeCell ref="Y132:AB132"/>
+    <mergeCell ref="AC132:AP132"/>
+    <mergeCell ref="D136:AP136"/>
+    <mergeCell ref="K137:M137"/>
+    <mergeCell ref="N137:P137"/>
+    <mergeCell ref="Q137:R137"/>
+    <mergeCell ref="S137:T137"/>
+    <mergeCell ref="AC137:AP137"/>
+    <mergeCell ref="K134:M134"/>
+    <mergeCell ref="N134:P134"/>
+    <mergeCell ref="Q134:R134"/>
+    <mergeCell ref="S134:T134"/>
+    <mergeCell ref="AC134:AP134"/>
+    <mergeCell ref="K135:M135"/>
+    <mergeCell ref="N135:P135"/>
+    <mergeCell ref="Q135:R135"/>
+    <mergeCell ref="S135:T135"/>
+    <mergeCell ref="AC135:AP135"/>
+    <mergeCell ref="K138:M138"/>
+    <mergeCell ref="N138:P138"/>
+    <mergeCell ref="Q138:R138"/>
+    <mergeCell ref="S138:T138"/>
+    <mergeCell ref="AC138:AP138"/>
+    <mergeCell ref="K139:M139"/>
+    <mergeCell ref="N139:P139"/>
+    <mergeCell ref="Q139:R139"/>
+    <mergeCell ref="S139:T139"/>
+    <mergeCell ref="AC139:AP139"/>
+    <mergeCell ref="K140:M140"/>
+    <mergeCell ref="N140:P140"/>
+    <mergeCell ref="Q140:R140"/>
+    <mergeCell ref="S140:T140"/>
+    <mergeCell ref="AC140:AP140"/>
+    <mergeCell ref="D180:H180"/>
+    <mergeCell ref="I180:M180"/>
+    <mergeCell ref="N180:U180"/>
+    <mergeCell ref="V180:AI180"/>
+    <mergeCell ref="D184:H184"/>
+    <mergeCell ref="I184:M184"/>
+    <mergeCell ref="N184:U184"/>
+    <mergeCell ref="V184:AI184"/>
+    <mergeCell ref="D185:H185"/>
+    <mergeCell ref="I185:M185"/>
+    <mergeCell ref="N185:U185"/>
+    <mergeCell ref="V185:AI185"/>
+    <mergeCell ref="D181:H181"/>
+    <mergeCell ref="I181:M181"/>
+    <mergeCell ref="N181:U181"/>
+    <mergeCell ref="V181:AI183"/>
+    <mergeCell ref="D182:H182"/>
+    <mergeCell ref="I182:M182"/>
+    <mergeCell ref="N182:U182"/>
+    <mergeCell ref="D183:H183"/>
+    <mergeCell ref="I183:M183"/>
+    <mergeCell ref="N183:U183"/>
+    <mergeCell ref="D188:H188"/>
+    <mergeCell ref="I188:M188"/>
+    <mergeCell ref="N188:U188"/>
+    <mergeCell ref="V188:AI188"/>
+    <mergeCell ref="D189:H189"/>
+    <mergeCell ref="I189:M189"/>
+    <mergeCell ref="N189:U189"/>
+    <mergeCell ref="V189:AI189"/>
+    <mergeCell ref="D186:H186"/>
+    <mergeCell ref="I186:M186"/>
+    <mergeCell ref="N186:U186"/>
+    <mergeCell ref="V186:AI186"/>
+    <mergeCell ref="D187:H187"/>
+    <mergeCell ref="I187:M187"/>
+    <mergeCell ref="N187:U187"/>
+    <mergeCell ref="V187:AI187"/>
     <mergeCell ref="AG201:AH201"/>
     <mergeCell ref="AI201:AK201"/>
     <mergeCell ref="AL201:AN201"/>
@@ -19324,282 +19600,6 @@
     <mergeCell ref="AA192:AC192"/>
     <mergeCell ref="AD192:AF192"/>
     <mergeCell ref="AD201:AF201"/>
-    <mergeCell ref="D188:H188"/>
-    <mergeCell ref="I188:M188"/>
-    <mergeCell ref="N188:U188"/>
-    <mergeCell ref="V188:AI188"/>
-    <mergeCell ref="D189:H189"/>
-    <mergeCell ref="I189:M189"/>
-    <mergeCell ref="N189:U189"/>
-    <mergeCell ref="V189:AI189"/>
-    <mergeCell ref="D186:H186"/>
-    <mergeCell ref="I186:M186"/>
-    <mergeCell ref="N186:U186"/>
-    <mergeCell ref="V186:AI186"/>
-    <mergeCell ref="D187:H187"/>
-    <mergeCell ref="I187:M187"/>
-    <mergeCell ref="N187:U187"/>
-    <mergeCell ref="V187:AI187"/>
-    <mergeCell ref="D184:H184"/>
-    <mergeCell ref="I184:M184"/>
-    <mergeCell ref="N184:U184"/>
-    <mergeCell ref="V184:AI184"/>
-    <mergeCell ref="D185:H185"/>
-    <mergeCell ref="I185:M185"/>
-    <mergeCell ref="N185:U185"/>
-    <mergeCell ref="V185:AI185"/>
-    <mergeCell ref="D181:H181"/>
-    <mergeCell ref="I181:M181"/>
-    <mergeCell ref="N181:U181"/>
-    <mergeCell ref="V181:AI183"/>
-    <mergeCell ref="D182:H182"/>
-    <mergeCell ref="I182:M182"/>
-    <mergeCell ref="N182:U182"/>
-    <mergeCell ref="D183:H183"/>
-    <mergeCell ref="I183:M183"/>
-    <mergeCell ref="N183:U183"/>
-    <mergeCell ref="K140:M140"/>
-    <mergeCell ref="N140:P140"/>
-    <mergeCell ref="Q140:R140"/>
-    <mergeCell ref="S140:T140"/>
-    <mergeCell ref="AC140:AP140"/>
-    <mergeCell ref="D180:H180"/>
-    <mergeCell ref="I180:M180"/>
-    <mergeCell ref="N180:U180"/>
-    <mergeCell ref="V180:AI180"/>
-    <mergeCell ref="K138:M138"/>
-    <mergeCell ref="N138:P138"/>
-    <mergeCell ref="Q138:R138"/>
-    <mergeCell ref="S138:T138"/>
-    <mergeCell ref="AC138:AP138"/>
-    <mergeCell ref="K139:M139"/>
-    <mergeCell ref="N139:P139"/>
-    <mergeCell ref="Q139:R139"/>
-    <mergeCell ref="S139:T139"/>
-    <mergeCell ref="AC139:AP139"/>
-    <mergeCell ref="D136:AP136"/>
-    <mergeCell ref="K137:M137"/>
-    <mergeCell ref="N137:P137"/>
-    <mergeCell ref="Q137:R137"/>
-    <mergeCell ref="S137:T137"/>
-    <mergeCell ref="AC137:AP137"/>
-    <mergeCell ref="K134:M134"/>
-    <mergeCell ref="N134:P134"/>
-    <mergeCell ref="Q134:R134"/>
-    <mergeCell ref="S134:T134"/>
-    <mergeCell ref="AC134:AP134"/>
-    <mergeCell ref="K135:M135"/>
-    <mergeCell ref="N135:P135"/>
-    <mergeCell ref="Q135:R135"/>
-    <mergeCell ref="S135:T135"/>
-    <mergeCell ref="AC135:AP135"/>
-    <mergeCell ref="K133:M133"/>
-    <mergeCell ref="N133:P133"/>
-    <mergeCell ref="Q133:R133"/>
-    <mergeCell ref="S133:T133"/>
-    <mergeCell ref="Y133:AB133"/>
-    <mergeCell ref="AC133:AP133"/>
-    <mergeCell ref="K132:M132"/>
-    <mergeCell ref="N132:P132"/>
-    <mergeCell ref="Q132:R132"/>
-    <mergeCell ref="S132:T132"/>
-    <mergeCell ref="Y132:AB132"/>
-    <mergeCell ref="AC132:AP132"/>
-    <mergeCell ref="K131:M131"/>
-    <mergeCell ref="N131:P131"/>
-    <mergeCell ref="Q131:R131"/>
-    <mergeCell ref="S131:T131"/>
-    <mergeCell ref="Y131:AB131"/>
-    <mergeCell ref="AC131:AP131"/>
-    <mergeCell ref="K130:M130"/>
-    <mergeCell ref="N130:P130"/>
-    <mergeCell ref="Q130:R130"/>
-    <mergeCell ref="S130:T130"/>
-    <mergeCell ref="Y130:AB130"/>
-    <mergeCell ref="AC130:AP130"/>
-    <mergeCell ref="K129:M129"/>
-    <mergeCell ref="N129:P129"/>
-    <mergeCell ref="Q129:R129"/>
-    <mergeCell ref="S129:T129"/>
-    <mergeCell ref="Y129:AB129"/>
-    <mergeCell ref="AC129:AP129"/>
-    <mergeCell ref="K128:M128"/>
-    <mergeCell ref="N128:P128"/>
-    <mergeCell ref="Q128:R128"/>
-    <mergeCell ref="S128:T128"/>
-    <mergeCell ref="Y128:AB128"/>
-    <mergeCell ref="AC128:AP128"/>
-    <mergeCell ref="K126:M126"/>
-    <mergeCell ref="N126:P126"/>
-    <mergeCell ref="Q126:R126"/>
-    <mergeCell ref="S126:T126"/>
-    <mergeCell ref="AC126:AP126"/>
-    <mergeCell ref="K127:M127"/>
-    <mergeCell ref="N127:P127"/>
-    <mergeCell ref="Q127:R127"/>
-    <mergeCell ref="S127:T127"/>
-    <mergeCell ref="AC127:AP127"/>
-    <mergeCell ref="K124:M124"/>
-    <mergeCell ref="N124:P124"/>
-    <mergeCell ref="Q124:R124"/>
-    <mergeCell ref="S124:T124"/>
-    <mergeCell ref="AC124:AP124"/>
-    <mergeCell ref="K125:M125"/>
-    <mergeCell ref="N125:P125"/>
-    <mergeCell ref="Q125:R125"/>
-    <mergeCell ref="S125:T125"/>
-    <mergeCell ref="AC125:AP125"/>
-    <mergeCell ref="K123:M123"/>
-    <mergeCell ref="N123:P123"/>
-    <mergeCell ref="Q123:R123"/>
-    <mergeCell ref="S123:T123"/>
-    <mergeCell ref="Y123:AB123"/>
-    <mergeCell ref="AC123:AP123"/>
-    <mergeCell ref="K122:M122"/>
-    <mergeCell ref="N122:P122"/>
-    <mergeCell ref="Q122:R122"/>
-    <mergeCell ref="S122:T122"/>
-    <mergeCell ref="Y122:AB122"/>
-    <mergeCell ref="AC122:AP122"/>
-    <mergeCell ref="K121:M121"/>
-    <mergeCell ref="N121:P121"/>
-    <mergeCell ref="Q121:R121"/>
-    <mergeCell ref="S121:T121"/>
-    <mergeCell ref="Y121:AB121"/>
-    <mergeCell ref="AC121:AP121"/>
-    <mergeCell ref="AC118:AP118"/>
-    <mergeCell ref="D119:AP119"/>
-    <mergeCell ref="K120:M120"/>
-    <mergeCell ref="N120:P120"/>
-    <mergeCell ref="Q120:R120"/>
-    <mergeCell ref="S120:T120"/>
-    <mergeCell ref="Y120:AB120"/>
-    <mergeCell ref="AC120:AP120"/>
-    <mergeCell ref="K117:M117"/>
-    <mergeCell ref="N117:P117"/>
-    <mergeCell ref="Q117:R117"/>
-    <mergeCell ref="S117:T117"/>
-    <mergeCell ref="AC117:AP117"/>
-    <mergeCell ref="D118:J118"/>
-    <mergeCell ref="K118:M118"/>
-    <mergeCell ref="N118:P118"/>
-    <mergeCell ref="Q118:R118"/>
-    <mergeCell ref="S118:T118"/>
-    <mergeCell ref="K116:M116"/>
-    <mergeCell ref="N116:P116"/>
-    <mergeCell ref="Q116:R116"/>
-    <mergeCell ref="S116:T116"/>
-    <mergeCell ref="Y116:AB116"/>
-    <mergeCell ref="AC116:AP116"/>
-    <mergeCell ref="AC114:AP114"/>
-    <mergeCell ref="K115:M115"/>
-    <mergeCell ref="N115:P115"/>
-    <mergeCell ref="Q115:R115"/>
-    <mergeCell ref="S115:T115"/>
-    <mergeCell ref="AC115:AP115"/>
-    <mergeCell ref="K113:M113"/>
-    <mergeCell ref="N113:P113"/>
-    <mergeCell ref="Q113:R113"/>
-    <mergeCell ref="S113:T113"/>
-    <mergeCell ref="AC113:AP113"/>
-    <mergeCell ref="K114:M114"/>
-    <mergeCell ref="N114:P114"/>
-    <mergeCell ref="Q114:R114"/>
-    <mergeCell ref="S114:T114"/>
-    <mergeCell ref="Y114:AB114"/>
-    <mergeCell ref="K112:M112"/>
-    <mergeCell ref="N112:P112"/>
-    <mergeCell ref="Q112:R112"/>
-    <mergeCell ref="S112:T112"/>
-    <mergeCell ref="Y112:AB112"/>
-    <mergeCell ref="AC112:AP112"/>
-    <mergeCell ref="K110:M110"/>
-    <mergeCell ref="N110:P110"/>
-    <mergeCell ref="Q110:R110"/>
-    <mergeCell ref="Y110:AB110"/>
-    <mergeCell ref="AC110:AP110"/>
-    <mergeCell ref="K111:M111"/>
-    <mergeCell ref="N111:P111"/>
-    <mergeCell ref="Q111:R111"/>
-    <mergeCell ref="AC111:AP111"/>
-    <mergeCell ref="K108:M108"/>
-    <mergeCell ref="N108:P108"/>
-    <mergeCell ref="Q108:R108"/>
-    <mergeCell ref="Y108:AB108"/>
-    <mergeCell ref="AC108:AP108"/>
-    <mergeCell ref="K109:M109"/>
-    <mergeCell ref="N109:P109"/>
-    <mergeCell ref="Q109:R109"/>
-    <mergeCell ref="AC109:AP109"/>
-    <mergeCell ref="AC106:AP106"/>
-    <mergeCell ref="K107:M107"/>
-    <mergeCell ref="N107:P107"/>
-    <mergeCell ref="Q107:R107"/>
-    <mergeCell ref="S107:T107"/>
-    <mergeCell ref="AC107:AP107"/>
-    <mergeCell ref="K105:M105"/>
-    <mergeCell ref="N105:P105"/>
-    <mergeCell ref="Q105:R105"/>
-    <mergeCell ref="S105:T105"/>
-    <mergeCell ref="AC105:AP105"/>
-    <mergeCell ref="K106:M106"/>
-    <mergeCell ref="N106:P106"/>
-    <mergeCell ref="Q106:R106"/>
-    <mergeCell ref="S106:T106"/>
-    <mergeCell ref="Y106:AB106"/>
-    <mergeCell ref="K104:M104"/>
-    <mergeCell ref="N104:P104"/>
-    <mergeCell ref="Q104:R104"/>
-    <mergeCell ref="S104:T104"/>
-    <mergeCell ref="Y104:AB104"/>
-    <mergeCell ref="AC104:AP104"/>
-    <mergeCell ref="AC102:AP102"/>
-    <mergeCell ref="K103:M103"/>
-    <mergeCell ref="N103:P103"/>
-    <mergeCell ref="Q103:R103"/>
-    <mergeCell ref="S103:T103"/>
-    <mergeCell ref="AC103:AP103"/>
-    <mergeCell ref="K101:M101"/>
-    <mergeCell ref="N101:P101"/>
-    <mergeCell ref="Q101:R101"/>
-    <mergeCell ref="S101:T101"/>
-    <mergeCell ref="AC101:AP101"/>
-    <mergeCell ref="K102:M102"/>
-    <mergeCell ref="N102:P102"/>
-    <mergeCell ref="Q102:R102"/>
-    <mergeCell ref="S102:T102"/>
-    <mergeCell ref="Y102:AB102"/>
-    <mergeCell ref="Y98:AB98"/>
-    <mergeCell ref="AC98:AP98"/>
-    <mergeCell ref="D99:AP99"/>
-    <mergeCell ref="K100:M100"/>
-    <mergeCell ref="N100:P100"/>
-    <mergeCell ref="Q100:R100"/>
-    <mergeCell ref="S100:T100"/>
-    <mergeCell ref="AC100:AP100"/>
-    <mergeCell ref="C97:F97"/>
-    <mergeCell ref="D98:J98"/>
-    <mergeCell ref="K98:M98"/>
-    <mergeCell ref="N98:P98"/>
-    <mergeCell ref="Q98:R98"/>
-    <mergeCell ref="S98:T98"/>
-    <mergeCell ref="U98:X98"/>
-    <mergeCell ref="AO3:AR3"/>
-    <mergeCell ref="AS3:AV3"/>
-    <mergeCell ref="AF4:AJ4"/>
-    <mergeCell ref="AK4:AN4"/>
-    <mergeCell ref="AO4:AR4"/>
-    <mergeCell ref="AS4:AV4"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:AE2"/>
-    <mergeCell ref="AF1:AV1"/>
-    <mergeCell ref="AF2:AV2"/>
-    <mergeCell ref="A3:E4"/>
-    <mergeCell ref="F3:K4"/>
-    <mergeCell ref="L3:Q4"/>
-    <mergeCell ref="R3:AE4"/>
-    <mergeCell ref="AF3:AJ3"/>
-    <mergeCell ref="AK3:AN3"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.3" top="0.53749999999999998" bottom="0.3" header="0.3" footer="0.2"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -19622,232 +19622,232 @@
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:48" ht="12.2" customHeight="1">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="140" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="137" t="s">
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="144" t="s">
         <v>204</v>
       </c>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="137"/>
-      <c r="S1" s="137"/>
-      <c r="T1" s="137"/>
-      <c r="U1" s="137"/>
-      <c r="V1" s="137"/>
-      <c r="W1" s="137"/>
-      <c r="X1" s="137"/>
-      <c r="Y1" s="137"/>
-      <c r="Z1" s="137"/>
-      <c r="AA1" s="137"/>
-      <c r="AB1" s="137"/>
-      <c r="AC1" s="137"/>
-      <c r="AD1" s="137"/>
-      <c r="AE1" s="137"/>
-      <c r="AF1" s="142" t="s">
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="144"/>
+      <c r="M1" s="144"/>
+      <c r="N1" s="144"/>
+      <c r="O1" s="144"/>
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="144"/>
+      <c r="S1" s="144"/>
+      <c r="T1" s="144"/>
+      <c r="U1" s="144"/>
+      <c r="V1" s="144"/>
+      <c r="W1" s="144"/>
+      <c r="X1" s="144"/>
+      <c r="Y1" s="144"/>
+      <c r="Z1" s="144"/>
+      <c r="AA1" s="144"/>
+      <c r="AB1" s="144"/>
+      <c r="AC1" s="144"/>
+      <c r="AD1" s="144"/>
+      <c r="AE1" s="144"/>
+      <c r="AF1" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="AG1" s="143"/>
-      <c r="AH1" s="143"/>
-      <c r="AI1" s="143"/>
-      <c r="AJ1" s="143"/>
-      <c r="AK1" s="143"/>
-      <c r="AL1" s="143"/>
-      <c r="AM1" s="143"/>
-      <c r="AN1" s="143"/>
-      <c r="AO1" s="143"/>
-      <c r="AP1" s="143"/>
-      <c r="AQ1" s="143"/>
-      <c r="AR1" s="143"/>
-      <c r="AS1" s="143"/>
-      <c r="AT1" s="143"/>
-      <c r="AU1" s="143"/>
-      <c r="AV1" s="144"/>
+      <c r="AG1" s="150"/>
+      <c r="AH1" s="150"/>
+      <c r="AI1" s="150"/>
+      <c r="AJ1" s="150"/>
+      <c r="AK1" s="150"/>
+      <c r="AL1" s="150"/>
+      <c r="AM1" s="150"/>
+      <c r="AN1" s="150"/>
+      <c r="AO1" s="150"/>
+      <c r="AP1" s="150"/>
+      <c r="AQ1" s="150"/>
+      <c r="AR1" s="150"/>
+      <c r="AS1" s="150"/>
+      <c r="AT1" s="150"/>
+      <c r="AU1" s="150"/>
+      <c r="AV1" s="151"/>
     </row>
     <row r="2" spans="1:48" ht="14.1" customHeight="1">
-      <c r="A2" s="135"/>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="138"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="138"/>
-      <c r="Q2" s="138"/>
-      <c r="R2" s="138"/>
-      <c r="S2" s="138"/>
-      <c r="T2" s="138"/>
-      <c r="U2" s="138"/>
-      <c r="V2" s="138"/>
-      <c r="W2" s="138"/>
-      <c r="X2" s="138"/>
-      <c r="Y2" s="138"/>
-      <c r="Z2" s="138"/>
-      <c r="AA2" s="138"/>
-      <c r="AB2" s="138"/>
-      <c r="AC2" s="138"/>
-      <c r="AD2" s="138"/>
-      <c r="AE2" s="138"/>
-      <c r="AF2" s="139" t="s">
+      <c r="A2" s="142"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="145"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="145"/>
+      <c r="R2" s="145"/>
+      <c r="S2" s="145"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="145"/>
+      <c r="W2" s="145"/>
+      <c r="X2" s="145"/>
+      <c r="Y2" s="145"/>
+      <c r="Z2" s="145"/>
+      <c r="AA2" s="145"/>
+      <c r="AB2" s="145"/>
+      <c r="AC2" s="145"/>
+      <c r="AD2" s="145"/>
+      <c r="AE2" s="145"/>
+      <c r="AF2" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="AG2" s="140"/>
-      <c r="AH2" s="140"/>
-      <c r="AI2" s="140"/>
-      <c r="AJ2" s="140"/>
-      <c r="AK2" s="140"/>
-      <c r="AL2" s="140"/>
-      <c r="AM2" s="140"/>
-      <c r="AN2" s="140"/>
-      <c r="AO2" s="140"/>
-      <c r="AP2" s="140"/>
-      <c r="AQ2" s="140"/>
-      <c r="AR2" s="140"/>
-      <c r="AS2" s="140"/>
-      <c r="AT2" s="140"/>
-      <c r="AU2" s="140"/>
-      <c r="AV2" s="141"/>
+      <c r="AG2" s="147"/>
+      <c r="AH2" s="147"/>
+      <c r="AI2" s="147"/>
+      <c r="AJ2" s="147"/>
+      <c r="AK2" s="147"/>
+      <c r="AL2" s="147"/>
+      <c r="AM2" s="147"/>
+      <c r="AN2" s="147"/>
+      <c r="AO2" s="147"/>
+      <c r="AP2" s="147"/>
+      <c r="AQ2" s="147"/>
+      <c r="AR2" s="147"/>
+      <c r="AS2" s="147"/>
+      <c r="AT2" s="147"/>
+      <c r="AU2" s="147"/>
+      <c r="AV2" s="148"/>
     </row>
     <row r="3" spans="1:48">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="165" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="153" t="str">
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="159" t="str">
         <f>Cover!D45</f>
         <v>SCR_003</v>
       </c>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="165" t="s">
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="161"/>
+      <c r="L3" s="171" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="160"/>
-      <c r="N3" s="160"/>
-      <c r="O3" s="160"/>
-      <c r="P3" s="160"/>
-      <c r="Q3" s="161"/>
-      <c r="R3" s="147" t="str">
+      <c r="M3" s="166"/>
+      <c r="N3" s="166"/>
+      <c r="O3" s="166"/>
+      <c r="P3" s="166"/>
+      <c r="Q3" s="167"/>
+      <c r="R3" s="153" t="str">
         <f>Cover!L45</f>
         <v>Giao diện quản trị</v>
       </c>
-      <c r="S3" s="148"/>
-      <c r="T3" s="148"/>
-      <c r="U3" s="148"/>
-      <c r="V3" s="148"/>
-      <c r="W3" s="148"/>
-      <c r="X3" s="148"/>
-      <c r="Y3" s="148"/>
-      <c r="Z3" s="148"/>
-      <c r="AA3" s="148"/>
-      <c r="AB3" s="148"/>
-      <c r="AC3" s="148"/>
-      <c r="AD3" s="148"/>
-      <c r="AE3" s="149"/>
-      <c r="AF3" s="145" t="s">
+      <c r="S3" s="154"/>
+      <c r="T3" s="154"/>
+      <c r="U3" s="154"/>
+      <c r="V3" s="154"/>
+      <c r="W3" s="154"/>
+      <c r="X3" s="154"/>
+      <c r="Y3" s="154"/>
+      <c r="Z3" s="154"/>
+      <c r="AA3" s="154"/>
+      <c r="AB3" s="154"/>
+      <c r="AC3" s="154"/>
+      <c r="AD3" s="154"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="AG3" s="145"/>
-      <c r="AH3" s="145"/>
-      <c r="AI3" s="145"/>
-      <c r="AJ3" s="145"/>
-      <c r="AK3" s="180">
+      <c r="AG3" s="139"/>
+      <c r="AH3" s="139"/>
+      <c r="AI3" s="139"/>
+      <c r="AJ3" s="139"/>
+      <c r="AK3" s="212">
         <v>42781</v>
       </c>
-      <c r="AL3" s="180"/>
-      <c r="AM3" s="180"/>
-      <c r="AN3" s="180"/>
-      <c r="AO3" s="145" t="s">
+      <c r="AL3" s="212"/>
+      <c r="AM3" s="212"/>
+      <c r="AN3" s="212"/>
+      <c r="AO3" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="AP3" s="145"/>
-      <c r="AQ3" s="145"/>
-      <c r="AR3" s="145"/>
-      <c r="AS3" s="167"/>
-      <c r="AT3" s="167"/>
-      <c r="AU3" s="167"/>
-      <c r="AV3" s="168"/>
+      <c r="AP3" s="139"/>
+      <c r="AQ3" s="139"/>
+      <c r="AR3" s="139"/>
+      <c r="AS3" s="173"/>
+      <c r="AT3" s="173"/>
+      <c r="AU3" s="173"/>
+      <c r="AV3" s="174"/>
     </row>
     <row r="4" spans="1:48">
-      <c r="A4" s="162"/>
-      <c r="B4" s="163"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="164"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="157"/>
-      <c r="H4" s="157"/>
-      <c r="I4" s="157"/>
-      <c r="J4" s="157"/>
-      <c r="K4" s="158"/>
-      <c r="L4" s="166"/>
-      <c r="M4" s="163"/>
-      <c r="N4" s="163"/>
-      <c r="O4" s="163"/>
-      <c r="P4" s="163"/>
-      <c r="Q4" s="164"/>
-      <c r="R4" s="150"/>
-      <c r="S4" s="151"/>
-      <c r="T4" s="151"/>
-      <c r="U4" s="151"/>
-      <c r="V4" s="151"/>
-      <c r="W4" s="151"/>
-      <c r="X4" s="151"/>
-      <c r="Y4" s="151"/>
-      <c r="Z4" s="151"/>
-      <c r="AA4" s="151"/>
-      <c r="AB4" s="151"/>
-      <c r="AC4" s="151"/>
-      <c r="AD4" s="151"/>
-      <c r="AE4" s="152"/>
-      <c r="AF4" s="169" t="s">
+      <c r="A4" s="168"/>
+      <c r="B4" s="169"/>
+      <c r="C4" s="169"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="162"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="164"/>
+      <c r="L4" s="172"/>
+      <c r="M4" s="169"/>
+      <c r="N4" s="169"/>
+      <c r="O4" s="169"/>
+      <c r="P4" s="169"/>
+      <c r="Q4" s="170"/>
+      <c r="R4" s="156"/>
+      <c r="S4" s="157"/>
+      <c r="T4" s="157"/>
+      <c r="U4" s="157"/>
+      <c r="V4" s="157"/>
+      <c r="W4" s="157"/>
+      <c r="X4" s="157"/>
+      <c r="Y4" s="157"/>
+      <c r="Z4" s="157"/>
+      <c r="AA4" s="157"/>
+      <c r="AB4" s="157"/>
+      <c r="AC4" s="157"/>
+      <c r="AD4" s="157"/>
+      <c r="AE4" s="158"/>
+      <c r="AF4" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="AG4" s="169"/>
-      <c r="AH4" s="169"/>
-      <c r="AI4" s="169"/>
-      <c r="AJ4" s="169"/>
-      <c r="AK4" s="179"/>
-      <c r="AL4" s="179"/>
-      <c r="AM4" s="179"/>
-      <c r="AN4" s="179"/>
-      <c r="AO4" s="169" t="s">
+      <c r="AG4" s="175"/>
+      <c r="AH4" s="175"/>
+      <c r="AI4" s="175"/>
+      <c r="AJ4" s="175"/>
+      <c r="AK4" s="211"/>
+      <c r="AL4" s="211"/>
+      <c r="AM4" s="211"/>
+      <c r="AN4" s="211"/>
+      <c r="AO4" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="AP4" s="169"/>
-      <c r="AQ4" s="169"/>
-      <c r="AR4" s="169"/>
-      <c r="AS4" s="171"/>
-      <c r="AT4" s="171"/>
-      <c r="AU4" s="171"/>
-      <c r="AV4" s="172"/>
+      <c r="AP4" s="175"/>
+      <c r="AQ4" s="175"/>
+      <c r="AR4" s="175"/>
+      <c r="AS4" s="177"/>
+      <c r="AT4" s="177"/>
+      <c r="AU4" s="177"/>
+      <c r="AV4" s="178"/>
     </row>
     <row r="5" spans="1:48">
       <c r="A5" s="17"/>
@@ -21709,48 +21709,48 @@
       <c r="C42" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="173" t="s">
+      <c r="D42" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="174"/>
-      <c r="F42" s="174"/>
-      <c r="G42" s="174"/>
-      <c r="H42" s="174"/>
-      <c r="I42" s="174"/>
-      <c r="J42" s="174"/>
-      <c r="K42" s="175"/>
-      <c r="L42" s="173" t="s">
+      <c r="E42" s="134"/>
+      <c r="F42" s="134"/>
+      <c r="G42" s="134"/>
+      <c r="H42" s="134"/>
+      <c r="I42" s="134"/>
+      <c r="J42" s="134"/>
+      <c r="K42" s="135"/>
+      <c r="L42" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="M42" s="174"/>
-      <c r="N42" s="174"/>
-      <c r="O42" s="174"/>
-      <c r="P42" s="174"/>
-      <c r="Q42" s="174"/>
-      <c r="R42" s="174"/>
-      <c r="S42" s="174"/>
-      <c r="T42" s="174"/>
-      <c r="U42" s="174"/>
-      <c r="V42" s="174"/>
-      <c r="W42" s="174"/>
-      <c r="X42" s="174"/>
-      <c r="Y42" s="175"/>
-      <c r="Z42" s="173" t="s">
+      <c r="M42" s="134"/>
+      <c r="N42" s="134"/>
+      <c r="O42" s="134"/>
+      <c r="P42" s="134"/>
+      <c r="Q42" s="134"/>
+      <c r="R42" s="134"/>
+      <c r="S42" s="134"/>
+      <c r="T42" s="134"/>
+      <c r="U42" s="134"/>
+      <c r="V42" s="134"/>
+      <c r="W42" s="134"/>
+      <c r="X42" s="134"/>
+      <c r="Y42" s="135"/>
+      <c r="Z42" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="AA42" s="174"/>
-      <c r="AB42" s="174"/>
-      <c r="AC42" s="174"/>
-      <c r="AD42" s="174"/>
-      <c r="AE42" s="174"/>
-      <c r="AF42" s="174"/>
-      <c r="AG42" s="174"/>
-      <c r="AH42" s="174"/>
-      <c r="AI42" s="174"/>
-      <c r="AJ42" s="174"/>
-      <c r="AK42" s="174"/>
-      <c r="AL42" s="174"/>
-      <c r="AM42" s="175"/>
+      <c r="AA42" s="134"/>
+      <c r="AB42" s="134"/>
+      <c r="AC42" s="134"/>
+      <c r="AD42" s="134"/>
+      <c r="AE42" s="134"/>
+      <c r="AF42" s="134"/>
+      <c r="AG42" s="134"/>
+      <c r="AH42" s="134"/>
+      <c r="AI42" s="134"/>
+      <c r="AJ42" s="134"/>
+      <c r="AK42" s="134"/>
+      <c r="AL42" s="134"/>
+      <c r="AM42" s="135"/>
       <c r="AN42" s="15"/>
       <c r="AO42" s="14"/>
       <c r="AP42" s="14"/>
@@ -23272,6 +23272,14 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="20">
+    <mergeCell ref="D42:K42"/>
+    <mergeCell ref="L42:Y42"/>
+    <mergeCell ref="Z42:AM42"/>
+    <mergeCell ref="Z43:AM43"/>
+    <mergeCell ref="AO3:AR3"/>
+    <mergeCell ref="AF4:AJ4"/>
+    <mergeCell ref="AK4:AN4"/>
+    <mergeCell ref="AO4:AR4"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:AE2"/>
     <mergeCell ref="AF1:AV1"/>
@@ -23284,14 +23292,6 @@
     <mergeCell ref="AK3:AN3"/>
     <mergeCell ref="AS3:AV3"/>
     <mergeCell ref="AS4:AV4"/>
-    <mergeCell ref="D42:K42"/>
-    <mergeCell ref="L42:Y42"/>
-    <mergeCell ref="Z42:AM42"/>
-    <mergeCell ref="Z43:AM43"/>
-    <mergeCell ref="AO3:AR3"/>
-    <mergeCell ref="AF4:AJ4"/>
-    <mergeCell ref="AK4:AN4"/>
-    <mergeCell ref="AO4:AR4"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.3" top="0.53749999999999998" bottom="0.3" header="0.3" footer="0.2"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -23313,232 +23313,232 @@
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:48" ht="12.2" customHeight="1">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="140" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="137" t="s">
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="144" t="s">
         <v>204</v>
       </c>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="137"/>
-      <c r="S1" s="137"/>
-      <c r="T1" s="137"/>
-      <c r="U1" s="137"/>
-      <c r="V1" s="137"/>
-      <c r="W1" s="137"/>
-      <c r="X1" s="137"/>
-      <c r="Y1" s="137"/>
-      <c r="Z1" s="137"/>
-      <c r="AA1" s="137"/>
-      <c r="AB1" s="137"/>
-      <c r="AC1" s="137"/>
-      <c r="AD1" s="137"/>
-      <c r="AE1" s="137"/>
-      <c r="AF1" s="142" t="s">
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="144"/>
+      <c r="M1" s="144"/>
+      <c r="N1" s="144"/>
+      <c r="O1" s="144"/>
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="144"/>
+      <c r="S1" s="144"/>
+      <c r="T1" s="144"/>
+      <c r="U1" s="144"/>
+      <c r="V1" s="144"/>
+      <c r="W1" s="144"/>
+      <c r="X1" s="144"/>
+      <c r="Y1" s="144"/>
+      <c r="Z1" s="144"/>
+      <c r="AA1" s="144"/>
+      <c r="AB1" s="144"/>
+      <c r="AC1" s="144"/>
+      <c r="AD1" s="144"/>
+      <c r="AE1" s="144"/>
+      <c r="AF1" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="AG1" s="143"/>
-      <c r="AH1" s="143"/>
-      <c r="AI1" s="143"/>
-      <c r="AJ1" s="143"/>
-      <c r="AK1" s="143"/>
-      <c r="AL1" s="143"/>
-      <c r="AM1" s="143"/>
-      <c r="AN1" s="143"/>
-      <c r="AO1" s="143"/>
-      <c r="AP1" s="143"/>
-      <c r="AQ1" s="143"/>
-      <c r="AR1" s="143"/>
-      <c r="AS1" s="143"/>
-      <c r="AT1" s="143"/>
-      <c r="AU1" s="143"/>
-      <c r="AV1" s="144"/>
+      <c r="AG1" s="150"/>
+      <c r="AH1" s="150"/>
+      <c r="AI1" s="150"/>
+      <c r="AJ1" s="150"/>
+      <c r="AK1" s="150"/>
+      <c r="AL1" s="150"/>
+      <c r="AM1" s="150"/>
+      <c r="AN1" s="150"/>
+      <c r="AO1" s="150"/>
+      <c r="AP1" s="150"/>
+      <c r="AQ1" s="150"/>
+      <c r="AR1" s="150"/>
+      <c r="AS1" s="150"/>
+      <c r="AT1" s="150"/>
+      <c r="AU1" s="150"/>
+      <c r="AV1" s="151"/>
     </row>
     <row r="2" spans="1:48" ht="14.1" customHeight="1">
-      <c r="A2" s="135"/>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="138"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="138"/>
-      <c r="Q2" s="138"/>
-      <c r="R2" s="138"/>
-      <c r="S2" s="138"/>
-      <c r="T2" s="138"/>
-      <c r="U2" s="138"/>
-      <c r="V2" s="138"/>
-      <c r="W2" s="138"/>
-      <c r="X2" s="138"/>
-      <c r="Y2" s="138"/>
-      <c r="Z2" s="138"/>
-      <c r="AA2" s="138"/>
-      <c r="AB2" s="138"/>
-      <c r="AC2" s="138"/>
-      <c r="AD2" s="138"/>
-      <c r="AE2" s="138"/>
-      <c r="AF2" s="139" t="s">
+      <c r="A2" s="142"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="145"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="145"/>
+      <c r="R2" s="145"/>
+      <c r="S2" s="145"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="145"/>
+      <c r="W2" s="145"/>
+      <c r="X2" s="145"/>
+      <c r="Y2" s="145"/>
+      <c r="Z2" s="145"/>
+      <c r="AA2" s="145"/>
+      <c r="AB2" s="145"/>
+      <c r="AC2" s="145"/>
+      <c r="AD2" s="145"/>
+      <c r="AE2" s="145"/>
+      <c r="AF2" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="AG2" s="140"/>
-      <c r="AH2" s="140"/>
-      <c r="AI2" s="140"/>
-      <c r="AJ2" s="140"/>
-      <c r="AK2" s="140"/>
-      <c r="AL2" s="140"/>
-      <c r="AM2" s="140"/>
-      <c r="AN2" s="140"/>
-      <c r="AO2" s="140"/>
-      <c r="AP2" s="140"/>
-      <c r="AQ2" s="140"/>
-      <c r="AR2" s="140"/>
-      <c r="AS2" s="140"/>
-      <c r="AT2" s="140"/>
-      <c r="AU2" s="140"/>
-      <c r="AV2" s="141"/>
+      <c r="AG2" s="147"/>
+      <c r="AH2" s="147"/>
+      <c r="AI2" s="147"/>
+      <c r="AJ2" s="147"/>
+      <c r="AK2" s="147"/>
+      <c r="AL2" s="147"/>
+      <c r="AM2" s="147"/>
+      <c r="AN2" s="147"/>
+      <c r="AO2" s="147"/>
+      <c r="AP2" s="147"/>
+      <c r="AQ2" s="147"/>
+      <c r="AR2" s="147"/>
+      <c r="AS2" s="147"/>
+      <c r="AT2" s="147"/>
+      <c r="AU2" s="147"/>
+      <c r="AV2" s="148"/>
     </row>
     <row r="3" spans="1:48">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="147" t="str">
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="153" t="str">
         <f>Cover!D43</f>
         <v>SCR_001</v>
       </c>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="165" t="s">
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="171" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="160"/>
-      <c r="N3" s="160"/>
-      <c r="O3" s="160"/>
-      <c r="P3" s="160"/>
-      <c r="Q3" s="161"/>
-      <c r="R3" s="147" t="str">
+      <c r="M3" s="166"/>
+      <c r="N3" s="166"/>
+      <c r="O3" s="166"/>
+      <c r="P3" s="166"/>
+      <c r="Q3" s="167"/>
+      <c r="R3" s="153" t="str">
         <f>Cover!L43</f>
         <v>Giao diện chính</v>
       </c>
-      <c r="S3" s="148"/>
-      <c r="T3" s="148"/>
-      <c r="U3" s="148"/>
-      <c r="V3" s="148"/>
-      <c r="W3" s="148"/>
-      <c r="X3" s="148"/>
-      <c r="Y3" s="148"/>
-      <c r="Z3" s="148"/>
-      <c r="AA3" s="148"/>
-      <c r="AB3" s="148"/>
-      <c r="AC3" s="148"/>
-      <c r="AD3" s="148"/>
-      <c r="AE3" s="149"/>
-      <c r="AF3" s="145" t="s">
+      <c r="S3" s="154"/>
+      <c r="T3" s="154"/>
+      <c r="U3" s="154"/>
+      <c r="V3" s="154"/>
+      <c r="W3" s="154"/>
+      <c r="X3" s="154"/>
+      <c r="Y3" s="154"/>
+      <c r="Z3" s="154"/>
+      <c r="AA3" s="154"/>
+      <c r="AB3" s="154"/>
+      <c r="AC3" s="154"/>
+      <c r="AD3" s="154"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="AG3" s="145"/>
-      <c r="AH3" s="145"/>
-      <c r="AI3" s="145"/>
-      <c r="AJ3" s="145"/>
-      <c r="AK3" s="180">
+      <c r="AG3" s="139"/>
+      <c r="AH3" s="139"/>
+      <c r="AI3" s="139"/>
+      <c r="AJ3" s="139"/>
+      <c r="AK3" s="212">
         <v>42781</v>
       </c>
-      <c r="AL3" s="180"/>
-      <c r="AM3" s="180"/>
-      <c r="AN3" s="180"/>
-      <c r="AO3" s="145" t="s">
+      <c r="AL3" s="212"/>
+      <c r="AM3" s="212"/>
+      <c r="AN3" s="212"/>
+      <c r="AO3" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="AP3" s="145"/>
-      <c r="AQ3" s="145"/>
-      <c r="AR3" s="145"/>
-      <c r="AS3" s="167"/>
-      <c r="AT3" s="167"/>
-      <c r="AU3" s="167"/>
-      <c r="AV3" s="168"/>
+      <c r="AP3" s="139"/>
+      <c r="AQ3" s="139"/>
+      <c r="AR3" s="139"/>
+      <c r="AS3" s="173"/>
+      <c r="AT3" s="173"/>
+      <c r="AU3" s="173"/>
+      <c r="AV3" s="174"/>
     </row>
     <row r="4" spans="1:48">
-      <c r="A4" s="162"/>
-      <c r="B4" s="163"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="164"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="151"/>
-      <c r="H4" s="151"/>
-      <c r="I4" s="151"/>
-      <c r="J4" s="151"/>
-      <c r="K4" s="152"/>
-      <c r="L4" s="166"/>
-      <c r="M4" s="163"/>
-      <c r="N4" s="163"/>
-      <c r="O4" s="163"/>
-      <c r="P4" s="163"/>
-      <c r="Q4" s="164"/>
-      <c r="R4" s="150"/>
-      <c r="S4" s="151"/>
-      <c r="T4" s="151"/>
-      <c r="U4" s="151"/>
-      <c r="V4" s="151"/>
-      <c r="W4" s="151"/>
-      <c r="X4" s="151"/>
-      <c r="Y4" s="151"/>
-      <c r="Z4" s="151"/>
-      <c r="AA4" s="151"/>
-      <c r="AB4" s="151"/>
-      <c r="AC4" s="151"/>
-      <c r="AD4" s="151"/>
-      <c r="AE4" s="152"/>
-      <c r="AF4" s="169" t="s">
+      <c r="A4" s="168"/>
+      <c r="B4" s="169"/>
+      <c r="C4" s="169"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="156"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="157"/>
+      <c r="I4" s="157"/>
+      <c r="J4" s="157"/>
+      <c r="K4" s="158"/>
+      <c r="L4" s="172"/>
+      <c r="M4" s="169"/>
+      <c r="N4" s="169"/>
+      <c r="O4" s="169"/>
+      <c r="P4" s="169"/>
+      <c r="Q4" s="170"/>
+      <c r="R4" s="156"/>
+      <c r="S4" s="157"/>
+      <c r="T4" s="157"/>
+      <c r="U4" s="157"/>
+      <c r="V4" s="157"/>
+      <c r="W4" s="157"/>
+      <c r="X4" s="157"/>
+      <c r="Y4" s="157"/>
+      <c r="Z4" s="157"/>
+      <c r="AA4" s="157"/>
+      <c r="AB4" s="157"/>
+      <c r="AC4" s="157"/>
+      <c r="AD4" s="157"/>
+      <c r="AE4" s="158"/>
+      <c r="AF4" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="AG4" s="169"/>
-      <c r="AH4" s="169"/>
-      <c r="AI4" s="169"/>
-      <c r="AJ4" s="169"/>
-      <c r="AK4" s="179"/>
-      <c r="AL4" s="179"/>
-      <c r="AM4" s="179"/>
-      <c r="AN4" s="179"/>
-      <c r="AO4" s="169" t="s">
+      <c r="AG4" s="175"/>
+      <c r="AH4" s="175"/>
+      <c r="AI4" s="175"/>
+      <c r="AJ4" s="175"/>
+      <c r="AK4" s="211"/>
+      <c r="AL4" s="211"/>
+      <c r="AM4" s="211"/>
+      <c r="AN4" s="211"/>
+      <c r="AO4" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="AP4" s="169"/>
-      <c r="AQ4" s="169"/>
-      <c r="AR4" s="169"/>
-      <c r="AS4" s="171"/>
-      <c r="AT4" s="171"/>
-      <c r="AU4" s="171"/>
-      <c r="AV4" s="172"/>
+      <c r="AP4" s="175"/>
+      <c r="AQ4" s="175"/>
+      <c r="AR4" s="175"/>
+      <c r="AS4" s="177"/>
+      <c r="AT4" s="177"/>
+      <c r="AU4" s="177"/>
+      <c r="AV4" s="178"/>
     </row>
     <row r="5" spans="1:48">
       <c r="A5" s="17"/>

--- a/doc/design/RFID_ScreenDesign_v1.0.xlsx
+++ b/doc/design/RFID_ScreenDesign_v1.0.xlsx
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="219">
   <si>
     <r>
       <t>*A - Add</t>
@@ -771,6 +771,12 @@
   <si>
     <t>Vùng chuyển hướng</t>
   </si>
+  <si>
+    <t>Màn hình chính:</t>
+  </si>
+  <si>
+    <t>Sau khi quét thẻ:</t>
+  </si>
 </sst>
 </file>
 
@@ -780,7 +786,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="46">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1057,6 +1063,22 @@
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="32">
@@ -1779,7 +1801,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="37" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="10" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2009,27 +2031,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="31" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="31" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="24" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="7" borderId="28" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2065,6 +2066,9 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="7" borderId="35" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="24" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="18" fillId="0" borderId="24" xfId="38" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2147,70 +2151,32 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="41" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="41" fillId="31" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="31" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="26" xfId="38" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="24" xfId="38" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2238,12 +2204,68 @@
     <xf numFmtId="0" fontId="27" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="26" xfId="38" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="24" xfId="38" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2254,6 +2276,8 @@
     <xf numFmtId="0" fontId="28" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -2675,7 +2699,15 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Click "Trang</a:t>
+            <a:t>Click "Về</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>trang</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
@@ -3348,14 +3380,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>144464</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>30164</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>52226</xdr:rowOff>
+      <xdr:rowOff>128426</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3384,8 +3416,63 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="276225" y="3135314"/>
+          <a:off x="276225" y="3211514"/>
           <a:ext cx="8439150" cy="1050762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>99294</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>106292</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE908938-F31C-4371-BA68-DCE4B073609D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371475" y="4600575"/>
+          <a:ext cx="8300319" cy="2878067"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3949,239 +4036,239 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV72"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A32" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="BB10" sqref="BB10"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AQ11" sqref="AQ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:48" ht="12.2" customHeight="1">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="133" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="144" t="s">
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="137" t="s">
         <v>204</v>
       </c>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="144"/>
-      <c r="M1" s="144"/>
-      <c r="N1" s="144"/>
-      <c r="O1" s="144"/>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="144"/>
-      <c r="R1" s="144"/>
-      <c r="S1" s="144"/>
-      <c r="T1" s="144"/>
-      <c r="U1" s="144"/>
-      <c r="V1" s="144"/>
-      <c r="W1" s="144"/>
-      <c r="X1" s="144"/>
-      <c r="Y1" s="144"/>
-      <c r="Z1" s="144"/>
-      <c r="AA1" s="144"/>
-      <c r="AB1" s="144"/>
-      <c r="AC1" s="144"/>
-      <c r="AD1" s="144"/>
-      <c r="AE1" s="144"/>
-      <c r="AF1" s="149" t="s">
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="137"/>
+      <c r="T1" s="137"/>
+      <c r="U1" s="137"/>
+      <c r="V1" s="137"/>
+      <c r="W1" s="137"/>
+      <c r="X1" s="137"/>
+      <c r="Y1" s="137"/>
+      <c r="Z1" s="137"/>
+      <c r="AA1" s="137"/>
+      <c r="AB1" s="137"/>
+      <c r="AC1" s="137"/>
+      <c r="AD1" s="137"/>
+      <c r="AE1" s="137"/>
+      <c r="AF1" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="AG1" s="150"/>
-      <c r="AH1" s="150"/>
-      <c r="AI1" s="150"/>
-      <c r="AJ1" s="150"/>
-      <c r="AK1" s="150"/>
-      <c r="AL1" s="150"/>
-      <c r="AM1" s="150"/>
-      <c r="AN1" s="150"/>
-      <c r="AO1" s="150"/>
-      <c r="AP1" s="150"/>
-      <c r="AQ1" s="150"/>
-      <c r="AR1" s="150"/>
-      <c r="AS1" s="150"/>
-      <c r="AT1" s="150"/>
-      <c r="AU1" s="150"/>
-      <c r="AV1" s="151"/>
+      <c r="AG1" s="143"/>
+      <c r="AH1" s="143"/>
+      <c r="AI1" s="143"/>
+      <c r="AJ1" s="143"/>
+      <c r="AK1" s="143"/>
+      <c r="AL1" s="143"/>
+      <c r="AM1" s="143"/>
+      <c r="AN1" s="143"/>
+      <c r="AO1" s="143"/>
+      <c r="AP1" s="143"/>
+      <c r="AQ1" s="143"/>
+      <c r="AR1" s="143"/>
+      <c r="AS1" s="143"/>
+      <c r="AT1" s="143"/>
+      <c r="AU1" s="143"/>
+      <c r="AV1" s="144"/>
     </row>
     <row r="2" spans="1:48" ht="14.1" customHeight="1">
-      <c r="A2" s="142"/>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="145"/>
-      <c r="O2" s="145"/>
-      <c r="P2" s="145"/>
-      <c r="Q2" s="145"/>
-      <c r="R2" s="145"/>
-      <c r="S2" s="145"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="145"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
-      <c r="Z2" s="145"/>
-      <c r="AA2" s="145"/>
-      <c r="AB2" s="145"/>
-      <c r="AC2" s="145"/>
-      <c r="AD2" s="145"/>
-      <c r="AE2" s="145"/>
-      <c r="AF2" s="146" t="s">
+      <c r="A2" s="135"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="138"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="138"/>
+      <c r="T2" s="138"/>
+      <c r="U2" s="138"/>
+      <c r="V2" s="138"/>
+      <c r="W2" s="138"/>
+      <c r="X2" s="138"/>
+      <c r="Y2" s="138"/>
+      <c r="Z2" s="138"/>
+      <c r="AA2" s="138"/>
+      <c r="AB2" s="138"/>
+      <c r="AC2" s="138"/>
+      <c r="AD2" s="138"/>
+      <c r="AE2" s="138"/>
+      <c r="AF2" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="AG2" s="147"/>
-      <c r="AH2" s="147"/>
-      <c r="AI2" s="147"/>
-      <c r="AJ2" s="147"/>
-      <c r="AK2" s="147"/>
-      <c r="AL2" s="147"/>
-      <c r="AM2" s="147"/>
-      <c r="AN2" s="147"/>
-      <c r="AO2" s="147"/>
-      <c r="AP2" s="147"/>
-      <c r="AQ2" s="147"/>
-      <c r="AR2" s="147"/>
-      <c r="AS2" s="147"/>
-      <c r="AT2" s="147"/>
-      <c r="AU2" s="147"/>
-      <c r="AV2" s="148"/>
+      <c r="AG2" s="140"/>
+      <c r="AH2" s="140"/>
+      <c r="AI2" s="140"/>
+      <c r="AJ2" s="140"/>
+      <c r="AK2" s="140"/>
+      <c r="AL2" s="140"/>
+      <c r="AM2" s="140"/>
+      <c r="AN2" s="140"/>
+      <c r="AO2" s="140"/>
+      <c r="AP2" s="140"/>
+      <c r="AQ2" s="140"/>
+      <c r="AR2" s="140"/>
+      <c r="AS2" s="140"/>
+      <c r="AT2" s="140"/>
+      <c r="AU2" s="140"/>
+      <c r="AV2" s="141"/>
     </row>
     <row r="3" spans="1:48">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="159" t="s">
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="153" t="s">
         <v>201</v>
       </c>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="171" t="s">
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="165" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="166"/>
-      <c r="N3" s="166"/>
-      <c r="O3" s="166"/>
-      <c r="P3" s="166"/>
-      <c r="Q3" s="167"/>
-      <c r="R3" s="153" t="s">
+      <c r="M3" s="160"/>
+      <c r="N3" s="160"/>
+      <c r="O3" s="160"/>
+      <c r="P3" s="160"/>
+      <c r="Q3" s="161"/>
+      <c r="R3" s="147" t="s">
         <v>202</v>
       </c>
-      <c r="S3" s="154"/>
-      <c r="T3" s="154"/>
-      <c r="U3" s="154"/>
-      <c r="V3" s="154"/>
-      <c r="W3" s="154"/>
-      <c r="X3" s="154"/>
-      <c r="Y3" s="154"/>
-      <c r="Z3" s="154"/>
-      <c r="AA3" s="154"/>
-      <c r="AB3" s="154"/>
-      <c r="AC3" s="154"/>
-      <c r="AD3" s="154"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="139" t="s">
+      <c r="S3" s="148"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="148"/>
+      <c r="V3" s="148"/>
+      <c r="W3" s="148"/>
+      <c r="X3" s="148"/>
+      <c r="Y3" s="148"/>
+      <c r="Z3" s="148"/>
+      <c r="AA3" s="148"/>
+      <c r="AB3" s="148"/>
+      <c r="AC3" s="148"/>
+      <c r="AD3" s="148"/>
+      <c r="AE3" s="149"/>
+      <c r="AF3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="AG3" s="139"/>
-      <c r="AH3" s="139"/>
-      <c r="AI3" s="139"/>
-      <c r="AJ3" s="139"/>
-      <c r="AK3" s="152">
+      <c r="AG3" s="145"/>
+      <c r="AH3" s="145"/>
+      <c r="AI3" s="145"/>
+      <c r="AJ3" s="145"/>
+      <c r="AK3" s="146">
         <v>42781</v>
       </c>
-      <c r="AL3" s="152"/>
-      <c r="AM3" s="152"/>
-      <c r="AN3" s="152"/>
-      <c r="AO3" s="139" t="s">
+      <c r="AL3" s="146"/>
+      <c r="AM3" s="146"/>
+      <c r="AN3" s="146"/>
+      <c r="AO3" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="AP3" s="139"/>
-      <c r="AQ3" s="139"/>
-      <c r="AR3" s="139"/>
-      <c r="AS3" s="173" t="s">
+      <c r="AP3" s="145"/>
+      <c r="AQ3" s="145"/>
+      <c r="AR3" s="145"/>
+      <c r="AS3" s="167" t="s">
         <v>203</v>
       </c>
-      <c r="AT3" s="173"/>
-      <c r="AU3" s="173"/>
-      <c r="AV3" s="174"/>
+      <c r="AT3" s="167"/>
+      <c r="AU3" s="167"/>
+      <c r="AV3" s="168"/>
     </row>
     <row r="4" spans="1:48">
-      <c r="A4" s="168"/>
-      <c r="B4" s="169"/>
-      <c r="C4" s="169"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="162"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163"/>
-      <c r="I4" s="163"/>
-      <c r="J4" s="163"/>
-      <c r="K4" s="164"/>
-      <c r="L4" s="172"/>
-      <c r="M4" s="169"/>
-      <c r="N4" s="169"/>
-      <c r="O4" s="169"/>
-      <c r="P4" s="169"/>
-      <c r="Q4" s="170"/>
-      <c r="R4" s="156"/>
-      <c r="S4" s="157"/>
-      <c r="T4" s="157"/>
-      <c r="U4" s="157"/>
-      <c r="V4" s="157"/>
-      <c r="W4" s="157"/>
-      <c r="X4" s="157"/>
-      <c r="Y4" s="157"/>
-      <c r="Z4" s="157"/>
-      <c r="AA4" s="157"/>
-      <c r="AB4" s="157"/>
-      <c r="AC4" s="157"/>
-      <c r="AD4" s="157"/>
-      <c r="AE4" s="158"/>
-      <c r="AF4" s="175" t="s">
+      <c r="A4" s="162"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="156"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="157"/>
+      <c r="I4" s="157"/>
+      <c r="J4" s="157"/>
+      <c r="K4" s="158"/>
+      <c r="L4" s="166"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="163"/>
+      <c r="O4" s="163"/>
+      <c r="P4" s="163"/>
+      <c r="Q4" s="164"/>
+      <c r="R4" s="150"/>
+      <c r="S4" s="151"/>
+      <c r="T4" s="151"/>
+      <c r="U4" s="151"/>
+      <c r="V4" s="151"/>
+      <c r="W4" s="151"/>
+      <c r="X4" s="151"/>
+      <c r="Y4" s="151"/>
+      <c r="Z4" s="151"/>
+      <c r="AA4" s="151"/>
+      <c r="AB4" s="151"/>
+      <c r="AC4" s="151"/>
+      <c r="AD4" s="151"/>
+      <c r="AE4" s="152"/>
+      <c r="AF4" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="AG4" s="175"/>
-      <c r="AH4" s="175"/>
-      <c r="AI4" s="175"/>
-      <c r="AJ4" s="175"/>
-      <c r="AK4" s="176"/>
-      <c r="AL4" s="176"/>
-      <c r="AM4" s="176"/>
-      <c r="AN4" s="176"/>
-      <c r="AO4" s="175" t="s">
+      <c r="AG4" s="169"/>
+      <c r="AH4" s="169"/>
+      <c r="AI4" s="169"/>
+      <c r="AJ4" s="169"/>
+      <c r="AK4" s="170"/>
+      <c r="AL4" s="170"/>
+      <c r="AM4" s="170"/>
+      <c r="AN4" s="170"/>
+      <c r="AO4" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="AP4" s="175"/>
-      <c r="AQ4" s="175"/>
-      <c r="AR4" s="175"/>
-      <c r="AS4" s="177"/>
-      <c r="AT4" s="177"/>
-      <c r="AU4" s="177"/>
-      <c r="AV4" s="178"/>
+      <c r="AP4" s="169"/>
+      <c r="AQ4" s="169"/>
+      <c r="AR4" s="169"/>
+      <c r="AS4" s="171"/>
+      <c r="AT4" s="171"/>
+      <c r="AU4" s="171"/>
+      <c r="AV4" s="172"/>
     </row>
     <row r="5" spans="1:48">
       <c r="A5" s="17"/>
@@ -6047,48 +6134,48 @@
       <c r="C42" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="133" t="s">
+      <c r="D42" s="173" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="134"/>
-      <c r="F42" s="134"/>
-      <c r="G42" s="134"/>
-      <c r="H42" s="134"/>
-      <c r="I42" s="134"/>
-      <c r="J42" s="134"/>
-      <c r="K42" s="135"/>
-      <c r="L42" s="133" t="s">
+      <c r="E42" s="174"/>
+      <c r="F42" s="174"/>
+      <c r="G42" s="174"/>
+      <c r="H42" s="174"/>
+      <c r="I42" s="174"/>
+      <c r="J42" s="174"/>
+      <c r="K42" s="175"/>
+      <c r="L42" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="M42" s="134"/>
-      <c r="N42" s="134"/>
-      <c r="O42" s="134"/>
-      <c r="P42" s="134"/>
-      <c r="Q42" s="134"/>
-      <c r="R42" s="134"/>
-      <c r="S42" s="134"/>
-      <c r="T42" s="134"/>
-      <c r="U42" s="134"/>
-      <c r="V42" s="134"/>
-      <c r="W42" s="134"/>
-      <c r="X42" s="134"/>
-      <c r="Y42" s="135"/>
-      <c r="Z42" s="133" t="s">
+      <c r="M42" s="174"/>
+      <c r="N42" s="174"/>
+      <c r="O42" s="174"/>
+      <c r="P42" s="174"/>
+      <c r="Q42" s="174"/>
+      <c r="R42" s="174"/>
+      <c r="S42" s="174"/>
+      <c r="T42" s="174"/>
+      <c r="U42" s="174"/>
+      <c r="V42" s="174"/>
+      <c r="W42" s="174"/>
+      <c r="X42" s="174"/>
+      <c r="Y42" s="175"/>
+      <c r="Z42" s="173" t="s">
         <v>20</v>
       </c>
-      <c r="AA42" s="134"/>
-      <c r="AB42" s="134"/>
-      <c r="AC42" s="134"/>
-      <c r="AD42" s="134"/>
-      <c r="AE42" s="134"/>
-      <c r="AF42" s="134"/>
-      <c r="AG42" s="134"/>
-      <c r="AH42" s="134"/>
-      <c r="AI42" s="134"/>
-      <c r="AJ42" s="134"/>
-      <c r="AK42" s="134"/>
-      <c r="AL42" s="134"/>
-      <c r="AM42" s="135"/>
+      <c r="AA42" s="174"/>
+      <c r="AB42" s="174"/>
+      <c r="AC42" s="174"/>
+      <c r="AD42" s="174"/>
+      <c r="AE42" s="174"/>
+      <c r="AF42" s="174"/>
+      <c r="AG42" s="174"/>
+      <c r="AH42" s="174"/>
+      <c r="AI42" s="174"/>
+      <c r="AJ42" s="174"/>
+      <c r="AK42" s="174"/>
+      <c r="AL42" s="174"/>
+      <c r="AM42" s="175"/>
       <c r="AN42" s="15"/>
       <c r="AO42" s="14"/>
       <c r="AP42" s="14"/>
@@ -6131,20 +6218,20 @@
       <c r="W43" s="127"/>
       <c r="X43" s="127"/>
       <c r="Y43" s="127"/>
-      <c r="Z43" s="136"/>
-      <c r="AA43" s="137"/>
-      <c r="AB43" s="137"/>
-      <c r="AC43" s="137"/>
-      <c r="AD43" s="137"/>
-      <c r="AE43" s="137"/>
-      <c r="AF43" s="137"/>
-      <c r="AG43" s="137"/>
-      <c r="AH43" s="137"/>
-      <c r="AI43" s="137"/>
-      <c r="AJ43" s="137"/>
-      <c r="AK43" s="137"/>
-      <c r="AL43" s="137"/>
-      <c r="AM43" s="138"/>
+      <c r="Z43" s="176"/>
+      <c r="AA43" s="177"/>
+      <c r="AB43" s="177"/>
+      <c r="AC43" s="177"/>
+      <c r="AD43" s="177"/>
+      <c r="AE43" s="177"/>
+      <c r="AF43" s="177"/>
+      <c r="AG43" s="177"/>
+      <c r="AH43" s="177"/>
+      <c r="AI43" s="177"/>
+      <c r="AJ43" s="177"/>
+      <c r="AK43" s="177"/>
+      <c r="AL43" s="177"/>
+      <c r="AM43" s="178"/>
       <c r="AN43" s="15"/>
       <c r="AO43" s="14"/>
       <c r="AP43" s="14"/>
@@ -7622,6 +7709,11 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="20">
+    <mergeCell ref="D42:K42"/>
+    <mergeCell ref="L42:Y42"/>
+    <mergeCell ref="Z42:AM42"/>
+    <mergeCell ref="Z43:AM43"/>
+    <mergeCell ref="AO3:AR3"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:AE2"/>
     <mergeCell ref="AF2:AV2"/>
@@ -7637,11 +7729,6 @@
     <mergeCell ref="AK4:AN4"/>
     <mergeCell ref="AO4:AR4"/>
     <mergeCell ref="AS4:AV4"/>
-    <mergeCell ref="D42:K42"/>
-    <mergeCell ref="L42:Y42"/>
-    <mergeCell ref="Z42:AM42"/>
-    <mergeCell ref="Z43:AM43"/>
-    <mergeCell ref="AO3:AR3"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.3" top="0.53749999999999998" bottom="0.3" header="0.3" footer="0.2"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7659,238 +7746,241 @@
   <dimension ref="A1:AV218"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="BE18" sqref="BE18"/>
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:48" ht="12.2" customHeight="1">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="133" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="144" t="s">
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="137" t="s">
         <v>204</v>
       </c>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="144"/>
-      <c r="M1" s="144"/>
-      <c r="N1" s="144"/>
-      <c r="O1" s="144"/>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="144"/>
-      <c r="R1" s="144"/>
-      <c r="S1" s="144"/>
-      <c r="T1" s="144"/>
-      <c r="U1" s="144"/>
-      <c r="V1" s="144"/>
-      <c r="W1" s="144"/>
-      <c r="X1" s="144"/>
-      <c r="Y1" s="144"/>
-      <c r="Z1" s="144"/>
-      <c r="AA1" s="144"/>
-      <c r="AB1" s="144"/>
-      <c r="AC1" s="144"/>
-      <c r="AD1" s="144"/>
-      <c r="AE1" s="144"/>
-      <c r="AF1" s="149" t="s">
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="137"/>
+      <c r="T1" s="137"/>
+      <c r="U1" s="137"/>
+      <c r="V1" s="137"/>
+      <c r="W1" s="137"/>
+      <c r="X1" s="137"/>
+      <c r="Y1" s="137"/>
+      <c r="Z1" s="137"/>
+      <c r="AA1" s="137"/>
+      <c r="AB1" s="137"/>
+      <c r="AC1" s="137"/>
+      <c r="AD1" s="137"/>
+      <c r="AE1" s="137"/>
+      <c r="AF1" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="AG1" s="150"/>
-      <c r="AH1" s="150"/>
-      <c r="AI1" s="150"/>
-      <c r="AJ1" s="150"/>
-      <c r="AK1" s="150"/>
-      <c r="AL1" s="150"/>
-      <c r="AM1" s="150"/>
-      <c r="AN1" s="150"/>
-      <c r="AO1" s="150"/>
-      <c r="AP1" s="150"/>
-      <c r="AQ1" s="150"/>
-      <c r="AR1" s="150"/>
-      <c r="AS1" s="150"/>
-      <c r="AT1" s="150"/>
-      <c r="AU1" s="150"/>
-      <c r="AV1" s="151"/>
+      <c r="AG1" s="143"/>
+      <c r="AH1" s="143"/>
+      <c r="AI1" s="143"/>
+      <c r="AJ1" s="143"/>
+      <c r="AK1" s="143"/>
+      <c r="AL1" s="143"/>
+      <c r="AM1" s="143"/>
+      <c r="AN1" s="143"/>
+      <c r="AO1" s="143"/>
+      <c r="AP1" s="143"/>
+      <c r="AQ1" s="143"/>
+      <c r="AR1" s="143"/>
+      <c r="AS1" s="143"/>
+      <c r="AT1" s="143"/>
+      <c r="AU1" s="143"/>
+      <c r="AV1" s="144"/>
     </row>
     <row r="2" spans="1:48" ht="14.1" customHeight="1">
-      <c r="A2" s="142"/>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="145"/>
-      <c r="O2" s="145"/>
-      <c r="P2" s="145"/>
-      <c r="Q2" s="145"/>
-      <c r="R2" s="145"/>
-      <c r="S2" s="145"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="145"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
-      <c r="Z2" s="145"/>
-      <c r="AA2" s="145"/>
-      <c r="AB2" s="145"/>
-      <c r="AC2" s="145"/>
-      <c r="AD2" s="145"/>
-      <c r="AE2" s="145"/>
-      <c r="AF2" s="146" t="s">
+      <c r="A2" s="135"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="138"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="138"/>
+      <c r="T2" s="138"/>
+      <c r="U2" s="138"/>
+      <c r="V2" s="138"/>
+      <c r="W2" s="138"/>
+      <c r="X2" s="138"/>
+      <c r="Y2" s="138"/>
+      <c r="Z2" s="138"/>
+      <c r="AA2" s="138"/>
+      <c r="AB2" s="138"/>
+      <c r="AC2" s="138"/>
+      <c r="AD2" s="138"/>
+      <c r="AE2" s="138"/>
+      <c r="AF2" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="AG2" s="147"/>
-      <c r="AH2" s="147"/>
-      <c r="AI2" s="147"/>
-      <c r="AJ2" s="147"/>
-      <c r="AK2" s="147"/>
-      <c r="AL2" s="147"/>
-      <c r="AM2" s="147"/>
-      <c r="AN2" s="147"/>
-      <c r="AO2" s="147"/>
-      <c r="AP2" s="147"/>
-      <c r="AQ2" s="147"/>
-      <c r="AR2" s="147"/>
-      <c r="AS2" s="147"/>
-      <c r="AT2" s="147"/>
-      <c r="AU2" s="147"/>
-      <c r="AV2" s="148"/>
+      <c r="AG2" s="140"/>
+      <c r="AH2" s="140"/>
+      <c r="AI2" s="140"/>
+      <c r="AJ2" s="140"/>
+      <c r="AK2" s="140"/>
+      <c r="AL2" s="140"/>
+      <c r="AM2" s="140"/>
+      <c r="AN2" s="140"/>
+      <c r="AO2" s="140"/>
+      <c r="AP2" s="140"/>
+      <c r="AQ2" s="140"/>
+      <c r="AR2" s="140"/>
+      <c r="AS2" s="140"/>
+      <c r="AT2" s="140"/>
+      <c r="AU2" s="140"/>
+      <c r="AV2" s="141"/>
     </row>
     <row r="3" spans="1:48">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="159" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="153" t="str">
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="147" t="str">
         <f>Cover!D43</f>
         <v>SCR_001</v>
       </c>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="171" t="s">
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="165" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="166"/>
-      <c r="N3" s="166"/>
-      <c r="O3" s="166"/>
-      <c r="P3" s="166"/>
-      <c r="Q3" s="167"/>
-      <c r="R3" s="153" t="str">
+      <c r="M3" s="160"/>
+      <c r="N3" s="160"/>
+      <c r="O3" s="160"/>
+      <c r="P3" s="160"/>
+      <c r="Q3" s="161"/>
+      <c r="R3" s="147" t="str">
         <f>Cover!L43</f>
         <v>Giao diện chính</v>
       </c>
-      <c r="S3" s="154"/>
-      <c r="T3" s="154"/>
-      <c r="U3" s="154"/>
-      <c r="V3" s="154"/>
-      <c r="W3" s="154"/>
-      <c r="X3" s="154"/>
-      <c r="Y3" s="154"/>
-      <c r="Z3" s="154"/>
-      <c r="AA3" s="154"/>
-      <c r="AB3" s="154"/>
-      <c r="AC3" s="154"/>
-      <c r="AD3" s="154"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="139" t="s">
+      <c r="S3" s="148"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="148"/>
+      <c r="V3" s="148"/>
+      <c r="W3" s="148"/>
+      <c r="X3" s="148"/>
+      <c r="Y3" s="148"/>
+      <c r="Z3" s="148"/>
+      <c r="AA3" s="148"/>
+      <c r="AB3" s="148"/>
+      <c r="AC3" s="148"/>
+      <c r="AD3" s="148"/>
+      <c r="AE3" s="149"/>
+      <c r="AF3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="AG3" s="139"/>
-      <c r="AH3" s="139"/>
-      <c r="AI3" s="139"/>
-      <c r="AJ3" s="139"/>
-      <c r="AK3" s="212">
+      <c r="AG3" s="145"/>
+      <c r="AH3" s="145"/>
+      <c r="AI3" s="145"/>
+      <c r="AJ3" s="145"/>
+      <c r="AK3" s="180">
         <v>42781</v>
       </c>
-      <c r="AL3" s="212"/>
-      <c r="AM3" s="212"/>
-      <c r="AN3" s="212"/>
-      <c r="AO3" s="139" t="s">
+      <c r="AL3" s="180"/>
+      <c r="AM3" s="180"/>
+      <c r="AN3" s="180"/>
+      <c r="AO3" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="AP3" s="139"/>
-      <c r="AQ3" s="139"/>
-      <c r="AR3" s="139"/>
-      <c r="AS3" s="173"/>
-      <c r="AT3" s="173"/>
-      <c r="AU3" s="173"/>
-      <c r="AV3" s="174"/>
+      <c r="AP3" s="145"/>
+      <c r="AQ3" s="145"/>
+      <c r="AR3" s="145"/>
+      <c r="AS3" s="167" t="str">
+        <f>Cover!AS3</f>
+        <v>Trần Lý Văn</v>
+      </c>
+      <c r="AT3" s="167"/>
+      <c r="AU3" s="167"/>
+      <c r="AV3" s="168"/>
     </row>
     <row r="4" spans="1:48">
-      <c r="A4" s="168"/>
-      <c r="B4" s="169"/>
-      <c r="C4" s="169"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="157"/>
-      <c r="H4" s="157"/>
-      <c r="I4" s="157"/>
-      <c r="J4" s="157"/>
-      <c r="K4" s="158"/>
-      <c r="L4" s="172"/>
-      <c r="M4" s="169"/>
-      <c r="N4" s="169"/>
-      <c r="O4" s="169"/>
-      <c r="P4" s="169"/>
-      <c r="Q4" s="170"/>
-      <c r="R4" s="156"/>
-      <c r="S4" s="157"/>
-      <c r="T4" s="157"/>
-      <c r="U4" s="157"/>
-      <c r="V4" s="157"/>
-      <c r="W4" s="157"/>
-      <c r="X4" s="157"/>
-      <c r="Y4" s="157"/>
-      <c r="Z4" s="157"/>
-      <c r="AA4" s="157"/>
-      <c r="AB4" s="157"/>
-      <c r="AC4" s="157"/>
-      <c r="AD4" s="157"/>
-      <c r="AE4" s="158"/>
-      <c r="AF4" s="175" t="s">
+      <c r="A4" s="162"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="152"/>
+      <c r="L4" s="166"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="163"/>
+      <c r="O4" s="163"/>
+      <c r="P4" s="163"/>
+      <c r="Q4" s="164"/>
+      <c r="R4" s="150"/>
+      <c r="S4" s="151"/>
+      <c r="T4" s="151"/>
+      <c r="U4" s="151"/>
+      <c r="V4" s="151"/>
+      <c r="W4" s="151"/>
+      <c r="X4" s="151"/>
+      <c r="Y4" s="151"/>
+      <c r="Z4" s="151"/>
+      <c r="AA4" s="151"/>
+      <c r="AB4" s="151"/>
+      <c r="AC4" s="151"/>
+      <c r="AD4" s="151"/>
+      <c r="AE4" s="152"/>
+      <c r="AF4" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="AG4" s="175"/>
-      <c r="AH4" s="175"/>
-      <c r="AI4" s="175"/>
-      <c r="AJ4" s="175"/>
-      <c r="AK4" s="211"/>
-      <c r="AL4" s="211"/>
-      <c r="AM4" s="211"/>
-      <c r="AN4" s="211"/>
-      <c r="AO4" s="175" t="s">
+      <c r="AG4" s="169"/>
+      <c r="AH4" s="169"/>
+      <c r="AI4" s="169"/>
+      <c r="AJ4" s="169"/>
+      <c r="AK4" s="179"/>
+      <c r="AL4" s="179"/>
+      <c r="AM4" s="179"/>
+      <c r="AN4" s="179"/>
+      <c r="AO4" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="AP4" s="175"/>
-      <c r="AQ4" s="175"/>
-      <c r="AR4" s="175"/>
-      <c r="AS4" s="177"/>
-      <c r="AT4" s="177"/>
-      <c r="AU4" s="177"/>
-      <c r="AV4" s="178"/>
+      <c r="AP4" s="169"/>
+      <c r="AQ4" s="169"/>
+      <c r="AR4" s="169"/>
+      <c r="AS4" s="171"/>
+      <c r="AT4" s="171"/>
+      <c r="AU4" s="171"/>
+      <c r="AV4" s="172"/>
     </row>
     <row r="5" spans="1:48">
       <c r="A5" s="105"/>
@@ -8511,7 +8601,9 @@
     <row r="17" spans="1:48">
       <c r="A17" s="45"/>
       <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
+      <c r="C17" s="216" t="s">
+        <v>217</v>
+      </c>
       <c r="D17" s="47"/>
       <c r="E17" s="47"/>
       <c r="F17" s="47"/>
@@ -8861,7 +8953,9 @@
     <row r="24" spans="1:48">
       <c r="A24" s="45"/>
       <c r="B24" s="15"/>
-      <c r="C24" s="126"/>
+      <c r="C24" s="217" t="s">
+        <v>218</v>
+      </c>
       <c r="D24" s="126"/>
       <c r="E24" s="126"/>
       <c r="F24" s="126"/>
@@ -12513,10 +12607,10 @@
     <row r="97" spans="1:48">
       <c r="A97" s="31"/>
       <c r="B97" s="33"/>
-      <c r="C97" s="180"/>
-      <c r="D97" s="180"/>
-      <c r="E97" s="180"/>
-      <c r="F97" s="180"/>
+      <c r="C97" s="182"/>
+      <c r="D97" s="182"/>
+      <c r="E97" s="182"/>
+      <c r="F97" s="182"/>
       <c r="G97" s="33"/>
       <c r="H97" s="33"/>
       <c r="I97" s="33"/>
@@ -12566,61 +12660,61 @@
       <c r="C98" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="D98" s="210" t="s">
+      <c r="D98" s="181" t="s">
         <v>58</v>
       </c>
-      <c r="E98" s="210"/>
-      <c r="F98" s="210"/>
-      <c r="G98" s="210"/>
-      <c r="H98" s="210"/>
-      <c r="I98" s="210"/>
-      <c r="J98" s="210"/>
-      <c r="K98" s="210" t="s">
+      <c r="E98" s="181"/>
+      <c r="F98" s="181"/>
+      <c r="G98" s="181"/>
+      <c r="H98" s="181"/>
+      <c r="I98" s="181"/>
+      <c r="J98" s="181"/>
+      <c r="K98" s="181" t="s">
         <v>59</v>
       </c>
-      <c r="L98" s="210"/>
-      <c r="M98" s="210"/>
-      <c r="N98" s="210" t="s">
+      <c r="L98" s="181"/>
+      <c r="M98" s="181"/>
+      <c r="N98" s="181" t="s">
         <v>60</v>
       </c>
-      <c r="O98" s="210"/>
-      <c r="P98" s="210"/>
-      <c r="Q98" s="210" t="s">
+      <c r="O98" s="181"/>
+      <c r="P98" s="181"/>
+      <c r="Q98" s="181" t="s">
         <v>61</v>
       </c>
-      <c r="R98" s="210"/>
-      <c r="S98" s="210" t="s">
+      <c r="R98" s="181"/>
+      <c r="S98" s="181" t="s">
         <v>62</v>
       </c>
-      <c r="T98" s="210"/>
-      <c r="U98" s="210" t="s">
+      <c r="T98" s="181"/>
+      <c r="U98" s="181" t="s">
         <v>63</v>
       </c>
-      <c r="V98" s="210"/>
-      <c r="W98" s="210"/>
-      <c r="X98" s="210"/>
-      <c r="Y98" s="210" t="s">
+      <c r="V98" s="181"/>
+      <c r="W98" s="181"/>
+      <c r="X98" s="181"/>
+      <c r="Y98" s="181" t="s">
         <v>64</v>
       </c>
-      <c r="Z98" s="210"/>
-      <c r="AA98" s="210"/>
-      <c r="AB98" s="210"/>
-      <c r="AC98" s="210" t="s">
+      <c r="Z98" s="181"/>
+      <c r="AA98" s="181"/>
+      <c r="AB98" s="181"/>
+      <c r="AC98" s="181" t="s">
         <v>4</v>
       </c>
-      <c r="AD98" s="210"/>
-      <c r="AE98" s="210"/>
-      <c r="AF98" s="210"/>
-      <c r="AG98" s="210"/>
-      <c r="AH98" s="210"/>
-      <c r="AI98" s="210"/>
-      <c r="AJ98" s="210"/>
-      <c r="AK98" s="210"/>
-      <c r="AL98" s="210"/>
-      <c r="AM98" s="210"/>
-      <c r="AN98" s="210"/>
-      <c r="AO98" s="210"/>
-      <c r="AP98" s="210"/>
+      <c r="AD98" s="181"/>
+      <c r="AE98" s="181"/>
+      <c r="AF98" s="181"/>
+      <c r="AG98" s="181"/>
+      <c r="AH98" s="181"/>
+      <c r="AI98" s="181"/>
+      <c r="AJ98" s="181"/>
+      <c r="AK98" s="181"/>
+      <c r="AL98" s="181"/>
+      <c r="AM98" s="181"/>
+      <c r="AN98" s="181"/>
+      <c r="AO98" s="181"/>
+      <c r="AP98" s="181"/>
       <c r="AQ98" s="33"/>
       <c r="AR98" s="15"/>
       <c r="AS98" s="14"/>
@@ -12632,47 +12726,47 @@
       <c r="A99" s="31"/>
       <c r="B99" s="33"/>
       <c r="C99" s="102"/>
-      <c r="D99" s="180" t="s">
+      <c r="D99" s="182" t="s">
         <v>216</v>
       </c>
-      <c r="E99" s="180"/>
-      <c r="F99" s="180"/>
-      <c r="G99" s="180"/>
-      <c r="H99" s="180"/>
-      <c r="I99" s="180"/>
-      <c r="J99" s="180"/>
-      <c r="K99" s="180"/>
-      <c r="L99" s="180"/>
-      <c r="M99" s="180"/>
-      <c r="N99" s="180"/>
-      <c r="O99" s="180"/>
-      <c r="P99" s="180"/>
-      <c r="Q99" s="180"/>
-      <c r="R99" s="180"/>
-      <c r="S99" s="180"/>
-      <c r="T99" s="180"/>
-      <c r="U99" s="180"/>
-      <c r="V99" s="180"/>
-      <c r="W99" s="180"/>
-      <c r="X99" s="180"/>
-      <c r="Y99" s="180"/>
-      <c r="Z99" s="180"/>
-      <c r="AA99" s="180"/>
-      <c r="AB99" s="180"/>
-      <c r="AC99" s="180"/>
-      <c r="AD99" s="180"/>
-      <c r="AE99" s="180"/>
-      <c r="AF99" s="180"/>
-      <c r="AG99" s="180"/>
-      <c r="AH99" s="180"/>
-      <c r="AI99" s="180"/>
-      <c r="AJ99" s="180"/>
-      <c r="AK99" s="180"/>
-      <c r="AL99" s="180"/>
-      <c r="AM99" s="180"/>
-      <c r="AN99" s="180"/>
-      <c r="AO99" s="180"/>
-      <c r="AP99" s="180"/>
+      <c r="E99" s="182"/>
+      <c r="F99" s="182"/>
+      <c r="G99" s="182"/>
+      <c r="H99" s="182"/>
+      <c r="I99" s="182"/>
+      <c r="J99" s="182"/>
+      <c r="K99" s="182"/>
+      <c r="L99" s="182"/>
+      <c r="M99" s="182"/>
+      <c r="N99" s="182"/>
+      <c r="O99" s="182"/>
+      <c r="P99" s="182"/>
+      <c r="Q99" s="182"/>
+      <c r="R99" s="182"/>
+      <c r="S99" s="182"/>
+      <c r="T99" s="182"/>
+      <c r="U99" s="182"/>
+      <c r="V99" s="182"/>
+      <c r="W99" s="182"/>
+      <c r="X99" s="182"/>
+      <c r="Y99" s="182"/>
+      <c r="Z99" s="182"/>
+      <c r="AA99" s="182"/>
+      <c r="AB99" s="182"/>
+      <c r="AC99" s="182"/>
+      <c r="AD99" s="182"/>
+      <c r="AE99" s="182"/>
+      <c r="AF99" s="182"/>
+      <c r="AG99" s="182"/>
+      <c r="AH99" s="182"/>
+      <c r="AI99" s="182"/>
+      <c r="AJ99" s="182"/>
+      <c r="AK99" s="182"/>
+      <c r="AL99" s="182"/>
+      <c r="AM99" s="182"/>
+      <c r="AN99" s="182"/>
+      <c r="AO99" s="182"/>
+      <c r="AP99" s="182"/>
       <c r="AQ99" s="33"/>
       <c r="AR99" s="15"/>
       <c r="AS99" s="14"/>
@@ -12695,18 +12789,18 @@
       <c r="H100" s="66"/>
       <c r="I100" s="66"/>
       <c r="J100" s="67"/>
-      <c r="K100" s="201" t="s">
+      <c r="K100" s="183" t="s">
         <v>66</v>
       </c>
-      <c r="L100" s="202"/>
-      <c r="M100" s="203"/>
-      <c r="N100" s="201"/>
-      <c r="O100" s="202"/>
-      <c r="P100" s="203"/>
-      <c r="Q100" s="201"/>
-      <c r="R100" s="203"/>
-      <c r="S100" s="201"/>
-      <c r="T100" s="203"/>
+      <c r="L100" s="184"/>
+      <c r="M100" s="185"/>
+      <c r="N100" s="183"/>
+      <c r="O100" s="184"/>
+      <c r="P100" s="185"/>
+      <c r="Q100" s="183"/>
+      <c r="R100" s="185"/>
+      <c r="S100" s="183"/>
+      <c r="T100" s="185"/>
       <c r="U100" s="69"/>
       <c r="V100" s="70"/>
       <c r="W100" s="70"/>
@@ -12715,22 +12809,22 @@
       <c r="Z100" s="70"/>
       <c r="AA100" s="70"/>
       <c r="AB100" s="52"/>
-      <c r="AC100" s="210" t="s">
+      <c r="AC100" s="181" t="s">
         <v>67</v>
       </c>
-      <c r="AD100" s="210"/>
-      <c r="AE100" s="210"/>
-      <c r="AF100" s="210"/>
-      <c r="AG100" s="210"/>
-      <c r="AH100" s="210"/>
-      <c r="AI100" s="210"/>
-      <c r="AJ100" s="210"/>
-      <c r="AK100" s="210"/>
-      <c r="AL100" s="210"/>
-      <c r="AM100" s="210"/>
-      <c r="AN100" s="210"/>
-      <c r="AO100" s="210"/>
-      <c r="AP100" s="210"/>
+      <c r="AD100" s="181"/>
+      <c r="AE100" s="181"/>
+      <c r="AF100" s="181"/>
+      <c r="AG100" s="181"/>
+      <c r="AH100" s="181"/>
+      <c r="AI100" s="181"/>
+      <c r="AJ100" s="181"/>
+      <c r="AK100" s="181"/>
+      <c r="AL100" s="181"/>
+      <c r="AM100" s="181"/>
+      <c r="AN100" s="181"/>
+      <c r="AO100" s="181"/>
+      <c r="AP100" s="181"/>
       <c r="AQ100" s="33"/>
       <c r="AR100" s="15"/>
       <c r="AS100" s="14"/>
@@ -12753,18 +12847,18 @@
       <c r="H101" s="66"/>
       <c r="I101" s="66"/>
       <c r="J101" s="67"/>
-      <c r="K101" s="201" t="s">
+      <c r="K101" s="183" t="s">
         <v>66</v>
       </c>
-      <c r="L101" s="202"/>
-      <c r="M101" s="203"/>
-      <c r="N101" s="201"/>
-      <c r="O101" s="202"/>
-      <c r="P101" s="203"/>
-      <c r="Q101" s="201"/>
-      <c r="R101" s="203"/>
-      <c r="S101" s="201"/>
-      <c r="T101" s="203"/>
+      <c r="L101" s="184"/>
+      <c r="M101" s="185"/>
+      <c r="N101" s="183"/>
+      <c r="O101" s="184"/>
+      <c r="P101" s="185"/>
+      <c r="Q101" s="183"/>
+      <c r="R101" s="185"/>
+      <c r="S101" s="183"/>
+      <c r="T101" s="185"/>
       <c r="U101" s="69"/>
       <c r="V101" s="70"/>
       <c r="W101" s="70"/>
@@ -12773,22 +12867,22 @@
       <c r="Z101" s="70"/>
       <c r="AA101" s="70"/>
       <c r="AB101" s="52"/>
-      <c r="AC101" s="210" t="s">
+      <c r="AC101" s="181" t="s">
         <v>69</v>
       </c>
-      <c r="AD101" s="210"/>
-      <c r="AE101" s="210"/>
-      <c r="AF101" s="210"/>
-      <c r="AG101" s="210"/>
-      <c r="AH101" s="210"/>
-      <c r="AI101" s="210"/>
-      <c r="AJ101" s="210"/>
-      <c r="AK101" s="210"/>
-      <c r="AL101" s="210"/>
-      <c r="AM101" s="210"/>
-      <c r="AN101" s="210"/>
-      <c r="AO101" s="210"/>
-      <c r="AP101" s="210"/>
+      <c r="AD101" s="181"/>
+      <c r="AE101" s="181"/>
+      <c r="AF101" s="181"/>
+      <c r="AG101" s="181"/>
+      <c r="AH101" s="181"/>
+      <c r="AI101" s="181"/>
+      <c r="AJ101" s="181"/>
+      <c r="AK101" s="181"/>
+      <c r="AL101" s="181"/>
+      <c r="AM101" s="181"/>
+      <c r="AN101" s="181"/>
+      <c r="AO101" s="181"/>
+      <c r="AP101" s="181"/>
       <c r="AQ101" s="33"/>
       <c r="AR101" s="15"/>
       <c r="AS101" s="14"/>
@@ -12811,44 +12905,44 @@
       <c r="H102" s="66"/>
       <c r="I102" s="66"/>
       <c r="J102" s="67"/>
-      <c r="K102" s="201" t="s">
+      <c r="K102" s="183" t="s">
         <v>71</v>
       </c>
-      <c r="L102" s="202"/>
-      <c r="M102" s="203"/>
-      <c r="N102" s="201" t="s">
+      <c r="L102" s="184"/>
+      <c r="M102" s="185"/>
+      <c r="N102" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="O102" s="202"/>
-      <c r="P102" s="203"/>
-      <c r="Q102" s="201" t="s">
+      <c r="O102" s="184"/>
+      <c r="P102" s="185"/>
+      <c r="Q102" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="R102" s="203"/>
-      <c r="S102" s="201"/>
-      <c r="T102" s="203"/>
+      <c r="R102" s="185"/>
+      <c r="S102" s="183"/>
+      <c r="T102" s="185"/>
       <c r="U102" s="69"/>
       <c r="V102" s="70"/>
       <c r="W102" s="70"/>
       <c r="X102" s="71"/>
-      <c r="Y102" s="180"/>
-      <c r="Z102" s="180"/>
-      <c r="AA102" s="180"/>
-      <c r="AB102" s="180"/>
-      <c r="AC102" s="210"/>
-      <c r="AD102" s="210"/>
-      <c r="AE102" s="210"/>
-      <c r="AF102" s="210"/>
-      <c r="AG102" s="210"/>
-      <c r="AH102" s="210"/>
-      <c r="AI102" s="210"/>
-      <c r="AJ102" s="210"/>
-      <c r="AK102" s="210"/>
-      <c r="AL102" s="210"/>
-      <c r="AM102" s="210"/>
-      <c r="AN102" s="210"/>
-      <c r="AO102" s="210"/>
-      <c r="AP102" s="210"/>
+      <c r="Y102" s="182"/>
+      <c r="Z102" s="182"/>
+      <c r="AA102" s="182"/>
+      <c r="AB102" s="182"/>
+      <c r="AC102" s="181"/>
+      <c r="AD102" s="181"/>
+      <c r="AE102" s="181"/>
+      <c r="AF102" s="181"/>
+      <c r="AG102" s="181"/>
+      <c r="AH102" s="181"/>
+      <c r="AI102" s="181"/>
+      <c r="AJ102" s="181"/>
+      <c r="AK102" s="181"/>
+      <c r="AL102" s="181"/>
+      <c r="AM102" s="181"/>
+      <c r="AN102" s="181"/>
+      <c r="AO102" s="181"/>
+      <c r="AP102" s="181"/>
       <c r="AQ102" s="33"/>
       <c r="AR102" s="15"/>
       <c r="AS102" s="14"/>
@@ -12871,22 +12965,22 @@
       <c r="H103" s="66"/>
       <c r="I103" s="66"/>
       <c r="J103" s="67"/>
-      <c r="K103" s="201" t="s">
+      <c r="K103" s="183" t="s">
         <v>74</v>
       </c>
-      <c r="L103" s="202"/>
-      <c r="M103" s="203"/>
-      <c r="N103" s="201" t="s">
+      <c r="L103" s="184"/>
+      <c r="M103" s="185"/>
+      <c r="N103" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="O103" s="202"/>
-      <c r="P103" s="203"/>
-      <c r="Q103" s="201" t="s">
+      <c r="O103" s="184"/>
+      <c r="P103" s="185"/>
+      <c r="Q103" s="183" t="s">
         <v>75</v>
       </c>
-      <c r="R103" s="203"/>
-      <c r="S103" s="201"/>
-      <c r="T103" s="203"/>
+      <c r="R103" s="185"/>
+      <c r="S103" s="183"/>
+      <c r="T103" s="185"/>
       <c r="U103" s="69"/>
       <c r="V103" s="70"/>
       <c r="W103" s="70"/>
@@ -12895,22 +12989,22 @@
       <c r="Z103" s="70"/>
       <c r="AA103" s="70"/>
       <c r="AB103" s="52"/>
-      <c r="AC103" s="210" t="s">
+      <c r="AC103" s="181" t="s">
         <v>76</v>
       </c>
-      <c r="AD103" s="210"/>
-      <c r="AE103" s="210"/>
-      <c r="AF103" s="210"/>
-      <c r="AG103" s="210"/>
-      <c r="AH103" s="210"/>
-      <c r="AI103" s="210"/>
-      <c r="AJ103" s="210"/>
-      <c r="AK103" s="210"/>
-      <c r="AL103" s="210"/>
-      <c r="AM103" s="210"/>
-      <c r="AN103" s="210"/>
-      <c r="AO103" s="210"/>
-      <c r="AP103" s="210"/>
+      <c r="AD103" s="181"/>
+      <c r="AE103" s="181"/>
+      <c r="AF103" s="181"/>
+      <c r="AG103" s="181"/>
+      <c r="AH103" s="181"/>
+      <c r="AI103" s="181"/>
+      <c r="AJ103" s="181"/>
+      <c r="AK103" s="181"/>
+      <c r="AL103" s="181"/>
+      <c r="AM103" s="181"/>
+      <c r="AN103" s="181"/>
+      <c r="AO103" s="181"/>
+      <c r="AP103" s="181"/>
       <c r="AQ103" s="33"/>
       <c r="AR103" s="15"/>
       <c r="AS103" s="14"/>
@@ -12933,44 +13027,44 @@
       <c r="H104" s="66"/>
       <c r="I104" s="66"/>
       <c r="J104" s="67"/>
-      <c r="K104" s="201" t="s">
+      <c r="K104" s="183" t="s">
         <v>71</v>
       </c>
-      <c r="L104" s="202"/>
-      <c r="M104" s="203"/>
-      <c r="N104" s="201" t="s">
+      <c r="L104" s="184"/>
+      <c r="M104" s="185"/>
+      <c r="N104" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="O104" s="202"/>
-      <c r="P104" s="203"/>
-      <c r="Q104" s="201" t="s">
+      <c r="O104" s="184"/>
+      <c r="P104" s="185"/>
+      <c r="Q104" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="R104" s="203"/>
-      <c r="S104" s="201"/>
-      <c r="T104" s="203"/>
+      <c r="R104" s="185"/>
+      <c r="S104" s="183"/>
+      <c r="T104" s="185"/>
       <c r="U104" s="69"/>
       <c r="V104" s="70"/>
       <c r="W104" s="70"/>
       <c r="X104" s="71"/>
-      <c r="Y104" s="180"/>
-      <c r="Z104" s="180"/>
-      <c r="AA104" s="180"/>
-      <c r="AB104" s="180"/>
-      <c r="AC104" s="210"/>
-      <c r="AD104" s="210"/>
-      <c r="AE104" s="210"/>
-      <c r="AF104" s="210"/>
-      <c r="AG104" s="210"/>
-      <c r="AH104" s="210"/>
-      <c r="AI104" s="210"/>
-      <c r="AJ104" s="210"/>
-      <c r="AK104" s="210"/>
-      <c r="AL104" s="210"/>
-      <c r="AM104" s="210"/>
-      <c r="AN104" s="210"/>
-      <c r="AO104" s="210"/>
-      <c r="AP104" s="210"/>
+      <c r="Y104" s="182"/>
+      <c r="Z104" s="182"/>
+      <c r="AA104" s="182"/>
+      <c r="AB104" s="182"/>
+      <c r="AC104" s="181"/>
+      <c r="AD104" s="181"/>
+      <c r="AE104" s="181"/>
+      <c r="AF104" s="181"/>
+      <c r="AG104" s="181"/>
+      <c r="AH104" s="181"/>
+      <c r="AI104" s="181"/>
+      <c r="AJ104" s="181"/>
+      <c r="AK104" s="181"/>
+      <c r="AL104" s="181"/>
+      <c r="AM104" s="181"/>
+      <c r="AN104" s="181"/>
+      <c r="AO104" s="181"/>
+      <c r="AP104" s="181"/>
       <c r="AQ104" s="33"/>
       <c r="AR104" s="15"/>
       <c r="AS104" s="14"/>
@@ -12993,22 +13087,22 @@
       <c r="H105" s="66"/>
       <c r="I105" s="66"/>
       <c r="J105" s="67"/>
-      <c r="K105" s="201" t="s">
+      <c r="K105" s="183" t="s">
         <v>71</v>
       </c>
-      <c r="L105" s="202"/>
-      <c r="M105" s="203"/>
-      <c r="N105" s="201" t="s">
+      <c r="L105" s="184"/>
+      <c r="M105" s="185"/>
+      <c r="N105" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="O105" s="202"/>
-      <c r="P105" s="203"/>
-      <c r="Q105" s="201" t="s">
+      <c r="O105" s="184"/>
+      <c r="P105" s="185"/>
+      <c r="Q105" s="183" t="s">
         <v>75</v>
       </c>
-      <c r="R105" s="203"/>
-      <c r="S105" s="201"/>
-      <c r="T105" s="203"/>
+      <c r="R105" s="185"/>
+      <c r="S105" s="183"/>
+      <c r="T105" s="185"/>
       <c r="U105" s="69"/>
       <c r="V105" s="70"/>
       <c r="W105" s="70"/>
@@ -13017,22 +13111,22 @@
       <c r="Z105" s="70"/>
       <c r="AA105" s="70"/>
       <c r="AB105" s="52"/>
-      <c r="AC105" s="210" t="s">
+      <c r="AC105" s="181" t="s">
         <v>79</v>
       </c>
-      <c r="AD105" s="210"/>
-      <c r="AE105" s="210"/>
-      <c r="AF105" s="210"/>
-      <c r="AG105" s="210"/>
-      <c r="AH105" s="210"/>
-      <c r="AI105" s="210"/>
-      <c r="AJ105" s="210"/>
-      <c r="AK105" s="210"/>
-      <c r="AL105" s="210"/>
-      <c r="AM105" s="210"/>
-      <c r="AN105" s="210"/>
-      <c r="AO105" s="210"/>
-      <c r="AP105" s="210"/>
+      <c r="AD105" s="181"/>
+      <c r="AE105" s="181"/>
+      <c r="AF105" s="181"/>
+      <c r="AG105" s="181"/>
+      <c r="AH105" s="181"/>
+      <c r="AI105" s="181"/>
+      <c r="AJ105" s="181"/>
+      <c r="AK105" s="181"/>
+      <c r="AL105" s="181"/>
+      <c r="AM105" s="181"/>
+      <c r="AN105" s="181"/>
+      <c r="AO105" s="181"/>
+      <c r="AP105" s="181"/>
       <c r="AQ105" s="33"/>
       <c r="AR105" s="15"/>
       <c r="AS105" s="14"/>
@@ -13055,44 +13149,44 @@
       <c r="H106" s="66"/>
       <c r="I106" s="66"/>
       <c r="J106" s="67"/>
-      <c r="K106" s="201" t="s">
+      <c r="K106" s="183" t="s">
         <v>71</v>
       </c>
-      <c r="L106" s="202"/>
-      <c r="M106" s="203"/>
-      <c r="N106" s="201" t="s">
+      <c r="L106" s="184"/>
+      <c r="M106" s="185"/>
+      <c r="N106" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="O106" s="202"/>
-      <c r="P106" s="203"/>
-      <c r="Q106" s="201" t="s">
+      <c r="O106" s="184"/>
+      <c r="P106" s="185"/>
+      <c r="Q106" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="R106" s="203"/>
-      <c r="S106" s="201"/>
-      <c r="T106" s="203"/>
+      <c r="R106" s="185"/>
+      <c r="S106" s="183"/>
+      <c r="T106" s="185"/>
       <c r="U106" s="69"/>
       <c r="V106" s="70"/>
       <c r="W106" s="70"/>
       <c r="X106" s="71"/>
-      <c r="Y106" s="180"/>
-      <c r="Z106" s="180"/>
-      <c r="AA106" s="180"/>
-      <c r="AB106" s="180"/>
-      <c r="AC106" s="210"/>
-      <c r="AD106" s="210"/>
-      <c r="AE106" s="210"/>
-      <c r="AF106" s="210"/>
-      <c r="AG106" s="210"/>
-      <c r="AH106" s="210"/>
-      <c r="AI106" s="210"/>
-      <c r="AJ106" s="210"/>
-      <c r="AK106" s="210"/>
-      <c r="AL106" s="210"/>
-      <c r="AM106" s="210"/>
-      <c r="AN106" s="210"/>
-      <c r="AO106" s="210"/>
-      <c r="AP106" s="210"/>
+      <c r="Y106" s="182"/>
+      <c r="Z106" s="182"/>
+      <c r="AA106" s="182"/>
+      <c r="AB106" s="182"/>
+      <c r="AC106" s="181"/>
+      <c r="AD106" s="181"/>
+      <c r="AE106" s="181"/>
+      <c r="AF106" s="181"/>
+      <c r="AG106" s="181"/>
+      <c r="AH106" s="181"/>
+      <c r="AI106" s="181"/>
+      <c r="AJ106" s="181"/>
+      <c r="AK106" s="181"/>
+      <c r="AL106" s="181"/>
+      <c r="AM106" s="181"/>
+      <c r="AN106" s="181"/>
+      <c r="AO106" s="181"/>
+      <c r="AP106" s="181"/>
       <c r="AQ106" s="33"/>
       <c r="AR106" s="15"/>
       <c r="AS106" s="14"/>
@@ -13115,22 +13209,22 @@
       <c r="H107" s="66"/>
       <c r="I107" s="66"/>
       <c r="J107" s="67"/>
-      <c r="K107" s="201" t="s">
+      <c r="K107" s="183" t="s">
         <v>74</v>
       </c>
-      <c r="L107" s="202"/>
-      <c r="M107" s="203"/>
-      <c r="N107" s="201" t="s">
+      <c r="L107" s="184"/>
+      <c r="M107" s="185"/>
+      <c r="N107" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="O107" s="202"/>
-      <c r="P107" s="203"/>
-      <c r="Q107" s="201" t="s">
+      <c r="O107" s="184"/>
+      <c r="P107" s="185"/>
+      <c r="Q107" s="183" t="s">
         <v>75</v>
       </c>
-      <c r="R107" s="203"/>
-      <c r="S107" s="201"/>
-      <c r="T107" s="203"/>
+      <c r="R107" s="185"/>
+      <c r="S107" s="183"/>
+      <c r="T107" s="185"/>
       <c r="U107" s="69"/>
       <c r="V107" s="70"/>
       <c r="W107" s="70"/>
@@ -13139,22 +13233,22 @@
       <c r="Z107" s="70"/>
       <c r="AA107" s="70"/>
       <c r="AB107" s="52"/>
-      <c r="AC107" s="210" t="s">
+      <c r="AC107" s="181" t="s">
         <v>81</v>
       </c>
-      <c r="AD107" s="210"/>
-      <c r="AE107" s="210"/>
-      <c r="AF107" s="210"/>
-      <c r="AG107" s="210"/>
-      <c r="AH107" s="210"/>
-      <c r="AI107" s="210"/>
-      <c r="AJ107" s="210"/>
-      <c r="AK107" s="210"/>
-      <c r="AL107" s="210"/>
-      <c r="AM107" s="210"/>
-      <c r="AN107" s="210"/>
-      <c r="AO107" s="210"/>
-      <c r="AP107" s="210"/>
+      <c r="AD107" s="181"/>
+      <c r="AE107" s="181"/>
+      <c r="AF107" s="181"/>
+      <c r="AG107" s="181"/>
+      <c r="AH107" s="181"/>
+      <c r="AI107" s="181"/>
+      <c r="AJ107" s="181"/>
+      <c r="AK107" s="181"/>
+      <c r="AL107" s="181"/>
+      <c r="AM107" s="181"/>
+      <c r="AN107" s="181"/>
+      <c r="AO107" s="181"/>
+      <c r="AP107" s="181"/>
       <c r="AQ107" s="33"/>
       <c r="AR107" s="15"/>
       <c r="AS107" s="14"/>
@@ -13177,44 +13271,44 @@
       <c r="H108" s="66"/>
       <c r="I108" s="66"/>
       <c r="J108" s="67"/>
-      <c r="K108" s="201" t="s">
+      <c r="K108" s="183" t="s">
         <v>71</v>
       </c>
-      <c r="L108" s="202"/>
-      <c r="M108" s="203"/>
-      <c r="N108" s="201" t="s">
+      <c r="L108" s="184"/>
+      <c r="M108" s="185"/>
+      <c r="N108" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="O108" s="202"/>
-      <c r="P108" s="203"/>
-      <c r="Q108" s="201" t="s">
+      <c r="O108" s="184"/>
+      <c r="P108" s="185"/>
+      <c r="Q108" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="R108" s="203"/>
+      <c r="R108" s="185"/>
       <c r="S108" s="64"/>
       <c r="T108" s="68"/>
       <c r="U108" s="69"/>
       <c r="V108" s="70"/>
       <c r="W108" s="70"/>
       <c r="X108" s="71"/>
-      <c r="Y108" s="180"/>
-      <c r="Z108" s="180"/>
-      <c r="AA108" s="180"/>
-      <c r="AB108" s="180"/>
-      <c r="AC108" s="210"/>
-      <c r="AD108" s="210"/>
-      <c r="AE108" s="210"/>
-      <c r="AF108" s="210"/>
-      <c r="AG108" s="210"/>
-      <c r="AH108" s="210"/>
-      <c r="AI108" s="210"/>
-      <c r="AJ108" s="210"/>
-      <c r="AK108" s="210"/>
-      <c r="AL108" s="210"/>
-      <c r="AM108" s="210"/>
-      <c r="AN108" s="210"/>
-      <c r="AO108" s="210"/>
-      <c r="AP108" s="210"/>
+      <c r="Y108" s="182"/>
+      <c r="Z108" s="182"/>
+      <c r="AA108" s="182"/>
+      <c r="AB108" s="182"/>
+      <c r="AC108" s="181"/>
+      <c r="AD108" s="181"/>
+      <c r="AE108" s="181"/>
+      <c r="AF108" s="181"/>
+      <c r="AG108" s="181"/>
+      <c r="AH108" s="181"/>
+      <c r="AI108" s="181"/>
+      <c r="AJ108" s="181"/>
+      <c r="AK108" s="181"/>
+      <c r="AL108" s="181"/>
+      <c r="AM108" s="181"/>
+      <c r="AN108" s="181"/>
+      <c r="AO108" s="181"/>
+      <c r="AP108" s="181"/>
       <c r="AQ108" s="33"/>
       <c r="AR108" s="15"/>
       <c r="AS108" s="14"/>
@@ -13237,20 +13331,20 @@
       <c r="H109" s="66"/>
       <c r="I109" s="66"/>
       <c r="J109" s="67"/>
-      <c r="K109" s="180" t="s">
+      <c r="K109" s="182" t="s">
         <v>83</v>
       </c>
-      <c r="L109" s="180"/>
-      <c r="M109" s="180"/>
-      <c r="N109" s="180" t="s">
+      <c r="L109" s="182"/>
+      <c r="M109" s="182"/>
+      <c r="N109" s="182" t="s">
         <v>84</v>
       </c>
-      <c r="O109" s="180"/>
-      <c r="P109" s="180"/>
-      <c r="Q109" s="201" t="s">
+      <c r="O109" s="182"/>
+      <c r="P109" s="182"/>
+      <c r="Q109" s="183" t="s">
         <v>75</v>
       </c>
-      <c r="R109" s="203"/>
+      <c r="R109" s="185"/>
       <c r="S109" s="64"/>
       <c r="T109" s="68"/>
       <c r="U109" s="69"/>
@@ -13261,22 +13355,22 @@
       <c r="Z109" s="70"/>
       <c r="AA109" s="70"/>
       <c r="AB109" s="52"/>
-      <c r="AC109" s="210" t="s">
+      <c r="AC109" s="181" t="s">
         <v>85</v>
       </c>
-      <c r="AD109" s="210"/>
-      <c r="AE109" s="210"/>
-      <c r="AF109" s="210"/>
-      <c r="AG109" s="210"/>
-      <c r="AH109" s="210"/>
-      <c r="AI109" s="210"/>
-      <c r="AJ109" s="210"/>
-      <c r="AK109" s="210"/>
-      <c r="AL109" s="210"/>
-      <c r="AM109" s="210"/>
-      <c r="AN109" s="210"/>
-      <c r="AO109" s="210"/>
-      <c r="AP109" s="210"/>
+      <c r="AD109" s="181"/>
+      <c r="AE109" s="181"/>
+      <c r="AF109" s="181"/>
+      <c r="AG109" s="181"/>
+      <c r="AH109" s="181"/>
+      <c r="AI109" s="181"/>
+      <c r="AJ109" s="181"/>
+      <c r="AK109" s="181"/>
+      <c r="AL109" s="181"/>
+      <c r="AM109" s="181"/>
+      <c r="AN109" s="181"/>
+      <c r="AO109" s="181"/>
+      <c r="AP109" s="181"/>
       <c r="AQ109" s="33"/>
       <c r="AR109" s="15"/>
       <c r="AS109" s="14"/>
@@ -13299,44 +13393,44 @@
       <c r="H110" s="66"/>
       <c r="I110" s="66"/>
       <c r="J110" s="67"/>
-      <c r="K110" s="201" t="s">
+      <c r="K110" s="183" t="s">
         <v>71</v>
       </c>
-      <c r="L110" s="202"/>
-      <c r="M110" s="203"/>
-      <c r="N110" s="201" t="s">
+      <c r="L110" s="184"/>
+      <c r="M110" s="185"/>
+      <c r="N110" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="O110" s="202"/>
-      <c r="P110" s="203"/>
-      <c r="Q110" s="201" t="s">
+      <c r="O110" s="184"/>
+      <c r="P110" s="185"/>
+      <c r="Q110" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="R110" s="203"/>
+      <c r="R110" s="185"/>
       <c r="S110" s="64"/>
       <c r="T110" s="68"/>
       <c r="U110" s="69"/>
       <c r="V110" s="70"/>
       <c r="W110" s="70"/>
       <c r="X110" s="71"/>
-      <c r="Y110" s="180"/>
-      <c r="Z110" s="180"/>
-      <c r="AA110" s="180"/>
-      <c r="AB110" s="180"/>
-      <c r="AC110" s="210"/>
-      <c r="AD110" s="210"/>
-      <c r="AE110" s="210"/>
-      <c r="AF110" s="210"/>
-      <c r="AG110" s="210"/>
-      <c r="AH110" s="210"/>
-      <c r="AI110" s="210"/>
-      <c r="AJ110" s="210"/>
-      <c r="AK110" s="210"/>
-      <c r="AL110" s="210"/>
-      <c r="AM110" s="210"/>
-      <c r="AN110" s="210"/>
-      <c r="AO110" s="210"/>
-      <c r="AP110" s="210"/>
+      <c r="Y110" s="182"/>
+      <c r="Z110" s="182"/>
+      <c r="AA110" s="182"/>
+      <c r="AB110" s="182"/>
+      <c r="AC110" s="181"/>
+      <c r="AD110" s="181"/>
+      <c r="AE110" s="181"/>
+      <c r="AF110" s="181"/>
+      <c r="AG110" s="181"/>
+      <c r="AH110" s="181"/>
+      <c r="AI110" s="181"/>
+      <c r="AJ110" s="181"/>
+      <c r="AK110" s="181"/>
+      <c r="AL110" s="181"/>
+      <c r="AM110" s="181"/>
+      <c r="AN110" s="181"/>
+      <c r="AO110" s="181"/>
+      <c r="AP110" s="181"/>
       <c r="AQ110" s="33"/>
       <c r="AR110" s="15"/>
       <c r="AS110" s="14"/>
@@ -13359,20 +13453,20 @@
       <c r="H111" s="66"/>
       <c r="I111" s="66"/>
       <c r="J111" s="67"/>
-      <c r="K111" s="180" t="s">
+      <c r="K111" s="182" t="s">
         <v>83</v>
       </c>
-      <c r="L111" s="180"/>
-      <c r="M111" s="180"/>
-      <c r="N111" s="180" t="s">
+      <c r="L111" s="182"/>
+      <c r="M111" s="182"/>
+      <c r="N111" s="182" t="s">
         <v>84</v>
       </c>
-      <c r="O111" s="180"/>
-      <c r="P111" s="180"/>
-      <c r="Q111" s="201" t="s">
+      <c r="O111" s="182"/>
+      <c r="P111" s="182"/>
+      <c r="Q111" s="183" t="s">
         <v>75</v>
       </c>
-      <c r="R111" s="203"/>
+      <c r="R111" s="185"/>
       <c r="S111" s="64"/>
       <c r="T111" s="68"/>
       <c r="U111" s="69"/>
@@ -13383,22 +13477,22 @@
       <c r="Z111" s="70"/>
       <c r="AA111" s="70"/>
       <c r="AB111" s="52"/>
-      <c r="AC111" s="210" t="s">
+      <c r="AC111" s="181" t="s">
         <v>87</v>
       </c>
-      <c r="AD111" s="210"/>
-      <c r="AE111" s="210"/>
-      <c r="AF111" s="210"/>
-      <c r="AG111" s="210"/>
-      <c r="AH111" s="210"/>
-      <c r="AI111" s="210"/>
-      <c r="AJ111" s="210"/>
-      <c r="AK111" s="210"/>
-      <c r="AL111" s="210"/>
-      <c r="AM111" s="210"/>
-      <c r="AN111" s="210"/>
-      <c r="AO111" s="210"/>
-      <c r="AP111" s="210"/>
+      <c r="AD111" s="181"/>
+      <c r="AE111" s="181"/>
+      <c r="AF111" s="181"/>
+      <c r="AG111" s="181"/>
+      <c r="AH111" s="181"/>
+      <c r="AI111" s="181"/>
+      <c r="AJ111" s="181"/>
+      <c r="AK111" s="181"/>
+      <c r="AL111" s="181"/>
+      <c r="AM111" s="181"/>
+      <c r="AN111" s="181"/>
+      <c r="AO111" s="181"/>
+      <c r="AP111" s="181"/>
       <c r="AQ111" s="33"/>
       <c r="AR111" s="15"/>
       <c r="AS111" s="14"/>
@@ -13421,44 +13515,44 @@
       <c r="H112" s="66"/>
       <c r="I112" s="66"/>
       <c r="J112" s="67"/>
-      <c r="K112" s="201" t="s">
+      <c r="K112" s="183" t="s">
         <v>71</v>
       </c>
-      <c r="L112" s="202"/>
-      <c r="M112" s="203"/>
-      <c r="N112" s="201" t="s">
+      <c r="L112" s="184"/>
+      <c r="M112" s="185"/>
+      <c r="N112" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="O112" s="202"/>
-      <c r="P112" s="203"/>
-      <c r="Q112" s="201" t="s">
+      <c r="O112" s="184"/>
+      <c r="P112" s="185"/>
+      <c r="Q112" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="R112" s="203"/>
-      <c r="S112" s="201"/>
-      <c r="T112" s="203"/>
+      <c r="R112" s="185"/>
+      <c r="S112" s="183"/>
+      <c r="T112" s="185"/>
       <c r="U112" s="69"/>
       <c r="V112" s="70"/>
       <c r="W112" s="70"/>
       <c r="X112" s="71"/>
-      <c r="Y112" s="180"/>
-      <c r="Z112" s="180"/>
-      <c r="AA112" s="180"/>
-      <c r="AB112" s="180"/>
-      <c r="AC112" s="210"/>
-      <c r="AD112" s="210"/>
-      <c r="AE112" s="210"/>
-      <c r="AF112" s="210"/>
-      <c r="AG112" s="210"/>
-      <c r="AH112" s="210"/>
-      <c r="AI112" s="210"/>
-      <c r="AJ112" s="210"/>
-      <c r="AK112" s="210"/>
-      <c r="AL112" s="210"/>
-      <c r="AM112" s="210"/>
-      <c r="AN112" s="210"/>
-      <c r="AO112" s="210"/>
-      <c r="AP112" s="210"/>
+      <c r="Y112" s="182"/>
+      <c r="Z112" s="182"/>
+      <c r="AA112" s="182"/>
+      <c r="AB112" s="182"/>
+      <c r="AC112" s="181"/>
+      <c r="AD112" s="181"/>
+      <c r="AE112" s="181"/>
+      <c r="AF112" s="181"/>
+      <c r="AG112" s="181"/>
+      <c r="AH112" s="181"/>
+      <c r="AI112" s="181"/>
+      <c r="AJ112" s="181"/>
+      <c r="AK112" s="181"/>
+      <c r="AL112" s="181"/>
+      <c r="AM112" s="181"/>
+      <c r="AN112" s="181"/>
+      <c r="AO112" s="181"/>
+      <c r="AP112" s="181"/>
       <c r="AQ112" s="33"/>
       <c r="AR112" s="15"/>
       <c r="AS112" s="14"/>
@@ -13481,22 +13575,22 @@
       <c r="H113" s="66"/>
       <c r="I113" s="66"/>
       <c r="J113" s="67"/>
-      <c r="K113" s="201" t="s">
+      <c r="K113" s="183" t="s">
         <v>89</v>
       </c>
-      <c r="L113" s="202"/>
-      <c r="M113" s="203"/>
-      <c r="N113" s="180" t="s">
+      <c r="L113" s="184"/>
+      <c r="M113" s="185"/>
+      <c r="N113" s="182" t="s">
         <v>84</v>
       </c>
-      <c r="O113" s="180"/>
-      <c r="P113" s="180"/>
-      <c r="Q113" s="201" t="s">
+      <c r="O113" s="182"/>
+      <c r="P113" s="182"/>
+      <c r="Q113" s="183" t="s">
         <v>75</v>
       </c>
-      <c r="R113" s="203"/>
-      <c r="S113" s="201"/>
-      <c r="T113" s="203"/>
+      <c r="R113" s="185"/>
+      <c r="S113" s="183"/>
+      <c r="T113" s="185"/>
       <c r="U113" s="69"/>
       <c r="V113" s="70"/>
       <c r="W113" s="70"/>
@@ -13505,22 +13599,22 @@
       <c r="Z113" s="70"/>
       <c r="AA113" s="70"/>
       <c r="AB113" s="52"/>
-      <c r="AC113" s="210" t="s">
+      <c r="AC113" s="181" t="s">
         <v>90</v>
       </c>
-      <c r="AD113" s="210"/>
-      <c r="AE113" s="210"/>
-      <c r="AF113" s="210"/>
-      <c r="AG113" s="210"/>
-      <c r="AH113" s="210"/>
-      <c r="AI113" s="210"/>
-      <c r="AJ113" s="210"/>
-      <c r="AK113" s="210"/>
-      <c r="AL113" s="210"/>
-      <c r="AM113" s="210"/>
-      <c r="AN113" s="210"/>
-      <c r="AO113" s="210"/>
-      <c r="AP113" s="210"/>
+      <c r="AD113" s="181"/>
+      <c r="AE113" s="181"/>
+      <c r="AF113" s="181"/>
+      <c r="AG113" s="181"/>
+      <c r="AH113" s="181"/>
+      <c r="AI113" s="181"/>
+      <c r="AJ113" s="181"/>
+      <c r="AK113" s="181"/>
+      <c r="AL113" s="181"/>
+      <c r="AM113" s="181"/>
+      <c r="AN113" s="181"/>
+      <c r="AO113" s="181"/>
+      <c r="AP113" s="181"/>
       <c r="AQ113" s="33"/>
       <c r="AR113" s="15"/>
       <c r="AS113" s="14"/>
@@ -13543,44 +13637,44 @@
       <c r="H114" s="75"/>
       <c r="I114" s="75"/>
       <c r="J114" s="76"/>
-      <c r="K114" s="180" t="s">
+      <c r="K114" s="182" t="s">
         <v>71</v>
       </c>
-      <c r="L114" s="180"/>
-      <c r="M114" s="180"/>
-      <c r="N114" s="180" t="s">
+      <c r="L114" s="182"/>
+      <c r="M114" s="182"/>
+      <c r="N114" s="182" t="s">
         <v>72</v>
       </c>
-      <c r="O114" s="180"/>
-      <c r="P114" s="180"/>
-      <c r="Q114" s="180" t="s">
+      <c r="O114" s="182"/>
+      <c r="P114" s="182"/>
+      <c r="Q114" s="182" t="s">
         <v>73</v>
       </c>
-      <c r="R114" s="180"/>
-      <c r="S114" s="180"/>
-      <c r="T114" s="180"/>
+      <c r="R114" s="182"/>
+      <c r="S114" s="182"/>
+      <c r="T114" s="182"/>
       <c r="U114" s="77"/>
       <c r="V114" s="70"/>
       <c r="W114" s="70"/>
       <c r="X114" s="71"/>
-      <c r="Y114" s="180"/>
-      <c r="Z114" s="180"/>
-      <c r="AA114" s="180"/>
-      <c r="AB114" s="180"/>
-      <c r="AC114" s="210"/>
-      <c r="AD114" s="210"/>
-      <c r="AE114" s="210"/>
-      <c r="AF114" s="210"/>
-      <c r="AG114" s="210"/>
-      <c r="AH114" s="210"/>
-      <c r="AI114" s="210"/>
-      <c r="AJ114" s="210"/>
-      <c r="AK114" s="210"/>
-      <c r="AL114" s="210"/>
-      <c r="AM114" s="210"/>
-      <c r="AN114" s="210"/>
-      <c r="AO114" s="210"/>
-      <c r="AP114" s="210"/>
+      <c r="Y114" s="182"/>
+      <c r="Z114" s="182"/>
+      <c r="AA114" s="182"/>
+      <c r="AB114" s="182"/>
+      <c r="AC114" s="181"/>
+      <c r="AD114" s="181"/>
+      <c r="AE114" s="181"/>
+      <c r="AF114" s="181"/>
+      <c r="AG114" s="181"/>
+      <c r="AH114" s="181"/>
+      <c r="AI114" s="181"/>
+      <c r="AJ114" s="181"/>
+      <c r="AK114" s="181"/>
+      <c r="AL114" s="181"/>
+      <c r="AM114" s="181"/>
+      <c r="AN114" s="181"/>
+      <c r="AO114" s="181"/>
+      <c r="AP114" s="181"/>
       <c r="AQ114" s="33"/>
       <c r="AR114" s="15"/>
       <c r="AS114" s="14"/>
@@ -13603,22 +13697,22 @@
       <c r="H115" s="75"/>
       <c r="I115" s="75"/>
       <c r="J115" s="76"/>
-      <c r="K115" s="180" t="s">
+      <c r="K115" s="182" t="s">
         <v>89</v>
       </c>
-      <c r="L115" s="180"/>
-      <c r="M115" s="180"/>
-      <c r="N115" s="180" t="s">
+      <c r="L115" s="182"/>
+      <c r="M115" s="182"/>
+      <c r="N115" s="182" t="s">
         <v>84</v>
       </c>
-      <c r="O115" s="180"/>
-      <c r="P115" s="180"/>
-      <c r="Q115" s="180" t="s">
+      <c r="O115" s="182"/>
+      <c r="P115" s="182"/>
+      <c r="Q115" s="182" t="s">
         <v>75</v>
       </c>
-      <c r="R115" s="180"/>
-      <c r="S115" s="180"/>
-      <c r="T115" s="180"/>
+      <c r="R115" s="182"/>
+      <c r="S115" s="182"/>
+      <c r="T115" s="182"/>
       <c r="U115" s="77"/>
       <c r="V115" s="70"/>
       <c r="W115" s="70"/>
@@ -13627,22 +13721,22 @@
       <c r="Z115" s="70"/>
       <c r="AA115" s="70"/>
       <c r="AB115" s="104"/>
-      <c r="AC115" s="210" t="s">
+      <c r="AC115" s="181" t="s">
         <v>92</v>
       </c>
-      <c r="AD115" s="210"/>
-      <c r="AE115" s="210"/>
-      <c r="AF115" s="210"/>
-      <c r="AG115" s="210"/>
-      <c r="AH115" s="210"/>
-      <c r="AI115" s="210"/>
-      <c r="AJ115" s="210"/>
-      <c r="AK115" s="210"/>
-      <c r="AL115" s="210"/>
-      <c r="AM115" s="210"/>
-      <c r="AN115" s="210"/>
-      <c r="AO115" s="210"/>
-      <c r="AP115" s="210"/>
+      <c r="AD115" s="181"/>
+      <c r="AE115" s="181"/>
+      <c r="AF115" s="181"/>
+      <c r="AG115" s="181"/>
+      <c r="AH115" s="181"/>
+      <c r="AI115" s="181"/>
+      <c r="AJ115" s="181"/>
+      <c r="AK115" s="181"/>
+      <c r="AL115" s="181"/>
+      <c r="AM115" s="181"/>
+      <c r="AN115" s="181"/>
+      <c r="AO115" s="181"/>
+      <c r="AP115" s="181"/>
       <c r="AQ115" s="33"/>
       <c r="AR115" s="15"/>
       <c r="AS115" s="14"/>
@@ -13665,44 +13759,44 @@
       <c r="H116" s="75"/>
       <c r="I116" s="75"/>
       <c r="J116" s="76"/>
-      <c r="K116" s="180" t="s">
+      <c r="K116" s="182" t="s">
         <v>71</v>
       </c>
-      <c r="L116" s="180"/>
-      <c r="M116" s="180"/>
-      <c r="N116" s="180" t="s">
+      <c r="L116" s="182"/>
+      <c r="M116" s="182"/>
+      <c r="N116" s="182" t="s">
         <v>72</v>
       </c>
-      <c r="O116" s="180"/>
-      <c r="P116" s="180"/>
-      <c r="Q116" s="180" t="s">
+      <c r="O116" s="182"/>
+      <c r="P116" s="182"/>
+      <c r="Q116" s="182" t="s">
         <v>73</v>
       </c>
-      <c r="R116" s="180"/>
-      <c r="S116" s="180"/>
-      <c r="T116" s="180"/>
+      <c r="R116" s="182"/>
+      <c r="S116" s="182"/>
+      <c r="T116" s="182"/>
       <c r="U116" s="77"/>
       <c r="V116" s="70"/>
       <c r="W116" s="70"/>
       <c r="X116" s="71"/>
-      <c r="Y116" s="180"/>
-      <c r="Z116" s="180"/>
-      <c r="AA116" s="180"/>
-      <c r="AB116" s="180"/>
-      <c r="AC116" s="210"/>
-      <c r="AD116" s="210"/>
-      <c r="AE116" s="210"/>
-      <c r="AF116" s="210"/>
-      <c r="AG116" s="210"/>
-      <c r="AH116" s="210"/>
-      <c r="AI116" s="210"/>
-      <c r="AJ116" s="210"/>
-      <c r="AK116" s="210"/>
-      <c r="AL116" s="210"/>
-      <c r="AM116" s="210"/>
-      <c r="AN116" s="210"/>
-      <c r="AO116" s="210"/>
-      <c r="AP116" s="210"/>
+      <c r="Y116" s="182"/>
+      <c r="Z116" s="182"/>
+      <c r="AA116" s="182"/>
+      <c r="AB116" s="182"/>
+      <c r="AC116" s="181"/>
+      <c r="AD116" s="181"/>
+      <c r="AE116" s="181"/>
+      <c r="AF116" s="181"/>
+      <c r="AG116" s="181"/>
+      <c r="AH116" s="181"/>
+      <c r="AI116" s="181"/>
+      <c r="AJ116" s="181"/>
+      <c r="AK116" s="181"/>
+      <c r="AL116" s="181"/>
+      <c r="AM116" s="181"/>
+      <c r="AN116" s="181"/>
+      <c r="AO116" s="181"/>
+      <c r="AP116" s="181"/>
       <c r="AQ116" s="33"/>
       <c r="AR116" s="15"/>
       <c r="AS116" s="14"/>
@@ -13725,22 +13819,22 @@
       <c r="H117" s="75"/>
       <c r="I117" s="75"/>
       <c r="J117" s="76"/>
-      <c r="K117" s="180" t="s">
+      <c r="K117" s="182" t="s">
         <v>94</v>
       </c>
-      <c r="L117" s="180"/>
-      <c r="M117" s="180"/>
-      <c r="N117" s="180" t="s">
+      <c r="L117" s="182"/>
+      <c r="M117" s="182"/>
+      <c r="N117" s="182" t="s">
         <v>84</v>
       </c>
-      <c r="O117" s="180"/>
-      <c r="P117" s="180"/>
-      <c r="Q117" s="180" t="s">
+      <c r="O117" s="182"/>
+      <c r="P117" s="182"/>
+      <c r="Q117" s="182" t="s">
         <v>75</v>
       </c>
-      <c r="R117" s="180"/>
-      <c r="S117" s="180"/>
-      <c r="T117" s="180"/>
+      <c r="R117" s="182"/>
+      <c r="S117" s="182"/>
+      <c r="T117" s="182"/>
       <c r="U117" s="77"/>
       <c r="V117" s="70"/>
       <c r="W117" s="70"/>
@@ -13749,22 +13843,22 @@
       <c r="Z117" s="70"/>
       <c r="AA117" s="70"/>
       <c r="AB117" s="104"/>
-      <c r="AC117" s="210" t="s">
+      <c r="AC117" s="181" t="s">
         <v>95</v>
       </c>
-      <c r="AD117" s="210"/>
-      <c r="AE117" s="210"/>
-      <c r="AF117" s="210"/>
-      <c r="AG117" s="210"/>
-      <c r="AH117" s="210"/>
-      <c r="AI117" s="210"/>
-      <c r="AJ117" s="210"/>
-      <c r="AK117" s="210"/>
-      <c r="AL117" s="210"/>
-      <c r="AM117" s="210"/>
-      <c r="AN117" s="210"/>
-      <c r="AO117" s="210"/>
-      <c r="AP117" s="210"/>
+      <c r="AD117" s="181"/>
+      <c r="AE117" s="181"/>
+      <c r="AF117" s="181"/>
+      <c r="AG117" s="181"/>
+      <c r="AH117" s="181"/>
+      <c r="AI117" s="181"/>
+      <c r="AJ117" s="181"/>
+      <c r="AK117" s="181"/>
+      <c r="AL117" s="181"/>
+      <c r="AM117" s="181"/>
+      <c r="AN117" s="181"/>
+      <c r="AO117" s="181"/>
+      <c r="AP117" s="181"/>
       <c r="AQ117" s="33"/>
       <c r="AR117" s="15"/>
       <c r="AS117" s="14"/>
@@ -13778,31 +13872,31 @@
       <c r="C118" s="64">
         <v>19</v>
       </c>
-      <c r="D118" s="210" t="s">
+      <c r="D118" s="181" t="s">
         <v>96</v>
       </c>
-      <c r="E118" s="210"/>
-      <c r="F118" s="210"/>
-      <c r="G118" s="210"/>
-      <c r="H118" s="210"/>
-      <c r="I118" s="210"/>
-      <c r="J118" s="210"/>
-      <c r="K118" s="201" t="s">
+      <c r="E118" s="181"/>
+      <c r="F118" s="181"/>
+      <c r="G118" s="181"/>
+      <c r="H118" s="181"/>
+      <c r="I118" s="181"/>
+      <c r="J118" s="181"/>
+      <c r="K118" s="183" t="s">
         <v>74</v>
       </c>
-      <c r="L118" s="202"/>
-      <c r="M118" s="203"/>
-      <c r="N118" s="201" t="s">
+      <c r="L118" s="184"/>
+      <c r="M118" s="185"/>
+      <c r="N118" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="O118" s="202"/>
-      <c r="P118" s="203"/>
-      <c r="Q118" s="201" t="s">
+      <c r="O118" s="184"/>
+      <c r="P118" s="185"/>
+      <c r="Q118" s="183" t="s">
         <v>75</v>
       </c>
-      <c r="R118" s="203"/>
-      <c r="S118" s="201"/>
-      <c r="T118" s="203"/>
+      <c r="R118" s="185"/>
+      <c r="S118" s="183"/>
+      <c r="T118" s="185"/>
       <c r="U118" s="69"/>
       <c r="V118" s="70"/>
       <c r="W118" s="70"/>
@@ -13811,22 +13905,22 @@
       <c r="Z118" s="70"/>
       <c r="AA118" s="70"/>
       <c r="AB118" s="52"/>
-      <c r="AC118" s="210" t="s">
+      <c r="AC118" s="181" t="s">
         <v>97</v>
       </c>
-      <c r="AD118" s="210"/>
-      <c r="AE118" s="210"/>
-      <c r="AF118" s="210"/>
-      <c r="AG118" s="210"/>
-      <c r="AH118" s="210"/>
-      <c r="AI118" s="210"/>
-      <c r="AJ118" s="210"/>
-      <c r="AK118" s="210"/>
-      <c r="AL118" s="210"/>
-      <c r="AM118" s="210"/>
-      <c r="AN118" s="210"/>
-      <c r="AO118" s="210"/>
-      <c r="AP118" s="210"/>
+      <c r="AD118" s="181"/>
+      <c r="AE118" s="181"/>
+      <c r="AF118" s="181"/>
+      <c r="AG118" s="181"/>
+      <c r="AH118" s="181"/>
+      <c r="AI118" s="181"/>
+      <c r="AJ118" s="181"/>
+      <c r="AK118" s="181"/>
+      <c r="AL118" s="181"/>
+      <c r="AM118" s="181"/>
+      <c r="AN118" s="181"/>
+      <c r="AO118" s="181"/>
+      <c r="AP118" s="181"/>
       <c r="AQ118" s="33"/>
       <c r="AR118" s="15"/>
       <c r="AS118" s="14"/>
@@ -13838,47 +13932,47 @@
       <c r="A119" s="31"/>
       <c r="B119" s="33"/>
       <c r="C119" s="78"/>
-      <c r="D119" s="180" t="s">
+      <c r="D119" s="182" t="s">
         <v>26</v>
       </c>
-      <c r="E119" s="180"/>
-      <c r="F119" s="180"/>
-      <c r="G119" s="180"/>
-      <c r="H119" s="180"/>
-      <c r="I119" s="180"/>
-      <c r="J119" s="180"/>
-      <c r="K119" s="180"/>
-      <c r="L119" s="180"/>
-      <c r="M119" s="180"/>
-      <c r="N119" s="180"/>
-      <c r="O119" s="180"/>
-      <c r="P119" s="180"/>
-      <c r="Q119" s="180"/>
-      <c r="R119" s="180"/>
-      <c r="S119" s="180"/>
-      <c r="T119" s="180"/>
-      <c r="U119" s="180"/>
-      <c r="V119" s="180"/>
-      <c r="W119" s="180"/>
-      <c r="X119" s="180"/>
-      <c r="Y119" s="180"/>
-      <c r="Z119" s="180"/>
-      <c r="AA119" s="180"/>
-      <c r="AB119" s="180"/>
-      <c r="AC119" s="180"/>
-      <c r="AD119" s="180"/>
-      <c r="AE119" s="180"/>
-      <c r="AF119" s="180"/>
-      <c r="AG119" s="180"/>
-      <c r="AH119" s="180"/>
-      <c r="AI119" s="180"/>
-      <c r="AJ119" s="180"/>
-      <c r="AK119" s="180"/>
-      <c r="AL119" s="180"/>
-      <c r="AM119" s="180"/>
-      <c r="AN119" s="180"/>
-      <c r="AO119" s="180"/>
-      <c r="AP119" s="180"/>
+      <c r="E119" s="182"/>
+      <c r="F119" s="182"/>
+      <c r="G119" s="182"/>
+      <c r="H119" s="182"/>
+      <c r="I119" s="182"/>
+      <c r="J119" s="182"/>
+      <c r="K119" s="182"/>
+      <c r="L119" s="182"/>
+      <c r="M119" s="182"/>
+      <c r="N119" s="182"/>
+      <c r="O119" s="182"/>
+      <c r="P119" s="182"/>
+      <c r="Q119" s="182"/>
+      <c r="R119" s="182"/>
+      <c r="S119" s="182"/>
+      <c r="T119" s="182"/>
+      <c r="U119" s="182"/>
+      <c r="V119" s="182"/>
+      <c r="W119" s="182"/>
+      <c r="X119" s="182"/>
+      <c r="Y119" s="182"/>
+      <c r="Z119" s="182"/>
+      <c r="AA119" s="182"/>
+      <c r="AB119" s="182"/>
+      <c r="AC119" s="182"/>
+      <c r="AD119" s="182"/>
+      <c r="AE119" s="182"/>
+      <c r="AF119" s="182"/>
+      <c r="AG119" s="182"/>
+      <c r="AH119" s="182"/>
+      <c r="AI119" s="182"/>
+      <c r="AJ119" s="182"/>
+      <c r="AK119" s="182"/>
+      <c r="AL119" s="182"/>
+      <c r="AM119" s="182"/>
+      <c r="AN119" s="182"/>
+      <c r="AO119" s="182"/>
+      <c r="AP119" s="182"/>
       <c r="AQ119" s="33"/>
       <c r="AR119" s="15"/>
       <c r="AS119" s="14"/>
@@ -13901,46 +13995,46 @@
       <c r="H120" s="66"/>
       <c r="I120" s="66"/>
       <c r="J120" s="67"/>
-      <c r="K120" s="201" t="s">
+      <c r="K120" s="183" t="s">
         <v>71</v>
       </c>
-      <c r="L120" s="202"/>
-      <c r="M120" s="203"/>
-      <c r="N120" s="201" t="s">
+      <c r="L120" s="184"/>
+      <c r="M120" s="185"/>
+      <c r="N120" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="O120" s="202"/>
-      <c r="P120" s="203"/>
-      <c r="Q120" s="201" t="s">
+      <c r="O120" s="184"/>
+      <c r="P120" s="185"/>
+      <c r="Q120" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="R120" s="203"/>
-      <c r="S120" s="201"/>
-      <c r="T120" s="203"/>
+      <c r="R120" s="185"/>
+      <c r="S120" s="183"/>
+      <c r="T120" s="185"/>
       <c r="U120" s="69"/>
       <c r="V120" s="70"/>
       <c r="W120" s="70"/>
       <c r="X120" s="71"/>
-      <c r="Y120" s="210"/>
-      <c r="Z120" s="210"/>
-      <c r="AA120" s="210"/>
-      <c r="AB120" s="210"/>
-      <c r="AC120" s="204" t="s">
+      <c r="Y120" s="181"/>
+      <c r="Z120" s="181"/>
+      <c r="AA120" s="181"/>
+      <c r="AB120" s="181"/>
+      <c r="AC120" s="186" t="s">
         <v>98</v>
       </c>
-      <c r="AD120" s="205"/>
-      <c r="AE120" s="205"/>
-      <c r="AF120" s="205"/>
-      <c r="AG120" s="205"/>
-      <c r="AH120" s="205"/>
-      <c r="AI120" s="205"/>
-      <c r="AJ120" s="205"/>
-      <c r="AK120" s="205"/>
-      <c r="AL120" s="205"/>
-      <c r="AM120" s="205"/>
-      <c r="AN120" s="205"/>
-      <c r="AO120" s="205"/>
-      <c r="AP120" s="206"/>
+      <c r="AD120" s="187"/>
+      <c r="AE120" s="187"/>
+      <c r="AF120" s="187"/>
+      <c r="AG120" s="187"/>
+      <c r="AH120" s="187"/>
+      <c r="AI120" s="187"/>
+      <c r="AJ120" s="187"/>
+      <c r="AK120" s="187"/>
+      <c r="AL120" s="187"/>
+      <c r="AM120" s="187"/>
+      <c r="AN120" s="187"/>
+      <c r="AO120" s="187"/>
+      <c r="AP120" s="188"/>
       <c r="AQ120" s="33"/>
       <c r="AR120" s="15"/>
       <c r="AS120" s="14"/>
@@ -13963,46 +14057,46 @@
       <c r="H121" s="66"/>
       <c r="I121" s="66"/>
       <c r="J121" s="67"/>
-      <c r="K121" s="201" t="s">
+      <c r="K121" s="183" t="s">
         <v>71</v>
       </c>
-      <c r="L121" s="202"/>
-      <c r="M121" s="203"/>
-      <c r="N121" s="201" t="s">
+      <c r="L121" s="184"/>
+      <c r="M121" s="185"/>
+      <c r="N121" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="O121" s="202"/>
-      <c r="P121" s="203"/>
-      <c r="Q121" s="201" t="s">
+      <c r="O121" s="184"/>
+      <c r="P121" s="185"/>
+      <c r="Q121" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="R121" s="203"/>
-      <c r="S121" s="201"/>
-      <c r="T121" s="203"/>
+      <c r="R121" s="185"/>
+      <c r="S121" s="183"/>
+      <c r="T121" s="185"/>
       <c r="U121" s="69"/>
       <c r="V121" s="70"/>
       <c r="W121" s="70"/>
       <c r="X121" s="71"/>
-      <c r="Y121" s="210"/>
-      <c r="Z121" s="210"/>
-      <c r="AA121" s="210"/>
-      <c r="AB121" s="210"/>
-      <c r="AC121" s="204" t="s">
+      <c r="Y121" s="181"/>
+      <c r="Z121" s="181"/>
+      <c r="AA121" s="181"/>
+      <c r="AB121" s="181"/>
+      <c r="AC121" s="186" t="s">
         <v>99</v>
       </c>
-      <c r="AD121" s="205"/>
-      <c r="AE121" s="205"/>
-      <c r="AF121" s="205"/>
-      <c r="AG121" s="205"/>
-      <c r="AH121" s="205"/>
-      <c r="AI121" s="205"/>
-      <c r="AJ121" s="205"/>
-      <c r="AK121" s="205"/>
-      <c r="AL121" s="205"/>
-      <c r="AM121" s="205"/>
-      <c r="AN121" s="205"/>
-      <c r="AO121" s="205"/>
-      <c r="AP121" s="206"/>
+      <c r="AD121" s="187"/>
+      <c r="AE121" s="187"/>
+      <c r="AF121" s="187"/>
+      <c r="AG121" s="187"/>
+      <c r="AH121" s="187"/>
+      <c r="AI121" s="187"/>
+      <c r="AJ121" s="187"/>
+      <c r="AK121" s="187"/>
+      <c r="AL121" s="187"/>
+      <c r="AM121" s="187"/>
+      <c r="AN121" s="187"/>
+      <c r="AO121" s="187"/>
+      <c r="AP121" s="188"/>
       <c r="AQ121" s="33"/>
       <c r="AR121" s="15"/>
       <c r="AS121" s="14"/>
@@ -14025,46 +14119,46 @@
       <c r="H122" s="66"/>
       <c r="I122" s="66"/>
       <c r="J122" s="67"/>
-      <c r="K122" s="201" t="s">
+      <c r="K122" s="183" t="s">
         <v>71</v>
       </c>
-      <c r="L122" s="202"/>
-      <c r="M122" s="203"/>
-      <c r="N122" s="201" t="s">
+      <c r="L122" s="184"/>
+      <c r="M122" s="185"/>
+      <c r="N122" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="O122" s="202"/>
-      <c r="P122" s="203"/>
-      <c r="Q122" s="201" t="s">
+      <c r="O122" s="184"/>
+      <c r="P122" s="185"/>
+      <c r="Q122" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="R122" s="203"/>
-      <c r="S122" s="201"/>
-      <c r="T122" s="203"/>
+      <c r="R122" s="185"/>
+      <c r="S122" s="183"/>
+      <c r="T122" s="185"/>
       <c r="U122" s="69"/>
       <c r="V122" s="70"/>
       <c r="W122" s="70"/>
       <c r="X122" s="71"/>
-      <c r="Y122" s="210"/>
-      <c r="Z122" s="210"/>
-      <c r="AA122" s="210"/>
-      <c r="AB122" s="210"/>
-      <c r="AC122" s="204" t="s">
+      <c r="Y122" s="181"/>
+      <c r="Z122" s="181"/>
+      <c r="AA122" s="181"/>
+      <c r="AB122" s="181"/>
+      <c r="AC122" s="186" t="s">
         <v>100</v>
       </c>
-      <c r="AD122" s="205"/>
-      <c r="AE122" s="205"/>
-      <c r="AF122" s="205"/>
-      <c r="AG122" s="205"/>
-      <c r="AH122" s="205"/>
-      <c r="AI122" s="205"/>
-      <c r="AJ122" s="205"/>
-      <c r="AK122" s="205"/>
-      <c r="AL122" s="205"/>
-      <c r="AM122" s="205"/>
-      <c r="AN122" s="205"/>
-      <c r="AO122" s="205"/>
-      <c r="AP122" s="206"/>
+      <c r="AD122" s="187"/>
+      <c r="AE122" s="187"/>
+      <c r="AF122" s="187"/>
+      <c r="AG122" s="187"/>
+      <c r="AH122" s="187"/>
+      <c r="AI122" s="187"/>
+      <c r="AJ122" s="187"/>
+      <c r="AK122" s="187"/>
+      <c r="AL122" s="187"/>
+      <c r="AM122" s="187"/>
+      <c r="AN122" s="187"/>
+      <c r="AO122" s="187"/>
+      <c r="AP122" s="188"/>
       <c r="AQ122" s="33"/>
       <c r="AR122" s="15"/>
       <c r="AS122" s="14"/>
@@ -14087,46 +14181,46 @@
       <c r="H123" s="66"/>
       <c r="I123" s="66"/>
       <c r="J123" s="67"/>
-      <c r="K123" s="201" t="s">
+      <c r="K123" s="183" t="s">
         <v>71</v>
       </c>
-      <c r="L123" s="202"/>
-      <c r="M123" s="203"/>
-      <c r="N123" s="201" t="s">
+      <c r="L123" s="184"/>
+      <c r="M123" s="185"/>
+      <c r="N123" s="183" t="s">
         <v>101</v>
       </c>
-      <c r="O123" s="202"/>
-      <c r="P123" s="203"/>
-      <c r="Q123" s="201" t="s">
+      <c r="O123" s="184"/>
+      <c r="P123" s="185"/>
+      <c r="Q123" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="R123" s="203"/>
-      <c r="S123" s="201"/>
-      <c r="T123" s="203"/>
+      <c r="R123" s="185"/>
+      <c r="S123" s="183"/>
+      <c r="T123" s="185"/>
       <c r="U123" s="69"/>
       <c r="V123" s="70"/>
       <c r="W123" s="70"/>
       <c r="X123" s="71"/>
-      <c r="Y123" s="210"/>
-      <c r="Z123" s="210"/>
-      <c r="AA123" s="210"/>
-      <c r="AB123" s="210"/>
-      <c r="AC123" s="204" t="s">
+      <c r="Y123" s="181"/>
+      <c r="Z123" s="181"/>
+      <c r="AA123" s="181"/>
+      <c r="AB123" s="181"/>
+      <c r="AC123" s="186" t="s">
         <v>102</v>
       </c>
-      <c r="AD123" s="205"/>
-      <c r="AE123" s="205"/>
-      <c r="AF123" s="205"/>
-      <c r="AG123" s="205"/>
-      <c r="AH123" s="205"/>
-      <c r="AI123" s="205"/>
-      <c r="AJ123" s="205"/>
-      <c r="AK123" s="205"/>
-      <c r="AL123" s="205"/>
-      <c r="AM123" s="205"/>
-      <c r="AN123" s="205"/>
-      <c r="AO123" s="205"/>
-      <c r="AP123" s="206"/>
+      <c r="AD123" s="187"/>
+      <c r="AE123" s="187"/>
+      <c r="AF123" s="187"/>
+      <c r="AG123" s="187"/>
+      <c r="AH123" s="187"/>
+      <c r="AI123" s="187"/>
+      <c r="AJ123" s="187"/>
+      <c r="AK123" s="187"/>
+      <c r="AL123" s="187"/>
+      <c r="AM123" s="187"/>
+      <c r="AN123" s="187"/>
+      <c r="AO123" s="187"/>
+      <c r="AP123" s="188"/>
       <c r="AQ123" s="33"/>
       <c r="AR123" s="15"/>
       <c r="AS123" s="14"/>
@@ -14149,20 +14243,20 @@
       <c r="H124" s="66"/>
       <c r="I124" s="66"/>
       <c r="J124" s="67"/>
-      <c r="K124" s="201" t="s">
+      <c r="K124" s="183" t="s">
         <v>103</v>
       </c>
-      <c r="L124" s="202"/>
-      <c r="M124" s="203"/>
-      <c r="N124" s="201"/>
-      <c r="O124" s="202"/>
-      <c r="P124" s="203"/>
-      <c r="Q124" s="201" t="s">
+      <c r="L124" s="184"/>
+      <c r="M124" s="185"/>
+      <c r="N124" s="183"/>
+      <c r="O124" s="184"/>
+      <c r="P124" s="185"/>
+      <c r="Q124" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="R124" s="203"/>
-      <c r="S124" s="201"/>
-      <c r="T124" s="203"/>
+      <c r="R124" s="185"/>
+      <c r="S124" s="183"/>
+      <c r="T124" s="185"/>
       <c r="U124" s="69"/>
       <c r="V124" s="70"/>
       <c r="W124" s="70"/>
@@ -14171,22 +14265,22 @@
       <c r="Z124" s="70"/>
       <c r="AA124" s="70"/>
       <c r="AB124" s="73"/>
-      <c r="AC124" s="204" t="s">
+      <c r="AC124" s="186" t="s">
         <v>104</v>
       </c>
-      <c r="AD124" s="205"/>
-      <c r="AE124" s="205"/>
-      <c r="AF124" s="205"/>
-      <c r="AG124" s="205"/>
-      <c r="AH124" s="205"/>
-      <c r="AI124" s="205"/>
-      <c r="AJ124" s="205"/>
-      <c r="AK124" s="205"/>
-      <c r="AL124" s="205"/>
-      <c r="AM124" s="205"/>
-      <c r="AN124" s="205"/>
-      <c r="AO124" s="205"/>
-      <c r="AP124" s="206"/>
+      <c r="AD124" s="187"/>
+      <c r="AE124" s="187"/>
+      <c r="AF124" s="187"/>
+      <c r="AG124" s="187"/>
+      <c r="AH124" s="187"/>
+      <c r="AI124" s="187"/>
+      <c r="AJ124" s="187"/>
+      <c r="AK124" s="187"/>
+      <c r="AL124" s="187"/>
+      <c r="AM124" s="187"/>
+      <c r="AN124" s="187"/>
+      <c r="AO124" s="187"/>
+      <c r="AP124" s="188"/>
       <c r="AQ124" s="33"/>
       <c r="AR124" s="15"/>
       <c r="AS124" s="14"/>
@@ -14209,20 +14303,20 @@
       <c r="H125" s="66"/>
       <c r="I125" s="66"/>
       <c r="J125" s="67"/>
-      <c r="K125" s="201" t="s">
+      <c r="K125" s="183" t="s">
         <v>103</v>
       </c>
-      <c r="L125" s="202"/>
-      <c r="M125" s="203"/>
-      <c r="N125" s="201"/>
-      <c r="O125" s="202"/>
-      <c r="P125" s="203"/>
-      <c r="Q125" s="201" t="s">
+      <c r="L125" s="184"/>
+      <c r="M125" s="185"/>
+      <c r="N125" s="183"/>
+      <c r="O125" s="184"/>
+      <c r="P125" s="185"/>
+      <c r="Q125" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="R125" s="203"/>
-      <c r="S125" s="201"/>
-      <c r="T125" s="203"/>
+      <c r="R125" s="185"/>
+      <c r="S125" s="183"/>
+      <c r="T125" s="185"/>
       <c r="U125" s="69"/>
       <c r="V125" s="70"/>
       <c r="W125" s="70"/>
@@ -14231,22 +14325,22 @@
       <c r="Z125" s="70"/>
       <c r="AA125" s="70"/>
       <c r="AB125" s="73"/>
-      <c r="AC125" s="204" t="s">
+      <c r="AC125" s="186" t="s">
         <v>105</v>
       </c>
-      <c r="AD125" s="205"/>
-      <c r="AE125" s="205"/>
-      <c r="AF125" s="205"/>
-      <c r="AG125" s="205"/>
-      <c r="AH125" s="205"/>
-      <c r="AI125" s="205"/>
-      <c r="AJ125" s="205"/>
-      <c r="AK125" s="205"/>
-      <c r="AL125" s="205"/>
-      <c r="AM125" s="205"/>
-      <c r="AN125" s="205"/>
-      <c r="AO125" s="205"/>
-      <c r="AP125" s="206"/>
+      <c r="AD125" s="187"/>
+      <c r="AE125" s="187"/>
+      <c r="AF125" s="187"/>
+      <c r="AG125" s="187"/>
+      <c r="AH125" s="187"/>
+      <c r="AI125" s="187"/>
+      <c r="AJ125" s="187"/>
+      <c r="AK125" s="187"/>
+      <c r="AL125" s="187"/>
+      <c r="AM125" s="187"/>
+      <c r="AN125" s="187"/>
+      <c r="AO125" s="187"/>
+      <c r="AP125" s="188"/>
       <c r="AQ125" s="33"/>
       <c r="AR125" s="15"/>
       <c r="AS125" s="14"/>
@@ -14269,20 +14363,20 @@
       <c r="H126" s="66"/>
       <c r="I126" s="66"/>
       <c r="J126" s="67"/>
-      <c r="K126" s="201" t="s">
+      <c r="K126" s="183" t="s">
         <v>103</v>
       </c>
-      <c r="L126" s="202"/>
-      <c r="M126" s="203"/>
-      <c r="N126" s="201"/>
-      <c r="O126" s="202"/>
-      <c r="P126" s="203"/>
-      <c r="Q126" s="201" t="s">
+      <c r="L126" s="184"/>
+      <c r="M126" s="185"/>
+      <c r="N126" s="183"/>
+      <c r="O126" s="184"/>
+      <c r="P126" s="185"/>
+      <c r="Q126" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="R126" s="203"/>
-      <c r="S126" s="201"/>
-      <c r="T126" s="203"/>
+      <c r="R126" s="185"/>
+      <c r="S126" s="183"/>
+      <c r="T126" s="185"/>
       <c r="U126" s="69"/>
       <c r="V126" s="70"/>
       <c r="W126" s="70"/>
@@ -14291,22 +14385,22 @@
       <c r="Z126" s="70"/>
       <c r="AA126" s="70"/>
       <c r="AB126" s="73"/>
-      <c r="AC126" s="204" t="s">
+      <c r="AC126" s="186" t="s">
         <v>106</v>
       </c>
-      <c r="AD126" s="205"/>
-      <c r="AE126" s="205"/>
-      <c r="AF126" s="205"/>
-      <c r="AG126" s="205"/>
-      <c r="AH126" s="205"/>
-      <c r="AI126" s="205"/>
-      <c r="AJ126" s="205"/>
-      <c r="AK126" s="205"/>
-      <c r="AL126" s="205"/>
-      <c r="AM126" s="205"/>
-      <c r="AN126" s="205"/>
-      <c r="AO126" s="205"/>
-      <c r="AP126" s="206"/>
+      <c r="AD126" s="187"/>
+      <c r="AE126" s="187"/>
+      <c r="AF126" s="187"/>
+      <c r="AG126" s="187"/>
+      <c r="AH126" s="187"/>
+      <c r="AI126" s="187"/>
+      <c r="AJ126" s="187"/>
+      <c r="AK126" s="187"/>
+      <c r="AL126" s="187"/>
+      <c r="AM126" s="187"/>
+      <c r="AN126" s="187"/>
+      <c r="AO126" s="187"/>
+      <c r="AP126" s="188"/>
       <c r="AQ126" s="33"/>
       <c r="AR126" s="15"/>
       <c r="AS126" s="14"/>
@@ -14329,20 +14423,20 @@
       <c r="H127" s="66"/>
       <c r="I127" s="66"/>
       <c r="J127" s="67"/>
-      <c r="K127" s="201" t="s">
+      <c r="K127" s="183" t="s">
         <v>103</v>
       </c>
-      <c r="L127" s="202"/>
-      <c r="M127" s="203"/>
-      <c r="N127" s="201"/>
-      <c r="O127" s="202"/>
-      <c r="P127" s="203"/>
-      <c r="Q127" s="201" t="s">
+      <c r="L127" s="184"/>
+      <c r="M127" s="185"/>
+      <c r="N127" s="183"/>
+      <c r="O127" s="184"/>
+      <c r="P127" s="185"/>
+      <c r="Q127" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="R127" s="203"/>
-      <c r="S127" s="201"/>
-      <c r="T127" s="203"/>
+      <c r="R127" s="185"/>
+      <c r="S127" s="183"/>
+      <c r="T127" s="185"/>
       <c r="U127" s="69"/>
       <c r="V127" s="70"/>
       <c r="W127" s="70"/>
@@ -14351,22 +14445,22 @@
       <c r="Z127" s="70"/>
       <c r="AA127" s="70"/>
       <c r="AB127" s="73"/>
-      <c r="AC127" s="204" t="s">
+      <c r="AC127" s="186" t="s">
         <v>107</v>
       </c>
-      <c r="AD127" s="205"/>
-      <c r="AE127" s="205"/>
-      <c r="AF127" s="205"/>
-      <c r="AG127" s="205"/>
-      <c r="AH127" s="205"/>
-      <c r="AI127" s="205"/>
-      <c r="AJ127" s="205"/>
-      <c r="AK127" s="205"/>
-      <c r="AL127" s="205"/>
-      <c r="AM127" s="205"/>
-      <c r="AN127" s="205"/>
-      <c r="AO127" s="205"/>
-      <c r="AP127" s="206"/>
+      <c r="AD127" s="187"/>
+      <c r="AE127" s="187"/>
+      <c r="AF127" s="187"/>
+      <c r="AG127" s="187"/>
+      <c r="AH127" s="187"/>
+      <c r="AI127" s="187"/>
+      <c r="AJ127" s="187"/>
+      <c r="AK127" s="187"/>
+      <c r="AL127" s="187"/>
+      <c r="AM127" s="187"/>
+      <c r="AN127" s="187"/>
+      <c r="AO127" s="187"/>
+      <c r="AP127" s="188"/>
       <c r="AQ127" s="33"/>
       <c r="AR127" s="15"/>
       <c r="AS127" s="14"/>
@@ -14389,46 +14483,46 @@
       <c r="H128" s="66"/>
       <c r="I128" s="66"/>
       <c r="J128" s="67"/>
-      <c r="K128" s="201" t="s">
+      <c r="K128" s="183" t="s">
         <v>71</v>
       </c>
-      <c r="L128" s="202"/>
-      <c r="M128" s="203"/>
-      <c r="N128" s="201" t="s">
+      <c r="L128" s="184"/>
+      <c r="M128" s="185"/>
+      <c r="N128" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="O128" s="202"/>
-      <c r="P128" s="203"/>
-      <c r="Q128" s="201" t="s">
+      <c r="O128" s="184"/>
+      <c r="P128" s="185"/>
+      <c r="Q128" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="R128" s="203"/>
-      <c r="S128" s="201"/>
-      <c r="T128" s="203"/>
+      <c r="R128" s="185"/>
+      <c r="S128" s="183"/>
+      <c r="T128" s="185"/>
       <c r="U128" s="69"/>
       <c r="V128" s="70"/>
       <c r="W128" s="70"/>
       <c r="X128" s="71"/>
-      <c r="Y128" s="180"/>
-      <c r="Z128" s="180"/>
-      <c r="AA128" s="180"/>
-      <c r="AB128" s="180"/>
-      <c r="AC128" s="204" t="s">
+      <c r="Y128" s="182"/>
+      <c r="Z128" s="182"/>
+      <c r="AA128" s="182"/>
+      <c r="AB128" s="182"/>
+      <c r="AC128" s="186" t="s">
         <v>108</v>
       </c>
-      <c r="AD128" s="205"/>
-      <c r="AE128" s="205"/>
-      <c r="AF128" s="205"/>
-      <c r="AG128" s="205"/>
-      <c r="AH128" s="205"/>
-      <c r="AI128" s="205"/>
-      <c r="AJ128" s="205"/>
-      <c r="AK128" s="205"/>
-      <c r="AL128" s="205"/>
-      <c r="AM128" s="205"/>
-      <c r="AN128" s="205"/>
-      <c r="AO128" s="205"/>
-      <c r="AP128" s="206"/>
+      <c r="AD128" s="187"/>
+      <c r="AE128" s="187"/>
+      <c r="AF128" s="187"/>
+      <c r="AG128" s="187"/>
+      <c r="AH128" s="187"/>
+      <c r="AI128" s="187"/>
+      <c r="AJ128" s="187"/>
+      <c r="AK128" s="187"/>
+      <c r="AL128" s="187"/>
+      <c r="AM128" s="187"/>
+      <c r="AN128" s="187"/>
+      <c r="AO128" s="187"/>
+      <c r="AP128" s="188"/>
       <c r="AQ128" s="33"/>
       <c r="AR128" s="15"/>
       <c r="AS128" s="14"/>
@@ -14451,46 +14545,46 @@
       <c r="H129" s="66"/>
       <c r="I129" s="66"/>
       <c r="J129" s="67"/>
-      <c r="K129" s="201" t="s">
+      <c r="K129" s="183" t="s">
         <v>71</v>
       </c>
-      <c r="L129" s="202"/>
-      <c r="M129" s="203"/>
-      <c r="N129" s="201" t="s">
+      <c r="L129" s="184"/>
+      <c r="M129" s="185"/>
+      <c r="N129" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="O129" s="202"/>
-      <c r="P129" s="203"/>
-      <c r="Q129" s="201" t="s">
+      <c r="O129" s="184"/>
+      <c r="P129" s="185"/>
+      <c r="Q129" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="R129" s="203"/>
-      <c r="S129" s="201"/>
-      <c r="T129" s="203"/>
+      <c r="R129" s="185"/>
+      <c r="S129" s="183"/>
+      <c r="T129" s="185"/>
       <c r="U129" s="69"/>
       <c r="V129" s="70"/>
       <c r="W129" s="70"/>
       <c r="X129" s="71"/>
-      <c r="Y129" s="180"/>
-      <c r="Z129" s="180"/>
-      <c r="AA129" s="180"/>
-      <c r="AB129" s="180"/>
-      <c r="AC129" s="204" t="s">
+      <c r="Y129" s="182"/>
+      <c r="Z129" s="182"/>
+      <c r="AA129" s="182"/>
+      <c r="AB129" s="182"/>
+      <c r="AC129" s="186" t="s">
         <v>109</v>
       </c>
-      <c r="AD129" s="205"/>
-      <c r="AE129" s="205"/>
-      <c r="AF129" s="205"/>
-      <c r="AG129" s="205"/>
-      <c r="AH129" s="205"/>
-      <c r="AI129" s="205"/>
-      <c r="AJ129" s="205"/>
-      <c r="AK129" s="205"/>
-      <c r="AL129" s="205"/>
-      <c r="AM129" s="205"/>
-      <c r="AN129" s="205"/>
-      <c r="AO129" s="205"/>
-      <c r="AP129" s="206"/>
+      <c r="AD129" s="187"/>
+      <c r="AE129" s="187"/>
+      <c r="AF129" s="187"/>
+      <c r="AG129" s="187"/>
+      <c r="AH129" s="187"/>
+      <c r="AI129" s="187"/>
+      <c r="AJ129" s="187"/>
+      <c r="AK129" s="187"/>
+      <c r="AL129" s="187"/>
+      <c r="AM129" s="187"/>
+      <c r="AN129" s="187"/>
+      <c r="AO129" s="187"/>
+      <c r="AP129" s="188"/>
       <c r="AQ129" s="33"/>
       <c r="AR129" s="15"/>
       <c r="AS129" s="14"/>
@@ -14513,46 +14607,46 @@
       <c r="H130" s="66"/>
       <c r="I130" s="66"/>
       <c r="J130" s="67"/>
-      <c r="K130" s="201" t="s">
+      <c r="K130" s="183" t="s">
         <v>71</v>
       </c>
-      <c r="L130" s="202"/>
-      <c r="M130" s="203"/>
-      <c r="N130" s="201" t="s">
+      <c r="L130" s="184"/>
+      <c r="M130" s="185"/>
+      <c r="N130" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="O130" s="202"/>
-      <c r="P130" s="203"/>
-      <c r="Q130" s="201" t="s">
+      <c r="O130" s="184"/>
+      <c r="P130" s="185"/>
+      <c r="Q130" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="R130" s="203"/>
-      <c r="S130" s="201"/>
-      <c r="T130" s="203"/>
+      <c r="R130" s="185"/>
+      <c r="S130" s="183"/>
+      <c r="T130" s="185"/>
       <c r="U130" s="69"/>
       <c r="V130" s="70"/>
       <c r="W130" s="70"/>
       <c r="X130" s="71"/>
-      <c r="Y130" s="180"/>
-      <c r="Z130" s="180"/>
-      <c r="AA130" s="180"/>
-      <c r="AB130" s="180"/>
-      <c r="AC130" s="204" t="s">
+      <c r="Y130" s="182"/>
+      <c r="Z130" s="182"/>
+      <c r="AA130" s="182"/>
+      <c r="AB130" s="182"/>
+      <c r="AC130" s="186" t="s">
         <v>110</v>
       </c>
-      <c r="AD130" s="205"/>
-      <c r="AE130" s="205"/>
-      <c r="AF130" s="205"/>
-      <c r="AG130" s="205"/>
-      <c r="AH130" s="205"/>
-      <c r="AI130" s="205"/>
-      <c r="AJ130" s="205"/>
-      <c r="AK130" s="205"/>
-      <c r="AL130" s="205"/>
-      <c r="AM130" s="205"/>
-      <c r="AN130" s="205"/>
-      <c r="AO130" s="205"/>
-      <c r="AP130" s="206"/>
+      <c r="AD130" s="187"/>
+      <c r="AE130" s="187"/>
+      <c r="AF130" s="187"/>
+      <c r="AG130" s="187"/>
+      <c r="AH130" s="187"/>
+      <c r="AI130" s="187"/>
+      <c r="AJ130" s="187"/>
+      <c r="AK130" s="187"/>
+      <c r="AL130" s="187"/>
+      <c r="AM130" s="187"/>
+      <c r="AN130" s="187"/>
+      <c r="AO130" s="187"/>
+      <c r="AP130" s="188"/>
       <c r="AQ130" s="33"/>
       <c r="AR130" s="15"/>
       <c r="AS130" s="14"/>
@@ -14575,46 +14669,46 @@
       <c r="H131" s="66"/>
       <c r="I131" s="66"/>
       <c r="J131" s="67"/>
-      <c r="K131" s="201" t="s">
+      <c r="K131" s="183" t="s">
         <v>71</v>
       </c>
-      <c r="L131" s="202"/>
-      <c r="M131" s="203"/>
-      <c r="N131" s="201" t="s">
+      <c r="L131" s="184"/>
+      <c r="M131" s="185"/>
+      <c r="N131" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="O131" s="202"/>
-      <c r="P131" s="203"/>
-      <c r="Q131" s="201" t="s">
+      <c r="O131" s="184"/>
+      <c r="P131" s="185"/>
+      <c r="Q131" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="R131" s="203"/>
-      <c r="S131" s="201"/>
-      <c r="T131" s="203"/>
+      <c r="R131" s="185"/>
+      <c r="S131" s="183"/>
+      <c r="T131" s="185"/>
       <c r="U131" s="69"/>
       <c r="V131" s="70"/>
       <c r="W131" s="70"/>
       <c r="X131" s="71"/>
-      <c r="Y131" s="180"/>
-      <c r="Z131" s="180"/>
-      <c r="AA131" s="180"/>
-      <c r="AB131" s="180"/>
-      <c r="AC131" s="204" t="s">
+      <c r="Y131" s="182"/>
+      <c r="Z131" s="182"/>
+      <c r="AA131" s="182"/>
+      <c r="AB131" s="182"/>
+      <c r="AC131" s="186" t="s">
         <v>111</v>
       </c>
-      <c r="AD131" s="205"/>
-      <c r="AE131" s="205"/>
-      <c r="AF131" s="205"/>
-      <c r="AG131" s="205"/>
-      <c r="AH131" s="205"/>
-      <c r="AI131" s="205"/>
-      <c r="AJ131" s="205"/>
-      <c r="AK131" s="205"/>
-      <c r="AL131" s="205"/>
-      <c r="AM131" s="205"/>
-      <c r="AN131" s="205"/>
-      <c r="AO131" s="205"/>
-      <c r="AP131" s="206"/>
+      <c r="AD131" s="187"/>
+      <c r="AE131" s="187"/>
+      <c r="AF131" s="187"/>
+      <c r="AG131" s="187"/>
+      <c r="AH131" s="187"/>
+      <c r="AI131" s="187"/>
+      <c r="AJ131" s="187"/>
+      <c r="AK131" s="187"/>
+      <c r="AL131" s="187"/>
+      <c r="AM131" s="187"/>
+      <c r="AN131" s="187"/>
+      <c r="AO131" s="187"/>
+      <c r="AP131" s="188"/>
       <c r="AQ131" s="33"/>
       <c r="AR131" s="15"/>
       <c r="AS131" s="14"/>
@@ -14637,46 +14731,46 @@
       <c r="H132" s="66"/>
       <c r="I132" s="66"/>
       <c r="J132" s="67"/>
-      <c r="K132" s="201" t="s">
+      <c r="K132" s="183" t="s">
         <v>71</v>
       </c>
-      <c r="L132" s="202"/>
-      <c r="M132" s="203"/>
-      <c r="N132" s="201" t="s">
+      <c r="L132" s="184"/>
+      <c r="M132" s="185"/>
+      <c r="N132" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="O132" s="202"/>
-      <c r="P132" s="203"/>
-      <c r="Q132" s="201" t="s">
+      <c r="O132" s="184"/>
+      <c r="P132" s="185"/>
+      <c r="Q132" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="R132" s="203"/>
-      <c r="S132" s="201"/>
-      <c r="T132" s="203"/>
+      <c r="R132" s="185"/>
+      <c r="S132" s="183"/>
+      <c r="T132" s="185"/>
       <c r="U132" s="69"/>
       <c r="V132" s="70"/>
       <c r="W132" s="70"/>
       <c r="X132" s="71"/>
-      <c r="Y132" s="180"/>
-      <c r="Z132" s="180"/>
-      <c r="AA132" s="180"/>
-      <c r="AB132" s="180"/>
-      <c r="AC132" s="204" t="s">
+      <c r="Y132" s="182"/>
+      <c r="Z132" s="182"/>
+      <c r="AA132" s="182"/>
+      <c r="AB132" s="182"/>
+      <c r="AC132" s="186" t="s">
         <v>112</v>
       </c>
-      <c r="AD132" s="205"/>
-      <c r="AE132" s="205"/>
-      <c r="AF132" s="205"/>
-      <c r="AG132" s="205"/>
-      <c r="AH132" s="205"/>
-      <c r="AI132" s="205"/>
-      <c r="AJ132" s="205"/>
-      <c r="AK132" s="205"/>
-      <c r="AL132" s="205"/>
-      <c r="AM132" s="205"/>
-      <c r="AN132" s="205"/>
-      <c r="AO132" s="205"/>
-      <c r="AP132" s="206"/>
+      <c r="AD132" s="187"/>
+      <c r="AE132" s="187"/>
+      <c r="AF132" s="187"/>
+      <c r="AG132" s="187"/>
+      <c r="AH132" s="187"/>
+      <c r="AI132" s="187"/>
+      <c r="AJ132" s="187"/>
+      <c r="AK132" s="187"/>
+      <c r="AL132" s="187"/>
+      <c r="AM132" s="187"/>
+      <c r="AN132" s="187"/>
+      <c r="AO132" s="187"/>
+      <c r="AP132" s="188"/>
       <c r="AQ132" s="33"/>
       <c r="AR132" s="15"/>
       <c r="AS132" s="14"/>
@@ -14699,46 +14793,46 @@
       <c r="H133" s="66"/>
       <c r="I133" s="66"/>
       <c r="J133" s="67"/>
-      <c r="K133" s="201" t="s">
+      <c r="K133" s="183" t="s">
         <v>71</v>
       </c>
-      <c r="L133" s="202"/>
-      <c r="M133" s="203"/>
-      <c r="N133" s="201" t="s">
+      <c r="L133" s="184"/>
+      <c r="M133" s="185"/>
+      <c r="N133" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="O133" s="202"/>
-      <c r="P133" s="203"/>
-      <c r="Q133" s="201" t="s">
+      <c r="O133" s="184"/>
+      <c r="P133" s="185"/>
+      <c r="Q133" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="R133" s="203"/>
-      <c r="S133" s="201"/>
-      <c r="T133" s="203"/>
+      <c r="R133" s="185"/>
+      <c r="S133" s="183"/>
+      <c r="T133" s="185"/>
       <c r="U133" s="69"/>
       <c r="V133" s="70"/>
       <c r="W133" s="70"/>
       <c r="X133" s="71"/>
-      <c r="Y133" s="180"/>
-      <c r="Z133" s="180"/>
-      <c r="AA133" s="180"/>
-      <c r="AB133" s="180"/>
-      <c r="AC133" s="204" t="s">
+      <c r="Y133" s="182"/>
+      <c r="Z133" s="182"/>
+      <c r="AA133" s="182"/>
+      <c r="AB133" s="182"/>
+      <c r="AC133" s="186" t="s">
         <v>113</v>
       </c>
-      <c r="AD133" s="205"/>
-      <c r="AE133" s="205"/>
-      <c r="AF133" s="205"/>
-      <c r="AG133" s="205"/>
-      <c r="AH133" s="205"/>
-      <c r="AI133" s="205"/>
-      <c r="AJ133" s="205"/>
-      <c r="AK133" s="205"/>
-      <c r="AL133" s="205"/>
-      <c r="AM133" s="205"/>
-      <c r="AN133" s="205"/>
-      <c r="AO133" s="205"/>
-      <c r="AP133" s="206"/>
+      <c r="AD133" s="187"/>
+      <c r="AE133" s="187"/>
+      <c r="AF133" s="187"/>
+      <c r="AG133" s="187"/>
+      <c r="AH133" s="187"/>
+      <c r="AI133" s="187"/>
+      <c r="AJ133" s="187"/>
+      <c r="AK133" s="187"/>
+      <c r="AL133" s="187"/>
+      <c r="AM133" s="187"/>
+      <c r="AN133" s="187"/>
+      <c r="AO133" s="187"/>
+      <c r="AP133" s="188"/>
       <c r="AQ133" s="33"/>
       <c r="AR133" s="15"/>
       <c r="AS133" s="14"/>
@@ -14761,20 +14855,20 @@
       <c r="H134" s="66"/>
       <c r="I134" s="66"/>
       <c r="J134" s="67"/>
-      <c r="K134" s="201" t="s">
+      <c r="K134" s="183" t="s">
         <v>66</v>
       </c>
-      <c r="L134" s="202"/>
-      <c r="M134" s="203"/>
-      <c r="N134" s="201"/>
-      <c r="O134" s="202"/>
-      <c r="P134" s="203"/>
-      <c r="Q134" s="201" t="s">
+      <c r="L134" s="184"/>
+      <c r="M134" s="185"/>
+      <c r="N134" s="183"/>
+      <c r="O134" s="184"/>
+      <c r="P134" s="185"/>
+      <c r="Q134" s="183" t="s">
         <v>75</v>
       </c>
-      <c r="R134" s="203"/>
-      <c r="S134" s="201"/>
-      <c r="T134" s="203"/>
+      <c r="R134" s="185"/>
+      <c r="S134" s="183"/>
+      <c r="T134" s="185"/>
       <c r="U134" s="69"/>
       <c r="V134" s="70"/>
       <c r="W134" s="70"/>
@@ -14783,22 +14877,22 @@
       <c r="Z134" s="70"/>
       <c r="AA134" s="70"/>
       <c r="AB134" s="73"/>
-      <c r="AC134" s="204" t="s">
+      <c r="AC134" s="186" t="s">
         <v>115</v>
       </c>
-      <c r="AD134" s="205"/>
-      <c r="AE134" s="205"/>
-      <c r="AF134" s="205"/>
-      <c r="AG134" s="205"/>
-      <c r="AH134" s="205"/>
-      <c r="AI134" s="205"/>
-      <c r="AJ134" s="205"/>
-      <c r="AK134" s="205"/>
-      <c r="AL134" s="205"/>
-      <c r="AM134" s="205"/>
-      <c r="AN134" s="205"/>
-      <c r="AO134" s="205"/>
-      <c r="AP134" s="206"/>
+      <c r="AD134" s="187"/>
+      <c r="AE134" s="187"/>
+      <c r="AF134" s="187"/>
+      <c r="AG134" s="187"/>
+      <c r="AH134" s="187"/>
+      <c r="AI134" s="187"/>
+      <c r="AJ134" s="187"/>
+      <c r="AK134" s="187"/>
+      <c r="AL134" s="187"/>
+      <c r="AM134" s="187"/>
+      <c r="AN134" s="187"/>
+      <c r="AO134" s="187"/>
+      <c r="AP134" s="188"/>
       <c r="AQ134" s="33"/>
       <c r="AR134" s="15"/>
       <c r="AS134" s="14"/>
@@ -14821,20 +14915,20 @@
       <c r="H135" s="66"/>
       <c r="I135" s="66"/>
       <c r="J135" s="67"/>
-      <c r="K135" s="201" t="s">
+      <c r="K135" s="183" t="s">
         <v>66</v>
       </c>
-      <c r="L135" s="202"/>
-      <c r="M135" s="203"/>
-      <c r="N135" s="201"/>
-      <c r="O135" s="202"/>
-      <c r="P135" s="203"/>
-      <c r="Q135" s="201" t="s">
+      <c r="L135" s="184"/>
+      <c r="M135" s="185"/>
+      <c r="N135" s="183"/>
+      <c r="O135" s="184"/>
+      <c r="P135" s="185"/>
+      <c r="Q135" s="183" t="s">
         <v>75</v>
       </c>
-      <c r="R135" s="203"/>
-      <c r="S135" s="201"/>
-      <c r="T135" s="203"/>
+      <c r="R135" s="185"/>
+      <c r="S135" s="183"/>
+      <c r="T135" s="185"/>
       <c r="U135" s="69"/>
       <c r="V135" s="70"/>
       <c r="W135" s="70"/>
@@ -14843,22 +14937,22 @@
       <c r="Z135" s="70"/>
       <c r="AA135" s="70"/>
       <c r="AB135" s="73"/>
-      <c r="AC135" s="204" t="s">
+      <c r="AC135" s="186" t="s">
         <v>117</v>
       </c>
-      <c r="AD135" s="205"/>
-      <c r="AE135" s="205"/>
-      <c r="AF135" s="205"/>
-      <c r="AG135" s="205"/>
-      <c r="AH135" s="205"/>
-      <c r="AI135" s="205"/>
-      <c r="AJ135" s="205"/>
-      <c r="AK135" s="205"/>
-      <c r="AL135" s="205"/>
-      <c r="AM135" s="205"/>
-      <c r="AN135" s="205"/>
-      <c r="AO135" s="205"/>
-      <c r="AP135" s="206"/>
+      <c r="AD135" s="187"/>
+      <c r="AE135" s="187"/>
+      <c r="AF135" s="187"/>
+      <c r="AG135" s="187"/>
+      <c r="AH135" s="187"/>
+      <c r="AI135" s="187"/>
+      <c r="AJ135" s="187"/>
+      <c r="AK135" s="187"/>
+      <c r="AL135" s="187"/>
+      <c r="AM135" s="187"/>
+      <c r="AN135" s="187"/>
+      <c r="AO135" s="187"/>
+      <c r="AP135" s="188"/>
       <c r="AQ135" s="33"/>
       <c r="AR135" s="15"/>
       <c r="AS135" s="14"/>
@@ -14870,47 +14964,47 @@
       <c r="A136" s="31"/>
       <c r="B136" s="33"/>
       <c r="C136" s="78"/>
-      <c r="D136" s="180" t="s">
+      <c r="D136" s="182" t="s">
         <v>118</v>
       </c>
-      <c r="E136" s="180"/>
-      <c r="F136" s="180"/>
-      <c r="G136" s="180"/>
-      <c r="H136" s="180"/>
-      <c r="I136" s="180"/>
-      <c r="J136" s="180"/>
-      <c r="K136" s="180"/>
-      <c r="L136" s="180"/>
-      <c r="M136" s="180"/>
-      <c r="N136" s="180"/>
-      <c r="O136" s="180"/>
-      <c r="P136" s="180"/>
-      <c r="Q136" s="180"/>
-      <c r="R136" s="180"/>
-      <c r="S136" s="180"/>
-      <c r="T136" s="180"/>
-      <c r="U136" s="180"/>
-      <c r="V136" s="180"/>
-      <c r="W136" s="180"/>
-      <c r="X136" s="180"/>
-      <c r="Y136" s="180"/>
-      <c r="Z136" s="180"/>
-      <c r="AA136" s="180"/>
-      <c r="AB136" s="180"/>
-      <c r="AC136" s="180"/>
-      <c r="AD136" s="180"/>
-      <c r="AE136" s="180"/>
-      <c r="AF136" s="180"/>
-      <c r="AG136" s="180"/>
-      <c r="AH136" s="180"/>
-      <c r="AI136" s="180"/>
-      <c r="AJ136" s="180"/>
-      <c r="AK136" s="180"/>
-      <c r="AL136" s="180"/>
-      <c r="AM136" s="180"/>
-      <c r="AN136" s="180"/>
-      <c r="AO136" s="180"/>
-      <c r="AP136" s="180"/>
+      <c r="E136" s="182"/>
+      <c r="F136" s="182"/>
+      <c r="G136" s="182"/>
+      <c r="H136" s="182"/>
+      <c r="I136" s="182"/>
+      <c r="J136" s="182"/>
+      <c r="K136" s="182"/>
+      <c r="L136" s="182"/>
+      <c r="M136" s="182"/>
+      <c r="N136" s="182"/>
+      <c r="O136" s="182"/>
+      <c r="P136" s="182"/>
+      <c r="Q136" s="182"/>
+      <c r="R136" s="182"/>
+      <c r="S136" s="182"/>
+      <c r="T136" s="182"/>
+      <c r="U136" s="182"/>
+      <c r="V136" s="182"/>
+      <c r="W136" s="182"/>
+      <c r="X136" s="182"/>
+      <c r="Y136" s="182"/>
+      <c r="Z136" s="182"/>
+      <c r="AA136" s="182"/>
+      <c r="AB136" s="182"/>
+      <c r="AC136" s="182"/>
+      <c r="AD136" s="182"/>
+      <c r="AE136" s="182"/>
+      <c r="AF136" s="182"/>
+      <c r="AG136" s="182"/>
+      <c r="AH136" s="182"/>
+      <c r="AI136" s="182"/>
+      <c r="AJ136" s="182"/>
+      <c r="AK136" s="182"/>
+      <c r="AL136" s="182"/>
+      <c r="AM136" s="182"/>
+      <c r="AN136" s="182"/>
+      <c r="AO136" s="182"/>
+      <c r="AP136" s="182"/>
       <c r="AQ136" s="33"/>
       <c r="AR136" s="15"/>
       <c r="AS136" s="14"/>
@@ -14933,20 +15027,20 @@
       <c r="H137" s="66"/>
       <c r="I137" s="66"/>
       <c r="J137" s="67"/>
-      <c r="K137" s="201" t="s">
+      <c r="K137" s="183" t="s">
         <v>66</v>
       </c>
-      <c r="L137" s="202"/>
-      <c r="M137" s="203"/>
-      <c r="N137" s="201"/>
-      <c r="O137" s="202"/>
-      <c r="P137" s="203"/>
-      <c r="Q137" s="201" t="s">
+      <c r="L137" s="184"/>
+      <c r="M137" s="185"/>
+      <c r="N137" s="183"/>
+      <c r="O137" s="184"/>
+      <c r="P137" s="185"/>
+      <c r="Q137" s="183" t="s">
         <v>75</v>
       </c>
-      <c r="R137" s="203"/>
-      <c r="S137" s="201"/>
-      <c r="T137" s="203"/>
+      <c r="R137" s="185"/>
+      <c r="S137" s="183"/>
+      <c r="T137" s="185"/>
       <c r="U137" s="69"/>
       <c r="V137" s="70"/>
       <c r="W137" s="70"/>
@@ -14955,22 +15049,22 @@
       <c r="Z137" s="70"/>
       <c r="AA137" s="70"/>
       <c r="AB137" s="73"/>
-      <c r="AC137" s="204" t="s">
+      <c r="AC137" s="186" t="s">
         <v>120</v>
       </c>
-      <c r="AD137" s="205"/>
-      <c r="AE137" s="205"/>
-      <c r="AF137" s="205"/>
-      <c r="AG137" s="205"/>
-      <c r="AH137" s="205"/>
-      <c r="AI137" s="205"/>
-      <c r="AJ137" s="205"/>
-      <c r="AK137" s="205"/>
-      <c r="AL137" s="205"/>
-      <c r="AM137" s="205"/>
-      <c r="AN137" s="205"/>
-      <c r="AO137" s="205"/>
-      <c r="AP137" s="206"/>
+      <c r="AD137" s="187"/>
+      <c r="AE137" s="187"/>
+      <c r="AF137" s="187"/>
+      <c r="AG137" s="187"/>
+      <c r="AH137" s="187"/>
+      <c r="AI137" s="187"/>
+      <c r="AJ137" s="187"/>
+      <c r="AK137" s="187"/>
+      <c r="AL137" s="187"/>
+      <c r="AM137" s="187"/>
+      <c r="AN137" s="187"/>
+      <c r="AO137" s="187"/>
+      <c r="AP137" s="188"/>
       <c r="AQ137" s="33"/>
       <c r="AR137" s="15"/>
       <c r="AS137" s="14"/>
@@ -14993,20 +15087,20 @@
       <c r="H138" s="66"/>
       <c r="I138" s="66"/>
       <c r="J138" s="67"/>
-      <c r="K138" s="201" t="s">
+      <c r="K138" s="183" t="s">
         <v>66</v>
       </c>
-      <c r="L138" s="202"/>
-      <c r="M138" s="203"/>
-      <c r="N138" s="201"/>
-      <c r="O138" s="202"/>
-      <c r="P138" s="203"/>
-      <c r="Q138" s="201" t="s">
+      <c r="L138" s="184"/>
+      <c r="M138" s="185"/>
+      <c r="N138" s="183"/>
+      <c r="O138" s="184"/>
+      <c r="P138" s="185"/>
+      <c r="Q138" s="183" t="s">
         <v>75</v>
       </c>
-      <c r="R138" s="203"/>
-      <c r="S138" s="201"/>
-      <c r="T138" s="203"/>
+      <c r="R138" s="185"/>
+      <c r="S138" s="183"/>
+      <c r="T138" s="185"/>
       <c r="U138" s="69"/>
       <c r="V138" s="70"/>
       <c r="W138" s="70"/>
@@ -15015,22 +15109,22 @@
       <c r="Z138" s="70"/>
       <c r="AA138" s="70"/>
       <c r="AB138" s="73"/>
-      <c r="AC138" s="204" t="s">
+      <c r="AC138" s="186" t="s">
         <v>122</v>
       </c>
-      <c r="AD138" s="205"/>
-      <c r="AE138" s="205"/>
-      <c r="AF138" s="205"/>
-      <c r="AG138" s="205"/>
-      <c r="AH138" s="205"/>
-      <c r="AI138" s="205"/>
-      <c r="AJ138" s="205"/>
-      <c r="AK138" s="205"/>
-      <c r="AL138" s="205"/>
-      <c r="AM138" s="205"/>
-      <c r="AN138" s="205"/>
-      <c r="AO138" s="205"/>
-      <c r="AP138" s="206"/>
+      <c r="AD138" s="187"/>
+      <c r="AE138" s="187"/>
+      <c r="AF138" s="187"/>
+      <c r="AG138" s="187"/>
+      <c r="AH138" s="187"/>
+      <c r="AI138" s="187"/>
+      <c r="AJ138" s="187"/>
+      <c r="AK138" s="187"/>
+      <c r="AL138" s="187"/>
+      <c r="AM138" s="187"/>
+      <c r="AN138" s="187"/>
+      <c r="AO138" s="187"/>
+      <c r="AP138" s="188"/>
       <c r="AQ138" s="33"/>
       <c r="AR138" s="15"/>
       <c r="AS138" s="14"/>
@@ -15053,20 +15147,20 @@
       <c r="H139" s="66"/>
       <c r="I139" s="66"/>
       <c r="J139" s="67"/>
-      <c r="K139" s="201" t="s">
+      <c r="K139" s="183" t="s">
         <v>66</v>
       </c>
-      <c r="L139" s="202"/>
-      <c r="M139" s="203"/>
-      <c r="N139" s="201"/>
-      <c r="O139" s="202"/>
-      <c r="P139" s="203"/>
-      <c r="Q139" s="201" t="s">
+      <c r="L139" s="184"/>
+      <c r="M139" s="185"/>
+      <c r="N139" s="183"/>
+      <c r="O139" s="184"/>
+      <c r="P139" s="185"/>
+      <c r="Q139" s="183" t="s">
         <v>75</v>
       </c>
-      <c r="R139" s="203"/>
-      <c r="S139" s="201"/>
-      <c r="T139" s="203"/>
+      <c r="R139" s="185"/>
+      <c r="S139" s="183"/>
+      <c r="T139" s="185"/>
       <c r="U139" s="69"/>
       <c r="V139" s="70"/>
       <c r="W139" s="70"/>
@@ -15075,22 +15169,22 @@
       <c r="Z139" s="70"/>
       <c r="AA139" s="70"/>
       <c r="AB139" s="73"/>
-      <c r="AC139" s="204" t="s">
+      <c r="AC139" s="186" t="s">
         <v>124</v>
       </c>
-      <c r="AD139" s="205"/>
-      <c r="AE139" s="205"/>
-      <c r="AF139" s="205"/>
-      <c r="AG139" s="205"/>
-      <c r="AH139" s="205"/>
-      <c r="AI139" s="205"/>
-      <c r="AJ139" s="205"/>
-      <c r="AK139" s="205"/>
-      <c r="AL139" s="205"/>
-      <c r="AM139" s="205"/>
-      <c r="AN139" s="205"/>
-      <c r="AO139" s="205"/>
-      <c r="AP139" s="206"/>
+      <c r="AD139" s="187"/>
+      <c r="AE139" s="187"/>
+      <c r="AF139" s="187"/>
+      <c r="AG139" s="187"/>
+      <c r="AH139" s="187"/>
+      <c r="AI139" s="187"/>
+      <c r="AJ139" s="187"/>
+      <c r="AK139" s="187"/>
+      <c r="AL139" s="187"/>
+      <c r="AM139" s="187"/>
+      <c r="AN139" s="187"/>
+      <c r="AO139" s="187"/>
+      <c r="AP139" s="188"/>
       <c r="AQ139" s="33"/>
       <c r="AR139" s="15"/>
       <c r="AS139" s="14"/>
@@ -15113,20 +15207,20 @@
       <c r="H140" s="66"/>
       <c r="I140" s="66"/>
       <c r="J140" s="67"/>
-      <c r="K140" s="201" t="s">
+      <c r="K140" s="183" t="s">
         <v>66</v>
       </c>
-      <c r="L140" s="202"/>
-      <c r="M140" s="203"/>
-      <c r="N140" s="201"/>
-      <c r="O140" s="202"/>
-      <c r="P140" s="203"/>
-      <c r="Q140" s="201" t="s">
+      <c r="L140" s="184"/>
+      <c r="M140" s="185"/>
+      <c r="N140" s="183"/>
+      <c r="O140" s="184"/>
+      <c r="P140" s="185"/>
+      <c r="Q140" s="183" t="s">
         <v>75</v>
       </c>
-      <c r="R140" s="203"/>
-      <c r="S140" s="201"/>
-      <c r="T140" s="203"/>
+      <c r="R140" s="185"/>
+      <c r="S140" s="183"/>
+      <c r="T140" s="185"/>
       <c r="U140" s="69"/>
       <c r="V140" s="70"/>
       <c r="W140" s="70"/>
@@ -15135,22 +15229,22 @@
       <c r="Z140" s="70"/>
       <c r="AA140" s="70"/>
       <c r="AB140" s="73"/>
-      <c r="AC140" s="204" t="s">
+      <c r="AC140" s="186" t="s">
         <v>126</v>
       </c>
-      <c r="AD140" s="205"/>
-      <c r="AE140" s="205"/>
-      <c r="AF140" s="205"/>
-      <c r="AG140" s="205"/>
-      <c r="AH140" s="205"/>
-      <c r="AI140" s="205"/>
-      <c r="AJ140" s="205"/>
-      <c r="AK140" s="205"/>
-      <c r="AL140" s="205"/>
-      <c r="AM140" s="205"/>
-      <c r="AN140" s="205"/>
-      <c r="AO140" s="205"/>
-      <c r="AP140" s="206"/>
+      <c r="AD140" s="187"/>
+      <c r="AE140" s="187"/>
+      <c r="AF140" s="187"/>
+      <c r="AG140" s="187"/>
+      <c r="AH140" s="187"/>
+      <c r="AI140" s="187"/>
+      <c r="AJ140" s="187"/>
+      <c r="AK140" s="187"/>
+      <c r="AL140" s="187"/>
+      <c r="AM140" s="187"/>
+      <c r="AN140" s="187"/>
+      <c r="AO140" s="187"/>
+      <c r="AP140" s="188"/>
       <c r="AQ140" s="33"/>
       <c r="AR140" s="15"/>
       <c r="AS140" s="14"/>
@@ -17180,46 +17274,46 @@
       <c r="A180" s="31"/>
       <c r="B180" s="33"/>
       <c r="C180" s="61"/>
-      <c r="D180" s="207" t="s">
+      <c r="D180" s="189" t="s">
         <v>66</v>
       </c>
-      <c r="E180" s="208"/>
-      <c r="F180" s="208"/>
-      <c r="G180" s="208"/>
-      <c r="H180" s="209"/>
-      <c r="I180" s="207" t="s">
+      <c r="E180" s="190"/>
+      <c r="F180" s="190"/>
+      <c r="G180" s="190"/>
+      <c r="H180" s="191"/>
+      <c r="I180" s="189" t="s">
         <v>157</v>
       </c>
-      <c r="J180" s="208"/>
-      <c r="K180" s="208"/>
-      <c r="L180" s="208"/>
-      <c r="M180" s="209"/>
-      <c r="N180" s="207" t="s">
+      <c r="J180" s="190"/>
+      <c r="K180" s="190"/>
+      <c r="L180" s="190"/>
+      <c r="M180" s="191"/>
+      <c r="N180" s="189" t="s">
         <v>158</v>
       </c>
-      <c r="O180" s="208"/>
-      <c r="P180" s="208"/>
-      <c r="Q180" s="208"/>
-      <c r="R180" s="208"/>
-      <c r="S180" s="208"/>
-      <c r="T180" s="208"/>
-      <c r="U180" s="209"/>
-      <c r="V180" s="207" t="s">
+      <c r="O180" s="190"/>
+      <c r="P180" s="190"/>
+      <c r="Q180" s="190"/>
+      <c r="R180" s="190"/>
+      <c r="S180" s="190"/>
+      <c r="T180" s="190"/>
+      <c r="U180" s="191"/>
+      <c r="V180" s="189" t="s">
         <v>4</v>
       </c>
-      <c r="W180" s="208"/>
-      <c r="X180" s="208"/>
-      <c r="Y180" s="208"/>
-      <c r="Z180" s="208"/>
-      <c r="AA180" s="208"/>
-      <c r="AB180" s="208"/>
-      <c r="AC180" s="208"/>
-      <c r="AD180" s="208"/>
-      <c r="AE180" s="208"/>
-      <c r="AF180" s="208"/>
-      <c r="AG180" s="208"/>
-      <c r="AH180" s="208"/>
-      <c r="AI180" s="209"/>
+      <c r="W180" s="190"/>
+      <c r="X180" s="190"/>
+      <c r="Y180" s="190"/>
+      <c r="Z180" s="190"/>
+      <c r="AA180" s="190"/>
+      <c r="AB180" s="190"/>
+      <c r="AC180" s="190"/>
+      <c r="AD180" s="190"/>
+      <c r="AE180" s="190"/>
+      <c r="AF180" s="190"/>
+      <c r="AG180" s="190"/>
+      <c r="AH180" s="190"/>
+      <c r="AI180" s="191"/>
       <c r="AJ180" s="33"/>
       <c r="AK180" s="33"/>
       <c r="AL180" s="33"/>
@@ -17238,42 +17332,42 @@
       <c r="A181" s="31"/>
       <c r="B181" s="33"/>
       <c r="C181" s="61"/>
-      <c r="D181" s="186" t="s">
+      <c r="D181" s="192" t="s">
         <v>27</v>
       </c>
-      <c r="E181" s="187"/>
-      <c r="F181" s="187"/>
-      <c r="G181" s="187"/>
-      <c r="H181" s="188"/>
-      <c r="I181" s="192"/>
-      <c r="J181" s="193"/>
-      <c r="K181" s="193"/>
-      <c r="L181" s="193"/>
-      <c r="M181" s="194"/>
-      <c r="N181" s="192"/>
-      <c r="O181" s="193"/>
-      <c r="P181" s="193"/>
-      <c r="Q181" s="193"/>
-      <c r="R181" s="193"/>
-      <c r="S181" s="193"/>
-      <c r="T181" s="193"/>
-      <c r="U181" s="194"/>
-      <c r="V181" s="180" t="s">
+      <c r="E181" s="193"/>
+      <c r="F181" s="193"/>
+      <c r="G181" s="193"/>
+      <c r="H181" s="194"/>
+      <c r="I181" s="201"/>
+      <c r="J181" s="202"/>
+      <c r="K181" s="202"/>
+      <c r="L181" s="202"/>
+      <c r="M181" s="203"/>
+      <c r="N181" s="201"/>
+      <c r="O181" s="202"/>
+      <c r="P181" s="202"/>
+      <c r="Q181" s="202"/>
+      <c r="R181" s="202"/>
+      <c r="S181" s="202"/>
+      <c r="T181" s="202"/>
+      <c r="U181" s="203"/>
+      <c r="V181" s="182" t="s">
         <v>159</v>
       </c>
-      <c r="W181" s="180"/>
-      <c r="X181" s="180"/>
-      <c r="Y181" s="180"/>
-      <c r="Z181" s="180"/>
-      <c r="AA181" s="180"/>
-      <c r="AB181" s="180"/>
-      <c r="AC181" s="180"/>
-      <c r="AD181" s="180"/>
-      <c r="AE181" s="180"/>
-      <c r="AF181" s="180"/>
-      <c r="AG181" s="180"/>
-      <c r="AH181" s="180"/>
-      <c r="AI181" s="180"/>
+      <c r="W181" s="182"/>
+      <c r="X181" s="182"/>
+      <c r="Y181" s="182"/>
+      <c r="Z181" s="182"/>
+      <c r="AA181" s="182"/>
+      <c r="AB181" s="182"/>
+      <c r="AC181" s="182"/>
+      <c r="AD181" s="182"/>
+      <c r="AE181" s="182"/>
+      <c r="AF181" s="182"/>
+      <c r="AG181" s="182"/>
+      <c r="AH181" s="182"/>
+      <c r="AI181" s="182"/>
       <c r="AJ181" s="33"/>
       <c r="AK181" s="33"/>
       <c r="AL181" s="33"/>
@@ -17292,44 +17386,44 @@
       <c r="A182" s="31"/>
       <c r="B182" s="33"/>
       <c r="C182" s="61"/>
-      <c r="D182" s="180" t="s">
+      <c r="D182" s="182" t="s">
         <v>160</v>
       </c>
-      <c r="E182" s="180"/>
-      <c r="F182" s="180"/>
-      <c r="G182" s="180"/>
-      <c r="H182" s="180"/>
-      <c r="I182" s="192" t="s">
+      <c r="E182" s="182"/>
+      <c r="F182" s="182"/>
+      <c r="G182" s="182"/>
+      <c r="H182" s="182"/>
+      <c r="I182" s="201" t="s">
         <v>161</v>
       </c>
-      <c r="J182" s="193"/>
-      <c r="K182" s="193"/>
-      <c r="L182" s="193"/>
-      <c r="M182" s="194"/>
-      <c r="N182" s="180" t="s">
+      <c r="J182" s="202"/>
+      <c r="K182" s="202"/>
+      <c r="L182" s="202"/>
+      <c r="M182" s="203"/>
+      <c r="N182" s="182" t="s">
         <v>21</v>
       </c>
-      <c r="O182" s="180"/>
-      <c r="P182" s="180"/>
-      <c r="Q182" s="180"/>
-      <c r="R182" s="180"/>
-      <c r="S182" s="180"/>
-      <c r="T182" s="180"/>
-      <c r="U182" s="180"/>
-      <c r="V182" s="180"/>
-      <c r="W182" s="180"/>
-      <c r="X182" s="180"/>
-      <c r="Y182" s="180"/>
-      <c r="Z182" s="180"/>
-      <c r="AA182" s="180"/>
-      <c r="AB182" s="180"/>
-      <c r="AC182" s="180"/>
-      <c r="AD182" s="180"/>
-      <c r="AE182" s="180"/>
-      <c r="AF182" s="180"/>
-      <c r="AG182" s="180"/>
-      <c r="AH182" s="180"/>
-      <c r="AI182" s="180"/>
+      <c r="O182" s="182"/>
+      <c r="P182" s="182"/>
+      <c r="Q182" s="182"/>
+      <c r="R182" s="182"/>
+      <c r="S182" s="182"/>
+      <c r="T182" s="182"/>
+      <c r="U182" s="182"/>
+      <c r="V182" s="182"/>
+      <c r="W182" s="182"/>
+      <c r="X182" s="182"/>
+      <c r="Y182" s="182"/>
+      <c r="Z182" s="182"/>
+      <c r="AA182" s="182"/>
+      <c r="AB182" s="182"/>
+      <c r="AC182" s="182"/>
+      <c r="AD182" s="182"/>
+      <c r="AE182" s="182"/>
+      <c r="AF182" s="182"/>
+      <c r="AG182" s="182"/>
+      <c r="AH182" s="182"/>
+      <c r="AI182" s="182"/>
       <c r="AJ182" s="33"/>
       <c r="AK182" s="33"/>
       <c r="AL182" s="33"/>
@@ -17348,44 +17442,44 @@
       <c r="A183" s="31"/>
       <c r="B183" s="33"/>
       <c r="C183" s="61"/>
-      <c r="D183" s="180" t="s">
+      <c r="D183" s="182" t="s">
         <v>162</v>
       </c>
-      <c r="E183" s="180"/>
-      <c r="F183" s="180"/>
-      <c r="G183" s="180"/>
-      <c r="H183" s="180"/>
-      <c r="I183" s="189" t="s">
+      <c r="E183" s="182"/>
+      <c r="F183" s="182"/>
+      <c r="G183" s="182"/>
+      <c r="H183" s="182"/>
+      <c r="I183" s="195" t="s">
         <v>162</v>
       </c>
-      <c r="J183" s="190"/>
-      <c r="K183" s="190"/>
-      <c r="L183" s="190"/>
-      <c r="M183" s="191"/>
-      <c r="N183" s="180" t="s">
+      <c r="J183" s="196"/>
+      <c r="K183" s="196"/>
+      <c r="L183" s="196"/>
+      <c r="M183" s="197"/>
+      <c r="N183" s="182" t="s">
         <v>21</v>
       </c>
-      <c r="O183" s="180"/>
-      <c r="P183" s="180"/>
-      <c r="Q183" s="180"/>
-      <c r="R183" s="180"/>
-      <c r="S183" s="180"/>
-      <c r="T183" s="180"/>
-      <c r="U183" s="180"/>
-      <c r="V183" s="180"/>
-      <c r="W183" s="180"/>
-      <c r="X183" s="180"/>
-      <c r="Y183" s="180"/>
-      <c r="Z183" s="180"/>
-      <c r="AA183" s="180"/>
-      <c r="AB183" s="180"/>
-      <c r="AC183" s="180"/>
-      <c r="AD183" s="180"/>
-      <c r="AE183" s="180"/>
-      <c r="AF183" s="180"/>
-      <c r="AG183" s="180"/>
-      <c r="AH183" s="180"/>
-      <c r="AI183" s="180"/>
+      <c r="O183" s="182"/>
+      <c r="P183" s="182"/>
+      <c r="Q183" s="182"/>
+      <c r="R183" s="182"/>
+      <c r="S183" s="182"/>
+      <c r="T183" s="182"/>
+      <c r="U183" s="182"/>
+      <c r="V183" s="182"/>
+      <c r="W183" s="182"/>
+      <c r="X183" s="182"/>
+      <c r="Y183" s="182"/>
+      <c r="Z183" s="182"/>
+      <c r="AA183" s="182"/>
+      <c r="AB183" s="182"/>
+      <c r="AC183" s="182"/>
+      <c r="AD183" s="182"/>
+      <c r="AE183" s="182"/>
+      <c r="AF183" s="182"/>
+      <c r="AG183" s="182"/>
+      <c r="AH183" s="182"/>
+      <c r="AI183" s="182"/>
       <c r="AJ183" s="33"/>
       <c r="AK183" s="33"/>
       <c r="AL183" s="33"/>
@@ -17404,30 +17498,30 @@
       <c r="A184" s="31"/>
       <c r="B184" s="33"/>
       <c r="C184" s="61"/>
-      <c r="D184" s="186" t="s">
+      <c r="D184" s="192" t="s">
         <v>161</v>
       </c>
-      <c r="E184" s="187"/>
-      <c r="F184" s="187"/>
-      <c r="G184" s="187"/>
-      <c r="H184" s="188"/>
-      <c r="I184" s="189" t="s">
+      <c r="E184" s="193"/>
+      <c r="F184" s="193"/>
+      <c r="G184" s="193"/>
+      <c r="H184" s="194"/>
+      <c r="I184" s="195" t="s">
         <v>150</v>
       </c>
-      <c r="J184" s="190"/>
-      <c r="K184" s="190"/>
-      <c r="L184" s="190"/>
-      <c r="M184" s="191"/>
-      <c r="N184" s="180" t="s">
+      <c r="J184" s="196"/>
+      <c r="K184" s="196"/>
+      <c r="L184" s="196"/>
+      <c r="M184" s="197"/>
+      <c r="N184" s="182" t="s">
         <v>163</v>
       </c>
-      <c r="O184" s="180"/>
-      <c r="P184" s="180"/>
-      <c r="Q184" s="180"/>
-      <c r="R184" s="180"/>
-      <c r="S184" s="180"/>
-      <c r="T184" s="180"/>
-      <c r="U184" s="180"/>
+      <c r="O184" s="182"/>
+      <c r="P184" s="182"/>
+      <c r="Q184" s="182"/>
+      <c r="R184" s="182"/>
+      <c r="S184" s="182"/>
+      <c r="T184" s="182"/>
+      <c r="U184" s="182"/>
       <c r="V184" s="198" t="s">
         <v>164</v>
       </c>
@@ -17462,30 +17556,30 @@
       <c r="A185" s="31"/>
       <c r="B185" s="33"/>
       <c r="C185" s="61"/>
-      <c r="D185" s="186" t="s">
+      <c r="D185" s="192" t="s">
         <v>28</v>
       </c>
-      <c r="E185" s="187"/>
-      <c r="F185" s="187"/>
-      <c r="G185" s="187"/>
-      <c r="H185" s="188"/>
-      <c r="I185" s="189" t="s">
+      <c r="E185" s="193"/>
+      <c r="F185" s="193"/>
+      <c r="G185" s="193"/>
+      <c r="H185" s="194"/>
+      <c r="I185" s="195" t="s">
         <v>28</v>
       </c>
-      <c r="J185" s="190"/>
-      <c r="K185" s="190"/>
-      <c r="L185" s="190"/>
-      <c r="M185" s="191"/>
-      <c r="N185" s="180" t="s">
+      <c r="J185" s="196"/>
+      <c r="K185" s="196"/>
+      <c r="L185" s="196"/>
+      <c r="M185" s="197"/>
+      <c r="N185" s="182" t="s">
         <v>165</v>
       </c>
-      <c r="O185" s="180"/>
-      <c r="P185" s="180"/>
-      <c r="Q185" s="180"/>
-      <c r="R185" s="180"/>
-      <c r="S185" s="180"/>
-      <c r="T185" s="180"/>
-      <c r="U185" s="180"/>
+      <c r="O185" s="182"/>
+      <c r="P185" s="182"/>
+      <c r="Q185" s="182"/>
+      <c r="R185" s="182"/>
+      <c r="S185" s="182"/>
+      <c r="T185" s="182"/>
+      <c r="U185" s="182"/>
       <c r="V185" s="198" t="s">
         <v>166</v>
       </c>
@@ -17520,30 +17614,30 @@
       <c r="A186" s="31"/>
       <c r="B186" s="33"/>
       <c r="C186" s="61"/>
-      <c r="D186" s="186" t="s">
+      <c r="D186" s="192" t="s">
         <v>29</v>
       </c>
-      <c r="E186" s="187"/>
-      <c r="F186" s="187"/>
-      <c r="G186" s="187"/>
-      <c r="H186" s="188"/>
-      <c r="I186" s="189" t="s">
+      <c r="E186" s="193"/>
+      <c r="F186" s="193"/>
+      <c r="G186" s="193"/>
+      <c r="H186" s="194"/>
+      <c r="I186" s="195" t="s">
         <v>29</v>
       </c>
-      <c r="J186" s="190"/>
-      <c r="K186" s="190"/>
-      <c r="L186" s="190"/>
-      <c r="M186" s="191"/>
-      <c r="N186" s="180" t="s">
+      <c r="J186" s="196"/>
+      <c r="K186" s="196"/>
+      <c r="L186" s="196"/>
+      <c r="M186" s="197"/>
+      <c r="N186" s="182" t="s">
         <v>167</v>
       </c>
-      <c r="O186" s="180"/>
-      <c r="P186" s="180"/>
-      <c r="Q186" s="180"/>
-      <c r="R186" s="180"/>
-      <c r="S186" s="180"/>
-      <c r="T186" s="180"/>
-      <c r="U186" s="180"/>
+      <c r="O186" s="182"/>
+      <c r="P186" s="182"/>
+      <c r="Q186" s="182"/>
+      <c r="R186" s="182"/>
+      <c r="S186" s="182"/>
+      <c r="T186" s="182"/>
+      <c r="U186" s="182"/>
       <c r="V186" s="198" t="s">
         <v>168</v>
       </c>
@@ -17578,30 +17672,30 @@
       <c r="A187" s="31"/>
       <c r="B187" s="33"/>
       <c r="C187" s="61"/>
-      <c r="D187" s="186" t="s">
+      <c r="D187" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="E187" s="187"/>
-      <c r="F187" s="187"/>
-      <c r="G187" s="187"/>
-      <c r="H187" s="188"/>
-      <c r="I187" s="189" t="s">
+      <c r="E187" s="193"/>
+      <c r="F187" s="193"/>
+      <c r="G187" s="193"/>
+      <c r="H187" s="194"/>
+      <c r="I187" s="195" t="s">
         <v>161</v>
       </c>
-      <c r="J187" s="190"/>
-      <c r="K187" s="190"/>
-      <c r="L187" s="190"/>
-      <c r="M187" s="191"/>
-      <c r="N187" s="180" t="s">
+      <c r="J187" s="196"/>
+      <c r="K187" s="196"/>
+      <c r="L187" s="196"/>
+      <c r="M187" s="197"/>
+      <c r="N187" s="182" t="s">
         <v>169</v>
       </c>
-      <c r="O187" s="180"/>
-      <c r="P187" s="180"/>
-      <c r="Q187" s="180"/>
-      <c r="R187" s="180"/>
-      <c r="S187" s="180"/>
-      <c r="T187" s="180"/>
-      <c r="U187" s="180"/>
+      <c r="O187" s="182"/>
+      <c r="P187" s="182"/>
+      <c r="Q187" s="182"/>
+      <c r="R187" s="182"/>
+      <c r="S187" s="182"/>
+      <c r="T187" s="182"/>
+      <c r="U187" s="182"/>
       <c r="V187" s="198" t="s">
         <v>170</v>
       </c>
@@ -17636,44 +17730,44 @@
       <c r="A188" s="31"/>
       <c r="B188" s="33"/>
       <c r="C188" s="61"/>
-      <c r="D188" s="186" t="s">
+      <c r="D188" s="192" t="s">
         <v>171</v>
       </c>
-      <c r="E188" s="187"/>
-      <c r="F188" s="187"/>
-      <c r="G188" s="187"/>
-      <c r="H188" s="188"/>
-      <c r="I188" s="189" t="s">
+      <c r="E188" s="193"/>
+      <c r="F188" s="193"/>
+      <c r="G188" s="193"/>
+      <c r="H188" s="194"/>
+      <c r="I188" s="195" t="s">
         <v>161</v>
       </c>
-      <c r="J188" s="190"/>
-      <c r="K188" s="190"/>
-      <c r="L188" s="190"/>
-      <c r="M188" s="191"/>
-      <c r="N188" s="192"/>
-      <c r="O188" s="193"/>
-      <c r="P188" s="193"/>
-      <c r="Q188" s="193"/>
-      <c r="R188" s="193"/>
-      <c r="S188" s="193"/>
-      <c r="T188" s="193"/>
-      <c r="U188" s="194"/>
-      <c r="V188" s="195" t="s">
+      <c r="J188" s="196"/>
+      <c r="K188" s="196"/>
+      <c r="L188" s="196"/>
+      <c r="M188" s="197"/>
+      <c r="N188" s="201"/>
+      <c r="O188" s="202"/>
+      <c r="P188" s="202"/>
+      <c r="Q188" s="202"/>
+      <c r="R188" s="202"/>
+      <c r="S188" s="202"/>
+      <c r="T188" s="202"/>
+      <c r="U188" s="203"/>
+      <c r="V188" s="204" t="s">
         <v>172</v>
       </c>
-      <c r="W188" s="196"/>
-      <c r="X188" s="196"/>
-      <c r="Y188" s="196"/>
-      <c r="Z188" s="196"/>
-      <c r="AA188" s="196"/>
-      <c r="AB188" s="196"/>
-      <c r="AC188" s="196"/>
-      <c r="AD188" s="196"/>
-      <c r="AE188" s="196"/>
-      <c r="AF188" s="196"/>
-      <c r="AG188" s="196"/>
-      <c r="AH188" s="196"/>
-      <c r="AI188" s="197"/>
+      <c r="W188" s="205"/>
+      <c r="X188" s="205"/>
+      <c r="Y188" s="205"/>
+      <c r="Z188" s="205"/>
+      <c r="AA188" s="205"/>
+      <c r="AB188" s="205"/>
+      <c r="AC188" s="205"/>
+      <c r="AD188" s="205"/>
+      <c r="AE188" s="205"/>
+      <c r="AF188" s="205"/>
+      <c r="AG188" s="205"/>
+      <c r="AH188" s="205"/>
+      <c r="AI188" s="206"/>
       <c r="AJ188" s="33"/>
       <c r="AK188" s="33"/>
       <c r="AL188" s="33"/>
@@ -17692,28 +17786,28 @@
       <c r="A189" s="31"/>
       <c r="B189" s="33"/>
       <c r="C189" s="61"/>
-      <c r="D189" s="186" t="s">
+      <c r="D189" s="192" t="s">
         <v>173</v>
       </c>
-      <c r="E189" s="187"/>
-      <c r="F189" s="187"/>
-      <c r="G189" s="187"/>
-      <c r="H189" s="188"/>
-      <c r="I189" s="189" t="s">
+      <c r="E189" s="193"/>
+      <c r="F189" s="193"/>
+      <c r="G189" s="193"/>
+      <c r="H189" s="194"/>
+      <c r="I189" s="195" t="s">
         <v>161</v>
       </c>
-      <c r="J189" s="190"/>
-      <c r="K189" s="190"/>
-      <c r="L189" s="190"/>
-      <c r="M189" s="191"/>
-      <c r="N189" s="192"/>
-      <c r="O189" s="193"/>
-      <c r="P189" s="193"/>
-      <c r="Q189" s="193"/>
-      <c r="R189" s="193"/>
-      <c r="S189" s="193"/>
-      <c r="T189" s="193"/>
-      <c r="U189" s="194"/>
+      <c r="J189" s="196"/>
+      <c r="K189" s="196"/>
+      <c r="L189" s="196"/>
+      <c r="M189" s="197"/>
+      <c r="N189" s="201"/>
+      <c r="O189" s="202"/>
+      <c r="P189" s="202"/>
+      <c r="Q189" s="202"/>
+      <c r="R189" s="202"/>
+      <c r="S189" s="202"/>
+      <c r="T189" s="202"/>
+      <c r="U189" s="203"/>
       <c r="V189" s="198" t="s">
         <v>174</v>
       </c>
@@ -17864,11 +17958,11 @@
       <c r="K192" s="58"/>
       <c r="L192" s="59"/>
       <c r="M192" s="60"/>
-      <c r="N192" s="180" t="s">
+      <c r="N192" s="182" t="s">
         <v>50</v>
       </c>
-      <c r="O192" s="180"/>
-      <c r="P192" s="180"/>
+      <c r="O192" s="182"/>
+      <c r="P192" s="182"/>
       <c r="Q192" s="57">
         <v>99</v>
       </c>
@@ -17883,35 +17977,35 @@
       <c r="X192" s="60"/>
       <c r="Y192" s="58"/>
       <c r="Z192" s="58"/>
-      <c r="AA192" s="180" t="s">
+      <c r="AA192" s="182" t="s">
         <v>51</v>
       </c>
-      <c r="AB192" s="180"/>
-      <c r="AC192" s="180"/>
-      <c r="AD192" s="180" t="s">
+      <c r="AB192" s="182"/>
+      <c r="AC192" s="182"/>
+      <c r="AD192" s="182" t="s">
         <v>52</v>
       </c>
-      <c r="AE192" s="180"/>
-      <c r="AF192" s="180"/>
-      <c r="AG192" s="180" t="s">
+      <c r="AE192" s="182"/>
+      <c r="AF192" s="182"/>
+      <c r="AG192" s="182" t="s">
         <v>46</v>
       </c>
-      <c r="AH192" s="180"/>
-      <c r="AI192" s="180">
+      <c r="AH192" s="182"/>
+      <c r="AI192" s="182">
         <v>40149</v>
       </c>
-      <c r="AJ192" s="180"/>
-      <c r="AK192" s="180"/>
-      <c r="AL192" s="180">
+      <c r="AJ192" s="182"/>
+      <c r="AK192" s="182"/>
+      <c r="AL192" s="182">
         <v>40512</v>
       </c>
-      <c r="AM192" s="180"/>
-      <c r="AN192" s="180"/>
-      <c r="AO192" s="180" t="s">
+      <c r="AM192" s="182"/>
+      <c r="AN192" s="182"/>
+      <c r="AO192" s="182" t="s">
         <v>47</v>
       </c>
-      <c r="AP192" s="180"/>
-      <c r="AQ192" s="180"/>
+      <c r="AP192" s="182"/>
+      <c r="AQ192" s="182"/>
       <c r="AR192" s="15"/>
       <c r="AS192" s="14"/>
       <c r="AT192" s="14"/>
@@ -18332,74 +18426,74 @@
       <c r="A201" s="31"/>
       <c r="B201" s="33"/>
       <c r="C201" s="61"/>
-      <c r="D201" s="182" t="s">
+      <c r="D201" s="209" t="s">
         <v>31</v>
       </c>
-      <c r="E201" s="183"/>
-      <c r="F201" s="183"/>
-      <c r="G201" s="184"/>
-      <c r="H201" s="182" t="s">
+      <c r="E201" s="210"/>
+      <c r="F201" s="210"/>
+      <c r="G201" s="211"/>
+      <c r="H201" s="209" t="s">
         <v>32</v>
       </c>
-      <c r="I201" s="183"/>
-      <c r="J201" s="183"/>
-      <c r="K201" s="183"/>
-      <c r="L201" s="183"/>
-      <c r="M201" s="184"/>
-      <c r="N201" s="185" t="s">
+      <c r="I201" s="210"/>
+      <c r="J201" s="210"/>
+      <c r="K201" s="210"/>
+      <c r="L201" s="210"/>
+      <c r="M201" s="211"/>
+      <c r="N201" s="212" t="s">
         <v>33</v>
       </c>
-      <c r="O201" s="180"/>
-      <c r="P201" s="180"/>
-      <c r="Q201" s="185" t="s">
+      <c r="O201" s="182"/>
+      <c r="P201" s="182"/>
+      <c r="Q201" s="212" t="s">
         <v>34</v>
       </c>
-      <c r="R201" s="180"/>
-      <c r="S201" s="185" t="s">
+      <c r="R201" s="182"/>
+      <c r="S201" s="212" t="s">
         <v>35</v>
       </c>
-      <c r="T201" s="180"/>
-      <c r="U201" s="185" t="s">
+      <c r="T201" s="182"/>
+      <c r="U201" s="212" t="s">
         <v>36</v>
       </c>
-      <c r="V201" s="180"/>
-      <c r="W201" s="185" t="s">
+      <c r="V201" s="182"/>
+      <c r="W201" s="212" t="s">
         <v>37</v>
       </c>
-      <c r="X201" s="180"/>
-      <c r="Y201" s="180" t="s">
+      <c r="X201" s="182"/>
+      <c r="Y201" s="182" t="s">
         <v>38</v>
       </c>
-      <c r="Z201" s="180"/>
-      <c r="AA201" s="179" t="s">
+      <c r="Z201" s="182"/>
+      <c r="AA201" s="207" t="s">
         <v>39</v>
       </c>
-      <c r="AB201" s="181"/>
-      <c r="AC201" s="180"/>
-      <c r="AD201" s="179" t="s">
+      <c r="AB201" s="208"/>
+      <c r="AC201" s="182"/>
+      <c r="AD201" s="207" t="s">
         <v>40</v>
       </c>
-      <c r="AE201" s="181"/>
-      <c r="AF201" s="180"/>
-      <c r="AG201" s="179" t="s">
+      <c r="AE201" s="208"/>
+      <c r="AF201" s="182"/>
+      <c r="AG201" s="207" t="s">
         <v>41</v>
       </c>
-      <c r="AH201" s="180"/>
-      <c r="AI201" s="179" t="s">
+      <c r="AH201" s="182"/>
+      <c r="AI201" s="207" t="s">
         <v>42</v>
       </c>
-      <c r="AJ201" s="181"/>
-      <c r="AK201" s="181"/>
-      <c r="AL201" s="179" t="s">
+      <c r="AJ201" s="208"/>
+      <c r="AK201" s="208"/>
+      <c r="AL201" s="207" t="s">
         <v>43</v>
       </c>
-      <c r="AM201" s="181"/>
-      <c r="AN201" s="180"/>
-      <c r="AO201" s="179" t="s">
+      <c r="AM201" s="208"/>
+      <c r="AN201" s="182"/>
+      <c r="AO201" s="207" t="s">
         <v>44</v>
       </c>
-      <c r="AP201" s="181"/>
-      <c r="AQ201" s="181"/>
+      <c r="AP201" s="208"/>
+      <c r="AQ201" s="208"/>
       <c r="AR201" s="33"/>
       <c r="AS201" s="14"/>
       <c r="AT201" s="14"/>
@@ -19303,282 +19397,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="297">
-    <mergeCell ref="AO3:AR3"/>
-    <mergeCell ref="AS3:AV3"/>
-    <mergeCell ref="AF4:AJ4"/>
-    <mergeCell ref="AK4:AN4"/>
-    <mergeCell ref="AO4:AR4"/>
-    <mergeCell ref="AS4:AV4"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:AE2"/>
-    <mergeCell ref="AF1:AV1"/>
-    <mergeCell ref="AF2:AV2"/>
-    <mergeCell ref="A3:E4"/>
-    <mergeCell ref="F3:K4"/>
-    <mergeCell ref="L3:Q4"/>
-    <mergeCell ref="R3:AE4"/>
-    <mergeCell ref="AF3:AJ3"/>
-    <mergeCell ref="AK3:AN3"/>
-    <mergeCell ref="Y98:AB98"/>
-    <mergeCell ref="AC98:AP98"/>
-    <mergeCell ref="D99:AP99"/>
-    <mergeCell ref="K100:M100"/>
-    <mergeCell ref="N100:P100"/>
-    <mergeCell ref="Q100:R100"/>
-    <mergeCell ref="S100:T100"/>
-    <mergeCell ref="AC100:AP100"/>
-    <mergeCell ref="C97:F97"/>
-    <mergeCell ref="D98:J98"/>
-    <mergeCell ref="K98:M98"/>
-    <mergeCell ref="N98:P98"/>
-    <mergeCell ref="Q98:R98"/>
-    <mergeCell ref="S98:T98"/>
-    <mergeCell ref="U98:X98"/>
-    <mergeCell ref="K101:M101"/>
-    <mergeCell ref="N101:P101"/>
-    <mergeCell ref="Q101:R101"/>
-    <mergeCell ref="S101:T101"/>
-    <mergeCell ref="AC101:AP101"/>
-    <mergeCell ref="K102:M102"/>
-    <mergeCell ref="N102:P102"/>
-    <mergeCell ref="Q102:R102"/>
-    <mergeCell ref="S102:T102"/>
-    <mergeCell ref="Y102:AB102"/>
-    <mergeCell ref="K104:M104"/>
-    <mergeCell ref="N104:P104"/>
-    <mergeCell ref="Q104:R104"/>
-    <mergeCell ref="S104:T104"/>
-    <mergeCell ref="Y104:AB104"/>
-    <mergeCell ref="AC104:AP104"/>
-    <mergeCell ref="AC102:AP102"/>
-    <mergeCell ref="K103:M103"/>
-    <mergeCell ref="N103:P103"/>
-    <mergeCell ref="Q103:R103"/>
-    <mergeCell ref="S103:T103"/>
-    <mergeCell ref="AC103:AP103"/>
-    <mergeCell ref="AC106:AP106"/>
-    <mergeCell ref="K107:M107"/>
-    <mergeCell ref="N107:P107"/>
-    <mergeCell ref="Q107:R107"/>
-    <mergeCell ref="S107:T107"/>
-    <mergeCell ref="AC107:AP107"/>
-    <mergeCell ref="K105:M105"/>
-    <mergeCell ref="N105:P105"/>
-    <mergeCell ref="Q105:R105"/>
-    <mergeCell ref="S105:T105"/>
-    <mergeCell ref="AC105:AP105"/>
-    <mergeCell ref="K106:M106"/>
-    <mergeCell ref="N106:P106"/>
-    <mergeCell ref="Q106:R106"/>
-    <mergeCell ref="S106:T106"/>
-    <mergeCell ref="Y106:AB106"/>
-    <mergeCell ref="K108:M108"/>
-    <mergeCell ref="N108:P108"/>
-    <mergeCell ref="Q108:R108"/>
-    <mergeCell ref="Y108:AB108"/>
-    <mergeCell ref="AC108:AP108"/>
-    <mergeCell ref="K109:M109"/>
-    <mergeCell ref="N109:P109"/>
-    <mergeCell ref="Q109:R109"/>
-    <mergeCell ref="AC109:AP109"/>
-    <mergeCell ref="K112:M112"/>
-    <mergeCell ref="N112:P112"/>
-    <mergeCell ref="Q112:R112"/>
-    <mergeCell ref="S112:T112"/>
-    <mergeCell ref="Y112:AB112"/>
-    <mergeCell ref="AC112:AP112"/>
-    <mergeCell ref="K110:M110"/>
-    <mergeCell ref="N110:P110"/>
-    <mergeCell ref="Q110:R110"/>
-    <mergeCell ref="Y110:AB110"/>
-    <mergeCell ref="AC110:AP110"/>
-    <mergeCell ref="K111:M111"/>
-    <mergeCell ref="N111:P111"/>
-    <mergeCell ref="Q111:R111"/>
-    <mergeCell ref="AC111:AP111"/>
-    <mergeCell ref="K113:M113"/>
-    <mergeCell ref="N113:P113"/>
-    <mergeCell ref="Q113:R113"/>
-    <mergeCell ref="S113:T113"/>
-    <mergeCell ref="AC113:AP113"/>
-    <mergeCell ref="K114:M114"/>
-    <mergeCell ref="N114:P114"/>
-    <mergeCell ref="Q114:R114"/>
-    <mergeCell ref="S114:T114"/>
-    <mergeCell ref="Y114:AB114"/>
-    <mergeCell ref="K116:M116"/>
-    <mergeCell ref="N116:P116"/>
-    <mergeCell ref="Q116:R116"/>
-    <mergeCell ref="S116:T116"/>
-    <mergeCell ref="Y116:AB116"/>
-    <mergeCell ref="AC116:AP116"/>
-    <mergeCell ref="AC114:AP114"/>
-    <mergeCell ref="K115:M115"/>
-    <mergeCell ref="N115:P115"/>
-    <mergeCell ref="Q115:R115"/>
-    <mergeCell ref="S115:T115"/>
-    <mergeCell ref="AC115:AP115"/>
-    <mergeCell ref="K117:M117"/>
-    <mergeCell ref="N117:P117"/>
-    <mergeCell ref="Q117:R117"/>
-    <mergeCell ref="S117:T117"/>
-    <mergeCell ref="AC117:AP117"/>
-    <mergeCell ref="D118:J118"/>
-    <mergeCell ref="K118:M118"/>
-    <mergeCell ref="N118:P118"/>
-    <mergeCell ref="Q118:R118"/>
-    <mergeCell ref="S118:T118"/>
-    <mergeCell ref="K121:M121"/>
-    <mergeCell ref="N121:P121"/>
-    <mergeCell ref="Q121:R121"/>
-    <mergeCell ref="S121:T121"/>
-    <mergeCell ref="Y121:AB121"/>
-    <mergeCell ref="AC121:AP121"/>
-    <mergeCell ref="AC118:AP118"/>
-    <mergeCell ref="D119:AP119"/>
-    <mergeCell ref="K120:M120"/>
-    <mergeCell ref="N120:P120"/>
-    <mergeCell ref="Q120:R120"/>
-    <mergeCell ref="S120:T120"/>
-    <mergeCell ref="Y120:AB120"/>
-    <mergeCell ref="AC120:AP120"/>
-    <mergeCell ref="K123:M123"/>
-    <mergeCell ref="N123:P123"/>
-    <mergeCell ref="Q123:R123"/>
-    <mergeCell ref="S123:T123"/>
-    <mergeCell ref="Y123:AB123"/>
-    <mergeCell ref="AC123:AP123"/>
-    <mergeCell ref="K122:M122"/>
-    <mergeCell ref="N122:P122"/>
-    <mergeCell ref="Q122:R122"/>
-    <mergeCell ref="S122:T122"/>
-    <mergeCell ref="Y122:AB122"/>
-    <mergeCell ref="AC122:AP122"/>
-    <mergeCell ref="K124:M124"/>
-    <mergeCell ref="N124:P124"/>
-    <mergeCell ref="Q124:R124"/>
-    <mergeCell ref="S124:T124"/>
-    <mergeCell ref="AC124:AP124"/>
-    <mergeCell ref="K125:M125"/>
-    <mergeCell ref="N125:P125"/>
-    <mergeCell ref="Q125:R125"/>
-    <mergeCell ref="S125:T125"/>
-    <mergeCell ref="AC125:AP125"/>
-    <mergeCell ref="K126:M126"/>
-    <mergeCell ref="N126:P126"/>
-    <mergeCell ref="Q126:R126"/>
-    <mergeCell ref="S126:T126"/>
-    <mergeCell ref="AC126:AP126"/>
-    <mergeCell ref="K127:M127"/>
-    <mergeCell ref="N127:P127"/>
-    <mergeCell ref="Q127:R127"/>
-    <mergeCell ref="S127:T127"/>
-    <mergeCell ref="AC127:AP127"/>
-    <mergeCell ref="K129:M129"/>
-    <mergeCell ref="N129:P129"/>
-    <mergeCell ref="Q129:R129"/>
-    <mergeCell ref="S129:T129"/>
-    <mergeCell ref="Y129:AB129"/>
-    <mergeCell ref="AC129:AP129"/>
-    <mergeCell ref="K128:M128"/>
-    <mergeCell ref="N128:P128"/>
-    <mergeCell ref="Q128:R128"/>
-    <mergeCell ref="S128:T128"/>
-    <mergeCell ref="Y128:AB128"/>
-    <mergeCell ref="AC128:AP128"/>
-    <mergeCell ref="K131:M131"/>
-    <mergeCell ref="N131:P131"/>
-    <mergeCell ref="Q131:R131"/>
-    <mergeCell ref="S131:T131"/>
-    <mergeCell ref="Y131:AB131"/>
-    <mergeCell ref="AC131:AP131"/>
-    <mergeCell ref="K130:M130"/>
-    <mergeCell ref="N130:P130"/>
-    <mergeCell ref="Q130:R130"/>
-    <mergeCell ref="S130:T130"/>
-    <mergeCell ref="Y130:AB130"/>
-    <mergeCell ref="AC130:AP130"/>
-    <mergeCell ref="K133:M133"/>
-    <mergeCell ref="N133:P133"/>
-    <mergeCell ref="Q133:R133"/>
-    <mergeCell ref="S133:T133"/>
-    <mergeCell ref="Y133:AB133"/>
-    <mergeCell ref="AC133:AP133"/>
-    <mergeCell ref="K132:M132"/>
-    <mergeCell ref="N132:P132"/>
-    <mergeCell ref="Q132:R132"/>
-    <mergeCell ref="S132:T132"/>
-    <mergeCell ref="Y132:AB132"/>
-    <mergeCell ref="AC132:AP132"/>
-    <mergeCell ref="D136:AP136"/>
-    <mergeCell ref="K137:M137"/>
-    <mergeCell ref="N137:P137"/>
-    <mergeCell ref="Q137:R137"/>
-    <mergeCell ref="S137:T137"/>
-    <mergeCell ref="AC137:AP137"/>
-    <mergeCell ref="K134:M134"/>
-    <mergeCell ref="N134:P134"/>
-    <mergeCell ref="Q134:R134"/>
-    <mergeCell ref="S134:T134"/>
-    <mergeCell ref="AC134:AP134"/>
-    <mergeCell ref="K135:M135"/>
-    <mergeCell ref="N135:P135"/>
-    <mergeCell ref="Q135:R135"/>
-    <mergeCell ref="S135:T135"/>
-    <mergeCell ref="AC135:AP135"/>
-    <mergeCell ref="K138:M138"/>
-    <mergeCell ref="N138:P138"/>
-    <mergeCell ref="Q138:R138"/>
-    <mergeCell ref="S138:T138"/>
-    <mergeCell ref="AC138:AP138"/>
-    <mergeCell ref="K139:M139"/>
-    <mergeCell ref="N139:P139"/>
-    <mergeCell ref="Q139:R139"/>
-    <mergeCell ref="S139:T139"/>
-    <mergeCell ref="AC139:AP139"/>
-    <mergeCell ref="K140:M140"/>
-    <mergeCell ref="N140:P140"/>
-    <mergeCell ref="Q140:R140"/>
-    <mergeCell ref="S140:T140"/>
-    <mergeCell ref="AC140:AP140"/>
-    <mergeCell ref="D180:H180"/>
-    <mergeCell ref="I180:M180"/>
-    <mergeCell ref="N180:U180"/>
-    <mergeCell ref="V180:AI180"/>
-    <mergeCell ref="D184:H184"/>
-    <mergeCell ref="I184:M184"/>
-    <mergeCell ref="N184:U184"/>
-    <mergeCell ref="V184:AI184"/>
-    <mergeCell ref="D185:H185"/>
-    <mergeCell ref="I185:M185"/>
-    <mergeCell ref="N185:U185"/>
-    <mergeCell ref="V185:AI185"/>
-    <mergeCell ref="D181:H181"/>
-    <mergeCell ref="I181:M181"/>
-    <mergeCell ref="N181:U181"/>
-    <mergeCell ref="V181:AI183"/>
-    <mergeCell ref="D182:H182"/>
-    <mergeCell ref="I182:M182"/>
-    <mergeCell ref="N182:U182"/>
-    <mergeCell ref="D183:H183"/>
-    <mergeCell ref="I183:M183"/>
-    <mergeCell ref="N183:U183"/>
-    <mergeCell ref="D188:H188"/>
-    <mergeCell ref="I188:M188"/>
-    <mergeCell ref="N188:U188"/>
-    <mergeCell ref="V188:AI188"/>
-    <mergeCell ref="D189:H189"/>
-    <mergeCell ref="I189:M189"/>
-    <mergeCell ref="N189:U189"/>
-    <mergeCell ref="V189:AI189"/>
-    <mergeCell ref="D186:H186"/>
-    <mergeCell ref="I186:M186"/>
-    <mergeCell ref="N186:U186"/>
-    <mergeCell ref="V186:AI186"/>
-    <mergeCell ref="D187:H187"/>
-    <mergeCell ref="I187:M187"/>
-    <mergeCell ref="N187:U187"/>
-    <mergeCell ref="V187:AI187"/>
     <mergeCell ref="AG201:AH201"/>
     <mergeCell ref="AI201:AK201"/>
     <mergeCell ref="AL201:AN201"/>
@@ -19600,6 +19418,282 @@
     <mergeCell ref="AA192:AC192"/>
     <mergeCell ref="AD192:AF192"/>
     <mergeCell ref="AD201:AF201"/>
+    <mergeCell ref="D188:H188"/>
+    <mergeCell ref="I188:M188"/>
+    <mergeCell ref="N188:U188"/>
+    <mergeCell ref="V188:AI188"/>
+    <mergeCell ref="D189:H189"/>
+    <mergeCell ref="I189:M189"/>
+    <mergeCell ref="N189:U189"/>
+    <mergeCell ref="V189:AI189"/>
+    <mergeCell ref="D186:H186"/>
+    <mergeCell ref="I186:M186"/>
+    <mergeCell ref="N186:U186"/>
+    <mergeCell ref="V186:AI186"/>
+    <mergeCell ref="D187:H187"/>
+    <mergeCell ref="I187:M187"/>
+    <mergeCell ref="N187:U187"/>
+    <mergeCell ref="V187:AI187"/>
+    <mergeCell ref="D184:H184"/>
+    <mergeCell ref="I184:M184"/>
+    <mergeCell ref="N184:U184"/>
+    <mergeCell ref="V184:AI184"/>
+    <mergeCell ref="D185:H185"/>
+    <mergeCell ref="I185:M185"/>
+    <mergeCell ref="N185:U185"/>
+    <mergeCell ref="V185:AI185"/>
+    <mergeCell ref="D181:H181"/>
+    <mergeCell ref="I181:M181"/>
+    <mergeCell ref="N181:U181"/>
+    <mergeCell ref="V181:AI183"/>
+    <mergeCell ref="D182:H182"/>
+    <mergeCell ref="I182:M182"/>
+    <mergeCell ref="N182:U182"/>
+    <mergeCell ref="D183:H183"/>
+    <mergeCell ref="I183:M183"/>
+    <mergeCell ref="N183:U183"/>
+    <mergeCell ref="K140:M140"/>
+    <mergeCell ref="N140:P140"/>
+    <mergeCell ref="Q140:R140"/>
+    <mergeCell ref="S140:T140"/>
+    <mergeCell ref="AC140:AP140"/>
+    <mergeCell ref="D180:H180"/>
+    <mergeCell ref="I180:M180"/>
+    <mergeCell ref="N180:U180"/>
+    <mergeCell ref="V180:AI180"/>
+    <mergeCell ref="K138:M138"/>
+    <mergeCell ref="N138:P138"/>
+    <mergeCell ref="Q138:R138"/>
+    <mergeCell ref="S138:T138"/>
+    <mergeCell ref="AC138:AP138"/>
+    <mergeCell ref="K139:M139"/>
+    <mergeCell ref="N139:P139"/>
+    <mergeCell ref="Q139:R139"/>
+    <mergeCell ref="S139:T139"/>
+    <mergeCell ref="AC139:AP139"/>
+    <mergeCell ref="D136:AP136"/>
+    <mergeCell ref="K137:M137"/>
+    <mergeCell ref="N137:P137"/>
+    <mergeCell ref="Q137:R137"/>
+    <mergeCell ref="S137:T137"/>
+    <mergeCell ref="AC137:AP137"/>
+    <mergeCell ref="K134:M134"/>
+    <mergeCell ref="N134:P134"/>
+    <mergeCell ref="Q134:R134"/>
+    <mergeCell ref="S134:T134"/>
+    <mergeCell ref="AC134:AP134"/>
+    <mergeCell ref="K135:M135"/>
+    <mergeCell ref="N135:P135"/>
+    <mergeCell ref="Q135:R135"/>
+    <mergeCell ref="S135:T135"/>
+    <mergeCell ref="AC135:AP135"/>
+    <mergeCell ref="K133:M133"/>
+    <mergeCell ref="N133:P133"/>
+    <mergeCell ref="Q133:R133"/>
+    <mergeCell ref="S133:T133"/>
+    <mergeCell ref="Y133:AB133"/>
+    <mergeCell ref="AC133:AP133"/>
+    <mergeCell ref="K132:M132"/>
+    <mergeCell ref="N132:P132"/>
+    <mergeCell ref="Q132:R132"/>
+    <mergeCell ref="S132:T132"/>
+    <mergeCell ref="Y132:AB132"/>
+    <mergeCell ref="AC132:AP132"/>
+    <mergeCell ref="K131:M131"/>
+    <mergeCell ref="N131:P131"/>
+    <mergeCell ref="Q131:R131"/>
+    <mergeCell ref="S131:T131"/>
+    <mergeCell ref="Y131:AB131"/>
+    <mergeCell ref="AC131:AP131"/>
+    <mergeCell ref="K130:M130"/>
+    <mergeCell ref="N130:P130"/>
+    <mergeCell ref="Q130:R130"/>
+    <mergeCell ref="S130:T130"/>
+    <mergeCell ref="Y130:AB130"/>
+    <mergeCell ref="AC130:AP130"/>
+    <mergeCell ref="K129:M129"/>
+    <mergeCell ref="N129:P129"/>
+    <mergeCell ref="Q129:R129"/>
+    <mergeCell ref="S129:T129"/>
+    <mergeCell ref="Y129:AB129"/>
+    <mergeCell ref="AC129:AP129"/>
+    <mergeCell ref="K128:M128"/>
+    <mergeCell ref="N128:P128"/>
+    <mergeCell ref="Q128:R128"/>
+    <mergeCell ref="S128:T128"/>
+    <mergeCell ref="Y128:AB128"/>
+    <mergeCell ref="AC128:AP128"/>
+    <mergeCell ref="K126:M126"/>
+    <mergeCell ref="N126:P126"/>
+    <mergeCell ref="Q126:R126"/>
+    <mergeCell ref="S126:T126"/>
+    <mergeCell ref="AC126:AP126"/>
+    <mergeCell ref="K127:M127"/>
+    <mergeCell ref="N127:P127"/>
+    <mergeCell ref="Q127:R127"/>
+    <mergeCell ref="S127:T127"/>
+    <mergeCell ref="AC127:AP127"/>
+    <mergeCell ref="K124:M124"/>
+    <mergeCell ref="N124:P124"/>
+    <mergeCell ref="Q124:R124"/>
+    <mergeCell ref="S124:T124"/>
+    <mergeCell ref="AC124:AP124"/>
+    <mergeCell ref="K125:M125"/>
+    <mergeCell ref="N125:P125"/>
+    <mergeCell ref="Q125:R125"/>
+    <mergeCell ref="S125:T125"/>
+    <mergeCell ref="AC125:AP125"/>
+    <mergeCell ref="K123:M123"/>
+    <mergeCell ref="N123:P123"/>
+    <mergeCell ref="Q123:R123"/>
+    <mergeCell ref="S123:T123"/>
+    <mergeCell ref="Y123:AB123"/>
+    <mergeCell ref="AC123:AP123"/>
+    <mergeCell ref="K122:M122"/>
+    <mergeCell ref="N122:P122"/>
+    <mergeCell ref="Q122:R122"/>
+    <mergeCell ref="S122:T122"/>
+    <mergeCell ref="Y122:AB122"/>
+    <mergeCell ref="AC122:AP122"/>
+    <mergeCell ref="K121:M121"/>
+    <mergeCell ref="N121:P121"/>
+    <mergeCell ref="Q121:R121"/>
+    <mergeCell ref="S121:T121"/>
+    <mergeCell ref="Y121:AB121"/>
+    <mergeCell ref="AC121:AP121"/>
+    <mergeCell ref="AC118:AP118"/>
+    <mergeCell ref="D119:AP119"/>
+    <mergeCell ref="K120:M120"/>
+    <mergeCell ref="N120:P120"/>
+    <mergeCell ref="Q120:R120"/>
+    <mergeCell ref="S120:T120"/>
+    <mergeCell ref="Y120:AB120"/>
+    <mergeCell ref="AC120:AP120"/>
+    <mergeCell ref="K117:M117"/>
+    <mergeCell ref="N117:P117"/>
+    <mergeCell ref="Q117:R117"/>
+    <mergeCell ref="S117:T117"/>
+    <mergeCell ref="AC117:AP117"/>
+    <mergeCell ref="D118:J118"/>
+    <mergeCell ref="K118:M118"/>
+    <mergeCell ref="N118:P118"/>
+    <mergeCell ref="Q118:R118"/>
+    <mergeCell ref="S118:T118"/>
+    <mergeCell ref="K116:M116"/>
+    <mergeCell ref="N116:P116"/>
+    <mergeCell ref="Q116:R116"/>
+    <mergeCell ref="S116:T116"/>
+    <mergeCell ref="Y116:AB116"/>
+    <mergeCell ref="AC116:AP116"/>
+    <mergeCell ref="AC114:AP114"/>
+    <mergeCell ref="K115:M115"/>
+    <mergeCell ref="N115:P115"/>
+    <mergeCell ref="Q115:R115"/>
+    <mergeCell ref="S115:T115"/>
+    <mergeCell ref="AC115:AP115"/>
+    <mergeCell ref="K113:M113"/>
+    <mergeCell ref="N113:P113"/>
+    <mergeCell ref="Q113:R113"/>
+    <mergeCell ref="S113:T113"/>
+    <mergeCell ref="AC113:AP113"/>
+    <mergeCell ref="K114:M114"/>
+    <mergeCell ref="N114:P114"/>
+    <mergeCell ref="Q114:R114"/>
+    <mergeCell ref="S114:T114"/>
+    <mergeCell ref="Y114:AB114"/>
+    <mergeCell ref="K112:M112"/>
+    <mergeCell ref="N112:P112"/>
+    <mergeCell ref="Q112:R112"/>
+    <mergeCell ref="S112:T112"/>
+    <mergeCell ref="Y112:AB112"/>
+    <mergeCell ref="AC112:AP112"/>
+    <mergeCell ref="K110:M110"/>
+    <mergeCell ref="N110:P110"/>
+    <mergeCell ref="Q110:R110"/>
+    <mergeCell ref="Y110:AB110"/>
+    <mergeCell ref="AC110:AP110"/>
+    <mergeCell ref="K111:M111"/>
+    <mergeCell ref="N111:P111"/>
+    <mergeCell ref="Q111:R111"/>
+    <mergeCell ref="AC111:AP111"/>
+    <mergeCell ref="K108:M108"/>
+    <mergeCell ref="N108:P108"/>
+    <mergeCell ref="Q108:R108"/>
+    <mergeCell ref="Y108:AB108"/>
+    <mergeCell ref="AC108:AP108"/>
+    <mergeCell ref="K109:M109"/>
+    <mergeCell ref="N109:P109"/>
+    <mergeCell ref="Q109:R109"/>
+    <mergeCell ref="AC109:AP109"/>
+    <mergeCell ref="AC106:AP106"/>
+    <mergeCell ref="K107:M107"/>
+    <mergeCell ref="N107:P107"/>
+    <mergeCell ref="Q107:R107"/>
+    <mergeCell ref="S107:T107"/>
+    <mergeCell ref="AC107:AP107"/>
+    <mergeCell ref="K105:M105"/>
+    <mergeCell ref="N105:P105"/>
+    <mergeCell ref="Q105:R105"/>
+    <mergeCell ref="S105:T105"/>
+    <mergeCell ref="AC105:AP105"/>
+    <mergeCell ref="K106:M106"/>
+    <mergeCell ref="N106:P106"/>
+    <mergeCell ref="Q106:R106"/>
+    <mergeCell ref="S106:T106"/>
+    <mergeCell ref="Y106:AB106"/>
+    <mergeCell ref="K104:M104"/>
+    <mergeCell ref="N104:P104"/>
+    <mergeCell ref="Q104:R104"/>
+    <mergeCell ref="S104:T104"/>
+    <mergeCell ref="Y104:AB104"/>
+    <mergeCell ref="AC104:AP104"/>
+    <mergeCell ref="AC102:AP102"/>
+    <mergeCell ref="K103:M103"/>
+    <mergeCell ref="N103:P103"/>
+    <mergeCell ref="Q103:R103"/>
+    <mergeCell ref="S103:T103"/>
+    <mergeCell ref="AC103:AP103"/>
+    <mergeCell ref="K101:M101"/>
+    <mergeCell ref="N101:P101"/>
+    <mergeCell ref="Q101:R101"/>
+    <mergeCell ref="S101:T101"/>
+    <mergeCell ref="AC101:AP101"/>
+    <mergeCell ref="K102:M102"/>
+    <mergeCell ref="N102:P102"/>
+    <mergeCell ref="Q102:R102"/>
+    <mergeCell ref="S102:T102"/>
+    <mergeCell ref="Y102:AB102"/>
+    <mergeCell ref="Y98:AB98"/>
+    <mergeCell ref="AC98:AP98"/>
+    <mergeCell ref="D99:AP99"/>
+    <mergeCell ref="K100:M100"/>
+    <mergeCell ref="N100:P100"/>
+    <mergeCell ref="Q100:R100"/>
+    <mergeCell ref="S100:T100"/>
+    <mergeCell ref="AC100:AP100"/>
+    <mergeCell ref="C97:F97"/>
+    <mergeCell ref="D98:J98"/>
+    <mergeCell ref="K98:M98"/>
+    <mergeCell ref="N98:P98"/>
+    <mergeCell ref="Q98:R98"/>
+    <mergeCell ref="S98:T98"/>
+    <mergeCell ref="U98:X98"/>
+    <mergeCell ref="AO3:AR3"/>
+    <mergeCell ref="AS3:AV3"/>
+    <mergeCell ref="AF4:AJ4"/>
+    <mergeCell ref="AK4:AN4"/>
+    <mergeCell ref="AO4:AR4"/>
+    <mergeCell ref="AS4:AV4"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:AE2"/>
+    <mergeCell ref="AF1:AV1"/>
+    <mergeCell ref="AF2:AV2"/>
+    <mergeCell ref="A3:E4"/>
+    <mergeCell ref="F3:K4"/>
+    <mergeCell ref="L3:Q4"/>
+    <mergeCell ref="R3:AE4"/>
+    <mergeCell ref="AF3:AJ3"/>
+    <mergeCell ref="AK3:AN3"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.3" top="0.53749999999999998" bottom="0.3" header="0.3" footer="0.2"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -19622,232 +19716,232 @@
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:48" ht="12.2" customHeight="1">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="133" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="144" t="s">
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="137" t="s">
         <v>204</v>
       </c>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="144"/>
-      <c r="M1" s="144"/>
-      <c r="N1" s="144"/>
-      <c r="O1" s="144"/>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="144"/>
-      <c r="R1" s="144"/>
-      <c r="S1" s="144"/>
-      <c r="T1" s="144"/>
-      <c r="U1" s="144"/>
-      <c r="V1" s="144"/>
-      <c r="W1" s="144"/>
-      <c r="X1" s="144"/>
-      <c r="Y1" s="144"/>
-      <c r="Z1" s="144"/>
-      <c r="AA1" s="144"/>
-      <c r="AB1" s="144"/>
-      <c r="AC1" s="144"/>
-      <c r="AD1" s="144"/>
-      <c r="AE1" s="144"/>
-      <c r="AF1" s="149" t="s">
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="137"/>
+      <c r="T1" s="137"/>
+      <c r="U1" s="137"/>
+      <c r="V1" s="137"/>
+      <c r="W1" s="137"/>
+      <c r="X1" s="137"/>
+      <c r="Y1" s="137"/>
+      <c r="Z1" s="137"/>
+      <c r="AA1" s="137"/>
+      <c r="AB1" s="137"/>
+      <c r="AC1" s="137"/>
+      <c r="AD1" s="137"/>
+      <c r="AE1" s="137"/>
+      <c r="AF1" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="AG1" s="150"/>
-      <c r="AH1" s="150"/>
-      <c r="AI1" s="150"/>
-      <c r="AJ1" s="150"/>
-      <c r="AK1" s="150"/>
-      <c r="AL1" s="150"/>
-      <c r="AM1" s="150"/>
-      <c r="AN1" s="150"/>
-      <c r="AO1" s="150"/>
-      <c r="AP1" s="150"/>
-      <c r="AQ1" s="150"/>
-      <c r="AR1" s="150"/>
-      <c r="AS1" s="150"/>
-      <c r="AT1" s="150"/>
-      <c r="AU1" s="150"/>
-      <c r="AV1" s="151"/>
+      <c r="AG1" s="143"/>
+      <c r="AH1" s="143"/>
+      <c r="AI1" s="143"/>
+      <c r="AJ1" s="143"/>
+      <c r="AK1" s="143"/>
+      <c r="AL1" s="143"/>
+      <c r="AM1" s="143"/>
+      <c r="AN1" s="143"/>
+      <c r="AO1" s="143"/>
+      <c r="AP1" s="143"/>
+      <c r="AQ1" s="143"/>
+      <c r="AR1" s="143"/>
+      <c r="AS1" s="143"/>
+      <c r="AT1" s="143"/>
+      <c r="AU1" s="143"/>
+      <c r="AV1" s="144"/>
     </row>
     <row r="2" spans="1:48" ht="14.1" customHeight="1">
-      <c r="A2" s="142"/>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="145"/>
-      <c r="O2" s="145"/>
-      <c r="P2" s="145"/>
-      <c r="Q2" s="145"/>
-      <c r="R2" s="145"/>
-      <c r="S2" s="145"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="145"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
-      <c r="Z2" s="145"/>
-      <c r="AA2" s="145"/>
-      <c r="AB2" s="145"/>
-      <c r="AC2" s="145"/>
-      <c r="AD2" s="145"/>
-      <c r="AE2" s="145"/>
-      <c r="AF2" s="146" t="s">
+      <c r="A2" s="135"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="138"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="138"/>
+      <c r="T2" s="138"/>
+      <c r="U2" s="138"/>
+      <c r="V2" s="138"/>
+      <c r="W2" s="138"/>
+      <c r="X2" s="138"/>
+      <c r="Y2" s="138"/>
+      <c r="Z2" s="138"/>
+      <c r="AA2" s="138"/>
+      <c r="AB2" s="138"/>
+      <c r="AC2" s="138"/>
+      <c r="AD2" s="138"/>
+      <c r="AE2" s="138"/>
+      <c r="AF2" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="AG2" s="147"/>
-      <c r="AH2" s="147"/>
-      <c r="AI2" s="147"/>
-      <c r="AJ2" s="147"/>
-      <c r="AK2" s="147"/>
-      <c r="AL2" s="147"/>
-      <c r="AM2" s="147"/>
-      <c r="AN2" s="147"/>
-      <c r="AO2" s="147"/>
-      <c r="AP2" s="147"/>
-      <c r="AQ2" s="147"/>
-      <c r="AR2" s="147"/>
-      <c r="AS2" s="147"/>
-      <c r="AT2" s="147"/>
-      <c r="AU2" s="147"/>
-      <c r="AV2" s="148"/>
+      <c r="AG2" s="140"/>
+      <c r="AH2" s="140"/>
+      <c r="AI2" s="140"/>
+      <c r="AJ2" s="140"/>
+      <c r="AK2" s="140"/>
+      <c r="AL2" s="140"/>
+      <c r="AM2" s="140"/>
+      <c r="AN2" s="140"/>
+      <c r="AO2" s="140"/>
+      <c r="AP2" s="140"/>
+      <c r="AQ2" s="140"/>
+      <c r="AR2" s="140"/>
+      <c r="AS2" s="140"/>
+      <c r="AT2" s="140"/>
+      <c r="AU2" s="140"/>
+      <c r="AV2" s="141"/>
     </row>
     <row r="3" spans="1:48">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="159" t="str">
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="153" t="str">
         <f>Cover!D45</f>
         <v>SCR_003</v>
       </c>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="171" t="s">
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="165" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="166"/>
-      <c r="N3" s="166"/>
-      <c r="O3" s="166"/>
-      <c r="P3" s="166"/>
-      <c r="Q3" s="167"/>
-      <c r="R3" s="153" t="str">
+      <c r="M3" s="160"/>
+      <c r="N3" s="160"/>
+      <c r="O3" s="160"/>
+      <c r="P3" s="160"/>
+      <c r="Q3" s="161"/>
+      <c r="R3" s="147" t="str">
         <f>Cover!L45</f>
         <v>Giao diện quản trị</v>
       </c>
-      <c r="S3" s="154"/>
-      <c r="T3" s="154"/>
-      <c r="U3" s="154"/>
-      <c r="V3" s="154"/>
-      <c r="W3" s="154"/>
-      <c r="X3" s="154"/>
-      <c r="Y3" s="154"/>
-      <c r="Z3" s="154"/>
-      <c r="AA3" s="154"/>
-      <c r="AB3" s="154"/>
-      <c r="AC3" s="154"/>
-      <c r="AD3" s="154"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="139" t="s">
+      <c r="S3" s="148"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="148"/>
+      <c r="V3" s="148"/>
+      <c r="W3" s="148"/>
+      <c r="X3" s="148"/>
+      <c r="Y3" s="148"/>
+      <c r="Z3" s="148"/>
+      <c r="AA3" s="148"/>
+      <c r="AB3" s="148"/>
+      <c r="AC3" s="148"/>
+      <c r="AD3" s="148"/>
+      <c r="AE3" s="149"/>
+      <c r="AF3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="AG3" s="139"/>
-      <c r="AH3" s="139"/>
-      <c r="AI3" s="139"/>
-      <c r="AJ3" s="139"/>
-      <c r="AK3" s="212">
+      <c r="AG3" s="145"/>
+      <c r="AH3" s="145"/>
+      <c r="AI3" s="145"/>
+      <c r="AJ3" s="145"/>
+      <c r="AK3" s="180">
         <v>42781</v>
       </c>
-      <c r="AL3" s="212"/>
-      <c r="AM3" s="212"/>
-      <c r="AN3" s="212"/>
-      <c r="AO3" s="139" t="s">
+      <c r="AL3" s="180"/>
+      <c r="AM3" s="180"/>
+      <c r="AN3" s="180"/>
+      <c r="AO3" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="AP3" s="139"/>
-      <c r="AQ3" s="139"/>
-      <c r="AR3" s="139"/>
-      <c r="AS3" s="173"/>
-      <c r="AT3" s="173"/>
-      <c r="AU3" s="173"/>
-      <c r="AV3" s="174"/>
+      <c r="AP3" s="145"/>
+      <c r="AQ3" s="145"/>
+      <c r="AR3" s="145"/>
+      <c r="AS3" s="167"/>
+      <c r="AT3" s="167"/>
+      <c r="AU3" s="167"/>
+      <c r="AV3" s="168"/>
     </row>
     <row r="4" spans="1:48">
-      <c r="A4" s="168"/>
-      <c r="B4" s="169"/>
-      <c r="C4" s="169"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="162"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163"/>
-      <c r="I4" s="163"/>
-      <c r="J4" s="163"/>
-      <c r="K4" s="164"/>
-      <c r="L4" s="172"/>
-      <c r="M4" s="169"/>
-      <c r="N4" s="169"/>
-      <c r="O4" s="169"/>
-      <c r="P4" s="169"/>
-      <c r="Q4" s="170"/>
-      <c r="R4" s="156"/>
-      <c r="S4" s="157"/>
-      <c r="T4" s="157"/>
-      <c r="U4" s="157"/>
-      <c r="V4" s="157"/>
-      <c r="W4" s="157"/>
-      <c r="X4" s="157"/>
-      <c r="Y4" s="157"/>
-      <c r="Z4" s="157"/>
-      <c r="AA4" s="157"/>
-      <c r="AB4" s="157"/>
-      <c r="AC4" s="157"/>
-      <c r="AD4" s="157"/>
-      <c r="AE4" s="158"/>
-      <c r="AF4" s="175" t="s">
+      <c r="A4" s="162"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="156"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="157"/>
+      <c r="I4" s="157"/>
+      <c r="J4" s="157"/>
+      <c r="K4" s="158"/>
+      <c r="L4" s="166"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="163"/>
+      <c r="O4" s="163"/>
+      <c r="P4" s="163"/>
+      <c r="Q4" s="164"/>
+      <c r="R4" s="150"/>
+      <c r="S4" s="151"/>
+      <c r="T4" s="151"/>
+      <c r="U4" s="151"/>
+      <c r="V4" s="151"/>
+      <c r="W4" s="151"/>
+      <c r="X4" s="151"/>
+      <c r="Y4" s="151"/>
+      <c r="Z4" s="151"/>
+      <c r="AA4" s="151"/>
+      <c r="AB4" s="151"/>
+      <c r="AC4" s="151"/>
+      <c r="AD4" s="151"/>
+      <c r="AE4" s="152"/>
+      <c r="AF4" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="AG4" s="175"/>
-      <c r="AH4" s="175"/>
-      <c r="AI4" s="175"/>
-      <c r="AJ4" s="175"/>
-      <c r="AK4" s="211"/>
-      <c r="AL4" s="211"/>
-      <c r="AM4" s="211"/>
-      <c r="AN4" s="211"/>
-      <c r="AO4" s="175" t="s">
+      <c r="AG4" s="169"/>
+      <c r="AH4" s="169"/>
+      <c r="AI4" s="169"/>
+      <c r="AJ4" s="169"/>
+      <c r="AK4" s="179"/>
+      <c r="AL4" s="179"/>
+      <c r="AM4" s="179"/>
+      <c r="AN4" s="179"/>
+      <c r="AO4" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="AP4" s="175"/>
-      <c r="AQ4" s="175"/>
-      <c r="AR4" s="175"/>
-      <c r="AS4" s="177"/>
-      <c r="AT4" s="177"/>
-      <c r="AU4" s="177"/>
-      <c r="AV4" s="178"/>
+      <c r="AP4" s="169"/>
+      <c r="AQ4" s="169"/>
+      <c r="AR4" s="169"/>
+      <c r="AS4" s="171"/>
+      <c r="AT4" s="171"/>
+      <c r="AU4" s="171"/>
+      <c r="AV4" s="172"/>
     </row>
     <row r="5" spans="1:48">
       <c r="A5" s="17"/>
@@ -21709,48 +21803,48 @@
       <c r="C42" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="133" t="s">
+      <c r="D42" s="173" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="134"/>
-      <c r="F42" s="134"/>
-      <c r="G42" s="134"/>
-      <c r="H42" s="134"/>
-      <c r="I42" s="134"/>
-      <c r="J42" s="134"/>
-      <c r="K42" s="135"/>
-      <c r="L42" s="133" t="s">
+      <c r="E42" s="174"/>
+      <c r="F42" s="174"/>
+      <c r="G42" s="174"/>
+      <c r="H42" s="174"/>
+      <c r="I42" s="174"/>
+      <c r="J42" s="174"/>
+      <c r="K42" s="175"/>
+      <c r="L42" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="M42" s="134"/>
-      <c r="N42" s="134"/>
-      <c r="O42" s="134"/>
-      <c r="P42" s="134"/>
-      <c r="Q42" s="134"/>
-      <c r="R42" s="134"/>
-      <c r="S42" s="134"/>
-      <c r="T42" s="134"/>
-      <c r="U42" s="134"/>
-      <c r="V42" s="134"/>
-      <c r="W42" s="134"/>
-      <c r="X42" s="134"/>
-      <c r="Y42" s="135"/>
-      <c r="Z42" s="133" t="s">
+      <c r="M42" s="174"/>
+      <c r="N42" s="174"/>
+      <c r="O42" s="174"/>
+      <c r="P42" s="174"/>
+      <c r="Q42" s="174"/>
+      <c r="R42" s="174"/>
+      <c r="S42" s="174"/>
+      <c r="T42" s="174"/>
+      <c r="U42" s="174"/>
+      <c r="V42" s="174"/>
+      <c r="W42" s="174"/>
+      <c r="X42" s="174"/>
+      <c r="Y42" s="175"/>
+      <c r="Z42" s="173" t="s">
         <v>20</v>
       </c>
-      <c r="AA42" s="134"/>
-      <c r="AB42" s="134"/>
-      <c r="AC42" s="134"/>
-      <c r="AD42" s="134"/>
-      <c r="AE42" s="134"/>
-      <c r="AF42" s="134"/>
-      <c r="AG42" s="134"/>
-      <c r="AH42" s="134"/>
-      <c r="AI42" s="134"/>
-      <c r="AJ42" s="134"/>
-      <c r="AK42" s="134"/>
-      <c r="AL42" s="134"/>
-      <c r="AM42" s="135"/>
+      <c r="AA42" s="174"/>
+      <c r="AB42" s="174"/>
+      <c r="AC42" s="174"/>
+      <c r="AD42" s="174"/>
+      <c r="AE42" s="174"/>
+      <c r="AF42" s="174"/>
+      <c r="AG42" s="174"/>
+      <c r="AH42" s="174"/>
+      <c r="AI42" s="174"/>
+      <c r="AJ42" s="174"/>
+      <c r="AK42" s="174"/>
+      <c r="AL42" s="174"/>
+      <c r="AM42" s="175"/>
       <c r="AN42" s="15"/>
       <c r="AO42" s="14"/>
       <c r="AP42" s="14"/>
@@ -23272,14 +23366,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="20">
-    <mergeCell ref="D42:K42"/>
-    <mergeCell ref="L42:Y42"/>
-    <mergeCell ref="Z42:AM42"/>
-    <mergeCell ref="Z43:AM43"/>
-    <mergeCell ref="AO3:AR3"/>
-    <mergeCell ref="AF4:AJ4"/>
-    <mergeCell ref="AK4:AN4"/>
-    <mergeCell ref="AO4:AR4"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:AE2"/>
     <mergeCell ref="AF1:AV1"/>
@@ -23292,6 +23378,14 @@
     <mergeCell ref="AK3:AN3"/>
     <mergeCell ref="AS3:AV3"/>
     <mergeCell ref="AS4:AV4"/>
+    <mergeCell ref="D42:K42"/>
+    <mergeCell ref="L42:Y42"/>
+    <mergeCell ref="Z42:AM42"/>
+    <mergeCell ref="Z43:AM43"/>
+    <mergeCell ref="AO3:AR3"/>
+    <mergeCell ref="AF4:AJ4"/>
+    <mergeCell ref="AK4:AN4"/>
+    <mergeCell ref="AO4:AR4"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.3" top="0.53749999999999998" bottom="0.3" header="0.3" footer="0.2"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -23313,232 +23407,232 @@
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:48" ht="12.2" customHeight="1">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="133" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="144" t="s">
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="137" t="s">
         <v>204</v>
       </c>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="144"/>
-      <c r="M1" s="144"/>
-      <c r="N1" s="144"/>
-      <c r="O1" s="144"/>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="144"/>
-      <c r="R1" s="144"/>
-      <c r="S1" s="144"/>
-      <c r="T1" s="144"/>
-      <c r="U1" s="144"/>
-      <c r="V1" s="144"/>
-      <c r="W1" s="144"/>
-      <c r="X1" s="144"/>
-      <c r="Y1" s="144"/>
-      <c r="Z1" s="144"/>
-      <c r="AA1" s="144"/>
-      <c r="AB1" s="144"/>
-      <c r="AC1" s="144"/>
-      <c r="AD1" s="144"/>
-      <c r="AE1" s="144"/>
-      <c r="AF1" s="149" t="s">
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="137"/>
+      <c r="T1" s="137"/>
+      <c r="U1" s="137"/>
+      <c r="V1" s="137"/>
+      <c r="W1" s="137"/>
+      <c r="X1" s="137"/>
+      <c r="Y1" s="137"/>
+      <c r="Z1" s="137"/>
+      <c r="AA1" s="137"/>
+      <c r="AB1" s="137"/>
+      <c r="AC1" s="137"/>
+      <c r="AD1" s="137"/>
+      <c r="AE1" s="137"/>
+      <c r="AF1" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="AG1" s="150"/>
-      <c r="AH1" s="150"/>
-      <c r="AI1" s="150"/>
-      <c r="AJ1" s="150"/>
-      <c r="AK1" s="150"/>
-      <c r="AL1" s="150"/>
-      <c r="AM1" s="150"/>
-      <c r="AN1" s="150"/>
-      <c r="AO1" s="150"/>
-      <c r="AP1" s="150"/>
-      <c r="AQ1" s="150"/>
-      <c r="AR1" s="150"/>
-      <c r="AS1" s="150"/>
-      <c r="AT1" s="150"/>
-      <c r="AU1" s="150"/>
-      <c r="AV1" s="151"/>
+      <c r="AG1" s="143"/>
+      <c r="AH1" s="143"/>
+      <c r="AI1" s="143"/>
+      <c r="AJ1" s="143"/>
+      <c r="AK1" s="143"/>
+      <c r="AL1" s="143"/>
+      <c r="AM1" s="143"/>
+      <c r="AN1" s="143"/>
+      <c r="AO1" s="143"/>
+      <c r="AP1" s="143"/>
+      <c r="AQ1" s="143"/>
+      <c r="AR1" s="143"/>
+      <c r="AS1" s="143"/>
+      <c r="AT1" s="143"/>
+      <c r="AU1" s="143"/>
+      <c r="AV1" s="144"/>
     </row>
     <row r="2" spans="1:48" ht="14.1" customHeight="1">
-      <c r="A2" s="142"/>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="145"/>
-      <c r="O2" s="145"/>
-      <c r="P2" s="145"/>
-      <c r="Q2" s="145"/>
-      <c r="R2" s="145"/>
-      <c r="S2" s="145"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="145"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
-      <c r="Z2" s="145"/>
-      <c r="AA2" s="145"/>
-      <c r="AB2" s="145"/>
-      <c r="AC2" s="145"/>
-      <c r="AD2" s="145"/>
-      <c r="AE2" s="145"/>
-      <c r="AF2" s="146" t="s">
+      <c r="A2" s="135"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="138"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="138"/>
+      <c r="T2" s="138"/>
+      <c r="U2" s="138"/>
+      <c r="V2" s="138"/>
+      <c r="W2" s="138"/>
+      <c r="X2" s="138"/>
+      <c r="Y2" s="138"/>
+      <c r="Z2" s="138"/>
+      <c r="AA2" s="138"/>
+      <c r="AB2" s="138"/>
+      <c r="AC2" s="138"/>
+      <c r="AD2" s="138"/>
+      <c r="AE2" s="138"/>
+      <c r="AF2" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="AG2" s="147"/>
-      <c r="AH2" s="147"/>
-      <c r="AI2" s="147"/>
-      <c r="AJ2" s="147"/>
-      <c r="AK2" s="147"/>
-      <c r="AL2" s="147"/>
-      <c r="AM2" s="147"/>
-      <c r="AN2" s="147"/>
-      <c r="AO2" s="147"/>
-      <c r="AP2" s="147"/>
-      <c r="AQ2" s="147"/>
-      <c r="AR2" s="147"/>
-      <c r="AS2" s="147"/>
-      <c r="AT2" s="147"/>
-      <c r="AU2" s="147"/>
-      <c r="AV2" s="148"/>
+      <c r="AG2" s="140"/>
+      <c r="AH2" s="140"/>
+      <c r="AI2" s="140"/>
+      <c r="AJ2" s="140"/>
+      <c r="AK2" s="140"/>
+      <c r="AL2" s="140"/>
+      <c r="AM2" s="140"/>
+      <c r="AN2" s="140"/>
+      <c r="AO2" s="140"/>
+      <c r="AP2" s="140"/>
+      <c r="AQ2" s="140"/>
+      <c r="AR2" s="140"/>
+      <c r="AS2" s="140"/>
+      <c r="AT2" s="140"/>
+      <c r="AU2" s="140"/>
+      <c r="AV2" s="141"/>
     </row>
     <row r="3" spans="1:48">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="159" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="153" t="str">
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="147" t="str">
         <f>Cover!D43</f>
         <v>SCR_001</v>
       </c>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="171" t="s">
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="165" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="166"/>
-      <c r="N3" s="166"/>
-      <c r="O3" s="166"/>
-      <c r="P3" s="166"/>
-      <c r="Q3" s="167"/>
-      <c r="R3" s="153" t="str">
+      <c r="M3" s="160"/>
+      <c r="N3" s="160"/>
+      <c r="O3" s="160"/>
+      <c r="P3" s="160"/>
+      <c r="Q3" s="161"/>
+      <c r="R3" s="147" t="str">
         <f>Cover!L43</f>
         <v>Giao diện chính</v>
       </c>
-      <c r="S3" s="154"/>
-      <c r="T3" s="154"/>
-      <c r="U3" s="154"/>
-      <c r="V3" s="154"/>
-      <c r="W3" s="154"/>
-      <c r="X3" s="154"/>
-      <c r="Y3" s="154"/>
-      <c r="Z3" s="154"/>
-      <c r="AA3" s="154"/>
-      <c r="AB3" s="154"/>
-      <c r="AC3" s="154"/>
-      <c r="AD3" s="154"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="139" t="s">
+      <c r="S3" s="148"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="148"/>
+      <c r="V3" s="148"/>
+      <c r="W3" s="148"/>
+      <c r="X3" s="148"/>
+      <c r="Y3" s="148"/>
+      <c r="Z3" s="148"/>
+      <c r="AA3" s="148"/>
+      <c r="AB3" s="148"/>
+      <c r="AC3" s="148"/>
+      <c r="AD3" s="148"/>
+      <c r="AE3" s="149"/>
+      <c r="AF3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="AG3" s="139"/>
-      <c r="AH3" s="139"/>
-      <c r="AI3" s="139"/>
-      <c r="AJ3" s="139"/>
-      <c r="AK3" s="212">
+      <c r="AG3" s="145"/>
+      <c r="AH3" s="145"/>
+      <c r="AI3" s="145"/>
+      <c r="AJ3" s="145"/>
+      <c r="AK3" s="180">
         <v>42781</v>
       </c>
-      <c r="AL3" s="212"/>
-      <c r="AM3" s="212"/>
-      <c r="AN3" s="212"/>
-      <c r="AO3" s="139" t="s">
+      <c r="AL3" s="180"/>
+      <c r="AM3" s="180"/>
+      <c r="AN3" s="180"/>
+      <c r="AO3" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="AP3" s="139"/>
-      <c r="AQ3" s="139"/>
-      <c r="AR3" s="139"/>
-      <c r="AS3" s="173"/>
-      <c r="AT3" s="173"/>
-      <c r="AU3" s="173"/>
-      <c r="AV3" s="174"/>
+      <c r="AP3" s="145"/>
+      <c r="AQ3" s="145"/>
+      <c r="AR3" s="145"/>
+      <c r="AS3" s="167"/>
+      <c r="AT3" s="167"/>
+      <c r="AU3" s="167"/>
+      <c r="AV3" s="168"/>
     </row>
     <row r="4" spans="1:48">
-      <c r="A4" s="168"/>
-      <c r="B4" s="169"/>
-      <c r="C4" s="169"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="157"/>
-      <c r="H4" s="157"/>
-      <c r="I4" s="157"/>
-      <c r="J4" s="157"/>
-      <c r="K4" s="158"/>
-      <c r="L4" s="172"/>
-      <c r="M4" s="169"/>
-      <c r="N4" s="169"/>
-      <c r="O4" s="169"/>
-      <c r="P4" s="169"/>
-      <c r="Q4" s="170"/>
-      <c r="R4" s="156"/>
-      <c r="S4" s="157"/>
-      <c r="T4" s="157"/>
-      <c r="U4" s="157"/>
-      <c r="V4" s="157"/>
-      <c r="W4" s="157"/>
-      <c r="X4" s="157"/>
-      <c r="Y4" s="157"/>
-      <c r="Z4" s="157"/>
-      <c r="AA4" s="157"/>
-      <c r="AB4" s="157"/>
-      <c r="AC4" s="157"/>
-      <c r="AD4" s="157"/>
-      <c r="AE4" s="158"/>
-      <c r="AF4" s="175" t="s">
+      <c r="A4" s="162"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="152"/>
+      <c r="L4" s="166"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="163"/>
+      <c r="O4" s="163"/>
+      <c r="P4" s="163"/>
+      <c r="Q4" s="164"/>
+      <c r="R4" s="150"/>
+      <c r="S4" s="151"/>
+      <c r="T4" s="151"/>
+      <c r="U4" s="151"/>
+      <c r="V4" s="151"/>
+      <c r="W4" s="151"/>
+      <c r="X4" s="151"/>
+      <c r="Y4" s="151"/>
+      <c r="Z4" s="151"/>
+      <c r="AA4" s="151"/>
+      <c r="AB4" s="151"/>
+      <c r="AC4" s="151"/>
+      <c r="AD4" s="151"/>
+      <c r="AE4" s="152"/>
+      <c r="AF4" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="AG4" s="175"/>
-      <c r="AH4" s="175"/>
-      <c r="AI4" s="175"/>
-      <c r="AJ4" s="175"/>
-      <c r="AK4" s="211"/>
-      <c r="AL4" s="211"/>
-      <c r="AM4" s="211"/>
-      <c r="AN4" s="211"/>
-      <c r="AO4" s="175" t="s">
+      <c r="AG4" s="169"/>
+      <c r="AH4" s="169"/>
+      <c r="AI4" s="169"/>
+      <c r="AJ4" s="169"/>
+      <c r="AK4" s="179"/>
+      <c r="AL4" s="179"/>
+      <c r="AM4" s="179"/>
+      <c r="AN4" s="179"/>
+      <c r="AO4" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="AP4" s="175"/>
-      <c r="AQ4" s="175"/>
-      <c r="AR4" s="175"/>
-      <c r="AS4" s="177"/>
-      <c r="AT4" s="177"/>
-      <c r="AU4" s="177"/>
-      <c r="AV4" s="178"/>
+      <c r="AP4" s="169"/>
+      <c r="AQ4" s="169"/>
+      <c r="AR4" s="169"/>
+      <c r="AS4" s="171"/>
+      <c r="AT4" s="171"/>
+      <c r="AU4" s="171"/>
+      <c r="AV4" s="172"/>
     </row>
     <row r="5" spans="1:48">
       <c r="A5" s="17"/>
